--- a/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
+++ b/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8AD2A2-23F3-4E3C-874B-3502235A4CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D4E93-43A2-4791-9CDF-5368BD248838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{225F6CCB-45F1-4943-BB05-93453F413104}"/>
   </bookViews>
@@ -9114,8 +9114,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1063" sqref="F1063"/>
+    <sheetView tabSelected="1" topLeftCell="A1044" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
+++ b/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F76E2FA-2D67-4CB5-A823-7C97DC567AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4080160-A819-4440-ABC8-98B209BFC0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE5BFC69-1F06-4553-8F9A-90A8F1B638CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30C68EE5-1FCE-4639-8A3E-E456868EB98B}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_fondo con todas las fu" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1099">
   <si>
     <t>Fecha</t>
   </si>
@@ -2404,7 +2404,7 @@
     <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNWUdFMVVpeTRNT2J0Zkpua2owbG16X1RvblhkU1R4Uy15blQ0Sk1RcEZBbDJPMjlRV09MTDJvcmtXSlNibmV5bm4tUEFuMHc1MnY1OUVJZUZ3TlZzejlySVhyaERpV01wOG84X2tKMVFWdXI0ZVo4Mm93OUszSzhEQmxBMnE2T2pBY3h0VWswalBadXl6S2kyYUJjQUgweVpOaW9Wajk5RWM5d2xyeHBJS0JB0gG3AUFVX3lxTE5ZMWlfR0FfaVRxa2p0TUhHdVUwYW1oRmJaTjRJbWJsZE1uQ1lmd05wTTdRTDdrUGlwTC15VVFIVGRDd1JnYTA4cEFla1JiMmwxb25vWksxTjJ1Z1JHcTB2ZF9wYWw2cGNRVlZoWjdvSG1Yb3Z2Ym9JaS1nc2FOajdZUzhONGhZQ25iUlRvMFJ5eUVkQkJKUDZrV08yX3I1ZUswRDBqcjdaMDBjZzMta0FOZXBpQ0RKZw?oc=5</t>
   </si>
   <si>
-    <t>Más de 200 CEO de EU piden quitar aranceles a México y Canadá</t>
+    <t>Más de 200 CEO de Estados Unidos piden quitar aranceles a México y Canadá</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNQVNWblE3dTB5WHJ6SnUyS196cE9yd1lvaHFVOUFYMXNEeHdvS3VJT2VJck9FaXJpUFZQRHhjR3dwb1ZLcVJ6QXJlY3Y5dlNnUlZCQlRRNGdpMEpWQ2x6OW92bWF2QTF4cm9CZF9tUkJNRWNoVHVNWmV0MmhCVjd3Zm1LZG4yal9rNlVEcmpYbmxpRDZ6Wk9XY2tlcENvMlc4ZFVaeldCTTlsM09UTWfSAbMBQVVfeXFMTlNvSHNrZndkWjg4MGN5ZWVpZWhmaGFTX28zcHlJMGk2enBCZ2EwcFZ2aC1XRGRCVkozekNDaE52TmlKcWlydlJCcHBxYkFINW1hUzFVeWs2cEg4aEQyWnJuc0RLWDhhZ1NJZVB3aTZNa3lkUEowUENVOGZMWnBVc0FvNUQtUjRGM3h3WDlNUFZ2dDAwdFFCQ2d1LVNiQXhOUzltZXA2YU9FbzlzcFppbVNOUnM?oc=5</t>
@@ -2660,6 +2660,663 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNczVFODlzTnkzZ0JNVHd6bXdsZ2NtWk9QOUxDazQtQktaRTBqR0FwRDV1QVk5aDVZUFlLaC10UnQ2bWtYNFdhOS04ZGVad1ZrdU5HRmFPRklPMk9IV3hKQTlnWFpWNXlsYUg4TGNyZkRtSWRaZjVxYW5XOG16dlJfeHQ3OER1cHNfM0RHTUZwc0VDUU1yUzFVcllrTHA2WGpDdXBTYkc0b0hzVVIxM2c?oc=5</t>
+  </si>
+  <si>
+    <t>Ocupación de naves industriales cae 30% en la frontera norte de México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQVzdSMVhYV3FRMGJPQWh2aXZ6WWkybTBrQktrWGJ4ek9TYUhUbUdKSXhfc2tjSlpHV2tzZ1hpekc2YURHVklMSngwc1FIc3VkZWt0UklyX084NXlDODhCMlJ6NW43RGJDNW4ycmMtcVpMS1Z0cTFFekdQLTVfYmJRUXhnM3VxTjlucDlHQUxoMXJQbHdxRXlCb05iNENaM3kyOGpFQktzV3FwNFM4Qi1ZZnhNcXVrYUVXdlFINksxeHPSAcYBQVVfeXFMUGpXaXNGeFh0QUx3a0VlbkE3UHlIdFRaR0ljV3E1VHBwdjUwTUdDYTNWQVZLVmN2UkNINk9INVJMdWthMnFzMmIxWG9scElpY2gyXzJHMlZSUjdyTXk5RktVTG1xSFN3V2Ztb1VsMUVxR0Y0WE5vN1FLNGhoLVpYWEZtdW5XSEhHdElCdTdKQU13WVRmRmFFZ3JwVERMYUxCQ25xWjBJeERGTHBkY2g0Y0J3MTNLM1dReHU1cFBDMmo5Q2xpUTZn?oc=5</t>
+  </si>
+  <si>
+    <t>Naves industriales</t>
+  </si>
+  <si>
+    <t>['industriales', 'norte']</t>
+  </si>
+  <si>
+    <t>Corte Suprema de EU no detendrá los aranceles de Trump; 'llegaron para quedarse': Bessent</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQaHppTHF4ejc5eG43RlVBb19HdXU5YkJtaU4zMWhyRzRtUENaUnA2bXZkX3NWdERZaHNJNEdLUlJ5U0lvbkFJakRWck93enNNUDJRbmlXcEhKdU4weG9qejRfNmdPX3d0c1ZaR0FQUzUxY2c0QjUyQm9UZlE0bTdKTnE3QU52ODBFa2FkOHlvOTJHOVZvZHFwb01tY1Ntd1owU3gwdlFZalFxNzZT?oc=5</t>
+  </si>
+  <si>
+    <t>Judicial, Economía, Exterior</t>
+  </si>
+  <si>
+    <t>Impacta arancel a camiones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOcjU3NC1ieUxDeTZhTkhWbzVwR0kxdHJjUXQxRENIUWdVUlI1Y0gtSDlZQnZOZnlRXzl2S21EQXM4SXg5QTN6Z3FrSWp5MkRQc3k4alhFVTlNc2laSEZ3V29NS2kyeHJFUEEwME5YMFlrYXVsT09yc1ZTeWFFU2pDRHhpQlNmbUdJNXlaZzBkTW5vanZoUEJUa9IBngFBVV95cUxQWTdtdHczN0s3Wm5MYWlJZjNVeFQ0dXFpeUNvOFY0enVDcUFwLW93YWxJQk9YNmxOcmJuUGRzaDhZT3Vic0FiU1NxT191dUlLMDJLTWw5NU9tbnRKRjE4eDk3R3FRdmp2WEZxcTVzQUFxeWJ6VXhQV0U2Ym82Sld1eEtRTFFIT0I5QW5NM3FlYnVhdkpyeS11cUJOY3h1Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Grandes economías manufactureras sufren el impacto de los aranceles de EU en sus carteras de pedidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQUnVDV0UzYnh2c25GS2otWUJnQ0RoVUdWWnZtZ0lCNnFVZ2w1NHlWcUtTdEs3ckFOTzBpaFhKYnhhNHdQV3p2R24zcGMyS2JtcTlIV2xBZ0JURDRpRmFyNHVmd1RBSVRXYXRBeHJobTBjNFVVOXRScTJCN1ZnQ2dCbjUwV1Z3bWI4Z0lsRVlrQ0M0aUxmc2lqTnlrOXMtNGFUX3dtM2ROZHd1T0NmNnZBSHBwWUrSAcIBQVVfeXFMTjlVVUY2ZnBJVlROeXNMeVJONHVrNVlZOHhZNlZNOXZsRm1Gc084aHljbktiYnlCNnFFM0Ffd25XQS02anR4ZjJRNk5LdjlWWkZ0cFEzZ00tRW5kZVowdEVtZ3JxSDIySUVVeW5lNzVRWGI0ay0yRzJWb1RjemZXUVpPcG5FWThPblZiaHVGbldERUJ3Zm54X3EtOVZGbzlyeWVNTmV5YzV0WTVJT0dveWRkMDFxMXVDcmZyWVJ6eFdKM0E?oc=5</t>
+  </si>
+  <si>
+    <t>['Grandes', 'manufactureras']</t>
+  </si>
+  <si>
+    <t>Economía, Exterior</t>
+  </si>
+  <si>
+    <t>Norteamérica enfría su crecimiento bajo el peso arancelario</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOUU5mbFF3TVpYRXc1ZENURFJhOHU2ZFFEeFByZGM4ZDNob09wRVNRakFGMEVnUVNEelFIbkFwLWd6ZnFkYkVFNW9sNkRQS0N6QllMZmkwSzRQdnhLY0tVenV4eVpocTlac1I3VlB2VE9ZejhCVmhEdE5VRmRNRmpiUE1vTzBqRG1TcVpITXY2NlpZVzBzX0FmRnlueEk3czNyeXZQd9IBsgFBVV95cUxNOUZRaGY0YjNTUEZscWNZbENEbTVoS2RGcUlMREtlX0NKS08tendCTHpFd0JKNlJJOG1TS3dTcS02dnJiVGtwaF9maUM3Skk1SWhpdzI2eFJjTVAyMEtISzBvOVY2U3hBVGpYakJQeW1MZWxXTjVKT2FyMDZTT3JFSmdRSVZFRlZOVWtQbUg4ZGd4MWxXRG1ZbGdTNnZBSTc4a0JlTXFWajFPeGtCR2JManNn?oc=5</t>
+  </si>
+  <si>
+    <t>['arancelario']</t>
+  </si>
+  <si>
+    <t>crecimiento, arancel</t>
+  </si>
+  <si>
+    <t>¿Santa Claus sin regalos? Los aranceles a China amenazan con dejar los estantes vacíos esta Navidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxQZHlYWDBPd2lKbUhESkNhVU40OXN2MWpYQm1LUW4zV1dfQzlZNTRhby14QUhaUGdtRmtjSUxXcnVRMEMzbDJDQl9MYXNiLXA0Wm5hZU9SNlFiOTNobGk3cHItdXhaWFdUaVpJalVWelEyQWFoNWpUVVpzOTNhUld4SUs4bmd2TV9RTUh3SFV4SFlFU29NZGFwYVpLV3Z2cXYxRjFIdjY5d3N4QzYxeGNfWllXN1JIUG94cVR1S0xpLTU5UFJNRkV4eDZ1ckE2d9IBzgFBVV95cUxQZHlYWDBPd2lKbUhESkNhVU40OXN2MWpYQm1LUW4zV1dfQzlZNTRhby14QUhaUGdtRmtjSUxXcnVRMEMzbDJDQl9MYXNiLXA0Wm5hZU9SNlFiOTNobGk3cHItdXhaWFdUaVpJalVWelEyQWFoNWpUVVpzOTNhUld4SUs4bmd2TV9RTUh3SFV4SFlFU29NZGFwYVpLV3Z2cXYxRjFIdjY5d3N4QzYxeGNfWllXN1JIUG94cVR1S0xpLTU5UFJNRkV4eDZ1ckE2dw?oc=5</t>
+  </si>
+  <si>
+    <t>mvsnoticias.com</t>
+  </si>
+  <si>
+    <t>['vacíos']</t>
+  </si>
+  <si>
+    <t>Estiman 15,000 despidos en Brasil por aranceles de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQNmxnNm9JTmVNNUU3QWpNV1hlSU96d004Q3k2bzkyeHV6LS1FeXl2RnVIUnNjVjJLeUpGVldfZGxld1hoemVqMVBDeDdUUy13SmZjQkJlLV9HT0dUUU54ZEVOcENFMlk1Ui1OQ3dHbzBxekFIdU1kVkRlSlJiVUcxc2JoYkgzU1ViTVh6QkpiSmVvb2NRbkRDYUJGOXFkUXlEWlJPTFFQRjNJczNu0gGyAUFVX3lxTFAyYjZLeHpDSXhsUzlmdFJ6MVRFN0NZMU9zcHUyNHFiWHFhQmU3M2FoWWFBZ0F4dnBLRGpRY3U2M3cwTGhmSHVIX0NJRlJpcDZzUVJaZ1dZMXVmU2lnU2MzZUFpNE1GQXVBeXhsUTh2WFZVSTl4ZXBWUDRhT1Z1ZlhXd2FyU1pXMmhTZ3V6ZWRZNGgwbDN6WTZ5NUswWFUtZWFzSG9VZ3FoeEt2bEphUzduNUE?oc=5</t>
+  </si>
+  <si>
+    <t>Grandes economías manufactureras sufren el impacto de los aranceles EU en sus carteras de pedidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPT2IyWXhDdTZZZTA4Y01oOXM0bGRESXlIWW93QUQybVc4cVVVV0g2cmVLTlU5NnRUME1UdE5XWkhGQm8zaWFVVUg2Qk1kU3l6UXVzX2VUR3dMQnV4UjNsOUhESXpFaFBONkp3OVNQWjlCVEtibktMVDUwd2RXNnpWbVdBc2Nkbm4xcU4xN2otNjdwcWlpakREREp2Z0c4VU05Y2ljRXoxTmVIdXNLRXBJcjd6THE1ZG40N1A5ZVVIdkFuOUtIUXpsU19tdjJZUS1OUWZvRXkxNGsxZ21OX2NV0gHkAUFVX3lxTE5Kd0x3Q3BnRmwzd2ZUQUdFQjFUMHRGNmg0blZUMTZPTTZXeU5Ibk5MeWFtcXpSTmgtTGFGUi11VUdWRkJuZWE3d2ozOF9xOWd5Ym5KX2lGRUdoX3pDdnhQREtLUEtFWWppejBhd1BUMWV3NlVsTU1JOGtIUjNFUkoza043N2t5dUtkNnhHZFZneFZ6cHdqUi0zWk1lUDgxMW9Vd3VnX0Fqb2x6U3pXeDRoNGYzM0ZhNW85RGtaNExaNVpzX3FHWUZJMFR4OExpSWhERWl6NnBxbW1RRVd3OERrTVVPTw?oc=5</t>
+  </si>
+  <si>
+    <t>En vigor, aranceles a camiones y autobuses: ANPACT</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxNNjFIWWVBZDVTd2NJWGpQZUxoamg2Y2FrUHhfNUFkeTZuQXI3OWh6U2Y4M0ZtMmhWRXZLYUtVQWJ1bVk1V3ZzajQyMmlWT2liYXFORmZNZWZweTRjbWVmMWlocG1FR0NmYzBSVzVNRm84Nk9zTEpHTTAzTHJLMHN4LXBuWUFTeUw2V3BxMUxqSDhkT2PSAZgBQVVfeXFMTXVTaDNsZlhjejRtUVFNQTNwb09wWEVtY2RDMTZULU1DQUFNdlpQcFZodlRud1pDZklsUjRoczJZUmhJM05jYmkwSEwtY1o2akVUMmdwb3VZZUVuT0FCQXNEOEJ1emxyNXhnM2R6LUZFcU4zWWtuQ1Bxa2ZMUkhqa0pta01BcmlKV3pOZ0pMZ3NBdTZ6TENLZlI?oc=5</t>
+  </si>
+  <si>
+    <t>Los aranceles, el arma suprema de Trump, a juicio ante la Corte Suprema</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPU2dhTDA5NTVsSzI0MkNZRmNMaUVHaHFMVDRKOTlROFNGanVYLXItSFdaUnQzTVRuWElDUzNhTW5CU3hiR1ptRWR2UnFVUWY0dW5BQkN3bUdHc1FVNjVVNEpWY0YzUzRrWjBfX2xsQjlZeEo0c2ttSlZvRkhUaGlJaUNReFllMzk1ZGNhejBsZ2U4UkpEblRWZ0J6TXVwMmpTRUZuR9IBpAFBVV95cUxPU2dhTDA5NTVsSzI0MkNZRmNMaUVHaHFMVDRKOTlROFNGanVYLXItSFdaUnQzTVRuWElDUzNhTW5CU3hiR1ptRWR2UnFVUWY0dW5BQkN3bUdHc1FVNjVVNEpWY0YzUzRrWjBfX2xsQjlZeEo0c2ttSlZvRkhUaGlJaUNReFllMzk1ZGNhejBsZ2U4UkpEblRWZ0J6TXVwMmpTRUZuRw?oc=5</t>
+  </si>
+  <si>
+    <t>['suprema']</t>
+  </si>
+  <si>
+    <t>aranceles, arancel, arma</t>
+  </si>
+  <si>
+    <t>Judicial, Economía, Seguridad, Exterior</t>
+  </si>
+  <si>
+    <t>Donald Trump ‘se pandea’: No irá a audiencia sobre aranceles; secretario del Tesoro confirma asistencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxORW1IUFFwZkt2cUxGWHhLSXNRNnJ0ZE9GNTloNV95aGtMVkNxblp1MkVHUTdocFZUVWxZdndGS3ZRV0ZRSG8xX1lmSy1XSUhKRzVud09yOEZsSDd3WDNEem5EUXU1RWE0MjRqSXRVQVA4NnVSOTV6aVNOS243VUZpQi1rNUhVTlh4T0RZYm4tT0pLN1FZeERvd0NHZE9TNThNM1NvVnVuMVQ1aWFVaDVFbmdsYTZKelhPeEpwM3ZEX3lwSGJNYnVJbmNVazd6ZVZwQlJHUFlCakY4Q2JmV1Exc1RIUlJzTGdRcWVNbzhJRmtmYzFq?oc=5</t>
+  </si>
+  <si>
+    <t>China ‘amenaza’ a Trump: Exige que no se meta en estos 4 temas para que la tregua de aranceles continúe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxOWnJUcVFfZ0F5aUM0alZkUjF5YVlSLWg5UmJxby10YWhNdzhrM0ZOMk1ZeFFjT0pvN3F2UTczb3BRYzNNUGU5YkZ0RkdHSlVLNlNUMVU5blRsLVdKQkotaFFaZ2NWN3VpVWlmeFpXcTBUbVk3c0hrd0xOQjBxNVI0UHByTDJNRG9paUZheU1zM3pHcnBVTnduLWprRHVuSEViZ0doYUdNU3p2MV84Zkg1WHR3b1BrZ2NiM3JMb2xnLTRoaHNCRUxmTzYwQ3lOSTFpclRoVVRQa2tCWDBPYy1TcTZaV3k?oc=5</t>
+  </si>
+  <si>
+    <t>La Corte Suprema debatirá si decirle ‘no’ a Trump y sus aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxQMmZtaEJidmRGeUczNG40R3RSUlgxdXZIRnd2MF9xSzhPYTNCaXFpRGFxWEx3UnBIZERPZVFDdHZab2ZPeXhRMndUZVFtVExyMHl3OG04U3k1cUFlSFg0eVBuS3Rjako4eUk5d0U4UlF5RjU4b3pMYzVjdjVxUE1zak1od2lwWVZNMXJhQmY2VEQ1MlNWTk1Wd0hTTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Fibra Inn internaliza la operación de 28 hoteles y fortalece su modelo de gestión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxQNmVWQUNTd0NWSkh6bjZaUTRnRmZycnFsVHBoaGRHcFFlaHRoend4TE5VSFZkMUo4WWtxSWtvRGtQMlBtYV8xMmphdkRFQUdmckcxT1RsRHZ4bjFMdDVkNHpQRVlpaml3QWdwZEEzdHZZQ0FfTHZzNmF0dkpHeDczeVJLbkNoMHZ0UkdkM2FYaFdvOGZiaXM5UjVEMGU1aFBBamp3bzlEMTV1OFJwN2szTllVMDhPQVRETmo0WXdKS0lkZzBnb2U2c1hkR3g2SjltUzhUQzJTMlA2YTcxRThLeldsVQ?oc=5</t>
+  </si>
+  <si>
+    <t>fortalece</t>
+  </si>
+  <si>
+    <t>Mercado industrial de la CDMX cierra el tercer trimsetre con cifras históricas: CBRE</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE5qY0NpVTVPUnFxeXdzNjhnTkl3dHJMVnY1bzdrZjZsYXkyUGRDb3JUS3JJN0xfdUhhMUJFOU5WNmpWWkluUktRMzMwM2NpVmxteWFYZUwxRUZlR1h0RTZHYjFVZWlTWUxlTndEeVBn?oc=5</t>
+  </si>
+  <si>
+    <t>Mercado industrial</t>
+  </si>
+  <si>
+    <t>['industrial', 'históricas']</t>
+  </si>
+  <si>
+    <t>Fusión entre Kimberly-Clark y Kenvue pone la mira en México, será su segundo mayor mercado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNY0FVc0lmdG5lQ0tKd0dCTDdyUndQUWl6SS1RWTF3ZDFYMm54OV85ZUY2LVJjcHBUS3pic1dYNGhyMl9IakdkWkVLVjNoeW5OZ3prMTIzdkhZU1FLQlhzNWhFUHNxbVQzQm13OU9TWTFBUWFkVndweHFfY2dNdmVNMXRTWnhlLUNCRGNkNlFzMEdRTlpoenpUNkh3eFBNaThUeXlIblpLNWxRMzdGMW5BOTFiQVZraUV3OEtIS25uMEJ5Y0sxRklmLUpoMWc4dml2ZGpMekg5RmZRd9IB7gFBVV95cUxQcDBlLXNzTEFTWFFfNlY1dUVVc2JTcE5CazVVM3Y5d21YSkhsOG5UMlJSb2Y2TmNUbUtCU2hqdFJRU1dtWEpRUTdzZU9tZy1JdG00TTBXYTB5RWgyVmlkUERfbk1WMENLd1lfaVktamo3Vm9pcEZ1dWVpZkNqTnlsN21LZ1NwY1JKZndPZm9CeVQ2ek91Zkt4S1RaQnE5YVVsOUZIUjF2QlJmOTZKNzRfLV9aQUJxTmdycEFWSUdLeWw4cG51MU5Dc1ZyWnRzYlAzRHZja1ZUd2VDR3YxWWs5M0VUUlpPOTR3VUxDamVR?oc=5</t>
+  </si>
+  <si>
+    <t>['segundo', 'mayor']</t>
+  </si>
+  <si>
+    <t>Apple no se quiere quedar atrás y no descarta fusiones con empresas de Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxOUWNDcHlGQTh3Y3dWdUc0cldIbFFjQnR5aXJKS2J3SlBtV0xUNnVxdDB0U2ZFR1lxY1lfSnZBZHJTRk5SeWxZZUw1UHgyZlFscmdBTmRybHJ1dk8xT3h1Tm05UEZYNGhnNVJ0cjJxNWJ2YW44UWxnY1ZGc2Etb3pYSmZDZW54NllDZC1Fd3JR0gGbAUFVX3lxTE0zZUp6b2hKRnR0NzB0R2p0cXF5by14Nlg2N2lfV01QMWY5cDJob0lHTnFxZEN1M2Y0SXd0Ykt2c1FrMXNEeHJYbUZIRTJWTlJqazF0VzhQbEItMHBVdF82aGJLRllGU1lQbUZLV3hNN3RNRkdmOFZwSEpLb3cyUk1YaVJNZXZQUXgxRkNtQ3FIaE1vWkFwdGRNNXA4?oc=5</t>
+  </si>
+  <si>
+    <t>Kimberly-Clark y Starbucks impulsan las fusiones y adquisiciones hacia los US$4 billones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxNYlQ1eVJiOUk0bWV4SC1PQmt6RGxkX3ZjblJtdEtoUllHSE5BRmxRenF3RUVhV0pjSzlqOGVIc3ZMNmxkWXhhR3VjS2h4b2R4Y1ljX3RpTFlqVXk3U25uVHVYT2NMUnpEUlRuZWhRSkdYdGpTMUpnNlZkMTlfLV9SeXhoaWtSUExWU202Sk5MOTlsNDgxdE91VzI0aGNrZWlnNHU2OEt4akxzVHRjd2VWY1VtNlNMNV9YUC1GaTl4WGtVc0FScGNJ0gHbAUFVX3lxTFA0S1V5YW1ZaDdmbUlmSTBCYlZpZ2lGc2staUo0YWdHbEVsVzVkQTNHaU1TbU9oSTVUUUlIRWlqN0VudFpma0U5TE9LNjZKMEJmVEpJTThGbWpHX0pWMnJfemdycmdMRHpEUWJiODZ3RmVNbDFJT05Fcks4Z3NkcktPc3JtSFI2SDEwS01zeXFGZUhLUWxQcndaVXZGdTQtaHlCbDhEZTd5V2FSS1JhMEhQREh0UXN1QTBmOWRSdkpERmFsRHpJUFp0eTRoUnBieGk2UkIxTTBtcHdFQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Coparmex en Puebla considera que el 2025 es un año complicado para la industria automotriz</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQVVVyYUYtYVZBOXVFUXZOS1gwV2k3eE9GYm1aajVPc3c2NWFXdnVCcWt4R0NRd29LUzBqYm93RUxSNFlMWFdOekpXc3ltTWlJUzY1WmQ0WWUtSVV6Z0NCMlRTajhaRlFjNjN3Rlo3M3hadFcycE1Jbk1USkdac1JPdW05RDVfTU5EUkMxVTJBMUpqcUR0UUoyZi1hc3dNY0tPVW5VQkVHMUdlRFdqcEtlRHd1NHhoZElpa3ZRMEs5RHRxRS1KYlHSAcsBQVVfeXFMTkJNSXk0dDdMelhGVG9KU2NaeEJoVFR0M2dKMGRNRVRRNFVSRnRUVGxjZFJ4Zkp3eDdtZDdRVS1JZXY4ZnRlX2FvczJLNmhHbW5zQkwyQmJVTmVPLVFJanZUamwxVEFsVHc1TkZTaVhVUmx5OGtQYTdQWmFxS21peUF4MGpFaTNxYlRMRXRsQlgxdlFEX2YyNzBDWmRmcmdLcFh1YmgtOVpOWm91U0JvR0pBc0g0SG5FTGlVWUhWdWdEYVF0dHNkM2NfSHM?oc=5</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>['complicado', 'automotriz']</t>
+  </si>
+  <si>
+    <t>INVEA incrementa suspensiones a obras de construcción en la Ciudad de México por faltas documentales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxOcG42bUxhbElKZ0o2am44MWtqMkxmRkhxY1NaZVEwWkQ5eFg2RFZFclNoMnBNN1NseXk3YmQ0ZEtnMmVRRkVJOHFUX2d5ZDQ1cXJtNjBvYTZVQi1fVl93c2t4eFIzVDdfRHJzUHNhMWpNODA3bzZkR2JURGhkc3RrZDlCZmlfbXI2MzVGSXlmWFllQlZMalI3ejRlU1Q4b2JxNVFlTWFaSVNxOGRwNHMtZ2xtdk9rS3RSZG5UcW5iaXdwZFo1M0FNc1BsdmRSZ9IBzgFBVV95cUxOcG42bUxhbElKZ0o2am44MWtqMkxmRkhxY1NaZVEwWkQ5eFg2RFZFclNoMnBNN1NseXk3YmQ0ZEtnMmVRRkVJOHFUX2d5ZDQ1cXJtNjBvYTZVQi1fVl93c2t4eFIzVDdfRHJzUHNhMWpNODA3bzZkR2JURGhkc3RrZDlCZmlfbXI2MzVGSXlmWFllQlZMalI3ejRlU1Q4b2JxNVFlTWFaSVNxOGRwNHMtZ2xtdk9rS3RSZG5UcW5iaXdwZFo1M0FNc1BsdmRSZw?oc=5</t>
+  </si>
+  <si>
+    <t>['documentales']</t>
+  </si>
+  <si>
+    <t>Reconstrucción de carreteras en Veracruz costará hasta 10 mil millones de pesos: Nahle</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQN0d0OVF5cE91aU1NWkVtQ1Z4c1Brejd0aGNqbDd6TVVPQm1VdlV2RFJKTFh4ZWZDLTEwMjM0cXBGZTlkYjd4OXpac2NhYUZPTjlZd2sxUUpjSElkTHB0ek8tN1E5NlZNWmRFZk0wSDlSMWJPV2VNYVRObU0tVVN4ZE1rZHYzQ0JRdnEyVS02OHBsc0hCdl9ERFNzcTVxd2JTdGxvc1MzN2p2ajRZRnIxNExQbEpPcTRGQS0zSTNITG9abzR3UklDck4ySm0zTU40Vkg0by1sbHBSZ3lnWGRhZQ?oc=5</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>La CDMX se posiciona como nodo estratégico para la industria farmacéutica, tecnológica y logística</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxQWmZyQnJVazA1d0lvbGU5MTdUTWh3M29LNjdNMXdfcHpRT09fX1B5NWk5VEFmc202WEpZeUQ3T0NuWHEwc3Fwall3WXh5THhwMVUyOFQzQjVuODY2a3pXR3owTEJkYVhlUFI3aUllMGhZQWE0RkMyaGRqaWFtRFZxZGVJcExSRktGYTU3U3ViaGRlenAzSzNKcHdjdDc4QW8tc1FkX2E3QWtHcW5CUkxIbmhhZk0wVDhJQnpNelRYd2dCRS1CNkNzcnBIVGVHMkZyU2tz0gHYAUFVX3lxTE9KZFR6T2tNSF85X01lRmUzYXNGVExsVzdrYVlwdG5QRlA1cTRxWEVJcDJEZGt5c2lOOUhCeDdpQVZvOG9YWXFIdUJvX0NtLTVzSk1FOG80VEFacjU3YTYzaDdmMXBhbDZfMmNFMXVnMTNZb29sVGhGUlBvcjdCMER0VGZkaFh3b1lkSVZqMG90aWNtVHRORklXZXU0WEZ2bzhGaEdfdU40Ri1OX0lmQWg2SXVqbDZoR0p5ZG9nU3BqQUFuR21XSHpSX3BXckdqcTMxYWxlYzFIQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['estratégico', 'farmacéutica', 'tecnológica', 'logística']</t>
+  </si>
+  <si>
+    <t>arma</t>
+  </si>
+  <si>
+    <t>Economía, Seguridad, Interior</t>
+  </si>
+  <si>
+    <t>Logística inversa como el nuevo frente estratégico del ecommerce</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQTWp1MzcwMGQzeW9iUm5GS2RqYXlxQkdFWXJhTGk5QUpvNHFnVEJRYTVZSXdjWE5US3NwU1h3VnFua2YtWmw5cFJYeUQ4SUdVVUkwNWExY2hLRTAySzBpbXNJMnV0ZjhSM0Vxelk5NFF6LURxekd3ZDdCc3ZzdDNVRjJMb0dCbVFKVXVEQ01TVFpmekJjWVZTT0ZfSEJxaGtsNC1WTEpJWWpTeGlZN282TVpmR0pGMF8zVmdEQzNDY0JScGxpbm1STw?oc=5</t>
+  </si>
+  <si>
+    <t>['inversa', 'nuevo', 'estratégico']</t>
+  </si>
+  <si>
+    <t>Electromovilidad: flotas eléctricas y energía solar transforman la logística nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxQelRPZU13aTJ5NUttbVlRU3M0c3FOS0RmUE5uVWlvU3BTLTF4cklSekt3SDNoMEtkb1oxd2MxeDhSWTJzT1FrWHlNYTNUNEJmWUZSSXJNaVZwd0JMOVVzdjlnVDU0ckRmb2Q4NnBSUzZmYl91LWNIRjRHVDN0N2p6b1FUX1FOdjdoeXg0c3BVMW1RYzRFb2F1a3lJeUJNekpzS0dNZzZYVW1OdU5kb0IwVkJrOC1ERW1aNDRrQWJMNWN0RWFpeUtjLVZVT051NmxvQzFONTNMQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['eléctricas', 'solar', 'nacional']</t>
+  </si>
+  <si>
+    <t>Ecommerce de alimentos y cómo la cadena de frío redefine la logística en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxNUWV3RVRMSkFjQ0UtTWRMRnRJLVoyODcwRVFrQ1FNSkhfZFJGNHFNQ2o3aVo1MUhud2tYMkwtU3FZQXNXWC1ZWkVoTmI5Rno1MXRocE1RdWliVG9aZjRKSHg0Nl9PdU1MbUVxWlNxQm05NEtBVWhLWlJHY05Sam45UXRUYXdhZEJQd2hjOTRRWExET09qb0lMRmJNRjF4VEVaUWZDak5zbWMyeW9yX3RYVUFJWHZNRFI1Umgw?oc=5</t>
+  </si>
+  <si>
+    <t>El unicornio de logística que quiere impulsar un modelo de negocio basado en datos en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNQzZnNy0yS1FGX0YzaU96THdkbngtMW5ZWFZBcFN2cjdHUHNCak5YX0dIU2RKclQ5cHZyTDIzWF92VDI0WG1fR3BnWkduNlh6RWdmWmtwYVMyZDZzeHhGbzdGVEdBOFpfeHRXTC1KWG1DQ1lXSTI5RDlSeE5oUEJJZ2Z5UTVPdkNUQk1qWHNycjlUUXhXYkZCcEcwZDdrd1A0aE1QenBTQU5veS0x?oc=5</t>
+  </si>
+  <si>
+    <t>['basado']</t>
+  </si>
+  <si>
+    <t>El retail invierte en logística estratégica</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxORk1kUkRkS0c4Rm5ZTmdTUWtzODM5alVZNnoyTl8wV3g2cjFLQzZ2MC02WFk3ZFpXRER0OHRHUWRDY1BiUExoRzhsQzJXRmFnSTJSVTZfeG9zN1RYdWZmYUpZV09sc2gtWVB5bzJDS0NSTC1ubVBibXlVQnZZSTRINXNSN0tqZ2dwNlRNRF9YSDBySlhlNERIOTQzdWhCMTNG?oc=5</t>
+  </si>
+  <si>
+    <t>['retail', 'estratégica']</t>
+  </si>
+  <si>
+    <t>invierte</t>
+  </si>
+  <si>
+    <t>Transporte de carga en Tijuana cerrará 2025 con una caída del 40% en operaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQQlI5MTBSMjlVV0V1Q3RCNWdpa2JubU9EQWQ2U3hmeEVNZjhkWVlqWHM3M2JkN3BJNUVoamtzMmp6QVBhZm9MOGVBekNaRFlUeVEwRlBYOElpc1E0ekFyWk5VQ2Q5cmJzR2NObVRNazJzWUpYaGcwelo1VkN6ZmI1Um5IaFdDT0JMejNWTGo2NHFzN0RjV2RySWwxMmVRMjFqWHJ4THlSb2thU2x2bTRzdlhjRVozZXl2TWVpUmIxcGR0VExNUFFZ?oc=5</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Sector alemán de autopartes busca exenciones de China para los chips de Nexperia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxQQ1dWeV9PZy1XUXN0dDU4a2xDSGVaWmoxRDFoWUt4VDRrZ1dkYlEwVHVRUG5TYlhFN2FxVWNmV1o3VFZRWjNFX05mREF5WUNfanpGX2d2eUg5N3F2QUN2VFAzLV96N1RiUHEtVjlCcWViOGtMSkJwTmNFcTNGRlZIQkIxTkhiTngweWxrMmtfVUl6cXJIWXZzZWtZT3dwY3c1ZkFjSmlqNEFCUzZQNkhRbnFnbHFXcEhoRVJ3ekhmSDNXd9IBxwFBVV95cUxPYWFxM0lyYnVUYjdhVzVTSFdNRFVMdk1fV2tVZktpZk9Bak9ZS203NVFUZW9qMGwwcnVqREpZLWFBUHhfc1hBVXIzUU5YUy1iVkloS3U2US1acUFMY1ZrQlpHaF9oSkpLblF5OTBfSXF4TTBUemp4VHdmZkhMRWhNZl9LRjVTTEJoSmFmMDVPV1cyR3VPMWdIUVppOTZrNEZiZFVLOENqX2kycXA5WjlEVTdWTHBtMFhXSWRCdkJzNUhCeHRxdHln?oc=5</t>
+  </si>
+  <si>
+    <t>['alemán']</t>
+  </si>
+  <si>
+    <t>Canadá compra a México más autopartes que a EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxPTzd5UDBVSHhXUC1lME5NMDhJejR1eWo5YVZSbGhpRWVUQl9CVlhqeHpIZTBUeDhncmM4bm83SHN4VS1XbTB6MGZQY0VkN3NPd0lxTlljSlFNWUt0aGJSRkhuRUMzLW9RdWFsNl9DVWV5aG1DNC1MOVdocHZvZTBLRmFYWmdSMUNzY3dqOWd5QWlublBGTHfSAZYBQVVfeXFMT25mZHhWNEtiZHV5LURfTk1PcGhnYW1zR1g1VFVDWE5EZEg3dUpDWjdUSUQwMHFJYUFRa3JwdzBWUnVhMGZSOWlaMk9nV3JwaC1GZExTV3Vrem93OVVjV3dRMzc1VGtzUWlfRzF5YVcyT0xkNlpZdlJxNlFzbWRCUU1nWDNZWXItcUxUSVVrVmRxZ2VERGdn?oc=5</t>
+  </si>
+  <si>
+    <t>['autopartes']</t>
+  </si>
+  <si>
+    <t>Los responsables políticos de la Fed, divididos, defienden sus posiciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQMFdLS1hKQTJmOTI1eVAwV01Yam1zZ2NCU3RZcmw3TGZwQldZb3BHT2xVbHRkTzRxMmZqRjFVMVI5N3NzTXBqd1BtWkJvNmtPSnN3eWg3eF81ckc5UTVIUTlfOFc4TkFoMVkwNG5xazhKdERXd1BkaHpCV2lvaWU1WFlWNlF0VTd1WGx0RDNIMzlmQ0w0VWJXeWxJNGc5ODNBa1ZOR1Y5Q012ZGo4Mm1iZDlpVElNRHBpX1ZV0gHAAUFVX3lxTE5sbHN2eHdJOUNvRV9sNklXX2ZSbmRZUjBTeENVWHIweTlOYW5NVFhYejdPaHoycWdfMWp5Vlh5Zlp5Y1pBdkVZZVdfTVNCSzM3VGU0cENQN1lIalJkc3VRRlVPazh5UDRlLWNLV1ByOHJWZGE1R1BtLTB3RnpFNFdoUnhsODR1TmhMamlJTG1mWnhyTFg2NnJrRFBhbmlVeTR5S2dVaU1QM1lLSHZvX19taEZwelhXZHNLUkFZX04tZw?oc=5</t>
+  </si>
+  <si>
+    <t>['políticos']</t>
+  </si>
+  <si>
+    <t>Lisa Cook de la Fed advierte que riesgos sobre el mercado laboral son mayores que la inflación</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxNVzNNOGRXVDV5ODctZU9HaU95OHAyclZZcU5tYWVrd1lkZ1UxVGpnQzhiQ2lKaWdyNEFfdndhcTNTbUZRSWdjQ25YNVVxcTFuNVVnbk9UTHRTQVpBTFJwSF9taHVnWXBkOTYyOVNDQmJFd1Rhb044WkVkSDF6YWdfRW1PWjdqd2pnU2RqRE1VcUViX1ZFNXViRkFTNzYyck81SXJhUkJiQWdjaWlOVEZIUTlQSE1mQktjaVNKMEczUVJpNkJaRDdCY2FwdHdKZWZtV0HSAdcBQVVfeXFMTmJUeEQtRHJUbVpFREtlT0F5WHpTUlFqaXhYZXlKaUNFTTNoYldXaDByNUZjenc4bHlEclJVNldMRk11VjJ3ejJHaF9oWEk2Vy1Ud2tJRl9JbHJmWnhYRUc3bnVfeE9DZzN4RTRlVUdZQzhtQmpueE5SSDNpWFJrVVZOUEJxNFNPSmtoT2JDZ0pVVWUwTy1zaFNrd3dXOWVKOW1BZW0yQ1lXeGZkRGJZNUlna1ZfQy1oaUJMRjExNW95YzM0b1dkZkNaZUNPbV9RbnJEMUVRU0E?oc=5</t>
+  </si>
+  <si>
+    <t>['laboral', 'mayores']</t>
+  </si>
+  <si>
+    <t>Precio del dólar hoy: Peso recupera terreno frente a la moneda estadounidense ante especulación de más recortes de la Fed</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxPalUza2lJSGw4b2JlUUVWbWlFakFsaXU3Nlh1dk1xVjdZNmEtTGxvcTZGN3pYWlpQeHJuQURaRTl5N2tSaHEtRm5XNEN2bkQ3ektvdDJLbWt5RUZxdEVFN1pBaDhZSUJmaUNtZVNVQW1aYW9aLVM4bXFpN3AxdWd0cGRsMW5PRlhKLWNpQUhoa1pGamZZc0h4dWNmeDVqSHYxYmxHMVd2M003dmNVeUcxbEhzTlotX25yUjg1TWxxYWh1d0dmaEVmVG5rYUM2ZWRjaGVyVnd4M3VjTW1RQjI4dWE1TWZldmc5Z0EzaDE4ZzFUQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['estadounidense']</t>
+  </si>
+  <si>
+    <t>El Banco Central de Brasil endurece exigencias de capital para fintechs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxON2VVUUVzRDFyMnFSVy14OWo3Uk1WVDVuVEczOVdaZnI5NDBBMkhrYnBxdTM0cG1FTjh6b1hkRi13dGpUTmVHMjhhamtWTDc4RGg0Q0dsM3l6cGFERlI3cGNLYWs2UmJWRkozVGgtYk02YVliSl9nUmVIaEFtSjdDYU1IM2xwXzVQcGZyNEdyQU55S1FlLWRuQm1JbzJILTVvZGhhVkZHaE1LWG9leFh3eHpYRV9HRlBNd2x0OTQ1YjVXUdIB1gFBVV95cUxOMkw3ZVhwR2NlMGEtOG9RbEQyd1lVSHJkeURDX2Q3LUlJWXJQSDFDaGwtNlAxN0FmYjJqTUJ2ZlZqbVRRU0FJUXZfNlVzTTVHb2NibHNteF91eExUOHJOTElrdmR3NVMwUElfV294MHE5c3Z6ajdsOVZLbU1BRW9jTjIwTGxLUmdaYnRrMTh3NkVOWDJiQS15SFNPMmw0a09iNGtPWmhaNXVYNWg2dUVoZjQ1N214enNQYXRUM0dwS1dkM0NNRkpZejhpLTFlSTRBZlpTS0RR?oc=5</t>
+  </si>
+  <si>
+    <t>Bessent Plans to Attend Tariff Arguments at the Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOYzFjbTJBN21BcnFPQkF1NjVyYkJrQUR5azJEQjd6UGkwemFXdHlwcEhxQ2pKR2VQaXF6RkpHWlI0WDR0dFoxQ3FiWkVZOTFrcUhpSHBSb2xJMWotODZMOVlCYUhvU3NOYm5vSmEzRjRMWDNjc1BpV0I1WHZPYWpJY1FOMHNYa3RG?oc=5</t>
+  </si>
+  <si>
+    <t>She Voted for Trump Three Times. Now She Is Leading a Fight Against His Tariffs.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxQeFlXeGdZLU1JdTVyTi0xR20yVnlGTlBtZDU5X3p2QnYwMVE0elRHbmZMcFhCQjhEUnpUTjIyVzhVM21VZ3VmVHVvMzRNU2w5eHVjUzExR016Z1RrWVYxUktYOWJDN3lqR3BqUzZVemttSERNR1FLMm41U1pXUVJJc25wS0lKa0RFVmR3UXh3VjBZSXBmekFKQU5XSjg?oc=5</t>
+  </si>
+  <si>
+    <t>Opinion | Why the Trump Tariffs Supreme Court Case Could Be Fun Listening</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxPeERfUzBMX2M4X0ViU3F4bl9oMF9BZFhrOU02V25NVVdOMGhWNm4zTWZkTVotOFJZN1VGdXRqcG13OGItYnpWMWZINEhhZXFPODktd0VPZ2szQXBhY0FLMk5BanR4bFlnSm1sTDM0eUpxQUc1N1dqdS1ZTUZsOGRFZA?oc=5</t>
+  </si>
+  <si>
+    <t>China’s Global Exports Continue to Grow Despite Trump Tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQMjF3SmJWX1drcG1PUHUtUmVGSjRwcUZPMVVGTE1yOFZaTWFoZlZpclJMOWhWX3FUT3ZNTjlKWTNMdFBONWF1NTZ1dEJqdDlDcVYxdEVzNWdUWTZadk8wQ2JCX290a21DYlNOYk9laEVXVkpXWmVUT0Z0QWlWOEpmVFpONzhCMnZreEQtMFA5VEt3Rmsw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s Tariffs and Push Against Limits Face Election and Court Tests</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxOclcxendzdHNIYm84WGZXVkk2Nk04VTYzckVDYU5Rc2haY0VfbXJDZ3JqWW96M3V5bUEyWHVNRExlU0s0T05oUXF5cFJ5Z3haSFJGb3pUZnJjQW9oN2VOZjRYa3BVM2xJVlliaGpXdGJRdnoxR1dqNDQyYngyWkdTUDlWajh0WkUtQ3c?oc=5</t>
+  </si>
+  <si>
+    <t>Opinion | Trump’s China Trade and Tariff Policy Is a Hot Mess</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifkFVX3lxTE5uMENfQmM3bUpXX0RBcUtsTWZQbzFPRGZVQVZCbFE1cXZPNS1pVHpDUDctS3BEbllLOXpGZk9BbmdmbGQyNUl2d0pIUXdDaUlSWnQ3dnFBelZNTjRTOWdFcU9XdHZ5dUUyNGZuanpvOXFiY0ZSeHFfWjZzbUp3QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Will Trump’s Tariff Deal Tilt the Playing Field Back Toward China?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxQUjk3T3JvMHkxaGNHcjM0YzZXbDA2Vl93SFR4WG1hQjFFRUJWdGFHYmd1OVd5bDNQaTZFcENLbnFJb2FIY1o0VFV3QWJ4cUFZTzB4Y1lNVUVLLVRNWEFIN3FQQmRUUUZ4aEtCQnZOMHBDeXBEMlA0MElSNGN2VklBQnNIZDRtY2c?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s foe in tariffs case? A legal group funded by conservatives.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNNDdGeXV1UFpyX3ZCU2F0cWp0WTNpS0kxbFRqWWUtSkU3WUlYREw3Zi1uSVpfNmpRYUNHV3NTemd2OS1iRVk3Smh6bmZmbmg5c2dWdWZibjBSelJ0REhETnRDSXpPVFE0NnU2ZDhvYUxHSFlKdXpObVJ3b3hkb29YOWdLOVNaWkJKbTh6UVRB?oc=5</t>
+  </si>
+  <si>
+    <t>['funded', 'conservatives']</t>
+  </si>
+  <si>
+    <t>Opinion | The Tariff King and the Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwNBVV95cUxOSkdPM1pJWVgtdnl5WlJPdGs5MW9aTHBUTDRHeHJLRndyYjNMTEV6SGZmb2RwRFZaWXJhRkJid2N5SFZLbGdzTWxJUWdQeUhVZjEtcUlBSjYwWHBCT2VwbERRNXB2ck4xR2xIYUZiSTRYX1JHNGQtM0ZTbmRrdnNUU3h2YVF5UEtIVmwzSVdBMFFKTkttOUgwU193V296a0sxdVFoZVluMVBEZ05GemlkWlRFWUF6eFlydXd4Q0Mwek5yeXl0VmpEOExzVVZnS0lTbUg2SDNUdmV3dGVSMDVkTEwycV9CbUNtUktZOEI1cUNiU1c4amdtY09kYXgybkJqT3JMU240WlBpX051bzJERnJBbl95dDVFZ0hKOFU2WkhpR3JhdEpUclV5dkRZWU82cmxFTzMyRjVuc0x1U29sdzdqcG1qSlJ3MUhoYTlMQUhiLXZFbEdrejZBY2dRalpaNUdmUjBILWVBYU11eUtfZTVEODdqTjhWOVVSSnlkYTZIQTFfbGxkWGJtVE5wS28?oc=5</t>
+  </si>
+  <si>
+    <t>Stanley Black &amp; Decker Cuts Outlook Amid Tariffs and Weak Consumer Spending</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgNBVV95cUxOWmMyVEJ2cE1EWUgzWWlMM2lsLVJLSDYzRnVpLW1PNXFiejl2RlJTQ2NiUHVMbnhIeG03MThyWXgtTG45eW5SUnZ6V3prM2Vtb1lvc00zbmtYR19kd0luN0tuZzk4ZEhpTll4MUR0T0VnT3B5UWxlaERoNDZOMGVodjR1WkFhVVdwUFY3Zm9PZkYwRFZsdm4tdkVXbWpfeXp6T2VBNjNZVW51RzdoWHlad09maG1HS1YxalVsdW9ScWREVmR3WDE1SXhDSHl3NE11Zmp2a3UxVVMycVR5Qmw3VTZ0Q1hnOU81MXpSdmlSWk1zMmxnbVpxV2FjZ0RPcmNWT0M5NmNacnY2VW1pZjB6M0ZRWDhVTkZIbldiSm1tMmN2NGc1NzVjNmlib0tFWjRCbkZHRDlSeUwwaFFxQVJrOVdiS0xhN1VZcE94aFZoSlJJRmY3bE9VMS1maWtEZ1JVczNIWHhmU2puakNjdDJxcjlrNjlyVG9WZzVCblpoMDgtb3k4TzVHN2dCcTc2NE1HX2FOX19ScDlzZ0sxeUt1em5XQ3p2S2xycjRWYWFRR2l6Zy1RU1A3OFcyZG5KcGcwU2c?oc=5</t>
+  </si>
+  <si>
+    <t>Trump Tariffs’ Fate Rides on Supreme Court Justices He Picked</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxQemN5LUlxZm82NUM5WDZIam1KZ2hTU1RFdnZpLXNRY1JXZF9JcXFRSDN4OGY3UTNaYjFTbmQzVUh1TWZ2Wm05REZnN2YxU0NUZzdJLUpybVlpbkVTMlZONS11OUdJQWRMRk1jb3paZi1nZkI1ek1oeEFCVEpJa1pRZ2UxeXROOHlPT2FuWllUMDZiN0I1ZDdIVjkzN1VzV3VFLU1EYkk1TG83REs3MjNldmM4MjFmTWM?oc=5</t>
+  </si>
+  <si>
+    <t>Modi Faces Demands From Exporters to Ease Trump’s Tariff Pain</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxQSkF0cGNtX3BncGFRZmFRRXdmZl9wZWlrZmFDRzg0MFhqb0dqMFFnLW9MVDJhTW43NVVSa1Y2RnRpajZzbmJnTENVT05weHY4LV8xbG5yZ2ZwQmFIY3FVNVVMU1pPMXR2bUI3UlBWR09RRzNwc2U0aUVKbEs3cjZZRkJScnpaekpsakdWWDFsUjB1NUpWQk9VaGFHQ2EtZ3hSaU9vNzBvaFFMQ09yUmZWdWl3?oc=5</t>
+  </si>
+  <si>
+    <t>UK Still in Talks With Trump Team Over Steel, Whiskey Tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNZnlxWDUwbnZxVHY3UjdkQ3V1LTdrSXc5bUdqdFVmeFJPTHZoSktOZFBWNEFRcDc2YmFZRno1cDRZblEwWjZ4eUt4bFdTZXZVTUFQaXBBUUp5cmZ3YV9XVnJrMTdpbHNwc3VIaldjcHdlSUVaQUdnOUhidmFLRi10VDQtSGtfOERTZmdYakdqMEIyYjl5Nk1sd29hUjNFNWlvYUZXWVBYUGZwUGIyN3NIdA?oc=5</t>
+  </si>
+  <si>
+    <t>US manufacturing mired in weakness as tariff gloom spreads</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPbVJxR2JaVWczaW9Bb2dCZTZHZW5LNUh6amx1dlRna1RCaDdWTmgyM3pLZFpqb2t6SURwYk1oaVhMcFQ3OXVBbXN5TjV2WUJaUjBLbU1ZNUxQc2tmWXRhX0g1ekxoa1NVWVlHdjR5MTdlQWNYTWxfVG1RLVZ2djAyYTc4dUFsQjdhbGJNeEdvN3ZSa2dIMlg1dW9ZSzI3eXZyV0k5bUdLZUY2VGpta081elZMS1o3V21WRTJ2Ng?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court cannot stop all of Trump's tariffs. Deal with it, officials say</t>
+  </si>
+  <si>
+    <t>Big manufacturing economies struggle as US tariffs hit order books</t>
+  </si>
+  <si>
+    <t>Philips profit boosted by launch of AI tools, tariff mitigation</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxPVWN5dmh3cnNaek96aXVha044YVNNWVU0UEkyeExTNEpzbXFtZzUzeGRFaFZvUmxaM0dqcDNfZ1pzaHdPa0xLNWZZdjk1WjNrVnZpR0h3REl6eXhqZXJaRUhYaEcxOVNtMWtHQkt2U2RvN0pTSzUwNmJwUF9sVXhsdUNaWjhnaG13LVdUaWdLbDAxVU9xNUlRUW9uNDBDREFzOURBMlFhVGFSSjhYU1dB?oc=5</t>
+  </si>
+  <si>
+    <t>['boosted']</t>
+  </si>
+  <si>
+    <t>Toyota set for second straight quarterly profit drop as US tariffs weigh</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQWHJUQ1h5TGtvMkpzOEF2SGxmcXpEaXkxeDBTS0VzNDhhdFBZQkZWNEZ4dzZkSlRFQ1B1aDRfZVhXYjY1QWJQb0Q4SUhERU1KU1AwRUJoZ1IzNER3ZkhCU3lFSkh3MzZNcTQ3a0NUS0kzMUdpcndBVFhmc3czVzAwV0ZTVlFRdDNHQzhsRGRiSVVOdldVX0tzbF9OSE1fdE1NcEZVMVVkRktxZ3hwbXlTYlNIZWVFQUpBd3pPeU5DWXAtazQ4a3dHSmlsZw?oc=5</t>
+  </si>
+  <si>
+    <t>Which of Trump's tariffs could the US Supreme Court strike down?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQRjVNSjBJUDhLbUpBMEw4U2tXaFA2NUhoSk9oMnU5c2NCYXdMUWFqM3VwV0ZyR1JpLU9IX1h2NHlTYVp0U19waG0yby1WWFd4S0tDR2NXejk0Z2ljdVZ4bXhaYXctVzlZY25ZTWxoUjE1N2JPUVkyX3JBTHNsMEhjY0VQdENCZlJ4b2tkNl9ETW9ib0NoOF8xVFljZVc3VGY5cmhMdDFjSElaU1BE?oc=5</t>
+  </si>
+  <si>
+    <t>Spanish black olive exporters urge EU to hit back on US tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPUGN4SGhqb2U1WEJGcFVNbmdqUzlhekxZX3VlbVpkYzl6VHVIWVdGR1lWNlduSHRfZ25nbWU3MGxzWDRkWDNXeGd4MFlhc3VmMmhYbE8zclVvX0VVSGQyZE5hYkZldFRYWjZYQ0xCcktDM0R6YzI2QkdlbEJ1QlVpYjBEdHpFYUhrLUU2T0dEejBYbTFKUGVKdkNZUjBQRGlETl9OUw?oc=5</t>
+  </si>
+  <si>
+    <t>The White House’s Plan A is winning its Supreme Court tariff case. It also has a Plan B.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQamg5aHptUmVHRldqSHRjWktWcENDMnJqblpsTlpCTENmNEF3Ri00ZGlsVlR4M2lOeHZJaktiSUR4N1ZybUF2QWl5ckZ0V2JoV1BqcU5fYjJXWmhmVlcxcUprMVc2QnJNWjF2alNtQzVLbllYTWpjeW1wRTM2OTUxQVZmb0hRMVBvdUpIbzNMeWFzeGJmY2ZzekFfY1h3MUJpbTlJYlIyOWhTakx4QnNQRUc5UnFCM29CcGQxaExwLXV0VlhScDc0?oc=5</t>
+  </si>
+  <si>
+    <t>['also']</t>
+  </si>
+  <si>
+    <t>5 things to watch as Supreme Court considers Trump’s tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE5aQVhRUEZSQjR4R1JKUE50MnduaG9fMEdsUXp3ZUNQS0dKNzVQaE95bGlxMWJMNDhiTkR6al96ZjhyN0ZSNEhtQ0VDS3IxWUZjSXd5b25sWVFiTkltdy0wTGQyajA4NHFRSXMwVHVNajlqb3PSAXhBVV95cUxQRFRTa1BhN3ZpdEFRWm5ONnRKV3VLRlNHeUtIUTdLWjlKazlvbWVGTFBsSnEwckd3eDlJRWxOanpFT01jS3VOaWl1Q0xCclZTdFJlYmFmSlI2Ykxxblk1R2d5Q01wTGl3ZElYLW5BRlg1bk5icXhvMFQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump tariffs face Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQb3ctbXJIU0pFa0I2eEd1MlNvSFFSbURETU1JX0preS1uVTZwd2NVNUtIRkMyLVBRSHVybmx3U0l6cmZYQ2ljQWJGc1I0Y0VlMC1DUjVEMjJXWU8ybmNSbXU5R3FEbUlZQTVSXzdwcHRlUkNJOFRlbzJlNWppTlpqejl4TVFsdnAteWNLcUY5N3o3dmE20gGaAUFVX3lxTFAxRGI2TmVZYlg1eV9rRGxkeXFrOGdrM09mbzN3cEtxdjIxbW9Md2VCUjJnWl9CY2JxODFHYVJ0Y0NxTTk3SWFEQVdWYVRUT3FtZ2N4VFoxeVB3ckhCOTNCbWpXVWhfUDJ4T1RaZEhaUFMxZDJHeVNNU0hvLXNBWHZZbjN0azZKSElsYWdfeWJNTkRVUk5BT0tHN0E?oc=5</t>
+  </si>
+  <si>
+    <t>Trump backtracks on attending Supreme Court tariffs case arguments</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxQMUpWZ3BENGVHVFNVRm4xanNYU0hkNVQ4WTY3NnZjN2VzNXlwTnlHYU9UOE1SeGlJMzd3cWpldDZOY21WVDF3Q1Z0eE9DOUF5Z3dpQ1NMOFprQVgtWXlRXzdCWDU5akh6OFVENzBfQ2pST3VfU2NRMEpfQktySjItOGRJdFQ2R1XSAYwBQVVfeXFMTVFjbmtDVXdzTUJjd0tudkt3TjdWS0xOUVlSeGs4OS1Kd3NlYnJWTVFDVFRYdFdFQm53RWNNNVAxaWZER3puLVhKTXAxVHBjQU0tM2VtdjQ0bjhpS1IycmZKM3RaU3EtdWpLZUozLUVpY1FzYXczRjFkLW9YYUViaFBYaGIzSFhZWUFDVUw?oc=5</t>
+  </si>
+  <si>
+    <t>What to watch for as the Supreme Court reviews Trump’s sweeping global tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQXzExOU1waG9GbGIxOEdYT2RlQVZ5M0RxSy00UTU2QklfRnRzR1UwZ0w0dVRYU0Rlc3NqUkR5SzEteUkxWmkzR2dubnM3R2w2cU5FWm93U3VMU09TSWltZkRYRk5uLU9UdHpXRkdCQ21ORXJuMVMtTWpZdkNwUFJBR2lYdVEtc1poUHA3eTZYQm1IUU5OZEY1bXl5ZktfVl9SeDFPNlR2ZVVleHRGaEJCX3VNRXU?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court to hear arguments on Trump tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBpU3NYQzIzU1VyMmxBSTR2YWM4T3duWFhfMng2LVBVeUh3OTdBM3VIZW5ZQ2lTemlla1BWX0JlME1PdFJxS2RJQ2FjNVhTOU4zYmExaTVB?oc=5</t>
+  </si>
+  <si>
+    <t>Majority of Americans say tariffs hurt their family's financial situation, are spending more on groceries and utilities: Poll</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQR2ZZOHdiZndCOGxkVXh4RlhaTDVpVmprRU0zNGszNHpSNUpMWU9sRWRxXzNvdHdGMk0xbklvREhZc1lOWXA5S0w3eFpmdWl4Sjc0MW9vd0hWU0VNSkxQSUQ0dGhoOVRxRjlnSjJidnFfUHktQUtObWhxdWM5ek5LTXZYWDZ5d1pDMXlkOW15UnZsWFNUOS1xa3hNdXY3bk1uS3JocGNDUGpIaWNnVnRBLXhURFVFamxOSWs4?oc=5</t>
+  </si>
+  <si>
+    <t>['financial', 'groceries']</t>
+  </si>
+  <si>
+    <t>Tariffs have been Donald Trump's personal crusade. Now, a Supreme Court test</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNZXdtQUlGblk2dzU3WndpejI3QUI0Mm1LQi05emtVQTZNRm1lc1lHc1gzdm0yQjd0ZlRaOElvdm9GSXlRdWZSdDN6V19PSDh4WVd0b05WUFJ5TEJNcVNhRkRFV1l2QTBzcDJMMTQ0M2t6TktoVVp1czFuZWI5NHZIU1Z5bm9UVXRMeUR0b1QzZVJEdG1mSUNXTy02dVRUeF9uSUtsRUFYWFlTN0XSAbABQVVfeXFMTjJPTXYxaUdHMHdOOWJQM3BhT1ZwWWFpalROaGcxQ3RpWTh6eXRfUXNaZFVTU2hRRWpkQ1J3clJsRXA4VFIydlR6dUNGT2ZFOC1Rakp1NU9pcnhyVm84a0gtdzJreUVCZ3ZIWGxGSXFXMmF0SktWN21sQllGemlybTFFSnRERFFxd2pEeU5xazVKQVhob2lYMVVVdFVuR2x0M0I0d3Qxd0dERU85NnBROG0?oc=5</t>
+  </si>
+  <si>
+    <t>['personal']</t>
+  </si>
+  <si>
+    <t>What's at stake in high-profile Supreme Court case on tariffs: ANALYSIS</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxPQkNvWGh3TTFQSnhHd3M0OTZYNEV4TmJ2eHRIYVNaaXBkWGN0UnFockI4eHd3SGk1QUNRZ19xVWpHb3R0VlljS25LM19na2xkajFpYUx5SHdRcmNFTXN3ZFozZUpEb24wZnI5VTFYQXBPaUIxT1N2V2ZEQ3RxRXlUNWJPYmo4SEwzUkJqTlJBVWhFRW9RZ1M1eXozQTFOb1d60gGmAUFVX3lxTFBLaGZXNDcyZkp6LWJHWmVkMldsX2UtaE4xRzZQN0V2MnpOckx5TExzTjVuQU1zZFZDVnNWdUpiMlFvY0tKcWV0SC1UU0o1ZThPbmlpekxYbElRU1JiMEYzYnFvRHozeTlTYWVsYUFNeU5xeGNVSHREZE1MRmZLZHIwUWJVZWtMaXh4WkdYVThxbzdRek9YcUdJeEFhYWYtbXpQSDg3VkE?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court prepares to weigh tariffs fight in test of Trump's power</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidEFVX3lxTFBaVEYzUVlDOTJXYVROZkVmOFkxOV9FbnJfb1JUUExtMEFLRkJzMnMyQ0Y4ZnRJRkhnQy0wQ1hqR0czYzNRaUotMTRDOGx3ZkxyYUp6YTlYVWlLNFN0dFVDR2otM0ZWdDBXNmpCMERNeHFmWS1O0gF6QVVfeXFMT2ZiUm1GZTZZaTVnLWFpZzNMSXl0OTd1VFA1NWpYcV84UkVOdnV6QzlMVVo3SlAxUmJGQy1TaTJjTmF3amxfR3ZpSFdUcWVTX21oUVpaSTIzcnUzeURaUWJJWVdWX3I1UDdpc2tqYi12YjZIaXVXY0ZHdWc?oc=5</t>
+  </si>
+  <si>
+    <t>Tiny toymaker vs. Trump: A tariff battle that could reshape California’s import economy</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxPY2J1aURvWG5hZEQ2TjZCR21yRVAzYjI5RE1MOGlHek1kTVQ2M1dsdEkxaFdIUDRzSGVJNUhBZ0pWMUlKd0d3MlNQVy02N25rQmo3ODRINW5DdHFOMnBJZTJtUFp3RFFGWHhXTGktNXFjMnM5UDhqZUxwTDhoSmhyblU0QklSQlZjNURPUFVnNExEcnhtUVNKUHRDQmRIZFBNUXFPclk5T0pqbm8yRUEtU1RKQkdUVHp4aWhrRnd3?oc=5</t>
+  </si>
+  <si>
+    <t>['import']</t>
+  </si>
+  <si>
+    <t>Treasury Secretary Scott Bessent says he will attend Supreme Court hearing on tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNU0gtS01zaDlZYkRRbXh5UkpVd0VpNzB2UVFudzMxeHJHWWtReHRrX1k1cHpIX29mb0xhMElyVVJpRF9WVUNWcHBHaTU5bTNtVElmd2Rvd09lcE5zdzduakZ1bHg3bGpKVlhrRDk0dDNyRlFsdmo2NDFwd1lIckJKY2w5cTJvREwyeURqMzBzVjJNWG5RdlQ1d3BJQ0xybVlqUWxmU05sRVlvblFtOUViMWRpaUc3NFpWMHN3MjZUM1dqS3FUdGhyakVNYWVXSE9IYjlWYThELUk2bk9t?oc=5</t>
+  </si>
+  <si>
+    <t>Trump's not going to the Supreme Court hearing on tariffs. But his treasury secretary will be there</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPUlFHbUc5WlVKV2RuZXNodWZLQ3otdUNKLUZKaGhLVU1aUkdKUUM4eWxVdkN4RllWbTZVQW9rNkxpb2JOOXI4ZkdqYkNvZTFiZ05VT3ZCTjU5WS12UGtaSzgxVnh4TFgwVUNreXRsMjJmdlBZRW5HVWJFZm1wb3JpZ1d6UzBTeXo4WTBYTThWNjh4U2hxSXhud21uaHIxNjFmU1Z3?oc=5</t>
+  </si>
+  <si>
+    <t>['secretary']</t>
+  </si>
+  <si>
+    <t>Trump Tariff Cases Before The Supreme Court Are A Big Deal. Here’s Why</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxNSGlITWRkQ0h2RW9rcUtEUGRIWkZHUUxsam1IQi1oemxZSTY3UnFwWFYzNFI4TF84NEZFZnZkN2RNRWVmMko2OVZhXzZtRmw2RTNXUkhUV2ZROUhCMGhMckFIVjlEMklidnk1YkNrMXlKNldyNy1JOFIwNUdQc2FiVUZrcUFXVzVNU0luTDBCMlpsTGxqOXVsdmY4ZEh1WFhGa05aR010UEVCR1hFUTBPc0k2TEIxQjVCRGt1VzV6RXgwQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Untangling The Tariff And Tax Delegation Case At The Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxNbEtveGZIbjlpVnVpVHd6d3Fwa3BaRG1DcnlWdEpyVlYwdm92MmN0VS1VVlJybldGbk11dFlOYnpVMndON29YWG9RTzZzYnA1VGktZlh6aUI0WkpFelNmT0RzeWpjNDV6VTY5aEppMXN5c0xQU2pQanV6Z3NUUGZyTExKS0lvLXJ6WWhrWGZCT2tVOFZLb3RjZEx1T05yazZfUHlBUjJNN0RkLWlDekJoS0I3VXBhbUk?oc=5</t>
+  </si>
+  <si>
+    <t>What the U.S. Supreme Court Tariffs Case Is Really About</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxPLVBwcVc0TzVPajMzLTBwSkJHQ0drd0VZUDMwRDA3TlJhRy1QREl2Ym1jdnNVVi02WjVYMnhvNDBwWFk0eFNOMUNrZkk1Q2FsdS1OdjJHNi1weEE5dExlOVJ1TWwyM0xTcndCQ1dzQ3M1RDVnRUNoSGh0Z0pGM0JKZzBFbDV1RE1ZRjFRWG9OR3lSNzkxWVE?oc=5</t>
+  </si>
+  <si>
+    <t>foreignpolicy.com</t>
+  </si>
+  <si>
+    <t>Supreme Court takes up Trump’s emergency tariffs, citing national security</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1mS3M3Nl9YWlAtaUpLMzlnY3FoZDFYMWJLb3RmWEJZMVUtR0pJZWdWMGtoUUJnT01uRVlTLUVKZVFteWduUXpyV0hrZ1diNkVKdlVneDFLR0RDZnM?oc=5</t>
+  </si>
+  <si>
+    <t>['national']</t>
+  </si>
+  <si>
+    <t>Worldwide tariffs are 'the problem,' says John Yoo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBlSGlZQjlhd0w3YVNIM2xjZ1JjSUNKNnpnQk1GN0JFZUpzZzlvU1NSeEpvNFl6dzlWU0s0MGR2UFZfdWlpQ3FONjV3SjhKZERMNUFZZ0pCYnBGOTg?oc=5</t>
+  </si>
+  <si>
+    <t>['problem', 'says']</t>
+  </si>
+  <si>
+    <t>The top U.S. court can't stop all of Trump's tariffs. Deal with it, officials say.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxPMEpoWkhUVFVXZ05fbFh2bUI2dkhHcm5zUEk0akxYcFhwb19vWEhHcGdfZ2xtMFlCQW5neW4tOG1wTTJjRjRPVTBkUHdBdlc4U09ldkhIdzE1RFJEZ0t3VndQeFdmV2FGMkZHMEs0bFV4YXFyQWpsZ1kyUkh6OXY4ck1DMGhZUHMtVjE1NjBkc1d6Zw?oc=5</t>
+  </si>
+  <si>
+    <t>['court', "can't"]</t>
+  </si>
+  <si>
+    <t>Trump turned tariffs into his foreign-policy weapon. This week, the Supreme Court will decide if he went too far</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNZk1nWVhrWF9xaEQ0VXN1cDY2Ul9scTB3VTRKbHpGcFZnMHlmVmhwdjdmSHd4TnJUSTF4a2tCMkQzWl9ObmZnNkxDS1lBQkNQblc0TThKQUFsTXFMTVdPd2pCZU93VDlyZ0dxVTFDdGVLU0FPZTBqOG5QTHpxUjNtcEhXOTNXUlIt?oc=5</t>
+  </si>
+  <si>
+    <t>‘Business continues to be severely depressed’: U.S. manufacturers blame tariffs.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwNBVV95cUxOX3BaZXliVHNiNkhvakFBY3lQejU5OWZrMkJYdlg2Z0h1NkxMdUVxcFM0eHhEbnFsYVIwel9CUWtEQUVldS13Z2xpRzhLU3RQbnlYaV94dFB1YkREVHRRWFpBQVZzSHhqcWhoRWxibnUtSWdUdkdGQXpTN2pySzZGWS1ab2E1aFJoNUFVWmsyQjZld3BBZ0l2NHpUeld2Z1Vzbzk3cmlaU3NZT2JSYUpXOHd6bUlvSHpKVW1IRXFaaUtWMHNNZ1p6NTlZYWdqS3BMT3dubTY2dDRDblNsQ3poeGNMMHdjdGx3VnU4ZkZPWVY3VDRSNDZWa252THphNVZoLW1tQm5LLTlWOUhwY0lSRzN5c09fQUUxUUl6dmk4Z01JWS1BY3JzWEM1NmVmZGhYelltRkZhQVM4VFZlLURlT3Z4Vl9MWVlMLTZOeHhkV2RDMGEwUzNNUElUb3J6WVh4X19rOVUwMWxPNU5oempxYnAxZEp4OU9aX09IdU9DRGYxbE9rRktWUjFQWUZUVVk5NHdLcW1HVThfeHJyY0ZQSEI0eHJhclg1REplLTV3Qk9YX1o4UFh2ZW5HM2wxcHc?oc=5</t>
+  </si>
+  <si>
+    <t>Opinion: Trump suggests the stock market may fall if the Supreme Court throws out his tariffs. Is he right?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wNBVV95cUxNMDNEaFJ4bmJTenVZZVpyVkF2bVdOU2F0LUlOazcwQk1qNld5VlZBTEdMMENPR1dLODA1RGxSNGRQbzhHMmF3X3lQaUprOEZxaFkwODBIZnJMV0RlTC1oR2QweGdzY253UUNtRW80RW9IVTlJZEVfaThWTXBvUHFuYXN5cC1FN1h0ckRxYTNCOVNpOWZ6UWxsbG1hOUx6TWJfdXZaYUJ4b2JQSVFfMXowZi0tN2JWdFVscmFfYkdlT0hiQ1B4SVFaYTFfVG5Mc2VVREZDMEVzbkEtOC1OZkd4NlJmcHpoTU5BTUp2R0haOHZBUlhRRjZ5YmRQUjdiNndjQUk3OHpiMFZFSG9ITllZWDZPMzJrcEJvTldEb1JlYVBUcDVpQ0ZFU1NkSDNnMnBydkl3a1pXQjJMNTRQclJUWFhJQVZNQ3NYWkJWLUI2T3dQUzVrRzVMTjRidGhkcXNHX0xreXRtS1BZQ2d6bDZSVUtqX0VVVWo2eC11VmVzUVhmYzRQd2FVOTBNOFVGYjZwZnFnQTBtdWFub0hUcVRuLUlfbzN0TzVrSG5JT1prZmhhdU5pZmV3WG9pWkxCOUVzcWdYSG90MmRKRExJaUJQOFFZRW9kRXNPRG1v?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s not going to the Supreme Court hearing on tariffs. But his treasury secretary will be there.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxPUkZ5M3c4OUNjRUtRb2pVUURSNWJwcGFoMmVZYVhhbWJoQ2VySzg4d1lUai1PRnp5aWlNeDJOZDFGM1lEaUd5c1l2UjFJOXI5My1oWWU2SmhJNmloWFRJWXVjX09YRjl6VEpHaDFpMk4wY080THdiVUdTZXZxSVJQamFPM29xQ1QzU09F?oc=5</t>
+  </si>
+  <si>
+    <t>bostonglobe.com</t>
+  </si>
+  <si>
+    <t>Malaysia Defends US Trade Deal as Concerns Grow Over Sovereignty</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQOXNwOE40MVd6dFQ0U2FqQTNJMWQ3b2Y5eGNsUzdBSTBTV0pLcGJvdG5LVDhSRFZ4ZWswalJscnpvN1psUDBjZVRKNy00MHRvU2lSRVlYRjlKbHFoSk9LdDc4aE5OUDI1bWxWN3Z0c3JRX3JsQjhSeDhiNjFOOHgwSnliWlNqM25QTHl4M1RSazBkR3pNUWpPMmZrOEwtbVhpdEJqZHNNVWZHZll3S0V6TzUtODVIZw?oc=5</t>
+  </si>
+  <si>
+    <t>mal, mala, GN</t>
+  </si>
+  <si>
+    <t>SM Energy, Civitas Merger Creates A New Shale Giant</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxQQ2RfUUcxVVUwS05yd1JyNXE5NnFZNXQtN2dEdDAzdG5ZMF9SMVpaS0YwZEh0NzNGMDhveWcxVllvUWxEMUsza3cwTDEyTWFwTFRXZVR2a3A1LTk2YS1rQXhxSHhmZFZDb0xUTXdLQmZ3R1lKcVhrSkZIYTdtWDNsR1JFQWRpVjlzYmUxUGU4RGRMOXBwQ21Pdndpek52WENoUHVtY2xfTS0?oc=5</t>
+  </si>
+  <si>
+    <t>SM Energy is acquiring Civitas in $13 billion oil and gas merger of near equals in the Permian Basin</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxPT0EtTWJHVVRZZTdsUzJaMXFyU2gxWDdaVHVKdlR6QVp0dkJGamFsZ1BRMmJuWFVxVVEzcDdFU0l2SUx0dUJxUmQwZ1J2MEtKb2ZZeE5WZU9OZm04QTBVMndoNjhpRk5iUGpxZlJUZnlGQnh5ZzN5VzMyeGNoZmQ5VDNCQUVOTHJlTGNKSVUwQVJLZnROaVozRE9SaXFfeXBfay1YSnkwMzRNc29FYkxZQkdqS01CMkxYVTloNWtiSnBMeDVJOHhrWkxUMA?oc=5</t>
+  </si>
+  <si>
+    <t>CapitaLand Investment Shares Rise After Report on Potential Merger With Mapletree Investments</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wNBVV95cUxQQ1RRVU14OGRuTTQyQmVQTVo4aXh4ajJNRnRWM2FUaENuSF80WWR6c1M3UTJ1SUVqVFU2Y3VuLVYtZWh4Y1BnYXAwQlcyYVRTU191S0M4MFJ4RWlldzNNX1VMaG00aWNXUjVTanExZmFDRTZmdk1HRWd0czBMazZ2V1pDNkVOVFVWaExwb1AzYUZYTXFjR2dab3hfQU13ZUtid3JnLTB0bDdyLVdxYkxTNVlidFBSc2dtZTAtYVczX21SYUplbm1FbUxuR0oxZWhHUUxLN3hMOWxvTFRoWU9IRjZpMTY2emZ4Y1NhM1JCZ1FOby1aNTdFa0dmRmhwOC0zSVAxTWI1cnFibE1zVnZYVk1DdmtmWnRmV21EMTU5X2FubWZGU3F5cG5GYzNrcTRNR3VhOVk1bUp4eTY5TjN4UFd2Q0dPYkJHczhxdzNlNFpsdzV3djlEaDNEM25hNFlWNVRBa1REQm5lNzRzOEhIOVZFLUdCR0xua0dtV3lRd1Fmb293Tk5PbVJwUmFxQnlkMkpSRmpFUHE2TlVCTmprbzRzbFlEYlpKaVRZNFZzZHY0Ynh5R0VGQWwyN29KYkdmOHNYTmY5RHpraUl3RzVYbXNOU3J4WEE?oc=5</t>
+  </si>
+  <si>
+    <t>Shutterstock Shares Fall as Merger Review Drags On</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgNBVV95cUxQZ0F2b1E2ZWZodVBoRzllR2hVYkdRb29rcy1qZzBBNE4xaTJwdDJCbjYyeVBvTHhjcXRyTnBia2V0TzQ1S2VEdURQMDhHaFp3eTFwSGxOUmxxcFlqUWFkYjlhVEE4QmlldXdmbzV1Uk9fZUkzNm5YbmctY0NvZFplaWlUWkFnbGwySjB0MmppQTR0Zl84SG90bjd2TDBBVkg4Q2Etd0otX0NtY014MnNaUmpQZ09WS01oMWxxZU5QYWtucS1Gb2pPSjJ5NlFkQ2FZdFNuSHBKaWVTSkxyNTQ0d2t6U0pQMFZLQ0ZpdUZJVF9oSWxNOTMxSnhjM0ZwTEI5TVNtWEN3X0Nsa3gyVlpIV0pUWllxdlRDN0pVeTdSSDhxNmlxek9hR1FUem5tYV9vTkg2MWRxekNmdHhXWWF6STVZS3ZNbmVHbkRTMmxCUmJlcE1IYU5FU1hmM08tUWVRcmZPYXlQTFdVcHRzLVZfZ2FORUZpaWQ4NTBLZmxsY0c2UHZ1cVhZOUVfSFZMYUtISDZ3TWFhTVVtdWV6M21qUHVEc05tTk5ZNXZCVE53?oc=5</t>
+  </si>
+  <si>
+    <t>German auto parts sector rushes to get China exemptions for Nexperia chip exports</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxOLTJoempraHBvWnVTWktpdnpOUms0NkRNamhKUGFhT2xNOEhKRlJ6Sk9aSDVicVhaVnltMUN4dWw4NWUyV0JEMV9ISUt3Yl9VeGJ5RWJLSC1sOFJvanBEbkVLRTl3Y2U1eDJ2UWc5Z1h4NnlVWkVvU00ybkU2ZG1LM1EyVzRUb1pFWFp2YVdGVF9HeVlhcGZIa3pnQVFNUG16amV6Qnc0bk1Jd001VENvSDFQUWVOdFQwR1Y4YWxxT1NxZw?oc=5</t>
+  </si>
+  <si>
+    <t>China urges Netherlands to stop disrupting global chip supply chain amid Nexperia turmoil</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNYTdkOENvNWs0RDhLdjB6RjlQd2kwVTFGS2lBUHdyb2JXNUt1WmxfMmEyUE9ORldrbF9JQjhZZW0zdFltR29zQXhSMjlwelNHY3JYTGJBd1pvYnR3RlNrYy1sR3hCVkJhNGNURFZGSEFvWWRkSEN4S2JJSWktc09Xblk2OXY1dG9Edlh5ejZNWmxMUzFHa3d3OUxUd2tBWngtalMtSVZvWFAtcmFzNnRRT0hyMEpDdWRhbjFqWWRoa3BvekRq?oc=5</t>
+  </si>
+  <si>
+    <t>Vulcan Elements Forges $1.4 Billion Partnership with the United States Government and ReElement Technologies to Expand 100% Vertically Integrated, Domestic Magnet Supply Chain</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywRBVV95cUxPb2t4UVRGRU5WYWxyUTVVWE5EYzYtMTBEU3VtOVZDczJvLTVrTmJKekpsd1VuZ2RNenpCZFVpOFcySF9xZXJSdGRaZVhTWXNFaE1STWdhZDJXQXFoMy1EbTU5cWFjYk51RXBEWG1iSUpzTUJzLWxrOWl6SXgxbnFkWjNyekh5NExqcEl5dEdidExlNHVoZ1ZqMmFodTFQTE9IaHVSZ0hDNEJrbkxvc0JLR0ltTDgwRmJhbkZ2dkN2ZFR0bHFJVkkxc21JM0lEWnBPTlNLVkxPeFdNeHpNaG1HWG9hbGNvVWl0QkZibGlESGF1QlhEM0wyUmRJWS05RkhvUTRmYXdxcEdEUmRyZHN0UjJjdXZmWUYtb3BvVE9jVzNtVGxmeUhzNThJRVhEWXRvNDRNMmRNdWJOVjFXSnF0WmZKVm40bURHNk1VV1Y2dWk1SVpkNUFBTHhvZVd2Q0I2ZXo5SXRVSzNrSTBWVnRvbHVjSmtlV09jN25UQXV6Vk11SmFnZFpxX19Wdy1YbGFSZ0diVk1GSWUwdFpPcXZWQmkwb1NzbmR6S2twTm5DWU5QN1FKSjlLNW1IQ3VsWWprR3JTcWl6MWVzbUF1RDVSNDMxc1dEQjI3WUx0SHM5OG5VLTlCb1k1SUE4Z1ktVnRBY2hmWm9hSy10MXJ1dGM4M2RoX3hwelNNOHQ4Vjh0dGxJZEFIQVNhMDZzWjJCTkhQWEpFa0xPVGtYRnFIUHlIbGEtdHpZZnVqV081aDRxOUctZmI1WHBZcjk0QQ?oc=5</t>
+  </si>
+  <si>
+    <t>How much does a $500,000 mortgage loan cost monthly after the Fed's October rate cut?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxPMUhCRFpKUFRvOXhvaDFfV2JIcnM0TG9CRzN5d2RyY2oxYWR2cS1NSHFMcW43NFRNNDFGMXJLNG56endUSUUwaFZfazRmT1N1VjNFcEQtZy1PeVB1Rjl5cFV2VXBLV1pvaXVyMEZUVEw1UFB1VFdZVWpBVlExcDdiY3EwMmY3VkJqMmNDT0d1c3VwYUFMbjByM1BWbVBoZER5LWZnaFFmcw?oc=5</t>
+  </si>
+  <si>
+    <t>How much does a $75,000 home equity loan cost monthly following the Fed's October rate cut?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOV2tsbXdlQ1R5eVhiVFhDTm9aMUZXdjFzem1ITVRNQWltWkRuYlR0bTlzUHk3OThScWJKd3NWUENzY0FkNC05c096dlAwQ2VuWWF3ajdmdEV3amZPanlVZzM1RzhfMkFvRUgwMDFESURkd3pZZFotbUVOTTBXNlBsV1N2V0ttTVB0dFBSOE50b0lLcWNyeVFOd2hBZUVrcDdXQVZB?oc=5</t>
   </si>
 </sst>
 </file>
@@ -3500,10 +4157,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B31F225-0F78-418E-AFD7-C81DB38FDFF9}">
-  <dimension ref="A1:N294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4ADB63-EAC2-4299-97E1-A477E8160E30}">
+  <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -13430,7 +14089,7 @@
         <v>7531000</v>
       </c>
       <c r="N259">
-        <v>6355.6226962730998</v>
+        <v>6355.6226960000004</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
@@ -13474,7 +14133,7 @@
         <v>7531000</v>
       </c>
       <c r="N260">
-        <v>6131.4907372043299</v>
+        <v>6131.4907370000001</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
@@ -13518,7 +14177,7 @@
         <v>7531000</v>
       </c>
       <c r="N261">
-        <v>6248.5094835514001</v>
+        <v>6248.5094840000002</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
@@ -13562,7 +14221,7 @@
         <v>7531000</v>
       </c>
       <c r="N262">
-        <v>7647.3553581655797</v>
+        <v>7647.3553579999998</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -13644,7 +14303,7 @@
         <v>5808000</v>
       </c>
       <c r="N264">
-        <v>5257.6881683656902</v>
+        <v>5257.6881679999997</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -13688,7 +14347,7 @@
         <v>43217020</v>
       </c>
       <c r="N265">
-        <v>49880.319332657702</v>
+        <v>49880.319329999998</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -13805,7 +14464,7 @@
         <v>21118000</v>
       </c>
       <c r="N268">
-        <v>22250.163518803001</v>
+        <v>22250.163519999998</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -14514,7 +15173,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45964</v>
       </c>
@@ -14549,7 +15208,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45964</v>
       </c>
@@ -14584,7 +15243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45964</v>
       </c>
@@ -14619,7 +15278,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45964</v>
       </c>
@@ -14654,7 +15313,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45964</v>
       </c>
@@ -14689,7 +15348,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45964</v>
       </c>
@@ -14722,6 +15381,3264 @@
       </c>
       <c r="L294" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B295" t="s">
+        <v>880</v>
+      </c>
+      <c r="C295" t="s">
+        <v>881</v>
+      </c>
+      <c r="D295" t="s">
+        <v>55</v>
+      </c>
+      <c r="E295" t="s">
+        <v>17</v>
+      </c>
+      <c r="F295" t="s">
+        <v>882</v>
+      </c>
+      <c r="G295" t="s">
+        <v>883</v>
+      </c>
+      <c r="H295" t="s">
+        <v>20</v>
+      </c>
+      <c r="I295" t="s">
+        <v>56</v>
+      </c>
+      <c r="J295" t="s">
+        <v>546</v>
+      </c>
+      <c r="K295" t="s">
+        <v>154</v>
+      </c>
+      <c r="L295" t="s">
+        <v>55</v>
+      </c>
+      <c r="M295">
+        <v>7531000</v>
+      </c>
+      <c r="N295">
+        <v>5565.141928</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B296" t="s">
+        <v>884</v>
+      </c>
+      <c r="C296" t="s">
+        <v>885</v>
+      </c>
+      <c r="D296" t="s">
+        <v>80</v>
+      </c>
+      <c r="E296" t="s">
+        <v>27</v>
+      </c>
+      <c r="F296" t="s">
+        <v>18</v>
+      </c>
+      <c r="G296" t="s">
+        <v>19</v>
+      </c>
+      <c r="H296" t="s">
+        <v>20</v>
+      </c>
+      <c r="I296" t="s">
+        <v>21</v>
+      </c>
+      <c r="J296" t="s">
+        <v>22</v>
+      </c>
+      <c r="K296" t="s">
+        <v>886</v>
+      </c>
+      <c r="L296" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B297" t="s">
+        <v>887</v>
+      </c>
+      <c r="C297" t="s">
+        <v>888</v>
+      </c>
+      <c r="D297" t="s">
+        <v>192</v>
+      </c>
+      <c r="E297" t="s">
+        <v>17</v>
+      </c>
+      <c r="F297" t="s">
+        <v>18</v>
+      </c>
+      <c r="G297" t="s">
+        <v>19</v>
+      </c>
+      <c r="H297" t="s">
+        <v>20</v>
+      </c>
+      <c r="I297" t="s">
+        <v>56</v>
+      </c>
+      <c r="J297" t="s">
+        <v>791</v>
+      </c>
+      <c r="K297" t="s">
+        <v>23</v>
+      </c>
+      <c r="L297" t="s">
+        <v>192</v>
+      </c>
+      <c r="M297">
+        <v>10340000</v>
+      </c>
+      <c r="N297">
+        <v>7421.6115799999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B298" t="s">
+        <v>889</v>
+      </c>
+      <c r="C298" t="s">
+        <v>890</v>
+      </c>
+      <c r="D298" t="s">
+        <v>66</v>
+      </c>
+      <c r="E298" t="s">
+        <v>27</v>
+      </c>
+      <c r="F298" t="s">
+        <v>18</v>
+      </c>
+      <c r="G298" t="s">
+        <v>891</v>
+      </c>
+      <c r="H298" t="s">
+        <v>20</v>
+      </c>
+      <c r="I298" t="s">
+        <v>56</v>
+      </c>
+      <c r="J298" t="s">
+        <v>22</v>
+      </c>
+      <c r="K298" t="s">
+        <v>892</v>
+      </c>
+      <c r="L298" t="s">
+        <v>66</v>
+      </c>
+      <c r="M298">
+        <v>1840825</v>
+      </c>
+      <c r="N298">
+        <v>1288.020651</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B299" t="s">
+        <v>893</v>
+      </c>
+      <c r="C299" t="s">
+        <v>894</v>
+      </c>
+      <c r="D299" t="s">
+        <v>66</v>
+      </c>
+      <c r="E299" t="s">
+        <v>27</v>
+      </c>
+      <c r="F299" t="s">
+        <v>18</v>
+      </c>
+      <c r="G299" t="s">
+        <v>895</v>
+      </c>
+      <c r="H299" t="s">
+        <v>20</v>
+      </c>
+      <c r="I299" t="s">
+        <v>56</v>
+      </c>
+      <c r="J299" t="s">
+        <v>896</v>
+      </c>
+      <c r="K299" t="s">
+        <v>892</v>
+      </c>
+      <c r="L299" t="s">
+        <v>66</v>
+      </c>
+      <c r="M299">
+        <v>1840825</v>
+      </c>
+      <c r="N299">
+        <v>1980.2177799999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B300" t="s">
+        <v>897</v>
+      </c>
+      <c r="C300" t="s">
+        <v>898</v>
+      </c>
+      <c r="D300" t="s">
+        <v>899</v>
+      </c>
+      <c r="E300" t="s">
+        <v>35</v>
+      </c>
+      <c r="F300" t="s">
+        <v>18</v>
+      </c>
+      <c r="G300" t="s">
+        <v>900</v>
+      </c>
+      <c r="H300" t="s">
+        <v>20</v>
+      </c>
+      <c r="I300" t="s">
+        <v>56</v>
+      </c>
+      <c r="J300" t="s">
+        <v>22</v>
+      </c>
+      <c r="K300" t="s">
+        <v>892</v>
+      </c>
+      <c r="L300" t="s">
+        <v>899</v>
+      </c>
+      <c r="M300">
+        <v>2226000</v>
+      </c>
+      <c r="N300">
+        <v>1980.2552430000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B301" t="s">
+        <v>901</v>
+      </c>
+      <c r="C301" t="s">
+        <v>902</v>
+      </c>
+      <c r="D301" t="s">
+        <v>55</v>
+      </c>
+      <c r="E301" t="s">
+        <v>87</v>
+      </c>
+      <c r="F301" t="s">
+        <v>18</v>
+      </c>
+      <c r="G301" t="s">
+        <v>19</v>
+      </c>
+      <c r="H301" t="s">
+        <v>20</v>
+      </c>
+      <c r="I301" t="s">
+        <v>56</v>
+      </c>
+      <c r="J301" t="s">
+        <v>22</v>
+      </c>
+      <c r="K301" t="s">
+        <v>892</v>
+      </c>
+      <c r="L301" t="s">
+        <v>55</v>
+      </c>
+      <c r="M301">
+        <v>7531000</v>
+      </c>
+      <c r="N301">
+        <v>4961.1623959999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B302" t="s">
+        <v>903</v>
+      </c>
+      <c r="C302" t="s">
+        <v>904</v>
+      </c>
+      <c r="D302" t="s">
+        <v>55</v>
+      </c>
+      <c r="E302" t="s">
+        <v>27</v>
+      </c>
+      <c r="F302" t="s">
+        <v>18</v>
+      </c>
+      <c r="G302" t="s">
+        <v>891</v>
+      </c>
+      <c r="H302" t="s">
+        <v>20</v>
+      </c>
+      <c r="I302" t="s">
+        <v>56</v>
+      </c>
+      <c r="J302" t="s">
+        <v>22</v>
+      </c>
+      <c r="K302" t="s">
+        <v>892</v>
+      </c>
+      <c r="L302" t="s">
+        <v>55</v>
+      </c>
+      <c r="M302">
+        <v>7531000</v>
+      </c>
+      <c r="N302">
+        <v>7785.2800150000003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B303" t="s">
+        <v>905</v>
+      </c>
+      <c r="C303" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" t="s">
+        <v>206</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="s">
+        <v>18</v>
+      </c>
+      <c r="G303" t="s">
+        <v>19</v>
+      </c>
+      <c r="H303" t="s">
+        <v>20</v>
+      </c>
+      <c r="I303" t="s">
+        <v>56</v>
+      </c>
+      <c r="J303" t="s">
+        <v>22</v>
+      </c>
+      <c r="K303" t="s">
+        <v>23</v>
+      </c>
+      <c r="L303" t="s">
+        <v>206</v>
+      </c>
+      <c r="M303">
+        <v>155076</v>
+      </c>
+      <c r="N303">
+        <v>129.33400889999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B304" t="s">
+        <v>907</v>
+      </c>
+      <c r="C304" t="s">
+        <v>908</v>
+      </c>
+      <c r="D304" t="s">
+        <v>206</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="s">
+        <v>18</v>
+      </c>
+      <c r="G304" t="s">
+        <v>909</v>
+      </c>
+      <c r="H304" t="s">
+        <v>20</v>
+      </c>
+      <c r="I304" t="s">
+        <v>56</v>
+      </c>
+      <c r="J304" t="s">
+        <v>910</v>
+      </c>
+      <c r="K304" t="s">
+        <v>911</v>
+      </c>
+      <c r="L304" t="s">
+        <v>206</v>
+      </c>
+      <c r="M304">
+        <v>155076</v>
+      </c>
+      <c r="N304">
+        <v>123.39992460000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B305" t="s">
+        <v>912</v>
+      </c>
+      <c r="C305" t="s">
+        <v>913</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305" t="s">
+        <v>27</v>
+      </c>
+      <c r="F305" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" t="s">
+        <v>20</v>
+      </c>
+      <c r="I305" t="s">
+        <v>21</v>
+      </c>
+      <c r="J305" t="s">
+        <v>22</v>
+      </c>
+      <c r="K305" t="s">
+        <v>886</v>
+      </c>
+      <c r="L305" t="s">
+        <v>26</v>
+      </c>
+      <c r="M305">
+        <v>27270000</v>
+      </c>
+      <c r="N305">
+        <v>20974.2019</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B306" t="s">
+        <v>914</v>
+      </c>
+      <c r="C306" t="s">
+        <v>915</v>
+      </c>
+      <c r="D306" t="s">
+        <v>26</v>
+      </c>
+      <c r="E306" t="s">
+        <v>35</v>
+      </c>
+      <c r="F306" t="s">
+        <v>18</v>
+      </c>
+      <c r="G306" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" t="s">
+        <v>20</v>
+      </c>
+      <c r="I306" t="s">
+        <v>56</v>
+      </c>
+      <c r="J306" t="s">
+        <v>22</v>
+      </c>
+      <c r="K306" t="s">
+        <v>892</v>
+      </c>
+      <c r="L306" t="s">
+        <v>26</v>
+      </c>
+      <c r="M306">
+        <v>27270000</v>
+      </c>
+      <c r="N306">
+        <v>32549.817200000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B307" t="s">
+        <v>916</v>
+      </c>
+      <c r="C307" t="s">
+        <v>917</v>
+      </c>
+      <c r="D307" t="s">
+        <v>326</v>
+      </c>
+      <c r="E307" t="s">
+        <v>27</v>
+      </c>
+      <c r="F307" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" t="s">
+        <v>19</v>
+      </c>
+      <c r="H307" t="s">
+        <v>20</v>
+      </c>
+      <c r="I307" t="s">
+        <v>21</v>
+      </c>
+      <c r="J307" t="s">
+        <v>411</v>
+      </c>
+      <c r="K307" t="s">
+        <v>886</v>
+      </c>
+      <c r="L307" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B308" t="s">
+        <v>918</v>
+      </c>
+      <c r="C308" t="s">
+        <v>919</v>
+      </c>
+      <c r="D308" t="s">
+        <v>146</v>
+      </c>
+      <c r="E308" t="s">
+        <v>17</v>
+      </c>
+      <c r="F308" t="s">
+        <v>162</v>
+      </c>
+      <c r="G308" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" t="s">
+        <v>29</v>
+      </c>
+      <c r="J308" t="s">
+        <v>920</v>
+      </c>
+      <c r="K308" t="s">
+        <v>159</v>
+      </c>
+      <c r="L308" t="s">
+        <v>146</v>
+      </c>
+      <c r="M308">
+        <v>66307</v>
+      </c>
+      <c r="N308">
+        <v>50.049934700000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B309" t="s">
+        <v>921</v>
+      </c>
+      <c r="C309" t="s">
+        <v>922</v>
+      </c>
+      <c r="D309" t="s">
+        <v>457</v>
+      </c>
+      <c r="E309" t="s">
+        <v>489</v>
+      </c>
+      <c r="F309" t="s">
+        <v>923</v>
+      </c>
+      <c r="G309" t="s">
+        <v>924</v>
+      </c>
+      <c r="H309" t="s">
+        <v>20</v>
+      </c>
+      <c r="I309" t="s">
+        <v>29</v>
+      </c>
+      <c r="K309" t="s">
+        <v>150</v>
+      </c>
+      <c r="L309" t="s">
+        <v>457</v>
+      </c>
+      <c r="M309">
+        <v>20901</v>
+      </c>
+      <c r="N309">
+        <v>23.867661729999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B310" t="s">
+        <v>925</v>
+      </c>
+      <c r="C310" t="s">
+        <v>926</v>
+      </c>
+      <c r="D310" t="s">
+        <v>51</v>
+      </c>
+      <c r="E310" t="s">
+        <v>17</v>
+      </c>
+      <c r="F310" t="s">
+        <v>364</v>
+      </c>
+      <c r="G310" t="s">
+        <v>927</v>
+      </c>
+      <c r="H310" t="s">
+        <v>20</v>
+      </c>
+      <c r="I310" t="s">
+        <v>21</v>
+      </c>
+      <c r="K310" t="s">
+        <v>159</v>
+      </c>
+      <c r="L310" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B311" t="s">
+        <v>928</v>
+      </c>
+      <c r="C311" t="s">
+        <v>929</v>
+      </c>
+      <c r="D311" t="s">
+        <v>66</v>
+      </c>
+      <c r="E311" t="s">
+        <v>27</v>
+      </c>
+      <c r="F311" t="s">
+        <v>364</v>
+      </c>
+      <c r="G311" t="s">
+        <v>19</v>
+      </c>
+      <c r="H311" t="s">
+        <v>20</v>
+      </c>
+      <c r="I311" t="s">
+        <v>21</v>
+      </c>
+      <c r="K311" t="s">
+        <v>159</v>
+      </c>
+      <c r="L311" t="s">
+        <v>66</v>
+      </c>
+      <c r="M311">
+        <v>1840825</v>
+      </c>
+      <c r="N311">
+        <v>1330.8880449999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B312" t="s">
+        <v>930</v>
+      </c>
+      <c r="C312" t="s">
+        <v>931</v>
+      </c>
+      <c r="D312" t="s">
+        <v>51</v>
+      </c>
+      <c r="E312" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" t="s">
+        <v>364</v>
+      </c>
+      <c r="G312" t="s">
+        <v>19</v>
+      </c>
+      <c r="H312" t="s">
+        <v>20</v>
+      </c>
+      <c r="I312" t="s">
+        <v>21</v>
+      </c>
+      <c r="J312" t="s">
+        <v>717</v>
+      </c>
+      <c r="K312" t="s">
+        <v>159</v>
+      </c>
+      <c r="L312" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B313" t="s">
+        <v>932</v>
+      </c>
+      <c r="C313" t="s">
+        <v>933</v>
+      </c>
+      <c r="D313" t="s">
+        <v>55</v>
+      </c>
+      <c r="E313" t="s">
+        <v>934</v>
+      </c>
+      <c r="F313" t="s">
+        <v>467</v>
+      </c>
+      <c r="G313" t="s">
+        <v>935</v>
+      </c>
+      <c r="H313" t="s">
+        <v>20</v>
+      </c>
+      <c r="I313" t="s">
+        <v>56</v>
+      </c>
+      <c r="K313" t="s">
+        <v>23</v>
+      </c>
+      <c r="L313" t="s">
+        <v>55</v>
+      </c>
+      <c r="M313">
+        <v>7531000</v>
+      </c>
+      <c r="N313">
+        <v>7885.4104049999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B314" t="s">
+        <v>936</v>
+      </c>
+      <c r="C314" t="s">
+        <v>937</v>
+      </c>
+      <c r="D314" t="s">
+        <v>206</v>
+      </c>
+      <c r="E314" t="s">
+        <v>489</v>
+      </c>
+      <c r="F314" t="s">
+        <v>148</v>
+      </c>
+      <c r="G314" t="s">
+        <v>938</v>
+      </c>
+      <c r="H314" t="s">
+        <v>20</v>
+      </c>
+      <c r="I314" t="s">
+        <v>56</v>
+      </c>
+      <c r="K314" t="s">
+        <v>150</v>
+      </c>
+      <c r="L314" t="s">
+        <v>206</v>
+      </c>
+      <c r="M314">
+        <v>155076</v>
+      </c>
+      <c r="N314">
+        <v>93.69292274</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B315" t="s">
+        <v>939</v>
+      </c>
+      <c r="C315" t="s">
+        <v>940</v>
+      </c>
+      <c r="D315" t="s">
+        <v>71</v>
+      </c>
+      <c r="E315" t="s">
+        <v>941</v>
+      </c>
+      <c r="F315" t="s">
+        <v>148</v>
+      </c>
+      <c r="G315" t="s">
+        <v>19</v>
+      </c>
+      <c r="H315" t="s">
+        <v>20</v>
+      </c>
+      <c r="I315" t="s">
+        <v>56</v>
+      </c>
+      <c r="K315" t="s">
+        <v>159</v>
+      </c>
+      <c r="L315" t="s">
+        <v>71</v>
+      </c>
+      <c r="M315">
+        <v>11190000</v>
+      </c>
+      <c r="N315">
+        <v>8036.8125950000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B316" t="s">
+        <v>942</v>
+      </c>
+      <c r="C316" t="s">
+        <v>943</v>
+      </c>
+      <c r="D316" t="s">
+        <v>55</v>
+      </c>
+      <c r="E316" t="s">
+        <v>489</v>
+      </c>
+      <c r="F316" t="s">
+        <v>168</v>
+      </c>
+      <c r="G316" t="s">
+        <v>944</v>
+      </c>
+      <c r="H316" t="s">
+        <v>20</v>
+      </c>
+      <c r="I316" t="s">
+        <v>29</v>
+      </c>
+      <c r="J316" t="s">
+        <v>945</v>
+      </c>
+      <c r="K316" t="s">
+        <v>946</v>
+      </c>
+      <c r="L316" t="s">
+        <v>55</v>
+      </c>
+      <c r="M316">
+        <v>7531000</v>
+      </c>
+      <c r="N316">
+        <v>7271.5166300000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B317" t="s">
+        <v>947</v>
+      </c>
+      <c r="C317" t="s">
+        <v>948</v>
+      </c>
+      <c r="D317" t="s">
+        <v>166</v>
+      </c>
+      <c r="E317" t="s">
+        <v>17</v>
+      </c>
+      <c r="F317" t="s">
+        <v>168</v>
+      </c>
+      <c r="G317" t="s">
+        <v>949</v>
+      </c>
+      <c r="H317" t="s">
+        <v>20</v>
+      </c>
+      <c r="I317" t="s">
+        <v>21</v>
+      </c>
+      <c r="K317" t="s">
+        <v>159</v>
+      </c>
+      <c r="L317" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B318" t="s">
+        <v>950</v>
+      </c>
+      <c r="C318" t="s">
+        <v>951</v>
+      </c>
+      <c r="D318" t="s">
+        <v>166</v>
+      </c>
+      <c r="E318" t="s">
+        <v>17</v>
+      </c>
+      <c r="F318" t="s">
+        <v>168</v>
+      </c>
+      <c r="G318" t="s">
+        <v>952</v>
+      </c>
+      <c r="H318" t="s">
+        <v>20</v>
+      </c>
+      <c r="I318" t="s">
+        <v>21</v>
+      </c>
+      <c r="J318" t="s">
+        <v>480</v>
+      </c>
+      <c r="K318" t="s">
+        <v>159</v>
+      </c>
+      <c r="L318" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B319" t="s">
+        <v>953</v>
+      </c>
+      <c r="C319" t="s">
+        <v>954</v>
+      </c>
+      <c r="D319" t="s">
+        <v>166</v>
+      </c>
+      <c r="E319" t="s">
+        <v>17</v>
+      </c>
+      <c r="F319" t="s">
+        <v>168</v>
+      </c>
+      <c r="G319" t="s">
+        <v>19</v>
+      </c>
+      <c r="H319" t="s">
+        <v>20</v>
+      </c>
+      <c r="I319" t="s">
+        <v>21</v>
+      </c>
+      <c r="K319" t="s">
+        <v>159</v>
+      </c>
+      <c r="L319" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B320" t="s">
+        <v>955</v>
+      </c>
+      <c r="C320" t="s">
+        <v>956</v>
+      </c>
+      <c r="D320" t="s">
+        <v>166</v>
+      </c>
+      <c r="E320" t="s">
+        <v>17</v>
+      </c>
+      <c r="F320" t="s">
+        <v>168</v>
+      </c>
+      <c r="G320" t="s">
+        <v>957</v>
+      </c>
+      <c r="H320" t="s">
+        <v>20</v>
+      </c>
+      <c r="I320" t="s">
+        <v>21</v>
+      </c>
+      <c r="J320" t="s">
+        <v>717</v>
+      </c>
+      <c r="K320" t="s">
+        <v>23</v>
+      </c>
+      <c r="L320" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B321" t="s">
+        <v>958</v>
+      </c>
+      <c r="C321" t="s">
+        <v>959</v>
+      </c>
+      <c r="D321" t="s">
+        <v>166</v>
+      </c>
+      <c r="E321" t="s">
+        <v>17</v>
+      </c>
+      <c r="F321" t="s">
+        <v>168</v>
+      </c>
+      <c r="G321" t="s">
+        <v>960</v>
+      </c>
+      <c r="H321" t="s">
+        <v>20</v>
+      </c>
+      <c r="I321" t="s">
+        <v>21</v>
+      </c>
+      <c r="J321" t="s">
+        <v>961</v>
+      </c>
+      <c r="K321" t="s">
+        <v>159</v>
+      </c>
+      <c r="L321" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B322" t="s">
+        <v>962</v>
+      </c>
+      <c r="C322" t="s">
+        <v>963</v>
+      </c>
+      <c r="D322" t="s">
+        <v>77</v>
+      </c>
+      <c r="E322" t="s">
+        <v>964</v>
+      </c>
+      <c r="F322" t="s">
+        <v>199</v>
+      </c>
+      <c r="G322" t="s">
+        <v>19</v>
+      </c>
+      <c r="H322" t="s">
+        <v>20</v>
+      </c>
+      <c r="I322" t="s">
+        <v>56</v>
+      </c>
+      <c r="K322" t="s">
+        <v>159</v>
+      </c>
+      <c r="L322" t="s">
+        <v>77</v>
+      </c>
+      <c r="M322">
+        <v>8156000</v>
+      </c>
+      <c r="N322">
+        <v>5071.6840709999997</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B323" t="s">
+        <v>965</v>
+      </c>
+      <c r="C323" t="s">
+        <v>966</v>
+      </c>
+      <c r="D323" t="s">
+        <v>55</v>
+      </c>
+      <c r="E323" t="s">
+        <v>132</v>
+      </c>
+      <c r="F323" t="s">
+        <v>467</v>
+      </c>
+      <c r="G323" t="s">
+        <v>967</v>
+      </c>
+      <c r="H323" t="s">
+        <v>20</v>
+      </c>
+      <c r="I323" t="s">
+        <v>21</v>
+      </c>
+      <c r="K323" t="s">
+        <v>154</v>
+      </c>
+      <c r="L323" t="s">
+        <v>55</v>
+      </c>
+      <c r="M323">
+        <v>7531000</v>
+      </c>
+      <c r="N323">
+        <v>7757.2312250000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B324" t="s">
+        <v>968</v>
+      </c>
+      <c r="C324" t="s">
+        <v>969</v>
+      </c>
+      <c r="D324" t="s">
+        <v>16</v>
+      </c>
+      <c r="E324" t="s">
+        <v>17</v>
+      </c>
+      <c r="F324" t="s">
+        <v>467</v>
+      </c>
+      <c r="G324" t="s">
+        <v>970</v>
+      </c>
+      <c r="H324" t="s">
+        <v>20</v>
+      </c>
+      <c r="I324" t="s">
+        <v>29</v>
+      </c>
+      <c r="K324" t="s">
+        <v>154</v>
+      </c>
+      <c r="L324" t="s">
+        <v>16</v>
+      </c>
+      <c r="M324">
+        <v>21118000</v>
+      </c>
+      <c r="N324">
+        <v>15428.141460000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B325" t="s">
+        <v>971</v>
+      </c>
+      <c r="C325" t="s">
+        <v>972</v>
+      </c>
+      <c r="D325" t="s">
+        <v>55</v>
+      </c>
+      <c r="E325" t="s">
+        <v>27</v>
+      </c>
+      <c r="F325" t="s">
+        <v>172</v>
+      </c>
+      <c r="G325" t="s">
+        <v>973</v>
+      </c>
+      <c r="H325" t="s">
+        <v>20</v>
+      </c>
+      <c r="I325" t="s">
+        <v>56</v>
+      </c>
+      <c r="K325" t="s">
+        <v>159</v>
+      </c>
+      <c r="L325" t="s">
+        <v>55</v>
+      </c>
+      <c r="M325">
+        <v>7531000</v>
+      </c>
+      <c r="N325">
+        <v>6312.7469010000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B326" t="s">
+        <v>974</v>
+      </c>
+      <c r="C326" t="s">
+        <v>975</v>
+      </c>
+      <c r="D326" t="s">
+        <v>55</v>
+      </c>
+      <c r="E326" t="s">
+        <v>27</v>
+      </c>
+      <c r="F326" t="s">
+        <v>172</v>
+      </c>
+      <c r="G326" t="s">
+        <v>976</v>
+      </c>
+      <c r="H326" t="s">
+        <v>20</v>
+      </c>
+      <c r="I326" t="s">
+        <v>56</v>
+      </c>
+      <c r="J326" t="s">
+        <v>469</v>
+      </c>
+      <c r="K326" t="s">
+        <v>154</v>
+      </c>
+      <c r="L326" t="s">
+        <v>55</v>
+      </c>
+      <c r="M326">
+        <v>7531000</v>
+      </c>
+      <c r="N326">
+        <v>7973.5513989999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B327" t="s">
+        <v>977</v>
+      </c>
+      <c r="C327" t="s">
+        <v>978</v>
+      </c>
+      <c r="D327" t="s">
+        <v>97</v>
+      </c>
+      <c r="E327" t="s">
+        <v>27</v>
+      </c>
+      <c r="F327" t="s">
+        <v>172</v>
+      </c>
+      <c r="G327" t="s">
+        <v>979</v>
+      </c>
+      <c r="H327" t="s">
+        <v>20</v>
+      </c>
+      <c r="I327" t="s">
+        <v>21</v>
+      </c>
+      <c r="K327" t="s">
+        <v>549</v>
+      </c>
+      <c r="L327" t="s">
+        <v>97</v>
+      </c>
+      <c r="M327">
+        <v>43440000</v>
+      </c>
+      <c r="N327">
+        <v>39724.521370000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B328" t="s">
+        <v>980</v>
+      </c>
+      <c r="C328" t="s">
+        <v>981</v>
+      </c>
+      <c r="D328" t="s">
+        <v>51</v>
+      </c>
+      <c r="E328" t="s">
+        <v>87</v>
+      </c>
+      <c r="F328" t="s">
+        <v>137</v>
+      </c>
+      <c r="G328" t="s">
+        <v>19</v>
+      </c>
+      <c r="H328" t="s">
+        <v>20</v>
+      </c>
+      <c r="I328" t="s">
+        <v>21</v>
+      </c>
+      <c r="K328" t="s">
+        <v>23</v>
+      </c>
+      <c r="L328" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B329" t="s">
+        <v>982</v>
+      </c>
+      <c r="C329" t="s">
+        <v>983</v>
+      </c>
+      <c r="D329" t="s">
+        <v>326</v>
+      </c>
+      <c r="E329" t="s">
+        <v>27</v>
+      </c>
+      <c r="F329" t="s">
+        <v>18</v>
+      </c>
+      <c r="G329" t="s">
+        <v>19</v>
+      </c>
+      <c r="H329" t="s">
+        <v>216</v>
+      </c>
+      <c r="I329" t="s">
+        <v>21</v>
+      </c>
+      <c r="K329" t="s">
+        <v>159</v>
+      </c>
+      <c r="L329" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B330" t="s">
+        <v>984</v>
+      </c>
+      <c r="C330" t="s">
+        <v>985</v>
+      </c>
+      <c r="D330" t="s">
+        <v>326</v>
+      </c>
+      <c r="E330" t="s">
+        <v>27</v>
+      </c>
+      <c r="F330" t="s">
+        <v>18</v>
+      </c>
+      <c r="G330" t="s">
+        <v>19</v>
+      </c>
+      <c r="H330" t="s">
+        <v>216</v>
+      </c>
+      <c r="I330" t="s">
+        <v>21</v>
+      </c>
+      <c r="K330" t="s">
+        <v>154</v>
+      </c>
+      <c r="L330" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B331" t="s">
+        <v>986</v>
+      </c>
+      <c r="C331" t="s">
+        <v>987</v>
+      </c>
+      <c r="D331" t="s">
+        <v>326</v>
+      </c>
+      <c r="E331" t="s">
+        <v>27</v>
+      </c>
+      <c r="F331" t="s">
+        <v>18</v>
+      </c>
+      <c r="G331" t="s">
+        <v>19</v>
+      </c>
+      <c r="H331" t="s">
+        <v>216</v>
+      </c>
+      <c r="I331" t="s">
+        <v>21</v>
+      </c>
+      <c r="K331" t="s">
+        <v>154</v>
+      </c>
+      <c r="L331" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B332" t="s">
+        <v>988</v>
+      </c>
+      <c r="C332" t="s">
+        <v>989</v>
+      </c>
+      <c r="D332" t="s">
+        <v>326</v>
+      </c>
+      <c r="E332" t="s">
+        <v>35</v>
+      </c>
+      <c r="F332" t="s">
+        <v>18</v>
+      </c>
+      <c r="G332" t="s">
+        <v>19</v>
+      </c>
+      <c r="H332" t="s">
+        <v>216</v>
+      </c>
+      <c r="I332" t="s">
+        <v>21</v>
+      </c>
+      <c r="K332" t="s">
+        <v>154</v>
+      </c>
+      <c r="L332" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B333" t="s">
+        <v>990</v>
+      </c>
+      <c r="C333" t="s">
+        <v>991</v>
+      </c>
+      <c r="D333" t="s">
+        <v>326</v>
+      </c>
+      <c r="E333" t="s">
+        <v>27</v>
+      </c>
+      <c r="F333" t="s">
+        <v>18</v>
+      </c>
+      <c r="G333" t="s">
+        <v>19</v>
+      </c>
+      <c r="H333" t="s">
+        <v>216</v>
+      </c>
+      <c r="I333" t="s">
+        <v>21</v>
+      </c>
+      <c r="K333" t="s">
+        <v>154</v>
+      </c>
+      <c r="L333" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B334" t="s">
+        <v>992</v>
+      </c>
+      <c r="C334" t="s">
+        <v>993</v>
+      </c>
+      <c r="D334" t="s">
+        <v>326</v>
+      </c>
+      <c r="E334" t="s">
+        <v>27</v>
+      </c>
+      <c r="F334" t="s">
+        <v>18</v>
+      </c>
+      <c r="G334" t="s">
+        <v>19</v>
+      </c>
+      <c r="H334" t="s">
+        <v>216</v>
+      </c>
+      <c r="I334" t="s">
+        <v>56</v>
+      </c>
+      <c r="K334" t="s">
+        <v>154</v>
+      </c>
+      <c r="L334" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B335" t="s">
+        <v>994</v>
+      </c>
+      <c r="C335" t="s">
+        <v>995</v>
+      </c>
+      <c r="D335" t="s">
+        <v>326</v>
+      </c>
+      <c r="E335" t="s">
+        <v>27</v>
+      </c>
+      <c r="F335" t="s">
+        <v>18</v>
+      </c>
+      <c r="G335" t="s">
+        <v>19</v>
+      </c>
+      <c r="H335" t="s">
+        <v>216</v>
+      </c>
+      <c r="I335" t="s">
+        <v>21</v>
+      </c>
+      <c r="K335" t="s">
+        <v>154</v>
+      </c>
+      <c r="L335" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B336" t="s">
+        <v>996</v>
+      </c>
+      <c r="C336" t="s">
+        <v>997</v>
+      </c>
+      <c r="D336" t="s">
+        <v>241</v>
+      </c>
+      <c r="E336" t="s">
+        <v>27</v>
+      </c>
+      <c r="F336" t="s">
+        <v>18</v>
+      </c>
+      <c r="G336" t="s">
+        <v>998</v>
+      </c>
+      <c r="H336" t="s">
+        <v>216</v>
+      </c>
+      <c r="I336" t="s">
+        <v>21</v>
+      </c>
+      <c r="K336" t="s">
+        <v>154</v>
+      </c>
+      <c r="L336" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B337" t="s">
+        <v>999</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D337" t="s">
+        <v>219</v>
+      </c>
+      <c r="E337" t="s">
+        <v>27</v>
+      </c>
+      <c r="F337" t="s">
+        <v>18</v>
+      </c>
+      <c r="G337" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" t="s">
+        <v>216</v>
+      </c>
+      <c r="I337" t="s">
+        <v>21</v>
+      </c>
+      <c r="K337" t="s">
+        <v>159</v>
+      </c>
+      <c r="L337" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D338" t="s">
+        <v>219</v>
+      </c>
+      <c r="E338" t="s">
+        <v>27</v>
+      </c>
+      <c r="F338" t="s">
+        <v>18</v>
+      </c>
+      <c r="G338" t="s">
+        <v>19</v>
+      </c>
+      <c r="H338" t="s">
+        <v>216</v>
+      </c>
+      <c r="I338" t="s">
+        <v>56</v>
+      </c>
+      <c r="K338" t="s">
+        <v>159</v>
+      </c>
+      <c r="L338" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D339" t="s">
+        <v>214</v>
+      </c>
+      <c r="E339" t="s">
+        <v>27</v>
+      </c>
+      <c r="F339" t="s">
+        <v>18</v>
+      </c>
+      <c r="G339" t="s">
+        <v>19</v>
+      </c>
+      <c r="H339" t="s">
+        <v>216</v>
+      </c>
+      <c r="I339" t="s">
+        <v>21</v>
+      </c>
+      <c r="K339" t="s">
+        <v>154</v>
+      </c>
+      <c r="L339" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D340" t="s">
+        <v>214</v>
+      </c>
+      <c r="E340" t="s">
+        <v>35</v>
+      </c>
+      <c r="F340" t="s">
+        <v>18</v>
+      </c>
+      <c r="G340" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" t="s">
+        <v>216</v>
+      </c>
+      <c r="I340" t="s">
+        <v>21</v>
+      </c>
+      <c r="K340" t="s">
+        <v>154</v>
+      </c>
+      <c r="L340" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D341" t="s">
+        <v>214</v>
+      </c>
+      <c r="E341" t="s">
+        <v>132</v>
+      </c>
+      <c r="F341" t="s">
+        <v>18</v>
+      </c>
+      <c r="G341" t="s">
+        <v>19</v>
+      </c>
+      <c r="H341" t="s">
+        <v>216</v>
+      </c>
+      <c r="I341" t="s">
+        <v>21</v>
+      </c>
+      <c r="K341" t="s">
+        <v>154</v>
+      </c>
+      <c r="L341" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D342" t="s">
+        <v>233</v>
+      </c>
+      <c r="E342" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342" t="s">
+        <v>18</v>
+      </c>
+      <c r="G342" t="s">
+        <v>19</v>
+      </c>
+      <c r="H342" t="s">
+        <v>216</v>
+      </c>
+      <c r="I342" t="s">
+        <v>56</v>
+      </c>
+      <c r="K342" t="s">
+        <v>159</v>
+      </c>
+      <c r="L342" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C343" t="s">
+        <v>827</v>
+      </c>
+      <c r="D343" t="s">
+        <v>233</v>
+      </c>
+      <c r="E343" t="s">
+        <v>27</v>
+      </c>
+      <c r="F343" t="s">
+        <v>18</v>
+      </c>
+      <c r="G343" t="s">
+        <v>19</v>
+      </c>
+      <c r="H343" t="s">
+        <v>216</v>
+      </c>
+      <c r="I343" t="s">
+        <v>21</v>
+      </c>
+      <c r="K343" t="s">
+        <v>154</v>
+      </c>
+      <c r="L343" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C344" t="s">
+        <v>832</v>
+      </c>
+      <c r="D344" t="s">
+        <v>233</v>
+      </c>
+      <c r="E344" t="s">
+        <v>27</v>
+      </c>
+      <c r="F344" t="s">
+        <v>18</v>
+      </c>
+      <c r="G344" t="s">
+        <v>833</v>
+      </c>
+      <c r="H344" t="s">
+        <v>216</v>
+      </c>
+      <c r="I344" t="s">
+        <v>56</v>
+      </c>
+      <c r="K344" t="s">
+        <v>159</v>
+      </c>
+      <c r="L344" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D345" t="s">
+        <v>233</v>
+      </c>
+      <c r="E345" t="s">
+        <v>27</v>
+      </c>
+      <c r="F345" t="s">
+        <v>18</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H345" t="s">
+        <v>216</v>
+      </c>
+      <c r="I345" t="s">
+        <v>29</v>
+      </c>
+      <c r="K345" t="s">
+        <v>159</v>
+      </c>
+      <c r="L345" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D346" t="s">
+        <v>233</v>
+      </c>
+      <c r="E346" t="s">
+        <v>35</v>
+      </c>
+      <c r="F346" t="s">
+        <v>18</v>
+      </c>
+      <c r="G346" t="s">
+        <v>19</v>
+      </c>
+      <c r="H346" t="s">
+        <v>216</v>
+      </c>
+      <c r="I346" t="s">
+        <v>56</v>
+      </c>
+      <c r="K346" t="s">
+        <v>159</v>
+      </c>
+      <c r="L346" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D347" t="s">
+        <v>233</v>
+      </c>
+      <c r="E347" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" t="s">
+        <v>18</v>
+      </c>
+      <c r="G347" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" t="s">
+        <v>216</v>
+      </c>
+      <c r="I347" t="s">
+        <v>21</v>
+      </c>
+      <c r="K347" t="s">
+        <v>154</v>
+      </c>
+      <c r="L347" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D348" t="s">
+        <v>233</v>
+      </c>
+      <c r="E348" t="s">
+        <v>132</v>
+      </c>
+      <c r="F348" t="s">
+        <v>18</v>
+      </c>
+      <c r="G348" t="s">
+        <v>19</v>
+      </c>
+      <c r="H348" t="s">
+        <v>216</v>
+      </c>
+      <c r="I348" t="s">
+        <v>56</v>
+      </c>
+      <c r="K348" t="s">
+        <v>154</v>
+      </c>
+      <c r="L348" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D349" t="s">
+        <v>347</v>
+      </c>
+      <c r="E349" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" t="s">
+        <v>18</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H349" t="s">
+        <v>216</v>
+      </c>
+      <c r="I349" t="s">
+        <v>21</v>
+      </c>
+      <c r="K349" t="s">
+        <v>159</v>
+      </c>
+      <c r="L349" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D350" t="s">
+        <v>229</v>
+      </c>
+      <c r="E350" t="s">
+        <v>27</v>
+      </c>
+      <c r="F350" t="s">
+        <v>18</v>
+      </c>
+      <c r="G350" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" t="s">
+        <v>216</v>
+      </c>
+      <c r="I350" t="s">
+        <v>21</v>
+      </c>
+      <c r="K350" t="s">
+        <v>154</v>
+      </c>
+      <c r="L350" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D351" t="s">
+        <v>229</v>
+      </c>
+      <c r="E351" t="s">
+        <v>27</v>
+      </c>
+      <c r="F351" t="s">
+        <v>18</v>
+      </c>
+      <c r="G351" t="s">
+        <v>19</v>
+      </c>
+      <c r="H351" t="s">
+        <v>216</v>
+      </c>
+      <c r="I351" t="s">
+        <v>21</v>
+      </c>
+      <c r="K351" t="s">
+        <v>154</v>
+      </c>
+      <c r="L351" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D352" t="s">
+        <v>262</v>
+      </c>
+      <c r="E352" t="s">
+        <v>27</v>
+      </c>
+      <c r="F352" t="s">
+        <v>18</v>
+      </c>
+      <c r="G352" t="s">
+        <v>215</v>
+      </c>
+      <c r="H352" t="s">
+        <v>216</v>
+      </c>
+      <c r="I352" t="s">
+        <v>21</v>
+      </c>
+      <c r="K352" t="s">
+        <v>154</v>
+      </c>
+      <c r="L352" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D353" t="s">
+        <v>284</v>
+      </c>
+      <c r="E353" t="s">
+        <v>27</v>
+      </c>
+      <c r="F353" t="s">
+        <v>18</v>
+      </c>
+      <c r="G353" t="s">
+        <v>477</v>
+      </c>
+      <c r="H353" t="s">
+        <v>216</v>
+      </c>
+      <c r="I353" t="s">
+        <v>21</v>
+      </c>
+      <c r="K353" t="s">
+        <v>154</v>
+      </c>
+      <c r="L353" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D354" t="s">
+        <v>301</v>
+      </c>
+      <c r="E354" t="s">
+        <v>27</v>
+      </c>
+      <c r="F354" t="s">
+        <v>18</v>
+      </c>
+      <c r="G354" t="s">
+        <v>19</v>
+      </c>
+      <c r="H354" t="s">
+        <v>216</v>
+      </c>
+      <c r="I354" t="s">
+        <v>21</v>
+      </c>
+      <c r="K354" t="s">
+        <v>154</v>
+      </c>
+      <c r="L354" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D355" t="s">
+        <v>317</v>
+      </c>
+      <c r="E355" t="s">
+        <v>27</v>
+      </c>
+      <c r="F355" t="s">
+        <v>18</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H355" t="s">
+        <v>216</v>
+      </c>
+      <c r="I355" t="s">
+        <v>56</v>
+      </c>
+      <c r="K355" t="s">
+        <v>159</v>
+      </c>
+      <c r="L355" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D356" t="s">
+        <v>317</v>
+      </c>
+      <c r="E356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F356" t="s">
+        <v>18</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H356" t="s">
+        <v>216</v>
+      </c>
+      <c r="I356" t="s">
+        <v>21</v>
+      </c>
+      <c r="K356" t="s">
+        <v>154</v>
+      </c>
+      <c r="L356" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D357" t="s">
+        <v>317</v>
+      </c>
+      <c r="E357" t="s">
+        <v>27</v>
+      </c>
+      <c r="F357" t="s">
+        <v>18</v>
+      </c>
+      <c r="G357" t="s">
+        <v>215</v>
+      </c>
+      <c r="H357" t="s">
+        <v>216</v>
+      </c>
+      <c r="I357" t="s">
+        <v>21</v>
+      </c>
+      <c r="K357" t="s">
+        <v>159</v>
+      </c>
+      <c r="L357" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D358" t="s">
+        <v>293</v>
+      </c>
+      <c r="E358" t="s">
+        <v>27</v>
+      </c>
+      <c r="F358" t="s">
+        <v>18</v>
+      </c>
+      <c r="G358" t="s">
+        <v>19</v>
+      </c>
+      <c r="H358" t="s">
+        <v>216</v>
+      </c>
+      <c r="I358" t="s">
+        <v>21</v>
+      </c>
+      <c r="K358" t="s">
+        <v>154</v>
+      </c>
+      <c r="L358" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D359" t="s">
+        <v>269</v>
+      </c>
+      <c r="E359" t="s">
+        <v>27</v>
+      </c>
+      <c r="F359" t="s">
+        <v>18</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H359" t="s">
+        <v>216</v>
+      </c>
+      <c r="I359" t="s">
+        <v>56</v>
+      </c>
+      <c r="K359" t="s">
+        <v>154</v>
+      </c>
+      <c r="L359" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D360" t="s">
+        <v>237</v>
+      </c>
+      <c r="E360" t="s">
+        <v>27</v>
+      </c>
+      <c r="F360" t="s">
+        <v>18</v>
+      </c>
+      <c r="G360" t="s">
+        <v>19</v>
+      </c>
+      <c r="H360" t="s">
+        <v>216</v>
+      </c>
+      <c r="I360" t="s">
+        <v>21</v>
+      </c>
+      <c r="K360" t="s">
+        <v>159</v>
+      </c>
+      <c r="L360" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D361" t="s">
+        <v>245</v>
+      </c>
+      <c r="E361" t="s">
+        <v>27</v>
+      </c>
+      <c r="F361" t="s">
+        <v>18</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H361" t="s">
+        <v>216</v>
+      </c>
+      <c r="I361" t="s">
+        <v>21</v>
+      </c>
+      <c r="K361" t="s">
+        <v>154</v>
+      </c>
+      <c r="L361" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D362" t="s">
+        <v>273</v>
+      </c>
+      <c r="E362" t="s">
+        <v>27</v>
+      </c>
+      <c r="F362" t="s">
+        <v>18</v>
+      </c>
+      <c r="G362" t="s">
+        <v>19</v>
+      </c>
+      <c r="H362" t="s">
+        <v>216</v>
+      </c>
+      <c r="I362" t="s">
+        <v>21</v>
+      </c>
+      <c r="K362" t="s">
+        <v>154</v>
+      </c>
+      <c r="L362" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D363" t="s">
+        <v>273</v>
+      </c>
+      <c r="E363" t="s">
+        <v>27</v>
+      </c>
+      <c r="F363" t="s">
+        <v>18</v>
+      </c>
+      <c r="G363" t="s">
+        <v>19</v>
+      </c>
+      <c r="H363" t="s">
+        <v>216</v>
+      </c>
+      <c r="I363" t="s">
+        <v>21</v>
+      </c>
+      <c r="K363" t="s">
+        <v>159</v>
+      </c>
+      <c r="L363" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E364" t="s">
+        <v>27</v>
+      </c>
+      <c r="F364" t="s">
+        <v>18</v>
+      </c>
+      <c r="G364" t="s">
+        <v>19</v>
+      </c>
+      <c r="H364" t="s">
+        <v>216</v>
+      </c>
+      <c r="I364" t="s">
+        <v>21</v>
+      </c>
+      <c r="K364" t="s">
+        <v>159</v>
+      </c>
+      <c r="L364" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D365" t="s">
+        <v>210</v>
+      </c>
+      <c r="E365" t="s">
+        <v>27</v>
+      </c>
+      <c r="F365" t="s">
+        <v>18</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H365" t="s">
+        <v>216</v>
+      </c>
+      <c r="I365" t="s">
+        <v>21</v>
+      </c>
+      <c r="K365" t="s">
+        <v>892</v>
+      </c>
+      <c r="L365" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D366" t="s">
+        <v>210</v>
+      </c>
+      <c r="E366" t="s">
+        <v>27</v>
+      </c>
+      <c r="F366" t="s">
+        <v>18</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H366" t="s">
+        <v>216</v>
+      </c>
+      <c r="I366" t="s">
+        <v>56</v>
+      </c>
+      <c r="K366" t="s">
+        <v>159</v>
+      </c>
+      <c r="L366" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D367" t="s">
+        <v>296</v>
+      </c>
+      <c r="E367" t="s">
+        <v>27</v>
+      </c>
+      <c r="F367" t="s">
+        <v>18</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H367" t="s">
+        <v>216</v>
+      </c>
+      <c r="I367" t="s">
+        <v>21</v>
+      </c>
+      <c r="K367" t="s">
+        <v>154</v>
+      </c>
+      <c r="L367" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D368" t="s">
+        <v>659</v>
+      </c>
+      <c r="E368" t="s">
+        <v>27</v>
+      </c>
+      <c r="F368" t="s">
+        <v>18</v>
+      </c>
+      <c r="G368" t="s">
+        <v>19</v>
+      </c>
+      <c r="H368" t="s">
+        <v>216</v>
+      </c>
+      <c r="I368" t="s">
+        <v>21</v>
+      </c>
+      <c r="J368" t="s">
+        <v>358</v>
+      </c>
+      <c r="K368" t="s">
+        <v>154</v>
+      </c>
+      <c r="L368" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D369" t="s">
+        <v>224</v>
+      </c>
+      <c r="E369" t="s">
+        <v>27</v>
+      </c>
+      <c r="F369" t="s">
+        <v>18</v>
+      </c>
+      <c r="G369" t="s">
+        <v>19</v>
+      </c>
+      <c r="H369" t="s">
+        <v>216</v>
+      </c>
+      <c r="I369" t="s">
+        <v>56</v>
+      </c>
+      <c r="K369" t="s">
+        <v>159</v>
+      </c>
+      <c r="L369" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D370" t="s">
+        <v>224</v>
+      </c>
+      <c r="E370" t="s">
+        <v>27</v>
+      </c>
+      <c r="F370" t="s">
+        <v>18</v>
+      </c>
+      <c r="G370" t="s">
+        <v>19</v>
+      </c>
+      <c r="H370" t="s">
+        <v>216</v>
+      </c>
+      <c r="I370" t="s">
+        <v>21</v>
+      </c>
+      <c r="K370" t="s">
+        <v>154</v>
+      </c>
+      <c r="L370" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E371" t="s">
+        <v>27</v>
+      </c>
+      <c r="F371" t="s">
+        <v>18</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H371" t="s">
+        <v>216</v>
+      </c>
+      <c r="I371" t="s">
+        <v>21</v>
+      </c>
+      <c r="K371" t="s">
+        <v>154</v>
+      </c>
+      <c r="L371" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D372" t="s">
+        <v>214</v>
+      </c>
+      <c r="E372" t="s">
+        <v>35</v>
+      </c>
+      <c r="F372" t="s">
+        <v>331</v>
+      </c>
+      <c r="G372" t="s">
+        <v>19</v>
+      </c>
+      <c r="H372" t="s">
+        <v>216</v>
+      </c>
+      <c r="I372" t="s">
+        <v>21</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K372" t="s">
+        <v>159</v>
+      </c>
+      <c r="L372" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D373" t="s">
+        <v>273</v>
+      </c>
+      <c r="E373" t="s">
+        <v>27</v>
+      </c>
+      <c r="F373" t="s">
+        <v>364</v>
+      </c>
+      <c r="G373" t="s">
+        <v>19</v>
+      </c>
+      <c r="H373" t="s">
+        <v>216</v>
+      </c>
+      <c r="I373" t="s">
+        <v>21</v>
+      </c>
+      <c r="K373" t="s">
+        <v>159</v>
+      </c>
+      <c r="L373" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D374" t="s">
+        <v>659</v>
+      </c>
+      <c r="E374" t="s">
+        <v>27</v>
+      </c>
+      <c r="F374" t="s">
+        <v>364</v>
+      </c>
+      <c r="G374" t="s">
+        <v>19</v>
+      </c>
+      <c r="H374" t="s">
+        <v>216</v>
+      </c>
+      <c r="I374" t="s">
+        <v>21</v>
+      </c>
+      <c r="K374" t="s">
+        <v>159</v>
+      </c>
+      <c r="L374" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D375" t="s">
+        <v>224</v>
+      </c>
+      <c r="E375" t="s">
+        <v>27</v>
+      </c>
+      <c r="F375" t="s">
+        <v>364</v>
+      </c>
+      <c r="G375" t="s">
+        <v>19</v>
+      </c>
+      <c r="H375" t="s">
+        <v>216</v>
+      </c>
+      <c r="I375" t="s">
+        <v>21</v>
+      </c>
+      <c r="K375" t="s">
+        <v>159</v>
+      </c>
+      <c r="L375" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D376" t="s">
+        <v>224</v>
+      </c>
+      <c r="E376" t="s">
+        <v>27</v>
+      </c>
+      <c r="F376" t="s">
+        <v>364</v>
+      </c>
+      <c r="G376" t="s">
+        <v>19</v>
+      </c>
+      <c r="H376" t="s">
+        <v>216</v>
+      </c>
+      <c r="I376" t="s">
+        <v>21</v>
+      </c>
+      <c r="K376" t="s">
+        <v>159</v>
+      </c>
+      <c r="L376" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D377" t="s">
+        <v>233</v>
+      </c>
+      <c r="E377" t="s">
+        <v>132</v>
+      </c>
+      <c r="F377" t="s">
+        <v>467</v>
+      </c>
+      <c r="G377" t="s">
+        <v>19</v>
+      </c>
+      <c r="H377" t="s">
+        <v>216</v>
+      </c>
+      <c r="I377" t="s">
+        <v>21</v>
+      </c>
+      <c r="K377" t="s">
+        <v>154</v>
+      </c>
+      <c r="L377" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D378" t="s">
+        <v>629</v>
+      </c>
+      <c r="E378" t="s">
+        <v>35</v>
+      </c>
+      <c r="F378" t="s">
+        <v>663</v>
+      </c>
+      <c r="G378" t="s">
+        <v>477</v>
+      </c>
+      <c r="H378" t="s">
+        <v>216</v>
+      </c>
+      <c r="I378" t="s">
+        <v>21</v>
+      </c>
+      <c r="K378" t="s">
+        <v>154</v>
+      </c>
+      <c r="L378" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D379" t="s">
+        <v>224</v>
+      </c>
+      <c r="E379" t="s">
+        <v>27</v>
+      </c>
+      <c r="F379" t="s">
+        <v>663</v>
+      </c>
+      <c r="G379" t="s">
+        <v>19</v>
+      </c>
+      <c r="H379" t="s">
+        <v>216</v>
+      </c>
+      <c r="I379" t="s">
+        <v>21</v>
+      </c>
+      <c r="J379" t="s">
+        <v>358</v>
+      </c>
+      <c r="K379" t="s">
+        <v>159</v>
+      </c>
+      <c r="L379" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D380" t="s">
+        <v>293</v>
+      </c>
+      <c r="E380" t="s">
+        <v>27</v>
+      </c>
+      <c r="F380" t="s">
+        <v>172</v>
+      </c>
+      <c r="G380" t="s">
+        <v>19</v>
+      </c>
+      <c r="H380" t="s">
+        <v>216</v>
+      </c>
+      <c r="I380" t="s">
+        <v>21</v>
+      </c>
+      <c r="K380" t="s">
+        <v>159</v>
+      </c>
+      <c r="L380" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D381" t="s">
+        <v>293</v>
+      </c>
+      <c r="E381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F381" t="s">
+        <v>172</v>
+      </c>
+      <c r="G381" t="s">
+        <v>19</v>
+      </c>
+      <c r="H381" t="s">
+        <v>216</v>
+      </c>
+      <c r="I381" t="s">
+        <v>21</v>
+      </c>
+      <c r="K381" t="s">
+        <v>159</v>
+      </c>
+      <c r="L381" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
+++ b/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4080160-A819-4440-ABC8-98B209BFC0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE3792CF-2CC2-496D-8B06-1A0839ECA0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30C68EE5-1FCE-4639-8A3E-E456868EB98B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47DF212D-E938-44CA-A1FD-800F15232E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_fondo con todas las fu" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'noticias_fondo con todas las fu'!$A$1:$N$521</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5294" uniqueCount="1449">
   <si>
     <t>Fecha</t>
   </si>
@@ -3317,6 +3320,1056 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOV2tsbXdlQ1R5eVhiVFhDTm9aMUZXdjFzem1ITVRNQWltWkRuYlR0bTlzUHk3OThScWJKd3NWUENzY0FkNC05c096dlAwQ2VuWWF3ajdmdEV3amZPanlVZzM1RzhfMkFvRUgwMDFESURkd3pZZFotbUVOTTBXNlBsV1N2V0ttTVB0dFBSOE50b0lLcWNyeVFOd2hBZUVrcDdXQVZB?oc=5</t>
+  </si>
+  <si>
+    <t>Electrical Components International instalará nueva planta en Parque Industrial VYMNSA en Coahuila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPMDdPNWtnM01LSV9sWkJrZ2ZjVnh1T2hFSVNuSWRUNUFmV3BEZlBBajFta3JDMGdLU1JkbmJ5REFIaDNRekVFbnZ2dm85TWZwcDZteXFGX3JOakNrWU9JR3dQeHFsWktIeGh1YzkyMTFpbkpCVk9YdUpUV1Aza2hOMVJVSVRINkstaUZqN2ExTG5pX0EwWWxTeEJCN1JwVHNPNjhMUjYtZFd3UElFLWRVR1hQZFRsdERqbVBJTDFlcjVRWG8wNUY5b1pTTXJUQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Torreón cerrará 2025 con cinco naves industriales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOQ3lydkdYa0hBZjZlZjNlcHhPTEF4ZDEtTTlSSm9rMDZEOXdhQzZUX2wzUVZmR3J1NWUxOUU0V29YSWJYaFltWTctVGljM2pFc0tRbUM0SlhZU20ycG1MZWFUd2NOMERSSEEzb1F1eEtGcmJSU2Q1VktlZzZTRTg3MzBTY3J4WExH0gGIAUFVX3lxTFBLdEdaTjh3RXJqaEh3U184N3NYRDRpQ08tQ2c1eXE1X29FZU1MVWgxNk5NQm50OVhvZDNoMU1nUWM0M2k5MHN3MVE0Y2h6NXJKUUJmTE4tS2RWcDhtZVhod20xdUw0NnVUYlctc212SkU5NmhIWWJtVlB1czlrc1RDM01OMTRlckk?oc=5</t>
+  </si>
+  <si>
+    <t>China suspende algunos aranceles y medidas de represalia contra entidades de EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQUHNlYmlhLWk1Y1ZQYkZxeWlKYnl6a01iUENmXy1BUk10UFhsd0lLRjEzclR2dEs1ejltdUhxN0h6RnNGenVOUFdSUnZmMnZWaGUydTJwTTZhV3NUeXhvWWg0OE91LUFSQWhKMzFvdlJfZGlfNzF0cFUzcE4xYl85RkdEdWtycVUtT1dSNVRxSU1ia05tdzdDblFNWEI2d01iLWZYSER4SlRNRVF2S0ZBelRHUG5sbGY1OHfSAb8BQVVfeXFMTU91REFtUjZVT0NJVVBRWWgtZm1YV212TXd0dHdfSFI0WHRId3hlY0RoQUllYnRfN0kzRlh6b3gwNHNuVC1zT3NYTlo2S0VTS1d6SDJRVU1FUE1vM25jMTJvT3hCdDF5SmVJbFVpTXB1VUNZRmdLN19SbXN4T1VTWlZNUVJMUVgtRTRsMFR1Zm80VFVFUUVVQjh0OEdJN09nbjUzUGJjMFNpSEZTNm1Hd1NjTzVnT3U4SnVxX1RBaEE?oc=5</t>
+  </si>
+  <si>
+    <t>Toyota aumenta sus previsiones de beneficios pese a los aranceles de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOTjJkbDhIZEl2U3ZZRTRYSHJVeUFSbjdpaGNRR1dSWEFHWnRSRUw0R3k0Q1FnZzdtUmo3eFBGTUM3NnE2NExMTHAwR1hqN0VjWVk3VjlFTFBlRUdoSDNDalhZR1lnbGxoaklxNTRpcFF3SmJZRDdKd3lhaFFfUjRiQ2thZS1tLXNyQlVGeW0zdW5rdEo4YUhpLVVrdzNXRmZnNTdWeFQ3c2VBU1l2ekd4YWpHLUhvSGNMek03b9IBwgFBVV95cUxQZnVKbmNGT2RJeG5WSFgyb18tcjhVZ1dJWHN3UGVsVWNGQjNsVWFGdkl5RFdYMmdrV3ppaV9SYzdIU0s3TWpXcjhCTEMtQzJ2Z1hGV2M5WjNTLW5jdzFRUHdjOThrMjg1c1Y0QjlFMF9FeFJjU1ZWY3pIdUhKaGRtV1RURTcwRTk2MnpCam1tQ2FwSUU4amg4bklmeDQ1ekFUandhVUExdkN5dUt4bldmLUdIaXNVa2V0Ql9wYjNNVVpOdw?oc=5</t>
+  </si>
+  <si>
+    <t>La eliminación de aranceles a autopartes será una alta prioridad en la revisión del T-MEC: Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxPckpPUHZYdnFucTh6UHR6Uk1KN1pBTVBkbDNyVmVZYkRFSmxycU1QVFN1UTltblZkVERuMGNxcG5IU0o0M3RJNWw2TDR6X3M0RFFndXlocmp1czNOeU5xMW84YUVsVURNb0xqcnpjWVdzc05QS0ExUV9FRjlESlh6dHRCOWQzVUVvQkIyb2dHRGVVS2ZrekhFdkRYdXdZM2ZQT09lUFcyQVNFeFZfdlFOVGdrdVYxZElJY0xLWGtYdW5EVV9CTU1IbXl3amROZlgyTGfSAdcBQVVfeXFMTms4UW5ldEJ6cktQSWVIdzZYY0ViNURJdWo1MkNBblUzSEx3Y1hmQUh4aXJzZEUtOENDbGFDUW9mY3I1QmpqWkJRZFhFdmJNbkxqbHl4bjhaVnZXZDg1ZGJabWFKa2pVVjI4Q3JjaTRPZEhLLXZIVmFSOXo5b1M4X25XOEd3R2FLcjJId0ZINFZMcGYyaHQ1alplcElNaFZxUjhnQkNJbkhKYmJpcDBHTXBzYkxObW1Tcmg0aTlGZDRHWHJ2ck80X1I1cDFiUTNpUXc2X0dqSms?oc=5</t>
+  </si>
+  <si>
+    <t>['alta']</t>
+  </si>
+  <si>
+    <t>¿Cuál es el papel de México en la guerra arancelaria de Trump?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQWXRQZjFBdG1lWEtibEQzUEJPZDFlLWNPV01mQWktZnFWeHB2alYzUHhKdUxPOFc1bmpGMFYxeWNGelNhTUJCRVh4THhqV2J1dmxkd0Z1SFhCZ1Z4ak9pY2IxOUE2aVplOExmMWd5dE52eGQyYThRSG5SZ0pKekV6NExyTHVLc25nQTB5d1BqUkVXSF9US3NNSlhybVZsMUoy0gGmAUFVX3lxTFBLTWkzZHVYVmE3aVdDMndoWXBENTMxR3Zhd2pDX2ZvNXFpenA5VzVPVW5jMnBGUDU2STBpNVlNckVnVFdGSXBNN2x6OHF1Z09mT0syMDMzQ1NjcHNVQjNfQ2YwaWpfSmpZWFMyMFNpVGVFZm80ZW5LdExNeThGcXVDVFVSTmItWUh1ZVVPT3Z6c0FrZ0NEVDRSNUt0QXNRcUozZXhhQnc?oc=5</t>
+  </si>
+  <si>
+    <t>['arancelaria']</t>
+  </si>
+  <si>
+    <t>China ‘le hace un favor’ a Trump: Suspenderá durante un año arancel adicional del 24% a productos de EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOYjVlYTRrQ09vbjl4YlluN2RJSHQ5d2gybExkZkVhSEFka2xkNnhkbVA1dEVNOFJHeWZSOUlsWXVwWTNiazhIN25CY0tBNTRqbVd3R2VZSTRQdVdvU3hVSWNfWlJUbmptWW90allhemlnWVJhOUdJVnJMckhKeWNrbjdDTU1ydVRlZVNaZU1UcDJSWjhhZXZvUFNORnV5Wlg2YjJ1WVFKZWV1T3NqN2FRLXY3aE1rdzdwcUxQcXdiT2JtUVJvaVdhaFF6dmxOZXpDNG91dDNlb0JTdnhBalRVRE9aQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['adicional']</t>
+  </si>
+  <si>
+    <t>dura, arancel, suspender</t>
+  </si>
+  <si>
+    <t>Hundido en aranceles, pero no doblado: Mark Carney lanza fondo de 35 mil mdd para ‘revivir’ Canadá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQdDRhYlF5S1EyZC1YaXRONjBnelh2TjFzQjlUY3BWdTFYZ05YUzNiVTY0dnNaZ1BFaHlFR2VnUFdYTHV3Tmx6ZHBqMk5sQ3lBUkxYRThGSUtaazhPeHZyRDlhU3FMM2dSNXpPc0JaQzk5RmdvbGk1Q3dJOW1oSDI1ejVCbU5kcHlrRzF0aUtuVDF5b0pvWlpSN09jY0tEX055bk5nbURFZ1lQZ2xZSXlaVHphZUFtNm1TMzB0UEJlSkVYVURqTnNtS3B4dHJIeGZFanlYUmhXdnJTcXViNzdEWFBR?oc=5</t>
+  </si>
+  <si>
+    <t>['doblado']</t>
+  </si>
+  <si>
+    <t>Arancel a vehículos pesados viola el TMEC: Ebrard • Economía y finanzas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMie0FVX3lxTFByeTZaTU9UbE5Wd3N4eS1VeDdFdXNsMmtTYnY1cVRpamQxeVVtVzJ5d29aV1ZITkZvSTNFbFJvV0pRZDBBOUxNQnVwcl81ZmhqR0Y1UE5zUTRUTDJMQmc2dW41NUlkSXM5UmpiRGZOUDBlT0VlY2tYQUJrMA?oc=5</t>
+  </si>
+  <si>
+    <t>['pesados']</t>
+  </si>
+  <si>
+    <t>Corte de EU podría anular aranceles de Trump; Target y Walmart entre los beneficiarios • Internacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxPN21fUDRrOG11R3I1cnZKY1ZiNHBLYWVyQXg1S016MXA2U2JpQWFOblpxSDItdUZxUFRHTDVrTlVkWTFqVFc3eldabWh3LWh5TFlpM3B1M0ItTjdyNVlMVjdoQUFhU3ZfdGd3WXpGZlFPdzZESnE5WHNqcXJOSGkya0lTdFJlV256S0l3MEh5b2NuQ0lNYU1qaDJMRXhjTjFtbktGWWNfSGNOT2Ru?oc=5</t>
+  </si>
+  <si>
+    <t>Exterior, Economía, Judicial</t>
+  </si>
+  <si>
+    <t>Texas es un región atractiva por los aranceles de Donald Trump; desembarcan 10 grandes empresas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOWnk4NV9ERUtwNkpSRmpuWXBqbTdFWVp3aktVWHA3Y1picHlsejdad2VVZThaZm9IOVNxY0E2SmIzRzkwenhKWnZCWmxRR0xSbko5U1JmMG5XQ3p5clBQcThDWldScU8zTW40UmhNY3FCUVVkNmxKcmVVeEw1TXRXUTNOQXRyZ0dmekRoUHVRMG91RUtPUEdtdEVLbzlaOHdCelJYRjdkeVBlRVpZN3BKdzBZRno5c19I?oc=5</t>
+  </si>
+  <si>
+    <t>['atractiva', 'grandes']</t>
+  </si>
+  <si>
+    <t>Arancel de EU a camiones y autobuses originarios de México podría quedarse en 10%: Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQTFlzQWc4NW0yRzR0b3BzNDlieEhCeHZUZUdpeWE4dW1nS1RYcWQtUFhPM0VFR2FSdG1FQXZDd2JPNW5hQ0xMdGlLSzA1aUFqTnhlX0ktdHVHdXp1bm1URW5zaGo2OF91ZXNlSG5EdW5tOExXV3JEWEZiX3k4a2lNTWNON0dmRXBWQzN1UDF5X1djaUs4WDN6UXdDRlFRbjVEbVhhVk4yOWZBV3NoVEh3b3JuZWlzamFKYW84bF93VGJSclY3anfSAdoBQVVfeXFMTTU0R3VjYTV6anlUVTNEdGdQUjRHa0cyUkNtcHdFd2Q1bDUydFJ1Z0dYV180UC02a2FobXJ0SC10U2JLWU8xM1ZSUElXTy1DQ0M4amJaUjBycDBpTjA0YXhJaFJROEVQaG5UYzZjaDJxVU83WU1meE1pYUtOeFktWXFtX3V5cTBWOVpabDJueGUtRVZpNWplT3VSaG40LU0xU1ZTVlhTM1VpeHI2bG9ERjExYWtHUVlEay1vZVJnTFc4cENrZmZRclRjMmxqcGpXYU9nVC13VC1NTHc?oc=5</t>
+  </si>
+  <si>
+    <t>Trump firma orden ejecutiva para reducir aranceles a China por tráfico de fentanilo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNbzNjNzRERXMxQXpoWXpQNVdVTHV1azF0Rl9YVW1UNWpQYUltVVRPT0kxM1RKQlNJazg5MW8wWkZNX0hYN0IyRG9jRE10OTZpdFhjSlJaMXI3dFJ6SVpRYnNyZnR6VXgwWVdERXB4MWlHVHNQdTlFM0hxLTBYenY2U0hYZjBacEl5bXpBdDlwbk0yWUpfS3poVnRKYXhzaXFmOFl4eDI2U2drcl9tUXNZRzFrcnNGY0szWlFxQlkzQVRzTGRGR0pBNTJvVXpzYkw3ZWZzY3J0X3BZcHdn0gHcAUFVX3lxTE1vM2M3NERFczFBemhZelA1V1VMdXVrMXRGX1hVbVQ1alBhSW1VVE9PSTEzVEpCU0lrODkxbzBaRk1fSFg3QjJEb2NETXQ5Nml0WGNKUloxcjd0UnpJWlFic3JmdHpVeDBZV0RFcHgxaUdUc1B1OUUzSHEtMFh6djZTSFhmMFpwSXltekF0OXBuTTJZSl9LemhWdEpheHNpcWY4WXh4MjZTZ2tyX21Rc1lHMWtyc0ZjSzNaUXFCWTNBVHNMZEZHSkE1Mm9VenNiTDdlZnNjcnRfcFlwd2c?oc=5</t>
+  </si>
+  <si>
+    <t>['ejecutiva']</t>
+  </si>
+  <si>
+    <t>Ebrard acusa a EU de violar el T-MEC y exigirá revisar aranceles a vehículos de carga fabricados en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxObHplOVRlZlFXdlp0eEpSM0x0aHo0N0E1Q0xBV3Z6ZWxOaHFUa2t4T2locWJPajF4dk5kMm95b3FNYXJTcllpMzZRRDVOeDUxSnAxbmxTX2pMNXZxc2Zqb3BBeURwSWFXZWdyQ3hQME52c1BzY1VQVDFxTFFRTnZFRGNWM3k0YmhwRkZTWHVkNTNtbWlQeGJKdjBKcHM5cDFvSUVtWl9CQzVPSHptUlB0MGFSbzNPOHRkQ19qOTBPVEk0bzJka2xXOG40RE00QkJBZkxjZUxYc3JWSVV6czlJRElXU3I?oc=5</t>
+  </si>
+  <si>
+    <t>['fabricados']</t>
+  </si>
+  <si>
+    <t>Ebrard estima que arancel de EU a camiones y autobuses originarios de México podría quedarse en 10%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNTEIwTEpUTjdYd3FFZklQeHVLSlM0SXFmX2ZGYVplUEpDZi1JU0lkVEdTanRFZGhhc1VraHhWbkwzZEdSWTI1R1NrNEFDalY5TUN6aEQ4NkZfNzJqUXB3dUc1Ulg2UUpqbG1QWUJWS2lMX2pJS21hYkY4dUc3Mm5RMG9aSVNjSllHdnBjYjJTeDdFV0lpNktJVmkxUGlCZ3VmUXdwQjNiRHZnOUJRT1ZBeUNlRG9qX0hMdFROWlYwMjFKeVY2VDZwQnVZUzg?oc=5</t>
+  </si>
+  <si>
+    <t>wradio.com.mx</t>
+  </si>
+  <si>
+    <t>China suspendió por un año el arancel adicional del 24% a productos de Estados Unidos tras el acuerdo comercial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOSldKRlRQVk56SGZ3ajJ2TEhSN0JaaXdJTXNOVTRBQTBnMnQ4Ny1XUEhzNTYyTFBzUjlJLWpyUHlTQkpfYzBlZUhmNmRxelB4Y1gzVWN4R1NvRHFNSllZRmpKSmxwVDM3VGFGZXVHYUtzaHFfRTBvbmkzQUttVWZkc08tTEpxaXNGWkFUT2xjSWpBQVBnWFYzWFN6OVB3ZVlRR3p3YTMtaU9kR3BGaVBKdEhvUU1Sb1hXNTFqTVpEYlRlYnduNlZydG1RWDNkQWhxcTczWnBqUWt5TXRSQ0MyVllWRnVvX3YteHpCalBCT3liZ9IBjAJBVV95cUxQdDBjWjJPTmVja0l5b1ZfYzlyaUMxVHB0bkRjV25QRXk1QUpTRHBBaUh2UHVEWnpOQUVCLW9SU21STEFReEZrWGc4eGxWV292cTcyWGs0TWY1UHBjY3NMc1JCX2RMejhLdDJ3VlBPVkhaMDY1T1RXaGlrWllra0JLa3hlbEpuUlYtMy1MV3J6SzlzOUc4LVd4SUdTcGJZemdWWWstNlVOS3J1dkprX3ZZS2ViRjk0Z3hfMGktazhjUUxkRXZHeG5Oc1JGd1NzclFGOHV6bUFfRUdYOXdkR1o1N18zTkZteUlwX2p3eE9jaWdmcFlpOHE1MDlNQXFZOGI3VW05X1JaclJfMksz?oc=5</t>
+  </si>
+  <si>
+    <t>['adicional', 'comercial']</t>
+  </si>
+  <si>
+    <t>Los aranceles de Trump aterrizan en la Corte suprema en un nuevo test a los límites de su poder presidencial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxPamdmSnJVUWdwOVd0TmRleFN6bXlNdE8xVG9zaE53N29uZjhrLS1paHhfd0FQb0d0M01CWEZkSXJxTXVvTFlYV0JWUWRRQl9sWTdNY3QyU2ZFUDVNQVg2elRSTDREY3VIVkVkbV9fcl9ZdEM2cFlJenVOaTBwTWdjdnVqdnkyYlFMVVFNczF5RnlNR2QtNVJXVVBCenVMcWhQbUpCUTZxR1g5dVRMRnlxMEFWZ3ZLX1cxVV9SNDB6REhwN0lVZ1hVZlFUVklSaG82MmtsTjc5cDIwV3pCa2ExRUlrQlBRZ9IB-gFBVV95cUxQdjNVbnRYTHdXa28tWXgwR05sakg2Y1FuRUNmSXZZaThlUE5WdGt4RFV0Yy1LTzFrNEx2RDVfUlJBaXJ3YXRPcDFVUW41V1dzeDZpZ28xODB3QmJFMExsMlg5b2FNeEJ0SEVpLXg1VUJQdEc5aFVab0RNbUZXUDhpeDlxemtfN3VSVWlKbmctQUdOLVRBeklsQXlSZ3FDSEE2QWFTNERQZXphQkhoYXdwOEZuT1I2Q3Y0RDR1UE1DQVB0Um9Vb0Z2dXZHMTk0dm43di1pNWFIbUdFRVNMWC1sa19DVFYtY0RMc2NobGpIT3dVNnVucWtLNFNB?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevo', 'presidencial']</t>
+  </si>
+  <si>
+    <t>Toyota sufre en Bolsa por los aranceles de Trump y anuncia una previsión anual que disgusta al mercado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxOV2lXVzBVeld4clRPRVFyY04zNlNKSnpsQ29lVXNzbjJ4MG1zRnFwUFh2R3FzVU1KQndsSmN2SUcxaWozLUZKcUNRdjZpNkJCcjgtOU5WZ3ozM3R5Q3lpMzlIVmJtQ1A3b0NHd05BOU9oYVEySzg5bV8tbnl1cE02RUNpRGJRQnNXS2xJcUZDSm5ianZBVlBEYm1GcGhmTHhGVWZhYjJKc2lZSzVJU3A4WGw2OE9FeHhFU19haG1heHhVOERCQ2Y4RkVJUlhXSHBKMW03X1pJamZ0OFI1WmtBaUNkVEk5MGowRlpyUnpB0gGCAkFVX3lxTE81WGFRYVQ3ZS1tVy1FNFI4OHc4QkVEcmFfdm9CN0ZJSEloV1BpaGRxUnp5QkxheG1TV0NzX3U5OXJma0gtQ2lGbUxyTzlILUhtZDctRi1KanlkLXVkZzk5aERLN21Fd01jUE5wdjkxUE5ia2ljOWNRLXVsUFpaR0h2Rmo2bURLcGtDOURHWm56TC1LdHcxVWhiV1BUVjYweFlKaWwwZ0FsWXZPZ2Q1cnZjT19fLUhYenBVRWItUGx0QTRKR1Q1Ri0zWkNsUmI4YnUzUHBzMFJuS2xNbXV1czJubmdZOC1UdkJHM1hYT1MxY0pUTjZaRkdGc3BpRngtUXJtQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['anual']</t>
+  </si>
+  <si>
+    <t>China y Estados Unidos se reducen aranceles a 10%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTFBDSmdOQ3MtdFZha21TRzBPNGlPYnQ1Q21QUU82ZDR2Wk9NeWJYNWN0WFNtSTUzamFLQ3BGZnhnUkxxRTBxX25PNXc5WkpaYmxORmhlMjRocU1iRi1Ec2tEVHFCTEFVUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Ferrari esquiva los aranceles de Trump y aumenta sus ganancias</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPTmR0RzlzR0pNM2s2a1llRTBGeWJqbzJGZ2VvcUo3SFVzaEU1TjB4OXR0VlpHaHgyaFFzV1dMSGVuV3hzdHktUjBpY2otSElReGJWMWo5RF9sWnkzTmZxanpFOWJPRnNXMFY4NXZILWhyd2QzRTU5STNybmxtNXNzTm0wWlU1M2dLUHlkSUNVZzVDa2hWVkhHTWkzbzNqdHM3UTA0TTl30gG6AUFVX3lxTFBPNXBIYzlibHU4UDVrQkxmN0JrcUh6VFpCSlFPalNnQmZyUmdVZjdOejZkZlBtV0NMTEJIOHZ3LUkyaS1UY3JvRDZ6djBjT3R5SEt6dl9mRG12Uk9jMmhkSkxsNGF4VFpVTTUwT1g3bVRGOFYybjhuTXF4SzBFV1JtRVJfdGFUOEFHSnRoa2Jsc0RZVjZUSlJrbW5MbC1lQXlkVHlaU0ROR3h0OTNGaUhUanNLNmhnMldhUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['esquiva']</t>
+  </si>
+  <si>
+    <t>EE.UU. reduce formalmente al 10% los aranceles sobre el fentanilo importado a China</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxOVUZTdFVGZmtUY3VnaUNUTXFadk5UQk1wMkNPbldNbDktS2t3Q3I0dTNvNnBDOHpuRjdPOWREanZXTTBUOU1hN1BUeWJsQ0ZMdHlpUnpFZDh3VmJYYlVwZWRZcV9pT3hFRDVxdEwyUFRPVEp5SFg3UHFqYUc1ZXFrVjZNYjkxMVM3V1hFY1RoRlNMazh0c25GSFMzVjdPVG1kZjR2b2FfODBvd054SmtKN3g2NERRTUNLcjgzcE9jMmxVQlBVSnhtQlowZlpmZ9IB4gFBVV95cUxObWdydGlYODNFSGVoWkJ0eU9IYm9HNGZlcFRTeWF6bHU0UVNQT0p6VzlDcGdHeF92NGR0RjlzV09RVDNSaFhSV1NkTU5kOGlobjBiQ0lvLUVkdWNlbUM3akZmaDFYWXR3YnZfOHFaQWctYlg4Vl9kY0I1RUZwM19OUHlvMVRyZ2h4N21sUFgyU1BfZVJhaTE2M0k0dEZEOXQ0VkdlNzBLbkFQRFBhUVlDOEgtaWxvN0lzcExXQlcxY1M5aUJBUkRPRFEwMmpBazRUU3ExM3lZblR3T3lyZlFFODdR?oc=5</t>
+  </si>
+  <si>
+    <t>['importado']</t>
+  </si>
+  <si>
+    <t>mal, aranceles, arancel, fentanilo</t>
+  </si>
+  <si>
+    <t>China eliminará aranceles de represalia a productos agrícolas estadounidenses</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQeGhJdVFyZ3dGdGxJdm1ab2J1ZHh0cUlWejgzNWhaX2taSWhyVWlVMTZRXzIwcUV2RGNQM2JoSXByc28tYVIydDY5QmFIQVlELTdEaTI4SW9MYkhKcjJyeUMtNVBiSVloMlV6ZmJGUXVWdjdaUk5oSzlsTjBUcDh3UFdjdXFwdktueXM3QUhlbE44ZF9sdThDRGdLa0pxa2t3YldjTGc2MEg0Tzl3b0FaOWZBb3dpd9IBygFBVV95cUxPc3B6MDNuSXNWWDdPMExXUTVvX3hEMjMtWHB1UTcwbkM2emlxanlFRHk5eENXMkh6b2ZhcFNuRE5TWjQtbG1MbVhua2hDdlFweHI0Q0lnclZ0a052Vkc0ZHhTS0Y1Z1FoUmlKeFJYRldGMHhUdlY5ME53TUJfNUVRSDBSSE4teDRIMmpSZWJsRGgwQjZRVUNydVhkRVhxdmRnZlBtVXlUbWJ4OTJnSk5NRU92N0w5M1NRaHBwZUtaMXpseFA1Vnl1OGF3?oc=5</t>
+  </si>
+  <si>
+    <t>['agrícolas', 'estadounidenses']</t>
+  </si>
+  <si>
+    <t>Estados Unidos reduce aranceles a China por tráfico de fentanilo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxOLWdpdk85TUJFQ3RScndlUWU5c0ZBWldjVXBpZVdZOWoyS2M4Zm16ZjUtOVladGlmNWJqTFhrMm9ZbHhPd2N6SXRLa0RPQTZRZlRFNDI3OWlXbm9md1VnVWVXMHN1OEtDeDIyWU1vZzJnSXg0UEZGeXlEb043dG0wOXJWWHUtNFBBSUhGaTItLTQ3TUFfZmlSOUo5dmo2TkpYY0xab3hMd28xU2dUd3ZkLTA5Wk9zRXZoV0JrU3o4RDlYd9IBxwFBVV95cUxNX0RIb2FUdXBSbXNRNng2cTRUbzVkSTc1Z2M3b3lLQ01DdXN5VzJ1NEhPMEc0NGROWVRIVm1iYy1ja2pjbVNwdTJhX0xHVjJhQzFfZ0NBN3FHR0k1TnI1WVF5dE8ydDB1clUwbFd0YUpSSlVVOVZxdkZ0YlhfNkZGQnBadzBES25ac29keDBKd29RbHFGQWVFMlI0ZERmcHNmWHdWcXNtZWZoemVoeWgwa3BDb3pYLUpPVFNxRlA3VnRINnBXUFRR?oc=5</t>
+  </si>
+  <si>
+    <t>Embraer consigue ganancias en tercer trimestre pero acusa impacto de aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOcWd6eHFHSlpjam9tMDNXSURQei1CV3lxX1pLNWtpOUU0bVl5YnRQWDdWV2NVNS1wT0FScmJHS0QyalRpT3praXppM3RtMzFZeVBNYWVGYmFORXhOR2dKWXloMDZqWFVEZ05KUDd5cGNXckNjM0Y4TjJhWmtVdEctZDR3ei1qeGhhcGtsZExuamtuRVJQQ3hCMl9xWWtQMmk0b0dMaW9wMFRXTTVVcTRZOWtOQ2hOTzZXNFVUM1p6VXRrLXV4QlNIUdIBzgFBVV95cUxQdEdOd2NHMW9qOXVjMHhRZUp6MklQakVTT0hkWGlfYUZ5T2VvYXBFeWxiazBJM2h0aS1mVVJQT0wyM1ktd1h3UXBhNDExemNwT0FLRmNBelFXTGI4d3hKOU0zaHo3TzkxNzBuaFVhQVFfamN0SU92b3BDbmJCaGRZX2dTLWZvYkRMZDFJTEZyMGRpMG5Na2lyR2I1ejNCVnluWVpIakdNVmdNdV9ZeDBPWk0ycFlrTUM2dTdLUE1ZZm1YRTlxMmVXY29IRy13Zw?oc=5</t>
+  </si>
+  <si>
+    <t>['tercer']</t>
+  </si>
+  <si>
+    <t>Detienen cobro de aranceles a países de Asia en el Congreso mexicano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPQWo5aElPdjdmY3Q1TkRKX0Jpc0dkejFibTlRSmducFFLa1V2TzVzMjUzUm9fems0LThYN2VHUFB2bUFmQjJuTVFVcmMzdW41VDRuNjFuZGl0bkI2ZFFQa3JCbUpxWV9MSkw4V2JOVE9nQUF5cWdBUFFXWWxNaUJGQzFYVGlZSFZZSDhvX0x2cjNWbHh2ZFBLWFdtM2QzVGhIdVl1alVmazV6bDZRRnExYmVn?oc=5</t>
+  </si>
+  <si>
+    <t>detienen, aranceles, arancel</t>
+  </si>
+  <si>
+    <t>Seguridad, Economía</t>
+  </si>
+  <si>
+    <t>Eliminar aranceles a vehículos pesados es de ‘alta prioridad’, viola el T-MEC: Marcelo Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQYVQtNGVEQUtXaUJUSnU4WURWVFFuRzdvMDBRM0ZVa0VBYXMzS2FKbWVacDNZM1k1d3hHS2FwdkVoOTRYWHk5TGxwZUsxNV9iWEp4SmVsdFlleVRnVHlFLTFkYkh2U2NFUEU2aDVSX2VGcGI4WnZjRVFPNzE3X1cwWUhEeEkwc1NGZHFtWklKWmo5TXJHOW5EWFZqRXF0NXlvYTNxcnNMc29sYkNESXozTVhKTEdtR1VwM2g1YURDVnJldzJsQmlIREZMNjBYRXlFSFd2cWFVZVJKUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['pesados', 'alta']</t>
+  </si>
+  <si>
+    <t>Nintendo Switch 2 se vende al doble de velocidad que la original, superando todas expectativas pese aranceles de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxQcjJmMUxvd3FrcjctQm9PV2d5Mi15RmI2TjdQUGJLY1c4NnJpRmxzUVRyR1l0SWRzdm8tRF9yWGEtdVg3dS1GV1BPSjRXcEdweTl2Q2RpYU5ncmtjZWhZeUt0QWdUa0k1Mk54SFRBVFJvWmRzNGZFNzN0ODBHaklZalVVUG8tOXhrUGNsMFg1dWhRMG5hbFVJUDd1WWpMWU9OZlVEb2xmUmNXMTItQ2xxM0hyOWRuOUd4c0JYbWVNV1BRMEpxemJ5bjRDQ0d6WFBqcFNvUG40MA?oc=5</t>
+  </si>
+  <si>
+    <t>Hay “muchas opciones” si Corte Suprema falla contra aranceles de Trump, dice secretario del Tesoro de EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxNR1E5bks1UGwzYnVjOHZ6VW1vTFM1U0d4TEFLODRraGd2MGNCaDVfT3I0TGExYnJKQU00cUxlVHU1UFgyc04tMnhRMXJrbnpZTlRfTnp1dVBtX0lQYUdvc0Eta3pFU2ZQdGtiQ3F6b3JsN0hzY1NzZ3NycWVrNVlTYmNGTEJERmJlV1N4WWkwZEhGZ2ROZVVmYWoxR2V2dWdOVVRjaHRqak5kRlRRMWRmQ1d5M1pmdUc4bEdZWHo4UVkxeXlUR3lvdWVrMVpnOXZaa1BMX3Vn0gHqAUFVX3lxTE15RUw5Z3NoQzg1M1p5NVdVclUzVmViTHNfb0pxblpkVnV3MGFkUVV2dUhEMHZ2ZFRPS2pEUzdXUUkxWnduQlRSWVBaQk5MbXJzVE4tR2ZiOHBCM2dRSnJjbUQ4NTZIN24xam42VTlIRDlMa2l3NU9nN01FSFNvMkFRWmROYjVfcnBRQy1ZaDd2RHBQeFkxQmFtTW15cXlTcTljQWZXTVNyeS1pS3dSOEhiNGFvR2QwNXJZRERyMnNQNE9PVDNOdzRFdnhEUG5LdWVVNUtYWXZPU0t2LXRpdUR4QUpMbG1nSFhiQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump reduce aranceles a China por fentanilo a 10%, como acordó con Xi</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQWWctakNRdllWYnZKNC16YW94aDJqUVBpSVVhNzB5eUNBRGs4M0pieHJOQ1lmNmFObUxVdG1TVm9PTmpCeExBZHU4eDNfQXdvY1ZZcllGb2VSOUhrUmFJQ3draWJBZEVEWm03aFlKbE8yQkpLWkRXeF9lT3VsWEFLTFA4THpJb2RZN3B6QjJzQTBMSzZXQ3BxMThxYkdEUDA2VUkwNDB3?oc=5</t>
+  </si>
+  <si>
+    <t>Un año de Trump: Se endurece relación con México: aranceles, restricciones y amenazas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxPY1RFWGhURlV2Mnhfdy1MY0ZFdUR0WEtfa1lTY21Tam56am1vSnZmZFk1cUNLdHFCVnVRc0tlLWpkMW5XR0J5WXRNeDZuWHFYcUUzOF9kSGxNYlhjcWFTVDl2bFM4R2xrdktweXV5Z3p0NUEtZjl4NUZkQzZib2tYOTNMU1I0RzJ3SFdNRWJHMkJ5S1Zzb1gyTzVXNVo1VG81TWMySkRkUlI?oc=5</t>
+  </si>
+  <si>
+    <t>unotv.com</t>
+  </si>
+  <si>
+    <t>La Bolsa en la era Trump II: la fiebre de la inteligencia artificial pesa más que los aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxPRnJuYV96UUN2bC1zQkgydzBja2ZmWFg5MlJxNkU2dGVxZzlkWWZLTnhOMzd6N3NNcGxsZnM3UTNTX2tKRnUxTlpKeHhBWU1VRERoX2lqSzdTcVZpcEhIT3lvUThka2xrdXAtUkY2YV9sR1F5SnJJR01Lbk92X1ZROVBLbFpzaWhVMEtJTTJ3Nlltb0E4ZjlsQktYMEQtcEl2TExRcVl0MWk0dGZsOHphNVhsNTdtMzNDYmhqNDlocWdKNG5PYXBLamV6T1hFaHA3T2lkbVBJT3o1YjFxZVR5RDNHRGF4WXZwdlJVVmt5eFhWOGpGZ2puWmt3a3dLV1J0a3Jhb2F2eDRyQdIBngJBVV95cUxPU29rNG82aDFfUWlzeldiLWNHVGFpN3hZcnowUUZrZFk1c0pqakZWRmtfWENPUk5sczZXdTdJR0lJUEFPX3l3Q2YtNGlKcC1qejlNdWE0Wkdvd19ONmpNMzRjRXh1dVVfWmN5VmZrd2Nqa3BRXzJVSUtNc1l1TF84eWE0U3Z2NC1ZNlhpZzBiUEhranhENjZzX3paeTZvdkRsclVfMDJTMnlqdzFicTRmU050QnJkT3lQUF9DS2VYTTYwbUYydmIzWnl5U2Q1aVQyUUhPSXI5aUpiSmdBb2lMVFVhVk9OdFVJeWEzdmd4dEFLS056WnJRczBONkx5emRFZTNPWWt3cXJ2ZlFfelZ5cDltQTNvYWhJNlZKaTl3?oc=5</t>
+  </si>
+  <si>
+    <t>['artificial']</t>
+  </si>
+  <si>
+    <t>Eliminar los aranceles a vehículos pesados es de “alta prioridad”: Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE5CRFE3UllibE9qRjNnN3cwdTB5Mm1qY1owMlZPZE1TTzFCbFNHc0c3RGtqYm9CZ1FGSEtxaTlaQ1hKamtBeDg1SWRnLTN3M1lXelh4dUZTVWNYV3hoLV9Ha05jRmNNdw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump firma orden que reduce aranceles a China por tráfico de fentanilo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxOZGh4M1RVQllqVUp4Wm5JeHczNTJKR2l5OTkyWjlIbjRVb3IwQm9uVTlwZnFuSVM4QzZnNGpFS2RfMXMzZGJsU3RuMm1rR1dPbGZUTW1iVmNtb1lvLWM4NEpUMjF2VFNES0pOVWx0VzdXeEdQUU9vQ1pCME9MSE15bTVUQkhQd3dxUUU2ZzMyUHR2UFdxdTk2eDh5TUEyOVBLX0ZjV3daYmdpdWdPTlFESnY1bVFuVjQzM2ZKaWxveHlFZVR2?oc=5</t>
+  </si>
+  <si>
+    <t>Producción industrial cae en Brasil por impacto de aranceles de EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxOeEVLOEdsUF9wdjVzSXZ4TU1GSDZ5Z3dXaFlVaGE5ZVFOQm9SWVAzUm5jTmdBSFdQYnUxbWtlXy1qRWhnRlBiUGJxSjdEcGRSQnRpRm0xT0NrWkZHdWhrcWRUaXc4QUpPaVpLeTBGTHNWRnNGUGljc1ZmM1NhLVlOOFJPNlRvTjJ1OHByZFJSSUF4OUpwMzdJZS1DWTVza3BNRzJsazhsSGtHdXdNUkRQc0xaMklmTFF0QndOQ2hkZw?oc=5</t>
+  </si>
+  <si>
+    <t>aranceles, arancel, cae</t>
+  </si>
+  <si>
+    <t>Alta prioridad para México que EU retire aranceles a vehículos pesados; “violan el T-MEC”: Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNR3FuU1ZYMm5zT3J3Vmt6bkJCcGRjci1mM0N0dnVETjRyZ2EyQXUyRG9KaHJLVjFiY0dBb1BsX3dRVE5JcUpEZVNwUDJWbHVXNHJ6NVphellUN3laVGRqR3lPU1Y4Z2k1Q1R3TS1yMWEwRHM4cTBpNFBIUmRHX1V6anQwbFlGT3M1LUtkY21XZlI0Qks3YlVNSnI1OUtBcjI5UEUwckZWSklPMXJCZzBINnprandhLU5yZF9IeDNtVkxTMnBneWNJbThQajFjVE9fM0Nz?oc=5</t>
+  </si>
+  <si>
+    <t>['Alta', 'aranceles', 'pesados']</t>
+  </si>
+  <si>
+    <t>Paro de aranceles de EU a México da certeza a 65 proyectos de inversión en México, afirmó Index</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPQ0JXMllSYVZOX29ORURpM1NSTXg2N0NBMmN1aExmS1B1S1RZaDBTZGhNcEhNRThvTFFNT21rMERMZ1JNVzlrTl96ODRFWkdLQ1hrRDhWVVBuTWxiQ1E1X0h4SDJfa3I3RUVwb0xmb0ladkxQWUgxQ1FRMVFKSnF6b05lMDlKNVN4cFhxWNIBjAFBVV95cUxQSTRVS1o1dXRCb3QzWWlyNV9qNzRTeWNGZFdYaGJhakQ1b2F0bU5Dd0I0SFNVdFVaZXNscHJWaG5KMkhTZ3dFYUNUVEk2NzJVV3ZoTHFveUU2ZUdxNDF1MDY5YWh3N0pTNXB6NDlqMmN6RkZXa2xpVmt4cjVWTVhUMGFfOEhPSVlPN3psTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump firma orden que reduce aranceles a China ante nuevo acuerdo comercial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQYUFjSDFaYk5mVW13U0FZSVRyRHhGLXMxSVRiNmxFbUo3aHZycGRsVzNaSmgyN2NvN0NnNTRJXzQxM0YwLUI4V21qSk9wM09mT2R2WkVmZFBHVWZQS0FwX2tCamtlTDhNcnh5LXZGeGJpRlltTTZ4aGJ0UVJjcnNXVldCNWtwSU5UXzNpOEIxd3J1b1ZkUzV5cDNVa0p2S0VIY0HSAaIBQVVfeXFMUGFBY0gxWmJOZlVtd1NBWUlUckR4Ri1zMUlUYjZsRW1KN2h2cnBkbFczWkpoMjdjbzdDZzU0SV80MTNGMC1COFdtakpPcDNPZk9kdlpFZmRQR1VmUEtBcF9rQmprZUw4TXJ4eS12RnhiaUZZbU02eGhidFFSY3JzV1ZXQjVrcElOVF8zaThCMXdydW9WZFM1eXAzVWtKdktFSGNB?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevo', 'comercial']</t>
+  </si>
+  <si>
+    <t>El Supremo de EE.UU. analiza si Trump excedió su autoridad con los aranceles de emergencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxPaElVeGFLZkhPeUFtQTZQWl9OVzFRS2RVaERLUmRiUHl6YW81d2tnbXFLeVduUW5YTUp5ZTZlaG11UVFXc1Zhamk4SW5weEdBQXJENEdNV3dCZEpIMjNLdEhJaVkxazBsNHBYeWxHcW16RHNhTGlmWlFZV0FOTlNJSTByYUlwdnJfdW52aGExYjV3blotZklsNjdoVTNzMHR1R05hWjBfYnFYTEdma0JINkUxNU9nUWxja3lvVlNJZ2xJbE1QRGpMSEN3VTBKWTU4c0oxYTUyd0nSAewBQVVfeXFMUHVyUThFblVYN3lVZnF6b0FBWTh1R2tvUW56ZEpSUTBSZllFc3Q4VFBDV2JfN055Skw1bzRNb1cxdHIwOGg5c01BT0RZVGxNU1ZMRmtjOTJEckZ5a2FVbFZBakUyZjlwSm1BNXhERlFacG1JUDBCYWJGMEIzYkkwY0xiMk9BcGY5WU1WeFlFaUJjS0NiNFNGNWxyY1lLOEJkcURBR1I0MDNUanFPRTBaM1dlaVg5N2ZoTHZfRW5XUmY4UnItbGdya0RRQ1NWM3NSOXQtVGEzU1ZucTc2V1VYLTlZZC1FUVktSFh0eks?oc=5</t>
+  </si>
+  <si>
+    <t>BMW registra márgenes bajos en el trimestre por aranceles y fuerte competencia en China</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQbFdiZ2xoaThXR1ZoRzdoRHR5d3VwTjJCeE1VbFBNd0lBX3BEWFF3b3NyYWtON3NkaGJ6WTJDdjBmN0otMkNxX2JqTnJ6aV82aXRQM3AyYnVDbV90RWJibjVnUFpGTGxYR0hCc3ZaY2VxRkV4Ri1SNVFuZHBPT0tIUm1wNHpHLW8wYmg0WWVVUEQxY1FUbGVoaldqN2d6UU5QVW1LNWRtb3V1S3RBY2ZoRmx1MUgwRmhsWW1GclJ6dktYVFFaMEVz0gHbAUFVX3lxTFB2R0FPMlR6QlUwRVdxQ3hLbER6OUVwaTNJd3ZzWFJlVUFpWDROeThpQS1iZFdTMEE3eVJ4UTdiOU9od19BSEJTSXZaQVI0V0RFMHl1NTd6bjhxNDBxM1pncDZoa1U4bS1GR3ZqcFZlZFR2cmdwZ2V0WXNEdFdtMVlOVWlfeEVXdC1abk9tUmJfYUdfNVBjamxpSjlkVEpWenBLZ0xneTBBSHNoN21PeGdqNFJrc2s4MEtUX0JOVzZiOEwwQk4xOHNSeHN5NkJsMGh0cFdBOFdDRmw5WQ?oc=5</t>
+  </si>
+  <si>
+    <t>['bajos', 'fuerte']</t>
+  </si>
+  <si>
+    <t>Industria automotriz de Puebla, entre las más afectadas por bloqueos carreteros: Canacintra</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOcGNCdnktTHZzY3k3VHE4MVRBUkR4b04zc3Z0TDE1QjRPcEFXM0UxbVgxdzE4alhLbWhTcUdCYXlobEZxN2d3R3AtQjI1bC1odnJrazN2QWlrRHB3TWozMElTbnNTdXhhbzdJb1NJZVZXY3dETjl0eExqUXgzTUtzeFpFbW92aHE4NDd1ZVM3dldEWVZQMS0yNnRHVXR5b01nZnlLc2JnRXpaWkFkaXZOdS0yU0xPLXNtbEhSSmJmczgtOUhCUFQ0WNIBzgFBVV95cUxQTldwdUVMd2JweHNHQXBnTFkzZEZueWdHdFNfVlYyejZIY0xPVlkyUzlLWWxFTUZRR2cxekl5aFVkVmRyVXhqR1E4elNISi1ORTR6bF9hRHZ2SXNRUkI0d1hmSUVGMjlDdTJDdkwxaTAxdVNkeVN3aU81c2lrUzB4R3BxalByQ21wbEQ1Wkc4ZnJ5N1VKZTkzZTdtZDFjRzFhNnh0czNyd2pLc0VvZktHcTh0M2hmZWNEdzBTRjhhVFN1SGFKUm1SYnhiN0Fkdw?oc=5</t>
+  </si>
+  <si>
+    <t>['afectadas', 'carreteros']</t>
+  </si>
+  <si>
+    <t>bloqueo, afecta</t>
+  </si>
+  <si>
+    <t>Industria automotriz mexicana pide respetar el T-MEC y reforzar Mecanismo Laboral de Respuesta Rápida</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxOSUtFUnltMkR4Zi0tT0FZM2tYQ3FqSmR0ckdjMFRUNGRuY0ktOWwtN08wczYtQW5DTnZ5N0p0UzJCREN0YWpBSDZtZF9CVkJMeUlHN0tHNU1OOURLOUNVekRsTkgwRHRuUFBmTFV5RUlJQzVEQ0hlYV9pdnlyVVpHZ2pQZEVmN0JKM3lFb2tDSDBnUjI4M0pjWnJQRVZhWW4zQXpxQzk1VDFPek9IZ3k1YlMzMWEwN3dYak82Yk0za3VjZU16VVRkU05B0gHeAUFVX3lxTE9oSlpYdG13LS1xR0RUSmttRHV5OVoyVmR5Qy1DbHpwMTk3NGNVLU5mVEItNzhxT0EwczBwWGlTbGJyOWRJSHBHRzg4ekVzMGFjNTBmMG1kZjh0ckVTV2lRelZXSHY4VFlhOUMyV2lWdHBnZVk3STc0RW9URkVaUGNUYVhRZWdJUktDdWRXbTZVMFFGQXFhaVJDQ2pfelhaWFY5RmRwNXYwZ05VaUFXVVJyckRaZ1VuNVRfZHFoWUhMdHdMOVV1Yi1VZ19aVmhUa24yd3NTMi0wRjU0NlprUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Octubre fue el mejor mes en ventas de la industria automotriz en México desde 2017</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNTHlHc2NpUUloVnFIWVp5RlgzRDBFQ3RPLVNMWGFQUmYyRlRnUG5ySkVYLXhzNTB2Tk9Wb3VOZ2F3cjVtOUhpcXA4MGp6MDJaWUpJZklwRmtXXzFPWllyQlRRYjAtdUE1Y2MxR0h0YVR2dHRIdEFaS2lVMjJmRUVmQ0pSRk4tYVlMNy1NeDRteFB2SXFhVlJsSFRnWEpvZGdDdnJwM0F5TTlOUWE1c1dKbnhidE8xMk9LbmpSWkNodXNvTHpockpLcUFTc3RIZ9IB0wFBVV95cUxNUWtEMjZURnk2eUk1SWJYV000cENHNUFHV3JIZGdjMnFVc2ZrT3RmTHBiQ3lqQTdPdlhjc1FicVlYblpCb3BQNUxiUmlDVE9ja1V1T24xNnpnZVoxaFZnZWpwdm94NzhIWTI1WktVZk5VRi0tVVlqcUhFRmVjZjVyd2JtRnJ4U0Z2cUdyd29CQVRTbVB5bWtUUDFMbllZdmRaUmRxMFN2NFhNRjMxMnNhZnVpX2JXSnY0blY0WGZISmcyNzdSTjloUjQ2VXFkc1pqRm5F?oc=5</t>
+  </si>
+  <si>
+    <t>['mejor']</t>
+  </si>
+  <si>
+    <t>GM, Ford, Tesla y Toyota llaman a Trump a proteger la industria automotriz con el T-MEC</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOa1EyYXplU0VmeWV4bnJMeUtxVXh3WGhTbWdSZ1lNZlNmRmgzdjYzUXhjc1E5ZmlWcUo4S2xsUVR4RVBxcWxiam1yVFlRNmlET0J1SDdLejFEVnZDaWppaXBhTEdDNGstYnUzeEU0WjZMeWdtZmJOS19sdnVxcEdVTENzWFNhRlhfeTlIckxxSGZtXzZlay1mdnM0ZVlSLUdpSmdFN01tQ1FSNXR1cDJDNEg3ZUdSTU9qV2t3VkhZdk45aEZ1d1lvZGxWeG5kZkHSAc8BQVVfeXFMTmtRMmF6ZVNFZnlleG5yTHlLcVV4d1hoU21nUmdZTWZTZkZoM3Y2M1F4Y3NROWZpVnFKOEtsbFFUeEVQcXFsYmptclRZUTZpRE9CdUg3S3oxRFZ2Q2lqaWlwYUxHQzRrLWJ1M3hFNFo2THlnbWZiTktfbHZ1cXBHVUxDc1hTYUZYX3k5SHJMcUhmbV82ZWstZnZzNGVZUi1HaUpnRTdNbUNRUjV0dXAyQzRIN2VHUk1Paldrd1ZIWXZOOWhGdXdZb2RsVnhuZGZB?oc=5</t>
+  </si>
+  <si>
+    <t>Inflación encarece la vivienda más que otros sectores de la construcción</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxPeXM5eklBYTVIUWY5bTgyN3hOOTJHUDlsTFppM0FzN3NVZXAwQ0tiTklVbk0xQTJjQ1BMNmhkN1ViVDhKUzdjYXo0QVQxNTJPTjNkQzBJUS11cHdQeGRkbjVpRS0xTTByelJhS1lURHJyR3A2V0JGZ042S081Z1dPS2thWUo0SWQyNjBucXJRLVVLNmVrNThHUkJXUjkwOFNVUVNzRnh6X185WVBoSUZkMXAtZnhha2FoOFZuWUVn0gHDAUFVX3lxTE5jRWpHZUdPNmlHazdjdXk0Qkt5ZGJnU2lLSUYtZ3hHUGo2TGpqZllBOXgtVDVQVGlYMXp4RnItQmNaSzRXc2FpRG84UFdGVjNsTnVzeFQtdnlrMWRHU1JIUlVDSWhCd0cxR3VFQ05LMTZFMW1iUVE4NEpiX0dPVWkwdE8yeFNRc1lCZWt1azV5eC1qZ3diN1JaX2hnckx0WDBMb1FuTFRQUXVkQ1FqUXJSSUFiTE1wUC1HbE9SaTdoOUhiRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Construcción de las líneas 5 y 6 del Cablebús se financiará con deuda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQaUFYS05tVUdVV2pwcFRENVRRQVlybkgtWW9kWjF2M2VrYjNMSmZkNUVzQXV4cUh6RUJXTkRhb1c5bHV0TElmdGZpRFlublVWcl9ZakVzWXFIa25XTVZtUXZ3dWowQl9WdTdXX2xDdUNIeFh4SHZudkpiT01KT0ZnQS1NTFozaktIZDF6LTFQWi1KeTdZTjNIdjF5ajJQNWhDeUdlWGdGVzJKOFk0VnI1bmljd1l2ZF91UWNBd0hn?oc=5</t>
+  </si>
+  <si>
+    <t>Avanza construcción del bachillerato Tecnológico de Tizayuca</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQMmltbEVacHJCVU50YnBoZ19CMVdDa0lFNGIwQVdMOGhZY0RHLTdKeTc1RlZHZnNwOUw2YXpIQlVSTW5IUENnSDg0MkJjcjE5WnJ4bFRoeFFCZXk0clBlNkdQNWFORGtPQWpKcl90ZDFLOEV1QzNPa1JZdEpDNmpSaXNDWDdQSEtrN2RsQlpndmg4TjgzdGpxdkVwY01IWjdaeDFIc3pNWF9LY2wxUnVjLURUbDlZSl9VOVRuRlhB0gG-AUFVX3lxTFAyaW1sRVpwckJVTnRicGhnX0IxV0NrSUU0YjBBV0w4aFljREctN0p5NzVGVkdmc3A5TDZhekhCVVJNbkhQQ2dIODQyQmNyMTlacnhsVGh4UUJleTRyUGU2R1A1YU5Ea09BakpyX3RkMUs4RXVDM09rUll0SkM2alJpc0NYN1BIS2s3ZGxCWmd2aDhOODN0anF2RXBjTUhaN1p4MUhzek1YX0tjbDFSdWMtRFRsOVlKX1U5VG5GWEE?oc=5</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>avanza</t>
+  </si>
+  <si>
+    <t>EU analiza restringir partes de su espacio aéreo si continúa cierre de gobierno: Departamento de Transporte</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxPa0pxLUk4QmxOZ1BlTWVZNFZldWVPWXVZUWdzRjlYUmp3WTdDSlJvNUVlM09FZFVpMW1vcEEwempTa2l3VzA3cndudEhZU3VSaTJTSUxNckpPenpQWEtXYlpNOW5kYlNIb0Vsd2ZzbGkxb3pHWTU3eUVEQzR6YklrdkZXREJpcEYzY2tSU0ZVMWx1OEwzVjRwaWVVRXkyQXJTdjVDNHdfVkJmSk9RdkNjNjJsRDVFYnFqelVzaHhIWHY4WUFBYktESzRpYTEzMTV1NWwtcU8wZnhSd1hhak9EdE5JdEI?oc=5</t>
+  </si>
+  <si>
+    <t>Transporte de carga</t>
+  </si>
+  <si>
+    <t>['aéreo']</t>
+  </si>
+  <si>
+    <t>Empresarios y gobierno analizan condiciones operativas y logísticas del AIFA</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQZklEbndtZjVraWpmeDc0NjZPaW1Nd1d5bDY2U0E4ZXphcm1jVEE0VlZmM1hNb2VuZEpvcHV0RE1LcHZWTXh0TjNSZzVVOVpsYkpvU0hUWTlhZUx2dk1veEdCSHNlRTM3bWNsTThZcWVwT08yNUdvZ2cxNnFnNmVIa1lrWktIcC13OEJQbzJCTHRiMWUxdnFkSHh3UHZnUGtQLWFlb2ZpcDFYb043?oc=5</t>
+  </si>
+  <si>
+    <t>['operativas', 'logísticas']</t>
+  </si>
+  <si>
+    <t>Extorsiones contra el transporte de carga, tema pendiente en Edomex</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxNeTNLZ0JRbnVJX1AzdjNoU2RlaTh1MjUyN2FLZlZhQjVvd3hJUGlxbS1kSzJhS210NVByWGVURWUzck9FY0lUQ2x1b1hxeXpOMGF5ZlFmQU1ocHBUVDA5NjE2ckVqbkxuNGtzbVBLQlRKVF9DTW82b2I2WEZBTDNVOHNubmRlY0RUbDVTUmhkUllROG9hZEhhOFJrNVVHbk02WDRzeUxvazByS1JoME00YTcza2wwcXJwUnJ2aXhaU3Q?oc=5</t>
+  </si>
+  <si>
+    <t>Estado de México</t>
+  </si>
+  <si>
+    <t>['pendiente']</t>
+  </si>
+  <si>
+    <t>Tariffs Are Here to Stay, Even if the Supreme Court Rules Against Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNd3BaWkxRdU1YRElyM3NVeWlDeWJiMHN0R0QyTGN2MnVkVHBReHNHOHhjOTk4SFRRM3JkbmplM2RmQVdmaWZLUkV1Q3JmQUlsZkNBZmtHbWpSVjN0T3VJVzFTb2ZPWC1nNm5zd0RGWS1hNzdtX1pUSVZmS2FUMXA0MkhvZw?oc=5</t>
+  </si>
+  <si>
+    <t>Almost Half of U.S. Imports Now Have Steep Tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxPWmVZTmFKakI0RDlVbkt2SFBzNHFrZ1dBSHBUODZpQklrNXEyYmZCQWV1VFM0ZVQzTnhTajBPMmxJZ1hOblpaUlhpczNkbzItMG95cnZVc09GLW1fQVBITS1XS2FZNFVXOEsxckhfOGt4N0ZBdjVpQnN5cEdZSl9SQ2hRcWpUbm1ZLXlqeEJZVUVBZ3FuTWxBMg?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s Sweeping Tariffs Face High-Stakes Supreme Court Test</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxQVFYxOGQ3LTBEY05tUzY4SV9JaWdZVF93OUgzRTVsOTFfOTNJdGRQSzFXZjBla1V6SmZMcnVhcTQyWE5OY3Zoclphd2hpSzVKRW5vSEZtZkZtVHN0N25JZTVrODI0UElTZjBReV90bTBDejFEY3pYWEFOMXhiVHFWcWY0bUxmdw?oc=5</t>
+  </si>
+  <si>
+    <t>Small Businesses Gear Up for Tariff Fight at Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxOdnNDRmpHTlFpYmNBRFFwUnBLZXhKMjM2T2tZM2htTUxXU3prVUhzMkVWbC1CZ2ZqR09UN1RSMVNtb2wybVJKbGw5NER1VXlEWDRCZDAyZ0t5cVVTWm1qNGVhTGlxM2RJeEZfS21NajNsV3RrM2xiTEpSeksxNkt5TU5fZzVHN2JhRzE2amRMYWc2UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Will the Supreme Court case on tariffs affect my pocketbook?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxPZmN5cHFvdVROS0cxRFFoR1V3bC1ENE02Q3NxT1JjUnRPaDc3NXNYNHFfWjFaVV9PbW1SSDE5TVJLTVhYOUVtbnFNZUxHZl80UHdGb1NEbmtFSWxYcTZxdl9MTWFid0xqMFBHeHFITllJaklaRVFDRWRndmJtVmpRQ3ZaWlFNdw?oc=5</t>
+  </si>
+  <si>
+    <t>Mystery conservative donors bankroll opposition to Trump’s tariffs</t>
+  </si>
+  <si>
+    <t>Supreme Court weighs Trump tariffs in a trillion-dollar test of executive power</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNSkJyb2g1ZXliZ0RuRUtwN1h6eGxJcW5pSjYtcWJmaU1takpKT3dSaVAzMXBnZUpxX2hhUEptbklsb0RrOVVJc3JwQW9vNGxPcnROdFAzRTBvc0RGZ0dWYjBCOUtCVE1qbzRQbEEtckZGM3FyVzJwWkxNRGl3V3Eyc2wxanRJQnM0ajdzVVk0SWhRS1JlUE9VTkNXNEZfLU55LTBXUm1TcGZxSzZhNHJ0OTgtM1ZiNHJTMy1MYzBGTUIwZWlv?oc=5</t>
+  </si>
+  <si>
+    <t>Trump spent 30 years pushing for higher tariffs. Now the Supreme Court could undo them.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxQdWJyZkItRnF3R3JuNk1nTUpmWldPQTVCUXNWLVBjc0pkVnNraDF5aXkxRkdxd2dBWkw1R0VTVTZfTHV1SVd2cWNtcklYME95R3BPVDJKNTA3aVhaMllkSnJzdFY0eXd6c0QtZVFXRG8xeGRJbi01VThYVHA4ZzJ6bzN2bGRKNkVJUjFmLWZnYzRNZFRZbkZpdHd2SFpaWXllU3c1Z3c3eUtOM01sRlY3bVp2clVfM25YRWg0OVU0Rk1KTG5FemlGWDB2Y2J2VllObnFLRTYzNm5JS1BLUGlVUl9vdGNnTXJXVktCdE5Nc0NHaWpRVDA0?oc=5</t>
+  </si>
+  <si>
+    <t>Trump Tariffs Case at Supreme Court Today; Dow Futures Waver — Live Updates</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikANBVV95cUxQUWRPM1JNODdCdUg4OThSdkFVQktmbW1vdm5tVWhjVFNJQk0tU044S05jb3BLVFdwOTN6ZWpUSkFRYlpkMjBhOVJRS1RTWGNOczlrN3ZmYTB1Yzk4aGVhT19KckY1bFZSTnBhZDFfT3ltX0ZwTXhCQ1dWcmVjTWUwOWdSOEVkbGE5UkRoak1RUjlnb0tKZmdoYktjWE1mZDlUcjg5alNpckpKUjh2V1YzSXVVRTdSV3MzUzNnUjFqcE9jUTEzQ2p5MlotNjFEVVllWnA5U213WFVYQm04dzVvdG1zR1V3NEZ2UjNTRldWd2NzRlRMeWk4Nkw5ZnlxQkRmZW83dFlQOWlFREpxbDRWOUN0UkdJeFRFc2hUa25PVnYxQzc4QWdSeWVSXzNBQkpVV3c2THBKN20yODN2OVRPNG9iZ0lGMnNtQ3JLOHB4SkYyWHQ3UEs1LS00MGdVaDdpNkpacTlGcVg3amJNR1JTaGlxQ1hqeU1IUEtBejFLeDFFN09RaHpEVmcyTkZFRGk1?oc=5</t>
+  </si>
+  <si>
+    <t>Opinion | Trump’s Blanket Tariffs Are a Bridge Too Far</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijANBVV95cUxQRGtydUNiUnNVXzBvc2R6VkJ6UEpxaWowV2JtMXZBbUQ2QlBCWWtxYzBqYjl4RUxxSkhXNVRfME9TTUdpOWk1Z0JvWHdMU3lrUTZ2ZHhUVFlOQkJ4STlqRWhheXFyVWpGYlh0U0swRkNwNFB1Q0FlNW44ZDlFTGNJczdveUFEVU5hNVRQbWlsdjhmRkh2MkRTVXNKSXo3c1h6aTBYcndGdWNsei1GcTd4WXQ3T2ZZY25WamUxZmk5SHR0a1pDUHk4MGRWeWFvdzM1VmduYTNudG1KNkphZW9rWjJQQy02LTc2QWpPRFhhTGtkaUhzbzBxNzZjRThSMXhJSVNac3hOMjA3SXBaQ0dHc0MtNU5pUm42bFlwUjFLWGVlRlB3RXh0Vi1ZeDlnMFRPN3NFYzQyM0lnMmJ4SXpHS0N4RUdUSzNFRmhPRUFRZGlvSThFSFgxQTBXZFVxRHZaUW5hSFExMUdKM3p5Y0l0ajNnR29IU2VMMGIwMGZ4aWFacnV3YXJGMEUzRGs?oc=5</t>
+  </si>
+  <si>
+    <t>Toyota Raises Sales, Earnings Guidance Despite Multibillion-Dollar Tariff Hit</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisANBVV95cUxQWHEtWXIxTUdSWU9sX25ycDVINW8yYUdrY0lHcGdGR2phenEtVlU1RTlPaXhLSTRrR2J1RkVwWUpRNDNRXzN4T0dPTkxITEpYYjRxV0tWaTZFQXJFTnVyM0c4YzkxSGFxdURmS1JiY1dyeXZZOHphX09lNTRZc0piYkxLemdqY2VtVlV5WEVMZE1jenhoM0hxNlQzNkdZN29Na2xWeGQxZEtGSzhJRzNtQ1p0eWlRRGt0OW9TVlBJdjBWWW5nX3J0MUVLOGhqVVNXNThIMlRDWEtiZExnNW1qdDZQVFdvX0w2VlJ0RVRFTU9BdGFfbW5OWVI4Vk5tcmhZaVdBampuSjctclNfdDByb3pWcjZXUHZ3Y0FlbEx4bGF5NzI1dGEySkN4bGU5MU5sdDQxaFVEN2F6ZE4yR3BTZ0hEbmdGSVJWMnY0eVJDdmFNR3VGanV1QkMydTRReTdiZzlKeVliUEFoQndHbzlPLVFxWWVkckJzUmZULS02Nld2V3RjRy0xYmozOFVkUFFMX1BFQVRsdlhqOFBLZ2s4b0k4STh4SzYxbTBqUTJkaEo?oc=5</t>
+  </si>
+  <si>
+    <t>Siemens Healthineers Shares Slump After Tariffs Hit Profit</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwNBVV95cUxOdjFNYlNMdFJmb0RlMTZwcXZjWm04c2tqR1dnZ1BxaGp0RzZmdkZTSG9uWHJObkZ2Mm5vUnd6d3FNWEhhLWhZOGNZaFlWVHJZVW9Wb0FvUzg0ZkU2VGpVYmI5WGRMaVVmb05QVm9fRF9ZVnlXU3ZES0ZTWWR0dE4zc29jdWxsLU5zZExKVGk4UGx1ZHY2WmhTdmhtOFF6RDRzdHdxZndHMTJzcVh1RHk4VFFHRXJPYi13bE1YeDVLOEczWjFEd0pGdWY5a2RSc1ZxUmpDVjdkNThjVUtfN0xDakllbUJxOV9BRm5LeHAwYy1meUViTGl5OXI5U2x2a1dINmdtZER0RUt5ck41TlVRRE43SnNJTWM3UklaRmstN1d1NGFuS1NMV2g0cEJGOEcwVThxT0pzVlpqMklLUnJ3d3VzQkJxemhfQU5LY0pEZzBLVElSRDNpMVdFMS1uYng3ckpHc2dZSmdRNGZOaHNpNExQTC0tdkoyeGFMcWZWN2o0c0hDbDhubmVveG43NXRwaUV6MkEycjlkRlVYcnFhRGNFd1lBUGFOc1N3Z0FuTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Donald Trump’s 'Emergency' Tariffs Reach the Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4ANBVV95cUxPTW9Jeml6c2pkd0tpamxRMnNLdjhzRV81WmxZX0NGZ1lfT2o3OGFSWUI0NWQ1enVYNi1ncDlhY293QS1KODBGY0IzRUxVMGFNNHNTV01wNnVnWjJfZHBxalVPTC04VzdTWm50a04wdjRBc1gwWjRuMTUtSW1SQXlqZGxOb0dSRXljWXBlZEF6dmlPZVhneXFxZ1J5QTdrM2c5M2c1NDhsSHJjeGRjNElQTDlkcGRsY24xWFkwTExLMXBtQmREUElBN0hrREdJa3BSdVpPOGQ1MnJwYUZpcFJ1SFM0cnhMX05pZXl2OExoMzhkbjJFUjMyczFLV3pldzU3ZzU2WHlOM1ZuejhOekF5Q0RXUTZ0QnNrTjBON0JJR3NxS2RJRVV4X1JkM0FJcmVlWUdVdExfRzRYaFB4Q1JSNlFNaV9QVE1yUDNWOVgzbDl5S1dsX2hLT2FKNkJXRXRkMWhfNGdXbS1SNUV1WmxDaUpMSHhhbXliQXlQYS1jMHJMSkhUV1dyU1FOcjNVTXhTV280ZVVuQTAzeHV0OURJNGhrV19tTEFQUnJZZjdnb1l1OER4VzRrZHpnUDNmQUNCUkw3LU9PV1pjVm9vc3Q3a1FrWHc1N2JnSVplNVE1TzE?oc=5</t>
+  </si>
+  <si>
+    <t>China Ends Levies on US Farm Products After Fentanyl Tariff Cuts</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNUTB5LVY2bEUtdG5WQmZlMU1RRkxOaTVVRGNOSkJWNkJPVExoZE1QVjVjN3dxZ2tXa3dLSlc2eXJjTU8wR1RfQWs1LU9yZEJJM3IteWRTRHpvNkRXcjh1MFFweDZHRFNONzlhUUp0YTM5SExudEs2RWRMN3M0Uk5MTk1XUnRuN2laQ1lVZnptRURWTXI0aXpCUVVmUy1Gcl8xYkxXdmVvTjZhMDZ5LTFOQkktSmg5UQ?oc=5</t>
+  </si>
+  <si>
+    <t>US Formally Cuts Fentanyl Tariff On China to 10% After Xi Deal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPNUpNbFRCU3V2WEFuNUg1NGRqb2NaSmUwVWJnMW1fRUJnSDJCMEIwcTZXMnR3WUtGNngzczRUX0hVZVFQOTFUbEFXMEdKanFYREZGNjN5RFdiVEE3RUR2LXBRcy11QlJRRzhSbG84SEI3cXBtSVhaWXVLZHloaW5jR0cyU1lSU2NCU05Hc05jUjRHd2VmajdEejNtU3pXajdxUFpEVXpwLW5ISkFsRFN0OTB3?oc=5</t>
+  </si>
+  <si>
+    <t>Tariff-Paying Firms Line Up in Court to Get Paid If Trump Loses</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxPUkpQV09YZkpFZnhDRFppVmZXNnNPMEk1NHlfX2x0dlhsc2tkcHRzRVFubDdpbHhmR2pXSHNuT1dXMGotQktzS25iMm9Oa3lxZVBld3lIV3MyeGtrRUgtdElHdUdZZWdIQ3BfUjhibzhKYTN2MzdxWGFGaGEyZGtSZDFwWkdTZ3diSW8yZ1Y2UEFkRDAtRzJ3U2JqVDRUalZaUjVSY0F0eWxmZlFWem5GVU9qSlg3Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Summers Calls Trump’s Emergency Powers for Tariffs ‘Problematic’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNYjBVbDMzY1laZi0tMHFuS3hpb2RnWnpwOXFIanktUC1WQ3FlU3VSaXFwbDA3ZkhZdkJscUZlNjFrQ0pra2FRd010S09rUmxBeVZhLVRIS1k2bFFpaXBSaXdUcVd5Ym0tUTVqQ21rdXpkN0F0Nk85Ni16a1gxMUhwa0hocUlSQ2VNLVRWMDVuam1CakwxLU51amdCR3RmekdZZDVDdXFuc295OWUwOFNNd2d6Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s Tariffs Face the Supreme Court. Here’s What’s at Stake</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPUXlNUU9hUU9saTJHX1pHalBqbXExakJyWUIyX3N4WEdZY0IxSXY5eTQycHR6UTZoWTR0bktaamhqZ0ZvUm9faU1EYkJjRklXa0pyaEYxMTdMVmFveVExV05XaGpKVy1CWEVDazU1YVFybk91VTdrVmdsMVBYYkxyVVBZM2FzMHl2Q0Nka3oxcWpYZHo2T3VJNXQ0bG1sY2YxM2hEMEgzSzFhbjAtSmtwUF9R?oc=5</t>
+  </si>
+  <si>
+    <t>Trump Tariffs Fate Rides on Supreme Court Justices He Picked</t>
+  </si>
+  <si>
+    <t>Siemens Healthineers Sees Tariff Impact Doubling in Fiscal 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxOX19Ra09vMjBGUzQycGZRVDNacEg5NXd5TGp3bFlnMldqUjlGeGJwNXFIUmcydXBLN0ZERUVFclppeFJ3MmlZbDV0M0h0djVRNWtYZFdkN1ZKQURzNlg2Yl9qX1Y2MUpxMC1zZW1fdjZOX1Jjc29yTnJ2QjJTdVFDNEZub3ZyV3lXNkJvRmU2a1FvRVlKU3VIVk5rYUE5ZFFQaGtPZ0lMMG92ZFFUclg1aDlwRWU?oc=5</t>
+  </si>
+  <si>
+    <t>Economía, Judicial</t>
+  </si>
+  <si>
+    <t>Ferrari Shrugs Off Tariffs With Higher Third-Quarter Profit</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxONzhMSWY5MmpOaDVCellmSFBzdzVfb0dzMWd6Rms5ZDBtaEV6RTBYV3RUdElTbWFMaFVTMzFDekpmVFQwb0lIYzlDZUtwZURwY2Q3bWJTNFliWUFGajZzZ0xoNkVmcnU3YnU3V3pjX21qZ0tBbWJfM3RydnZyTlZIWHFKUTk3QWpibHZsRlZaWGFadUM0NWc2cGxwRk9iVmpVSVFaNk50TDViSVo2VHdkMEVHSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Here Are Trump’s Options If the Supreme Court Says His Tariffs Are Illegal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQRHlNeG5RLU5EQ2ttNGpkNFcwN3ZyRG1MOElqU3pKazJYQjNLVnd2dFJQalNxWlZyYW1mZGM0VWdzOWpiclhLX01sSzBEZG0wU040VG9XV1dtcjFlLU8wMDFHMUdXNUg0ZUxIYWhabTdKX2x6em94ZEpia3hQYlR1QXBpU0FqRDZzdThMSnRHVUZVekxNTVdldmMxUWNweUJnT0h5akRiUUR5cFM4U1hWbmxHMldEcE1aMm83SW9B?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court weighs legality of tariffs in major test of Trump's power</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPMlJBSTg2YXU4cXRqUjRYc3FRN0NtaFhiVS1HcnJsT1FDTzFHN25FeTVkdWU2X053VzJGenZTZEtqc21WLWFGd0FGa3hVb1VJZFVHZVpOMGI5SmZid3hXZ2VSWkVUdm5GQXpBcENha2hNS2ZvZjhUMzFOTDlLbnEyYjFmY2Frb2h3UF81WmtwZFloWVlIb3VGOXkyWm9tdmUzRTg5c2RqLS05Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Beijing lifts some tariffs on US farm goods but soybeans stay costly</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQRkMwQ3hHVkxCU3BDSnZfVEVDb08zd3Z1bzU5bWZiRnpaVHdHNjNlZnhHQnU2Z3NaWVhBNUZOT0prYkRISlo0S0VfUlR1LTh3OFVrX2F3MUpCNUFoVE1sVmc2V0UtdXJWT2FTRlV5WXZaUUxENUJwTUxoSnZkSndJT2g0V2VFVGxjUlhvRGJSRTBfOHQ1SzRlMEgzT0VKZjZJamFmeVBrMkM0ZHRq?oc=5</t>
+  </si>
+  <si>
+    <t>['lifts', 'on', 'costly']</t>
+  </si>
+  <si>
+    <t>Toyota raises profit outlook, bets it can ride out tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOekRhUVMtQ3Q4WWl1d0h4YUhjNEE4QnJBc3NzSUlVajYxbV94SWxRUTF0YkNIQ01jN0Ixd1ItNzVaYXhYY1pvRzJoTndrRVNJVFZwNERVcndyTm9CV1oxVDJXZF9hNUhIaE1YZnA2LThoRkZ4aW0wS0p2aFRnMkQ1Nm5iQzh0a0FsemRlaG1TUEtsSWc4N0lSVVVqdmJkTC1DeWdDRExOUUZZM0NCTkhZdjUtZ041QUJKdmJJbWxORGgyemQ4UlFOOXowVEJSa0hUY2VDLUg2amVNOWhRX0FF?oc=5</t>
+  </si>
+  <si>
+    <t>['raises']</t>
+  </si>
+  <si>
+    <t>Taser-maker Axon Enterprise misses profit estimates amid tariff woes, shares tumble</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxNOWFORHJQWUdvVV83enFzZ1lHQ3M0d1hFemZHX2FkX1VyR3VrWnVYZVIzUEtlTUM3bEhRWGhxYmgyX1JjUW5RVTdtTjg0UHNQbFJGM2tUZU1uTkJWWldfeFR2d0l1c1JjSDU2b3MyZ3NRNFBuQTlENTRlN1FISFBnUWZTUEZMVmx4eUFsbkNMNUNtdHhkVjZDaTBTS2FzYzgtZm91MVlrVDE2NExuSm9Ub3pIRUtBaFRoTC00ZQ?oc=5</t>
+  </si>
+  <si>
+    <t>['estimates', 'tumble']</t>
+  </si>
+  <si>
+    <t>Rivian rides on EV tax-credit rush to beat revenue estimate, expects lower tariff costs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOVUMzeE54d0M0YTl0VlhEMXJPTTlOZU1TNnZSN1RzZkpSYjVfd25sSklHS21fOFJ5czZ1dmlKaTdxZHU1T0VNdjN3c2RMcU9kZVZhWlc1V2VfM3BrQ1YyVWNLVFBNNHBXNkNuZkJyS1hLZTNoYzVzdWNLNUNHWExiUUFHTEhCcWVoYXVJWXE0ZkxsWXVmNjZfNzA4c0RXcnNjSDFnSDREVWwta2FxUmdLVm9yZlVqTXJLS190SzVpb1N6N1RGVlFIa2V1MFQwSTVtUXdR?oc=5</t>
+  </si>
+  <si>
+    <t>['on', 'expects']</t>
+  </si>
+  <si>
+    <t>The tariff case puts the Supreme Court’s conservatives in a bind</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNVXZUTmRINXhUR3lGUEpkdzQzOWYybVh4WFRwbHM2eTg1b2w3dmZlWTFCdnlVSHlQQWdRQjJfUXpvMHIxN0R5U0xEV2swbHVSU0FNSVRIN3BaZHFKYUhqS0tJZWN0SEZHTGFGMFhNb191a2RwakthSVd3NXRYeUI5NmY4UXpvMFVnOU5ZeTlSazdCdHVqeFRWNUJXYndleTdQ?oc=5</t>
+  </si>
+  <si>
+    <t>['conservatives']</t>
+  </si>
+  <si>
+    <t>‘Complete cowardice’: Why Big Business sat out the tariff legal fight</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOb0g1cVQyN0dZRnFFQVNQeDlYUFJrOTV6X0p5eXFfRHZFNlRpWjliUFJ3SUMwS1FOaFplSmNaU1VjQW9zQlpCOTFSTTV5RjRtSXljY1NRNTRfSVNoN2paTGFjaThmTHBObVVuNWZsVGRLdWc1UEZnZDBnakVXbnpEVkdDUmxlemw0?oc=5</t>
+  </si>
+  <si>
+    <t>['legal', 'fight']</t>
+  </si>
+  <si>
+    <t>Trump’s tariffs to be put to the test at Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE5VQ0N4TXVoY0UtUUZyb2FEMk56WWdHRUxXNTZrNHRpX0ZJSXZrQ0tWTm5jbVprcjAxMy1JNnQ5cFA1YjdCWnNNR0FnRWZRcEhtLXh4ZVdxRDZhSFRXblZPeEVlVnhwZ3BYdFRNSm5kN3IyX03SAXhBVV95cUxPOTdTUEw4eWlKWDVWR0EwNW5JYUdTM0Y2QUJPSXdQc2hqLURhYVlGdzluVGxXYkExMFgtcEpTVGpDekh0Y052RFZwT0FmdUdPd3BUUl9RMFBkMGZvZUF4cVlnYUlWbWFhZG1jVWNQdC15QVd2U3VaVzY?oc=5</t>
+  </si>
+  <si>
+    <t>['put']</t>
+  </si>
+  <si>
+    <t>Listen live: Supreme Court weighs sweeping Trump tariff agenda</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNNTY2bE50cXVlcTRFM21lVEVibjc5NjlKemRhUW90NmhhM2hVTUVuZlZsQW13RGRvZ2pWNUlpM0RTNDNaakxJXzg5QW9pM05iSGlnaHVyeHl6cktvdDdvQ0NOZTR6d3hOd1NsY1pzZ1A1YXpzT3F2ZklldmNlSXZvWE1XRUdBS3Y0Uk9FZkdCd1VjamJSWldMVtIBngFBVV95cUxNb0ZVcE96bmJ5RVhMOFowLVNsOGlHdHpHVkpKcDREWG5IS0xUVnlyX3hjelgxRnJWRkRGSGZXb1JCLUlqalBvaGhuTzVvWFN0cE12X1BiME5mUUhlQmZzS2FYUHB4bzRaaEtVOFRzYUYtUVBGa0tiSl8zbGgxOFBrQmluS2ZhUFJGRXRLMGVLMFEwOWUtMHd1NXlMbjRuUQ?oc=5</t>
+  </si>
+  <si>
+    <t>How a Trump tariff win can become a victory for climate change</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxQMmdPLTczNWRjT0hiVWFTZzVqVjhWcDJGcDc5d3FIaEswdGpHTVh0eTBYdzZCanlnVGVuWUoyWDNuN1A5a3JENnpVZHdvb1hHTVBkOE9vWmZvT0FYZ05IeDk1elJUNVhNMkFMRkd4SUVzSnhhVk81R1ZLd1VRQVhFWmc1ak5zRF82VWfSAY8BQVVfeXFMTlEybU9BWGFTZVB3Y3FRa19GVmZ1WHJkelhtWkdKa2J2dXE0LU40c3plRk1rLXE4eENYZWVEV1NKZnFONVBWM1JzSFdmSjVpMkxLbkF3VG9ZLVVhaDJhenJjSFNia0hBVlp5YXo4TzJDNV9GUDFOZWg4SFdZWTVJaDhSR2pDVmtQRElieEgtNzQ?oc=5</t>
+  </si>
+  <si>
+    <t>['How']</t>
+  </si>
+  <si>
+    <t>Trump's closing argument befor supreme court hearing: Tariff case is "life or death" for the U.S.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifEFVX3lxTE8yQUpFOGtzX1dGck5wZUtQQnk3Vkg1YmJIajJRclRwNFI5VzVlNmFLRmgySUJ1QjU2cTVYTTExbXY2OVZJbnVib1BnWE5reDBXekN5LVRUUkJoWFYzTnZGMy1ZOVhlSlJ1dHlub05DaHA2WG41UFpYOFdCSjE?oc=5</t>
+  </si>
+  <si>
+    <t>['argument', 'death']</t>
+  </si>
+  <si>
+    <t>Toyota raises yearly profit forecast despite an expected $9 billion hit from U.S. tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNQkx4Q2xEZ0FxMzJrRlpPdzByYU1JeXRPWnNkWEVtRG9iSTVUZTZYWVZoNmVfMFQtcFhuSnVtY01uc3hjcnM4M1BsN19Nam9kSzZwZlZfMzc1QkJnRWxZd05IbUlFX3NUb0diUlUzaXhyNnE0Y0FmMTFsYUkxaXBHNlZTVG9uTkZ5Q0c5TE9NMWVfMUNJSktlVtIBngFBVV95cUxPc3BRZllIYkZIbXJsWWtSQk9CNE9QNEdSNm9WY0RFdU44MmFfWWQwYkdQTlVMejB1Z0NPWXFBV2E4TGlmeE1fbmhxQWxLU0dCUVVXczVWRlhnc1RQNzhSZ3dfMHZra0RKdElSeEdJRUJRSXNPNnJLUEFoR09Ub3NkLXU5VElYN1NEd1F1bGhzcHlCZktLR29SUFB6ZHAtZw?oc=5</t>
+  </si>
+  <si>
+    <t>Bessent says U.S. has 'lots' of options to use on tariffs if it loses Supreme Court case</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxNeHdRM0xBbDFoeXFxU0Q0QU1YZ2VFN3MwaTJxLXJOVjhma1h1Y1BQWjF1bkhqd0RTQjFvV0JWS1BTc3NtSEV1ZkdpbDVrYTg2V2ppc3Y1RDNvZnlJdlctMUJra0JjNE5OZkg3blktdkRtOUFFVVlnb3ZCLUx4SjE1enkzLXlnX2hBcllNSEFpM1dBaldVV2N0MXJKX2Y2bDRLX0d4ak9VdHc3TFQ3YkFMZTRNNWFYcS1yVm13YTV30gHDAUFVX3lxTFAwZkhqS0dCUnYxZ1dyZkE4X2NtQTFaVmkxMjh5bEdUazd2Q3FyRkdwdWxnLVhqVkxBRmFIU0FPaXROWjRvOUU2cE1teWVRRWNXZVNfUFliSS1kdXRLUEhFcnJ6cUJlbC1NbERsOU1GdE9vcjg2bXBMMTM4M2hZYXpLVmhfbUQ2TmNid3FWNDNlaDRvUmY4OVJlY1hndTFJSXVaRl9TWnVydF83QmpVRDZvNkxhQ2NObTY2RVp3SGZFd1lHNA?oc=5</t>
+  </si>
+  <si>
+    <t>['loses']</t>
+  </si>
+  <si>
+    <t>Supreme Court oral arguments on Trump tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxOanlCbWlmR0FlWWRVTDEzT1BNd3BuTW0zdTFSRW00Ulh3WnhpajVRQTIwMWE4UmpMZUZ4Q3c5MjdvVlBXeVlTZEFvMXhYQ2N6Y0NHSE9iLVNfaFY3R0NvcGhDWU5vSjM2VUZWUmtPRWNNdUF6MGVJMkpzQXF4RDY0UA?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court to weigh Trump tariff powers in blockbuster case</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxNR1diRzFZVEFVeVVQZWNQRVBIbEh4XzBFMWpGNXlXZUVIMEt2MDEtdnBtYnVaNnVJX3NSSzRLZDhlX0loSjRuZmtScXcyUmpCdEhBN1F2LVBNaWsxaW1Ba3VSUElXdGYzLVJJT3pyY2MwQTdQV0Fzd2ZBTDBpdDNjR0dHN05wZFg5bmtWNkNDQnctdFHSAZgBQVVfeXFMT2xnVjc4NnM3VTR2djg1N0lHZXBzMmVFQXB4bjZiekRjeWdsaGJzWmVnS254Y0s5T1dyZndUUE1tU2pDWXJWcnVBUVhySENlbE9RazRHWjU1QzhId3hHZ3k4QzktVFNKZTFpRVlZeE82ZG04ZVhjb2dwaDhWRmxVTGgwZHJBRDV5MktUbVAtRFFveDdsdUlFN2c?oc=5</t>
+  </si>
+  <si>
+    <t>Trump warns Supreme Court tariff showdown is 'life or death' for America</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxPQi1kRjVaTWo5dUxyRTVHeHJJMlZmNjdOSzZGdnhlR09IWVhFQXAxOEE5SUlsbXAzRHpsZGxWRDVBMXh4T3ZEWWFnUnNtSUFpR3ZKYVItMVpSbzQ2N3dyNGRKUTVoUDNrY2g3YjhpeThaZDhiN0dCMWJNVUtyZk0wWmREa1plZjZibURQd1B6bFVKeXNkOHdkSdIBngFBVV95cUxNR1d5TVpndXpHM25ueW8zVy02cngyTnEyZWhyS3I3SE1tMVZVMWhVZTl3ZGoycVN4MG11RnBYa05ZMk5fZVRpVWhDY2FkWF9LLVEzZHd3OXgzVl9OSlB2OHVCek5zaVVQQjZpQ2RLZ0Vxc1lpbDZaRm9BVTRVZFBfX285VFZidjY4djlVaVFMRHdSOTB1SC1oVzRzRkNDZw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump tariffs showdown reaches the Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxQd05WX1dQNjVlN0x0WU42LWlNTk1TVF9yOHppQjBEQldXeTk5MDVUVVZlQzhEWEh3T3g0R3hiSkZtYVdMa05qbXAwQk9STGhDYW4zTDZZZGlMakxmWmJRRmRVeVJDV3FLejd2WXk4X2wzZlZLNEZRZ2VtbmlvLXlLUTF5UVlNUndvS0dkbjA4WlVEZjg0VXNwa1pWSdIBVkFVX3lxTE1Nbi03T3RjYkc0SkhtRDI2OHpNOUstUGpheTVaU0xNeTdDSXdYc09JaEVycUw4OTFXdDM4Q0hSdFZ3ZmpBQlp3TFBiTWVEUDBWcVVoempB?oc=5</t>
+  </si>
+  <si>
+    <t>Brazil's Lula says he will personally call Trump if tariff talks stall</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxQODRhc0J0dkRvYVhtS0xmakJhMGs3eHJIZjhkbFA2MENPdTFteldVaWhnZ08zcjlockJaUUJxamtnekU5S0JueE03bndkQXphTGNLMHd6R0xLUTVKMk9uUDluMDd5RDkzYUdXdU9LZmJ0T0IxYWxlSmEzazM3Q0ZUWUZ2eTI0REtxdmJlMEM5ZGJGaTZlSE5BOXNhc3h0RjZSZzloS1BjbThiX1NyZlpketIBVkFVX3lxTE1UMk9lTjdwamY2ajVFUlVscGlxVF9FcENYcWVPTVJZQ2wweEh6RVMtV1J1TE52dHh3eHVsNjNQWW5YUUNaRUFZY0dYR1hwbzZfOFNqWGxR?oc=5</t>
+  </si>
+  <si>
+    <t>['personally']</t>
+  </si>
+  <si>
+    <t>What the Trump tariffs Supreme Court case could mean for the economy</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxQc0dNU1hILTFuNDBQdDRyZDRiWEoxSGpvODQyc3BBWTZDcWNrSnF3MFd2aUE5allqMVllYmRHSEpqRWdLNDNSWlFiTzNYZHVzd0RRaDNyMDJnUHBrWk1ISDFXaFIta0s2bDJvdmtnaC15amIxRF9jR3oxaDExWVFKWEZTN19tSEVid3AzWVNyc2tHZ296cWfSAZsBQVVfeXFMTmE2RGZ5bTJ5TVZGRFN1VHhzbGlHdGdzNGU4ZE9qS3ZudXdQNjZBZUE2QzlVMVRSQ3Y0Q2thNFRVbFVlUTNzb0NCYXVDaFpPUmx4cDU5Y3RHSVFZdHlGSG5USHNqTjlsVm5PYW9DaE1aSDRKNkEwS0ltWXVLdmpHdTZSQzBQVWc3cDNYRnRiTHU2dkFfQUt4dXhuU3c?oc=5</t>
+  </si>
+  <si>
+    <t>['could']</t>
+  </si>
+  <si>
+    <t>Supreme Court to hear Trump tariffs case of 'staggering' importance</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPSnExQ2hBc0tyODhnVUc4VkpzVlREUy1WUHdUZkd0STBwTExXU1hMa09zWDFnQlJLeTRkN0dvX054RDNMamY4NTlHSFlJV2Z5V3FiWmktUTdBZU9DV0c0N0NFS3JwSEpxcnNhcGpiODJ3MlRiV2F6UmQ2T3ZnTWpsZmhlWnhjbzJzMmgyZ2hFYzRTbDFLZjgxd0U1Q1FVSjRaQ0JSVW5wcnJwQzNMUUtmTNIBtgFBVV95cUxPVzdFaHlvcGEzQlpHdURKakUwUHFjSy1IZWl4WGwySlF2TS1CYjc2SWJ5UzdpYTJVNWNaR0xrZkZPb2w0anp1bTVEbDV1NXpheUlXd0Y0RXRZZENYQ2MwRjY1emFuV0ZZVmJHNjRDbmNuWmlhMGFGblRnUnVhQ1pxU3ZlQ1JPaGhCTThtUlZUVWpaTDdKWm9PQjBaNEkzbHpCSGdjUnc1a2Y4dFdfN0FmSG9MTzB0QQ?oc=5</t>
+  </si>
+  <si>
+    <t>What to know about the conservative advocacy group suing Trump over tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxONnAzTGsxLUJNajZsdlF3dU80N3BzMG5zY3IxNndMNkd6UWh3dVRqNHlOLU5xQ0VucW5TUi1mbnljVUMwUERham9RYjlCaFdhZm1EbnNRZDg3RVlhVU1kcWVEOGh1SmFiNTdEOWc4WGpVVWJjN0pkTXJvaWJQS2pwaHhBX0t5UjBsTlRONmJTUkQtcGRnWm1lQ2RlenphaE3SAaQBQVVfeXFMTTJsWDE4NDkxbE0xSWctWGplVWtnN0EzdkhwdTJ4dC1JTHVrRnB5dEFDcUhpMkthVWhwc2x3X2NZQzdGVElYZU10cFRIdTlDenhHVEtXblhzYnZidERTN09VNmwtcGphUTUwY25YeWdlaGptYlJnb2lDM1RmdVl4NXdTSHlJREZxdnJ5WVkxZXNuRDFmd3JRTmJFc3QwSk9uM3FFa1g?oc=5</t>
+  </si>
+  <si>
+    <t>['about', 'group']</t>
+  </si>
+  <si>
+    <t>'Worried about my business': New Yorker who's lead plaintiff in Trump tariffs Supreme Court case</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNb3VsT0JUT3NKLVFSTXVWcS16MG9JbWViTDBwUEZOV3Jsa1dKVHJ3cXI5eHQ4S2VTUmllcXVzeEkxRjVwX1BqN0I3RUh1V1BZWWctUy00b2Mwa2swN2JqZm1xU3dYTzZydHpwblNCQjUwZ3dUUXVwX19GMVVsdmhYOEEwSzAxS3lLYzN0bVBoVm1uRjZ6MmxxOHZxbmpIeUpuZmtmdklTUGo0YXPSAbABQVVfeXFMTndWRU9RXzI1aUZBc3pXWHI5UUk0b185bVk3VDMzSkFrM083dmphdFRZTTJaOVd6U29SNjJRMjRRMmJ1dmpFa2psOGR6bmVCSlhROXlsX1V6R1RoMjcwQUtWLW5TU3dCeDVzdE5HYUc1R08xd3hGQTkxbWxfTEloQUxOcFVWVExEWmNBZGFzS2F5LU55LW0temVEMGlROGdHdFF0SkdtQlZ5bmlxdEpuYXU?oc=5</t>
+  </si>
+  <si>
+    <t>Trump tariffs face Supreme Court test in trillion-dollar test of executive power</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxNNkpxcUNrX1BvMVQ5bXVFYUhkUkpfY1B3VTE0TzA3SFdVMjN5LXZhSzBiNkl0V1Y3OExrcTkyZVN0aU9CUWhNYzhzS21ZZG1SSjRJcHdOUTBMd0dTZW0xNHpid0hGaUFvLUIyT1FqZmh4OWVtT0xtSEF3M3dMYzRaUFd1Q0ZyV3R5Qk5BMk1NVTFyUnpKQkJnSlItcXpRU004bkNIU1ZIVEjSAa4BQVVfeXFMTS1xUFhzdEE1azJoamI2NmppYVNOYzNwRDkyZGloZUN0WnFMeDRTUVREM2dLNFV6eUpxdjZBSkZ6UzhhLWx3cjFNSDFVRXBLY24yNjFQN2ozTk1STUR2Qm5Wa3ZXYkNUWTg2SHpRdDZuMkR3NjFjeDA0WTBCTEkweDQyRy1TNE4temxGSWpvR2Z4QUJnZFZWaEJoSlFxUGRMNTVsVl9lVVdCeWFZbm5B?oc=5</t>
+  </si>
+  <si>
+    <t>Video Supreme Court to weigh legality of Trump’s global tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxQM2hzb2lZRlV6V2tTeGtLb0VIOFVWMWFsUHg2enhCVVR3OUhnXzZrZ3NSQzhxcjRFelZGZ05SZkp4RktGaktiMWY4NjdkVmc1dHJkcnBDSXhrYWY3SW1uenFLWjNZTEZiOE1ybWZYTmtXREJCcUV1aTNya3ZETGpteWFIdGtySkIxeHNhdXVLTy13b05yZW92UThQSzllcVk?oc=5</t>
+  </si>
+  <si>
+    <t>Brazil's Lula to call Trump if tariff talks stall</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPQ1Z0ekdxUHhpcnBCeTB2LWlOMDJna0xubW5SQkhUZ1UwenVrclNzQTJOYUduZUxvS29JbGVLN1lDYmJLclJkNDRJckp1ck1tTGZMZ2Mtd2lkdnJrQTNEdWliQVNHYUxHM05kOGFuUjQtYWRjMmQxbEl4eFQ5ZEl1ZFpxRGNDU0RWSTh4dzZaQUxPNUZLZ0Rjc3h3QzR4QWY4UDZYUTlvN1Zrd9IBrwFBVV95cUxNQUV3NVIyQkV0dnp4N05Bd2dDV2ZYSkZlRklZZ3pQdVpEUUFBMVlFWVhsNWZvYlZNT001amIxX21WMzR1aV9qNXI4TEUtdVd4c2pDbFhJc1lvbW94T29IdExFcDEzakM5X2tsSlU2UnlTSDNXS042YVF0M2M2NVRxTjh0aDhYU0pfZDJZM2hJVDExUTdieEVYR3lCNkxKZXRrSXFGOTF3RlBWNnVqeFZR?oc=5</t>
+  </si>
+  <si>
+    <t>['conflict']</t>
+  </si>
+  <si>
+    <t>Supreme Court hears arguments in dispute over Trump's sweeping tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidkFVX3lxTE1GRGFIWXR3LTVLTGJ0cEREa2VUelA4d3R3OWJucmdLYmtDaXhNY1h0bVpRYmhMVzNWMW5NR0pkSzNta2thVDFnbTJBcFNHdFp0NjRJanZiQVQtZk45eHlaX3d3Nlp0NU9YQTBfUUFjM0RfZkNSeWfSAXtBVV95cUxPWnNyaEJkcjBNNUR6bjdhVDNVM3pvdG90N1VmZ1hDaGNEQ0pScGk2SlFTWFZxNWJ4UWJ4Szc2c25pRk84R1RGaHRXY1ZRZUltbGN3WkZjejNkcmFFVzJYU3pkNFhzazROTHJVMmN3ME9tYU1SWFIxbTVIZ2s?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court hearing arguments on Trump's tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxPNWtCSnBEU1BLNUMzNHBBYTlrRU5YbW9tWENwd0pEbl8zZE8yY0tFWEtXU1djUXZjNGZGUnJBTjM1TFhxRmljWlpjdzdUM3ZGRkdGYjBOcGl2OVZ4Um9RTmF4NVJKSHNqalZvVzFwSDVIa2Z4SHB3X1pkV0RvQlljbWp1SHg1bDA?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court takes up first major test of Trump's presidential powers in tariffs case</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPNTAxbnpqT19sWTduR3QwRTlBRkl3VTNFUGE0RHdpR3FmQXFaa0FnUERZWS1QYjEyQVRGbEdaUFExbHRJSFpaN0FpMlBEb3RqZ0hLU19odWlrZm42ck9pbUt3NXpoX1NTMmlBWEZ3alZUZkp6MGVTN1A4a1UydUpCVW1ldUtxUGNvM0JJRzMwdWlGMEZzUGdHNlpzREMyN1hEQ0RoWDlBYXVNQXlyakxsQXJ4dGxpR1hrckhn?oc=5</t>
+  </si>
+  <si>
+    <t>['major', 'presidential']</t>
+  </si>
+  <si>
+    <t>Supreme Court take up Trump's tariffs: Live updates</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOOVoxZWl2elMyTHZJS3l6YmptekEyd1drLXd6MHhtSXlSbGE5Q013bEtpZi1sQVU2U0p2cGVKQnphWVJoV3pkYXNmdGlFUFk1S3VYVWNOanRPNWt1NWZIamlULVZkb1BfbTZ5TWd0WFNjbG9BRWZ2eVBUNzJOalRYR1JnMXFKRzNCWGM1Sm1xMjJXeHJvdndQalpRWExqY0liZm0tOFpVVVBaQTVoclE?oc=5</t>
+  </si>
+  <si>
+    <t>['updates']</t>
+  </si>
+  <si>
+    <t>Yes, Trump's tariffs are raising billions — but at a steep economic cost</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxQUzN0V29lVFAwbEZpbnc3enVnOVRjS2djRUtnX2U5bUpOcEpXMVVLSjk5WmdCMk43dktSTUQ4b0xfQTY0eVM1UFVsNU4zcVBtbnQ5YzdKV29UY1B3ZTI3cXhhMU9GYjRhNTY4RmpUdW55UUhWYW1jTmJVSmtnSG1tcGtn?oc=5</t>
+  </si>
+  <si>
+    <t>['cost']</t>
+  </si>
+  <si>
+    <t>Supreme Court enters the lion’s den on Trump tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifEFVX3lxTFB2N3otS0ZqSjNMWXUyZFR2R2hoamNhNUVQRGpFZkRkclRMVXVQUUxMQm95aFR6VDJaSkk1eWU2eFFuaUdibEszeHB3M19fT1p3UUtCRjhqYmRoQTZpVlJRMDc1NkpxOXFmd1hpVlVoQWJ2eGJhVC1yUl9wU2k?oc=5</t>
+  </si>
+  <si>
+    <t>Tariffs are going to the Supreme Court. What's at stake?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxQbktERnhpc3NJWEJZTURiSXJSRUVGVmRSNEd1M0pjTE5JLXJTZzdySjhvdDZMTWFacFZWUkhiVllVR29yaF9YVmt5S09lOVFhZ0xCMHVjT0M4S2lsck9GTVFPeXoyeHVXS1k0OGRvQVI5TnF0ZDZEczVCdGxxVy1aMjZqMVpzT1RCMV9HX2xiNHAxcFVBNjczamRQQjktX1E?oc=5</t>
+  </si>
+  <si>
+    <t>Farmers Are Hit Hard By Donald Trump’s Tariffs : 1A</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxOTVpVT2VDa0h6bUQ5dkVZVkJnaFhtckFIYzVENjZaalVKUy1nSFdrZU1mNmxySjN5dFc2T2JzejktLVJONnQtaGZTQ3hNYktTMGxpYzRkbUxUNWM0TFlUaTR0Vy1XX3hUdktGMFJiQ2gyM3ZZdHRkSXFLektvYkQyWjBVaFVpNlpnYmUteHBQWEdXSjN5?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court to hear arguments about tariff legality</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNN3VxcEpydjJYckQ2SVpkVmpkZXctaVZpR0ZWbWhUUHRtTTBCNVFfSVhrOW5WeGxvVFpZcTdmRzc5aTZlR0l5NDYyUDB0bnZJYjRMU2RtajJjNkg0Wl9EYjFldXIyMk93VWFlMklYUFZ3TnpiVjZLakdnd0FXc3BNMTBfdUJZcWFDS0dPTWE2SVJFd0F0M1hFMHdFSmFRU2s?oc=5</t>
+  </si>
+  <si>
+    <t>Supreme Court to hear challenge on Trump tariffs. The case could redefine presidential power</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxONzIwY2hKMWdzN0laMFd1TFYzSEh1VDFvSHB3a1JkSHhkcjRodlBvZXJ5bS1CZXBwMjBKb2VZOVhtT2tBU1pIdzM5LXltVU1iZVFEVEk1WEdoYVdrMF8zSzFHajl0UEo4Z2k0X3ZWTmhYbURKV3lVb0ZXZFNVOUsxcXRKVnRWLXlkUEs5bmxCa0xYLVpTU3dPOXlSUVFnVXVzNlNTajZxNkhSZzZobjF4TkU1djVyQUQ2dnJUdk93UTFNNS14QjBacw?oc=5</t>
+  </si>
+  <si>
+    <t>['tariffs', 'could', 'presidential']</t>
+  </si>
+  <si>
+    <t>Trump’s Tariffs Get Their Day At The Supreme Court : 1A</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxOMDUxRjFnTE1pQV9VSDNnbE9McEVQdndfV0s3S1BMWXkyQ3V3WnMtMXM1aE1YZTZRLVEwUHZYZ19jR0w4ZDY0dlR3QVdNRkFXczZpWGJ5YUFMNmRrUkVXcmt3em5JNjMxaDh1UUFYTnVybWxNdlFKV0U2aHh2RzlFc1NPSFkwaThTUXlacExKZDI1VlZaOEVMSzh3?oc=5</t>
+  </si>
+  <si>
+    <t>What to know about the Supreme Court arguments over Trump’s tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxPbU5hZlFTencyVm9Tb1NockJlQkFTaDRLX3BlRU5tbkZBazQxcFJ5cnJnQ2xjM3RhQllhTUxZbzlkSmdOOWZiT19CMDNFdjlNSkNmdW5aVXF2Yk9xb0RjdnlBTWdBdm5nejdJNHBkTUg3ZEl3Nk53YVVkcUJ1cDdxb1ljVDBtRF92VUVvcWpfcGg?oc=5</t>
+  </si>
+  <si>
+    <t>Brazil’s Lula says he will personally call Trump if tariff talks stall</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxPVUpJR2UxMHV2R0h6ZC03c2dKTHp3Zkk0THBjenpDTjdZQ0lHS0ZvM2Q4NjNIaTl0SmhJSmlBZ05WTm9IR01GOGFWOGVjc1VGNUxmdW5WdDVhWHVGOENudDdVX0Y1QWxDbGZFMEV5clVWWVlPb1o1WXVkUm1rckE0amN4TVJuLVk5UUZNd3FiRjVyUkRiUU1xVlpUWHFzaTA?oc=5</t>
+  </si>
+  <si>
+    <t>Live updates: Supreme Court set to hear arguments over Trump’s tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMib0FVX3lxTFBFOXh4Ty1QYmdENm9DU0VYN1VZSTRXMHFHSDBCdm5mMUZxNk1SN3VNZFg0bVR4dWxBZmJhZno3SXB3UW9QSGhuMlZLWG1GOXAzZEhvdGNMdWFMLWpMdmtfcjhlWlpHVmVmU19pNmJObw?oc=5</t>
+  </si>
+  <si>
+    <t>If Trump’s Tariffs Are Overturned These Companies Could Be The Biggest Winners</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNeXBiR2Z2VlpZOFFvMUVjZHhMcXl6eHZIWkZkQzR6a1l0T1E2V2FtOUZBVG9Kblk3ci1PemVDcVpBaUNyWG9KMExNLVU0YlNkOF9SMkRzYzhNXzBJbTNESGhLSXVsQ293a0hlYi1uOE9DOS12WmhjOEdoRHBMUUhJS3I1NG1QcE5KcHUtdi11UEdnY1ozYTBxc1JYZzJSNGhnbjItU3Q0TC00RXdIQUJXVDNWeEFWQ25wWld3ek1RMGdPR2w4cDh4NF93M0Q4RC1zZTZJTU4xZWVhSGNzUHBXLXJRazZrQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Nintendo Switch 2 Sells 10 Million Units—Beating Expectations Despite Trump Tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQcEdSM3lOeXRyVlN2aTRHaWNRM1Q1cE9qWHNtWjVOSkYxMTFWY0ZYS2RzRExmZ0NrRzREVWYyNmE4Q09FSTFfVXBBaWVNb1hTWnlwal9qYVVuS1RrU0QxblE0ekRWVlJIMHdmN3RUYXBZNkF4MUF1YnZxWmNDMTUtdUVTcmVBdFozdC1nWUdnUnpBUUdZWnl5NnNTUjIzV3RHZnlnMlhXU0VUbENwSUhiVFpjTklUTkJDNEc2ek9XTXJCTlFHTnNHU2laMzd3YTAtR2Y3SmpwWHRvZ1dEWWV4YkJ5S20tZ0Fsd0JtVnBfRjNRZw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s Tariffs At Supreme Court Today: What To Know</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOMGpqWm1ZUUZ1MWFhOU95ZnFYeGNJRE1oSlpVYkRBYnQ0Wk1oWTJtRVlQNWRFWVNiWFRnX0ZQU2Uwd1dPbFlXMktmbms4dFk2R3lGTEo5NXpqaXBSdWNxQmN3WmlJYm5WYkJoTWk2VzdUSEN5Qkl2MldkQ19DYkY2T3V4X2U1S1RlTFdRc2ZDRUczeGtQXzFyeWpIWUNsM3E0VXNrR1JUTVB3QmJnZ1FOQS01bHFMZHlvanBkQw?oc=5</t>
+  </si>
+  <si>
+    <t>Lawfare Live, The Now: Tariff Oral Argument at the Supreme Court</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNWEZtMzgxOGZISWVYNDZWcGJmRzZqWURwUllrUFJ0YXN4VC0xVUVvNnFkX0h5SUxQY1Z5ZldtNXI2NjdtbmdVb0x6RURZMVBoOXVESWVBYTBpUEsySzkzM2FuQ1lGWm53T0M3YVp0LXhwNGVVUDJHTV84ZEZUa0tWNnZyRnNKSXBPX3h4ZllBZWJrWVd0Nm04V1h5akdlMVB0RzBB?oc=5</t>
+  </si>
+  <si>
+    <t>lawfaremedia.org</t>
+  </si>
+  <si>
+    <t>Tariffs are a particularly bad way to raise revenue</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxQSEJ5MGg1endnckVCRE1XNDZnRmZfLS1JWmk2TGFLRkhwTk1uTWNVd1BkU0VaZ1hhcDZvaU9QWkRmZlhjb2RnNE5fd0xndHRRU2dvZVlHR05MOWhPUlRjTWpxWTQwUlVjTERrcDZpemVOZElYSlNqeFBwLXRTalBTS2VDaWFVQnF2a3pWVWZvR3Y?oc=5</t>
+  </si>
+  <si>
+    <t>brookings.edu</t>
+  </si>
+  <si>
+    <t>Legal and economic aspects of the Supreme Court’s upcoming tariff decisions</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxNc1JFOWZPMUFTUkg0dEViR2EtMThqcnowT2k3TFptU3pxeXZzTDh5Q3VyZndtYmpaWFVHZnlWcU9QeVhmYUN1QU5jeUxkLWpyWEdMYlpnN0ZkZFdmclg2XzdYRUhZN1FUVG1wa0Q3dkZqc2R5X3JYV0VyWXZydms2RmFGR0h1Z19oVFJhM3BUb01LaGlrdW9nU0dSUW9PejItcThVVEt0Y085Y2IzOWZj?oc=5</t>
+  </si>
+  <si>
+    <t>['aspects']</t>
+  </si>
+  <si>
+    <t>The Take: The hidden cost of Trump’s tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxOUWFqTVgyZkZHNHhJYXhNUXMyWnRDYnZFRk9EVU9sMnN5aG9aSC1jRW4wbzFzVXpKd25vN042YzhJRWNHTjUxR3RhV2pkTU9TU25GU0QwRkxvdnFIV3BBa2pTeExwSDQ4NXJLQ2thRWxTSVRVMnNhUklVUDU1RXZVbkpXWE96QWhaOWNVcm9QMDk?oc=5</t>
+  </si>
+  <si>
+    <t>China to extend tariff suspension on imported U.S. products</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxPcUlOQlprMF9za3ItandrRm9OQ2dGbnU4REE1UXRoUTRET0JVaWVCUHEwMFlMQjZwZW5GZG51Nkw0X3ZPYVZyTUQtUk13bFhPcWxGVVppTDY4dkJzZG5JaFVHdFNWX2c0a1lEXzB2MElFRTZidTl6WkZjblpidzhUOTVPVWs4ak1tTF81bVhjVHhjVWRZMGVWNHNiemxPbFhxVTZvVWFGbzNEYlBCeU9Yc2QyREw0QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Interior, Exterior</t>
+  </si>
+  <si>
+    <t>Toyota hikes profit forecasts 'despite U.S. tariffs'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxQTllnZWRaZWhrS1N1MEZCeGR4N2duaDY3Z3Y2aklHbVdjY2l1S1NEQnBWR1RvbzdEc3Q1NjQzb0hMR19ZbWJTNFR2SngwWWhLV01UcC1ncFd4UWk5TFNWOU9TTVphc2ZCS0ZGQ2x5czhoTENSQWJlN1QxUXV5ZTJtRVE5Qm80RWQxRGVR?oc=5</t>
+  </si>
+  <si>
+    <t>Trump’s tariff revenue is soaring off a ‘significant increase,’ budget watchdog says—but the $38 trillion national debt still looms</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxOOVM0dG1pZURNcnpuY0VhRUxsT1lGV1NjZ0lCWkdCSWIxaENsVGYtYWRZakxLV0hjZzVKNWdTbHNWcEF3NHBOTTUxOUhsN2tHWHlybWNVR1JxVlY3ZEdHdnV6LUpvYlpwNUc3RVZLR21CNTA4bFlwM2ljZ3o3YTB1TDJuNXF1VE5KMDhiTFZPaw?oc=5</t>
+  </si>
+  <si>
+    <t>['watchdog', 'national']</t>
+  </si>
+  <si>
+    <t>Trump’s former trade architect says the president can’t backtrack on tariffs because he’s ‘too committed’ now: ‘That would be a pretty horrific decision’</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxNeDYtZjFtNEFXdDA0bkVVdEJ5dWNFNUUzWFVKUUlMTHNqV3dvd3BvOXRwb1ZzV0ZHMTRsNXgtbjV1R29tSVFzaXlSNGhPYXdwcnlXU2p6Sko2Y2Z2VGlPbmNfYnFrUGJvZXZWUENPUjhRRDNYNUUtU3pYTDFuVFJsN2l1SHUtVng2bm51MFhDbGhlWFdlaEROYTJpWnMxS0tLYk5jV2VUMDd3c3hqZTRj?oc=5</t>
+  </si>
+  <si>
+    <t>['’']</t>
+  </si>
+  <si>
+    <t>What’s at stake for markets as the Supreme Court gets ready to hear Trump tariff arguments</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gNBVV95cUxNSDBkdzE1S2ViUDV2UzdlNG5OMTdoYzRjQjZNa1ZLS01EVFl2UDdtNGstVWFqVndCSHBIZEM2S05tMGtwcnVzMFVGRTZreGdON010d0hjeURfdEIwakU5WlNqYnY5SUVFcUNtNDdLSDlGekV6RkNUbDYwSE5NMzB3RWZOY0hSejd5d0lvZkktMk5kWEN1ek5HbEc3YklPTExkeWlqbHBVZlVKWDV0UzdxU1hYMklBcVc3UjVTaTJzWXhhcGt0elRKOFFEb20zUVUzTTRiZTd6RFk1RmFHck1ET3k2TU9QazZVRElGbkd2anFFbGxVRHYzSDFOZHI3UEpuRGE0aVlNMnUxUjhzNmVOMEVfNzd5T0EzOEl1ZThXQTY0N1NZcENpTU0ybkRXcWNZYkpQYno5M0FjWk9yRFlsUlBTd1h4OHJreWJxWWotV1JwT0dsR3dWSFNfbEVkUW0zaWdnNWRiVGtGMUFZVk9JSGg3SFNDenFDMjNQamlTSXlJTUVmUHNmZGVodmJtbkNzUVVpVDJiLXdyOV9DOHAza1J4SjdsZTlyVTBwV0drUEdaVENabHNWbE5mOWFZeGQtR2x3d29zRXlxSkpuVXA0T21R?oc=5</t>
+  </si>
+  <si>
+    <t>China to Suspend Some Tariffs on U.S. Goods, Ease Curbs on Firms -- Update</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwNBVV95cUxNOFVzd1JLTXlpMUYxZ0pNaFdheXlObGM5clpXLUtoZGRNQ251ZHlTQV9fVzRSdmhoeWE5bjNwclZjUGhnTWp1YlJNZ3didGNuaHBCVm1PcHZ6S1hDUE45WWtrZEd2NlV3LW81ZjhRcTdPRUZDZjRVUkhnOUZ4b3VaN0NVQkRRZDJMYUVKN0Jnak1pUk5NOEl1Tm9SZjNHY1ZXZFdUaDdHLTBHRHJjdUhMVWYwWnQ2d3U2YlAzdFc0Z0t4emc1V2Q5ejhKd0NURkpfLTF6c3BaQ2thd1BqcjgwdnY1eDNSWE5ZTDF3Z1BENm9ZaUI4b3cxVHlYSm5TM3QtajdDODRGS09ZanFaSDRqSjJNSEREcVlTY2pxWWV4ZUNwMV9wdU1aMzEtdEFsRFFqQnFXTlg5VXlFSFo1TFlfQVBQN0pJdjlZMjI0VzB2UWRHOXJYeU1LcmVTYU56cUxBNk00Tk5BMlNkZmxQaTNOZEJLaHFxblNyRGI3S245X1lOdHZsLWJQNTM5UHpGOHRQYmhlWnNFNHd3MDMyR3oxV1dfVFRWQWFCSkVQM1lqLWZ1Wmd1dFdXY3NvdHBwYmJWVGI2Y2hPRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Automakers urge US to extend free trade deal between Canada, US and Mexico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOaTlpSnBoWnZUUnkyWTlUS0RmYVNRRm1YcndKeEx3U2RkdnRGeE5ITkt4TkJCZVllcEFrT0NXX3dlZjFMTUUwYXdCOTQ4Tm9YOFhtMVhFR2NudkRJQXBRTFNRcHFqN0pHakdZV3cyQVBMSFhqMk1UT2FWSDB6bW03cDdiZGlZMjZMM2JfS1JRNGw3eHRNeGtsVmwya0tPN3pSbGtfSnN1Szc4cDRkWVhKSFhpWUhyelJkRlE?oc=5</t>
+  </si>
+  <si>
+    <t>Exclusive | Drug Distributor Cencora to Invest $1 Billion in U.S. Supply Chain</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgNBVV95cUxPNDQ2cU9ULXJlWGstNXJFdlZaZE1SYUVHVUpoZ2Y1bW9QSktxRjBja2hndDVJWUFPTncwZ2lodUJoaHo2QnRSN0RTMzFWVlZaMzBXNkpocUtSbHQwUGdsaGhyRmhNYTNLUVVFNXcxS29hS0x0d08yb1RtSDh6MVpXQWZ5RXpjdklQSFVjYkpFQ0hhUVIya2haaFEwbUFXN00tZzJ4UlFxbWV5WnBzbF9pNEFYQ3F1cEhQREZNM2drVlVaSWxmem5DSkJvVkhxQ0UzUnZZZjl4cGhCaXg0bjN3bHRCeVg5dmozYkREcXQ5cHExUjEwMjB2RzhFaVFWQU55ZUFEUlpZblItNkZCSWxaSk9CTW9fUGw4SHNNREJTZFVwT3doT1BnNUJMeWl1Q3J1WDNadzhwWW5xYzZpSW9xTVlaeDlVUGM2RzY2QnQzY21lcWxCNm1IR0hhUEdPUklNYnhsVXFoME41eGl5X2ltd21BcGMzY1VySlEzZGs4VDFyREsxd2J4MmtYaVJiRTJpSEFBOGZ5RFBMQU1GRUN4YThnbXdqeUF6TkE?oc=5</t>
+  </si>
+  <si>
+    <t>In a volatile week for interest rates, mortgage demand pulled back</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPZUhMS1d0SElOUE5OTlNsM0pydTBHY2VFeE5jUEpmUldJYmJEVWNaQTkycy10LWVLb3pfdEhNdF9fLWNabDNKQkt5WmM1dTRhM2FpT1hqZzBIdnQ1LUJJT0gwRVduYk44NVMwalBFRm13OXFtTVFYZnpvMTYzWTRqYUp4aWxiWXRZS2N5ZnZJVm9xRUR4OHBVdkMxTm9kZ2t1ZFplMdIBqgFBVV95cUxNbEtnQUFETjVJOGV3eFRBdk1mWGxfci05czFuX2RaZXMwNzVhUm1BUUhienAyTS1oUGMyeTRRQVB1SlpBelRjMGJ5RWRaY0dMWVpXdHB6WEZ2V09La1JRMC10RlF2bjhuY3h2b21FNzU3eHJZOEx3NGJGdVB6RlFKT29UMEFRbldMdFI2Zl8ycEZhSUpWSU1lYjVZMnZGdTVzSGJMYUphSlpRZw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump Aides Raise Recession Fears, and Point Fingers at the Fed</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxQdzNySUJwbUsyelM4S01GZlVXVHZURnlOai0tT1MyTVkwZVJyeWdHT2VINFVydHBtbVR2VWRtVEZPc1VTTnktcmVvLW0teUctSU1vMXhDUFVnMXFQWVB0U2puYUNNTk1BYTJOREp5SU41UklEbTBnLVhuTlpSRHViMFpYbUJHQjRDQmstWWhKcGdHb3l0VDVidDB1NA?oc=5</t>
+  </si>
+  <si>
+    <t>How the Fed Can Change the K-Shaped Economy</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQUEJoWWJqMU9YTnk3NWY3bkMzQnNUejJld3Nfa2Jxd0VJWl91bWVZcEZYem8zbHY1X3JJcE5qMEFSSFU1SXdiNTVVZEMzU2F1akdFdC1JMktRV0hMYjYwVkhNdDFkTjZhR082Nl9XX09KRnBJaFdwYWY3S3B6czBHOTIyOHBFVl9yaEltSGFWWmV1Zk1keV94Njl4MDE1MlFGQnc?oc=5</t>
+  </si>
+  <si>
+    <t>Government data blackout because of government shutdown is fueling the Fed's rate cut rift</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQOGdmVVBYU0M1amRXQlJpdlhTU1hGd3k4Tm1RakRHOVdWelh0cHVLLVpoVFVxMUFqNWZZMnFBVmFsOFQ4YlRsSDk3bk1Wd3RzZFNRZ0VnZEtrbk5pbXRQdnNzVXZWUnktVUl3Tkk2YjdhS0lFQWNWazRKWjJlRnZScQ?oc=5</t>
+  </si>
+  <si>
+    <t>How much will a $40,000 home equity loan cost monthly following the Fed's October rate cut?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPbFN2OU42UU9nN2NTLVVNMFdVMlB6dXNSRWhfRjItbXY2dXBiUWY3ZTZPTzFkd0dwNlh5dU9VU0lWei1VVzJ2cVQ3amstLWpQYjNUNEFONDFpQlRLMndoSFBpYmRuNFQ3M2VWcEhadHFqOXhiSHViZGFhOGRaVTVwMnA4SlJKREx3Nk1mNGZnU1JtSTh2QTRz?oc=5</t>
+  </si>
+  <si>
+    <t>How much does a $400,000 mortgage loan cost each month after the Fed's October rate cut?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxQUnktLVVCWWFCVDJOTUpwSW9VQVExS053MlBqVC02djRpOUxhUE50WjFpMzhyNEVtSnZPcmhEYmdxWkhDMlhKdUFqZ3pCRUR0Z2pDNE9hWUF4VlE5QmJ3M1JhVm9jb1lyTnhxU0RGaXZVQnRXbW8tTzl0cTdPX3B3WkRDSWVVWVFpVEduVi1iaExjYkpBV04wNUpub3VWZHoxbEVmUjFsYkNna1J6YmNzZQ?oc=5</t>
+  </si>
+  <si>
+    <t>A risky mortgage instrument that helped spark the Global Financial Crisis in 2008 is on the rise again. It’s a gamble on the Fed’s future direction</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxOMnZCMW9nZXBMTWtuMEtuQVZrNDd0VGxpa0tJMnFEc0JmdEZWXzBiZVJhOVh1WU9UYWtTcms4Y19fS0REem9NRnBWbV85UFRWSnhqZWhzR1A1TTdnTmFOdnhSakoxNVVzamdNdTNVUTZ5bmxGVDUyQVJSSkgtc1J0Q0dBWjFBaW5BbXJyYnI4QTRLNDlNanpN?oc=5</t>
+  </si>
+  <si>
+    <t>['gamble', 'on']</t>
+  </si>
+  <si>
+    <t>Treasury bonds are good investments at this time of year — but not because of the Fed</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygNBVV95cUxPQlpMODZTd2l4dktzTm1tckhnVllINGgtbUxQNzNteXNkZ3VuUG85UWFXNXBJM25pWlZwS0U1Q1RYLUdoakhSRzRTTFJNdVBwNmRsRkhDQlBZdHo0cF8wdWFNcUJKSWtoRUJKWVJMUmM0TUgxeWhvRUs0eGUtSTBldzA0MEpINmx5dGhpTVg1d0l5ZmJGanlRVmZxdEEyZ1VscUxjeGw1d2JWVldZX2hsU3Y4dmNVckNvWWFwb1IyOHRsNmVrNTFrNkRpb1hlZ3YwZ2l4QXVYZHFrdF9iM2g5d0V5NGItX2RCaWJQcWxXZjBVLXlSMDhKZHFzblJONWdYNHQzWlczZzlNOGFKbWVSTWJTRnhtN3lCSVg0YkFXak1HRUF0UFAwVzNpckV4NHZTbjJvdHA5eTl2azRMZGVqSmNZM2xpaGRpRV83cVV3VHFDNi0xWXFZazcxWEpOYnFrS3NXQmxlZ2hlSjZQYWRkajlWdVEzSlAxb2dYNUtsYmVNLXJweTdLR2xQdEV1NlU3XzdWdDM5SWlUV2pMNlNnQmZfX05KMGh4dm00QlBuWFN2MzhNdVg1TlFLVjFtRlN4WXY2QnByd0lqUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Bessent says US housing market in 'recession' due to Federal Reserve interest rate policies</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxORjY1OTVBZUZMd0lXeEZZbVA1RVpKNEpEMklZUlcyLXZSd0ltXzF2SkI4aDFoNUtRZDZfRGJSclRld1V5OXQ4c2lId0FQTE9LUzBFb2R2NWFfUzIwTGpKaGZJMEVmWnJDLU85NVcxNkdKZk1Hc0NkM3cwT3BqOU8xazZoaVVVNHR3OTVqVFJuZ2JfeGUwX2s2Ri1mUWhmQk5TV1hSSWNMOVRtS1FmNHB3dXhXeXczellaR3N30gHAAUFVX3lxTE85NU5oZF95bk5UazU3Wl9NRFA0TmE2U2hxRThZTHM0OEpCQ3hsTnBFeUtMNHBSRlRPdkpnNk1GeUdDN3czelNINXdRQVIzU3pRbUJ2b1dQZzg5X0J2SmxzemxnVVpWNGZ5TTRIYW81R2hnYWpCN1VQZ19BYzlqMHdzQ21pNnlDQUdhcHVnb3pBZnVPdS1MWlcwVXItMXZBVmdQOS1YWHFXbXZHa0V6Y3J6RGxnWTEwd1BXRUJnUEJWYg?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno de México busca ajuste a aranceles de camiones hechos en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxORHotbGNLY0o3ZkVpTjMyOGpnQktWRjN1blAyZ2xielRrSVRvUWptNjRxbTBLSFVURU5CMHlsVkVRNnJTU0lvZ2VPa2pVMkpmQndpeTYwQmhqTjJmMUNBT0d5Ty13MkMwWDBDeGVEWXFHbjFiUnZfVGFKTTlucHdrYzRtRDFQZENJVXJCVlJ6NnlZTld1VzY5TExycFhuWTh6TDg0RjBrNVo?oc=5</t>
+  </si>
+  <si>
+    <t>info7.mx</t>
+  </si>
+  <si>
+    <t>['hechos']</t>
+  </si>
+  <si>
+    <t>Arancel de EU a camiones y autobuses podría quedarse en 10%: Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNYm1pc3BkVWN5OHRlRWZBV2U2MmV3Mi1zQ3hTazJ0QlV1ODBQNlV0U3FEcUZIbzNqWVFPVEctMmZpSkFoY045Y0g4aWFUTFg2S0kybTZ5ck9DSWRXR0lsTXQ0endyX1hzNDlaNFdFdFFJQjVGY2ZzNUpkTzFTeUNoVjJ3RjFpYTlyZHpLc0JHd0lVQkszbkc0WmprSWJZd9IBowFBVV95cUxOalNLNVltT3dJbE13eUtEblVDSzhtQ0tjLXJEQmxpems4clN4Yzh3Z1Zwa2gyNlRQbi1CcWtSTkhueEhCck9heTNSSnctdG1Cc3JxRXhLSlVuOVFIU1FCN3gyZFlXdWF3NnNlTVNzbDNraFRsVnI4ZEJXQk05X3RQRU5jYmVjS1NRVEdMQVpmVWEzeGR4dUVIN0x5SnU0anRZVzZ3?oc=5</t>
+  </si>
+  <si>
+    <t>elmanana.com</t>
+  </si>
+  <si>
+    <t>Revisa México arancel antidumping a tubos de acero de Japón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPbms1bGJfVEdOczBsVzItUzR5aV9JRFYtTTdWRUY3NlRiOVd3b3hFVU01R1VhRmNkcE5aYktDVnpHa2NBUHRNREUwSHBtS1RiamR0UW9BREJ0UGVnZXVIYjlKRTNIbFdsRldoTmRYbnE0UkhNakNjOFlJY0VZN1BxVFlyNUNNLXVMbnRXYUl4WjdqOTBOQXRB?oc=5</t>
+  </si>
+  <si>
+    <t>puentelibre.mx</t>
+  </si>
+  <si>
+    <t>Elimina México arancel antidumping a discos de aluminio chinos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxNMVM4R19jNjBZMGgweUwzdmM3d1VLd29XVzlVZnl5cUlvOThRcXpLMTdWYUFwd0tjUGlpWWZpMms4X1FHZHJMOHg1V3VpU0ZRdzg4cDlmblh5R0Q3U2VjQnoyRWl1OHVHZjFCY0xMMnpTQTIyVHpobjkyTmdtaEZzT1piYXNyenkyTHc2R21ZOUxQY003MVVySmln?oc=5</t>
+  </si>
+  <si>
+    <t>Es prioridad eliminar aranceles de autopartes del T-MEC, dice Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxQSnZsNkJReWdJNjhIQXI3UmxhM3hzVDBBcDdsc1h0aWtqZDYwckgxUV9VWFY0c3J0el9CMkQ4b29tWkg0amJMXzFMRmlyYUlmN05fT3A3Z0JHY0xJZ1BkNFZfeGJfaWdtbm9IR19oZ3NPWlZxblluRWZqM1JQVVN4RXlzZFljWlZYVEQ3VHdHZkwzRGZROU1TWlVCb1REellyUEdwS0trZ0JnTzJKU3dyaEVNZw?oc=5</t>
+  </si>
+  <si>
+    <t>afntijuana.info</t>
+  </si>
+  <si>
+    <t>Revisión de Suprema corte de Estados Unidos a aranceles aplicados por Trump impactará a maquiladoras de Ciudad Juárez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNYlFuSTNLbkJ1Nzl0Q3puVmQySUxvTkF2LUVFX3R6NXNMdzBuUWdCdFhTZTBvUXZKUl9RRG1YSTBJckRGRl9OS0ZQQmw5UExlM1pSdENUYXZEMHBkYVRidW9VelVJbC1CVmNTZjVHSm5jT09xWTZleEJ1b0ZvVkt5ck5WX0RGVWR5V1hNREpNYThoR0h4UTk2NlZwQVJtY2dXOU0tRHFhT29NYTFn?oc=5</t>
+  </si>
+  <si>
+    <t>nortedigital.mx</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>['aplicados']</t>
   </si>
 </sst>
 </file>
@@ -4157,11 +5210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4ADB63-EAC2-4299-97E1-A477E8160E30}">
-  <dimension ref="A1:N381"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3069E18C-185F-40C7-96A8-7BFA689C2F5E}">
+  <dimension ref="A1:N521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18180,7 +19233,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>45964</v>
       </c>
@@ -18215,7 +19268,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>45964</v>
       </c>
@@ -18250,7 +19303,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>45965</v>
       </c>
@@ -18285,7 +19338,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>45965</v>
       </c>
@@ -18323,7 +19376,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>45964</v>
       </c>
@@ -18358,7 +19411,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>45964</v>
       </c>
@@ -18393,7 +19446,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>45965</v>
       </c>
@@ -18428,7 +19481,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>45964</v>
       </c>
@@ -18463,7 +19516,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>45964</v>
       </c>
@@ -18498,7 +19551,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>45965</v>
       </c>
@@ -18533,7 +19586,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>45964</v>
       </c>
@@ -18571,7 +19624,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>45964</v>
       </c>
@@ -18606,7 +19659,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>45964</v>
       </c>
@@ -18641,7 +19694,5043 @@
         <v>293</v>
       </c>
     </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D382" t="s">
+        <v>526</v>
+      </c>
+      <c r="E382" t="s">
+        <v>785</v>
+      </c>
+      <c r="F382" t="s">
+        <v>786</v>
+      </c>
+      <c r="G382" t="s">
+        <v>473</v>
+      </c>
+      <c r="H382" t="s">
+        <v>20</v>
+      </c>
+      <c r="I382" t="s">
+        <v>29</v>
+      </c>
+      <c r="K382" t="s">
+        <v>159</v>
+      </c>
+      <c r="L382" t="s">
+        <v>526</v>
+      </c>
+      <c r="M382">
+        <v>81608</v>
+      </c>
+      <c r="N382">
+        <v>69.4376761542933</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D383" t="s">
+        <v>16</v>
+      </c>
+      <c r="E383" t="s">
+        <v>785</v>
+      </c>
+      <c r="F383" t="s">
+        <v>882</v>
+      </c>
+      <c r="G383" t="s">
+        <v>787</v>
+      </c>
+      <c r="H383" t="s">
+        <v>20</v>
+      </c>
+      <c r="I383" t="s">
+        <v>29</v>
+      </c>
+      <c r="K383" t="s">
+        <v>159</v>
+      </c>
+      <c r="L383" t="s">
+        <v>16</v>
+      </c>
+      <c r="M383">
+        <v>21118000</v>
+      </c>
+      <c r="N383">
+        <v>17006.261252015</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D384" t="s">
+        <v>55</v>
+      </c>
+      <c r="E384" t="s">
+        <v>35</v>
+      </c>
+      <c r="F384" t="s">
+        <v>18</v>
+      </c>
+      <c r="G384" t="s">
+        <v>19</v>
+      </c>
+      <c r="H384" t="s">
+        <v>20</v>
+      </c>
+      <c r="I384" t="s">
+        <v>29</v>
+      </c>
+      <c r="J384" t="s">
+        <v>22</v>
+      </c>
+      <c r="K384" t="s">
+        <v>37</v>
+      </c>
+      <c r="L384" t="s">
+        <v>55</v>
+      </c>
+      <c r="M384">
+        <v>7531000</v>
+      </c>
+      <c r="N384">
+        <v>5024.5024521238902</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D385" t="s">
+        <v>55</v>
+      </c>
+      <c r="E385" t="s">
+        <v>35</v>
+      </c>
+      <c r="F385" t="s">
+        <v>18</v>
+      </c>
+      <c r="G385" t="s">
+        <v>19</v>
+      </c>
+      <c r="H385" t="s">
+        <v>20</v>
+      </c>
+      <c r="I385" t="s">
+        <v>21</v>
+      </c>
+      <c r="J385" t="s">
+        <v>22</v>
+      </c>
+      <c r="K385" t="s">
+        <v>37</v>
+      </c>
+      <c r="L385" t="s">
+        <v>55</v>
+      </c>
+      <c r="M385">
+        <v>7531000</v>
+      </c>
+      <c r="N385">
+        <v>4921.8780636045003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D386" t="s">
+        <v>55</v>
+      </c>
+      <c r="E386" t="s">
+        <v>17</v>
+      </c>
+      <c r="F386" t="s">
+        <v>18</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H386" t="s">
+        <v>20</v>
+      </c>
+      <c r="I386" t="s">
+        <v>21</v>
+      </c>
+      <c r="J386" t="s">
+        <v>22</v>
+      </c>
+      <c r="K386" t="s">
+        <v>23</v>
+      </c>
+      <c r="L386" t="s">
+        <v>55</v>
+      </c>
+      <c r="M386">
+        <v>7531000</v>
+      </c>
+      <c r="N386">
+        <v>7383.2518146090097</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D387" t="s">
+        <v>55</v>
+      </c>
+      <c r="E387" t="s">
+        <v>17</v>
+      </c>
+      <c r="F387" t="s">
+        <v>18</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H387" t="s">
+        <v>20</v>
+      </c>
+      <c r="I387" t="s">
+        <v>21</v>
+      </c>
+      <c r="J387" t="s">
+        <v>791</v>
+      </c>
+      <c r="K387" t="s">
+        <v>37</v>
+      </c>
+      <c r="L387" t="s">
+        <v>55</v>
+      </c>
+      <c r="M387">
+        <v>7531000</v>
+      </c>
+      <c r="N387">
+        <v>4867.5168631464003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D388" t="s">
+        <v>26</v>
+      </c>
+      <c r="E388" t="s">
+        <v>35</v>
+      </c>
+      <c r="F388" t="s">
+        <v>18</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H388" t="s">
+        <v>20</v>
+      </c>
+      <c r="I388" t="s">
+        <v>29</v>
+      </c>
+      <c r="J388" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K388" t="s">
+        <v>37</v>
+      </c>
+      <c r="L388" t="s">
+        <v>26</v>
+      </c>
+      <c r="M388">
+        <v>27270000</v>
+      </c>
+      <c r="N388">
+        <v>32152.0950314078</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389" t="s">
+        <v>41</v>
+      </c>
+      <c r="F389" t="s">
+        <v>18</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H389" t="s">
+        <v>20</v>
+      </c>
+      <c r="I389" t="s">
+        <v>21</v>
+      </c>
+      <c r="J389" t="s">
+        <v>22</v>
+      </c>
+      <c r="K389" t="s">
+        <v>37</v>
+      </c>
+      <c r="L389" t="s">
+        <v>26</v>
+      </c>
+      <c r="M389">
+        <v>27270000</v>
+      </c>
+      <c r="N389">
+        <v>21744.048820176002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D390" t="s">
+        <v>80</v>
+      </c>
+      <c r="E390" t="s">
+        <v>17</v>
+      </c>
+      <c r="F390" t="s">
+        <v>18</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H390" t="s">
+        <v>20</v>
+      </c>
+      <c r="I390" t="s">
+        <v>56</v>
+      </c>
+      <c r="J390" t="s">
+        <v>791</v>
+      </c>
+      <c r="K390" t="s">
+        <v>37</v>
+      </c>
+      <c r="L390" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D391" t="s">
+        <v>80</v>
+      </c>
+      <c r="E391" t="s">
+        <v>27</v>
+      </c>
+      <c r="F391" t="s">
+        <v>18</v>
+      </c>
+      <c r="G391" t="s">
+        <v>19</v>
+      </c>
+      <c r="H391" t="s">
+        <v>20</v>
+      </c>
+      <c r="I391" t="s">
+        <v>21</v>
+      </c>
+      <c r="J391" t="s">
+        <v>22</v>
+      </c>
+      <c r="K391" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L391" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D392" t="s">
+        <v>80</v>
+      </c>
+      <c r="E392" t="s">
+        <v>27</v>
+      </c>
+      <c r="F392" t="s">
+        <v>18</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H392" t="s">
+        <v>20</v>
+      </c>
+      <c r="I392" t="s">
+        <v>29</v>
+      </c>
+      <c r="J392" t="s">
+        <v>22</v>
+      </c>
+      <c r="K392" t="s">
+        <v>37</v>
+      </c>
+      <c r="L392" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D393" t="s">
+        <v>97</v>
+      </c>
+      <c r="E393" t="s">
+        <v>17</v>
+      </c>
+      <c r="F393" t="s">
+        <v>18</v>
+      </c>
+      <c r="G393" t="s">
+        <v>19</v>
+      </c>
+      <c r="H393" t="s">
+        <v>20</v>
+      </c>
+      <c r="I393" t="s">
+        <v>21</v>
+      </c>
+      <c r="J393" t="s">
+        <v>791</v>
+      </c>
+      <c r="K393" t="s">
+        <v>37</v>
+      </c>
+      <c r="L393" t="s">
+        <v>97</v>
+      </c>
+      <c r="M393">
+        <v>43440000</v>
+      </c>
+      <c r="N393">
+        <v>44756.9066226871</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D394" t="s">
+        <v>192</v>
+      </c>
+      <c r="E394" t="s">
+        <v>27</v>
+      </c>
+      <c r="F394" t="s">
+        <v>18</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H394" t="s">
+        <v>20</v>
+      </c>
+      <c r="I394" t="s">
+        <v>29</v>
+      </c>
+      <c r="J394" t="s">
+        <v>30</v>
+      </c>
+      <c r="K394" t="s">
+        <v>405</v>
+      </c>
+      <c r="L394" t="s">
+        <v>192</v>
+      </c>
+      <c r="M394">
+        <v>10340000</v>
+      </c>
+      <c r="N394">
+        <v>10585.739019659901</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D395" t="s">
+        <v>729</v>
+      </c>
+      <c r="E395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F395" t="s">
+        <v>18</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H395" t="s">
+        <v>20</v>
+      </c>
+      <c r="I395" t="s">
+        <v>56</v>
+      </c>
+      <c r="J395" t="s">
+        <v>22</v>
+      </c>
+      <c r="K395" t="s">
+        <v>37</v>
+      </c>
+      <c r="L395" t="s">
+        <v>729</v>
+      </c>
+      <c r="M395">
+        <v>5808000</v>
+      </c>
+      <c r="N395">
+        <v>6371.9746015508599</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E396" t="s">
+        <v>27</v>
+      </c>
+      <c r="F396" t="s">
+        <v>18</v>
+      </c>
+      <c r="G396" t="s">
+        <v>19</v>
+      </c>
+      <c r="H396" t="s">
+        <v>20</v>
+      </c>
+      <c r="I396" t="s">
+        <v>21</v>
+      </c>
+      <c r="J396" t="s">
+        <v>791</v>
+      </c>
+      <c r="K396" t="s">
+        <v>37</v>
+      </c>
+      <c r="L396" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M396">
+        <v>470075</v>
+      </c>
+      <c r="N396">
+        <v>285.37605154854401</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D397" t="s">
+        <v>34</v>
+      </c>
+      <c r="E397" t="s">
+        <v>35</v>
+      </c>
+      <c r="F397" t="s">
+        <v>18</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H397" t="s">
+        <v>20</v>
+      </c>
+      <c r="I397" t="s">
+        <v>29</v>
+      </c>
+      <c r="J397" t="s">
+        <v>791</v>
+      </c>
+      <c r="K397" t="s">
+        <v>37</v>
+      </c>
+      <c r="L397" t="s">
+        <v>34</v>
+      </c>
+      <c r="M397">
+        <v>43217020</v>
+      </c>
+      <c r="N397">
+        <v>49800.084273736997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D398" t="s">
+        <v>40</v>
+      </c>
+      <c r="E398" t="s">
+        <v>27</v>
+      </c>
+      <c r="F398" t="s">
+        <v>18</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H398" t="s">
+        <v>20</v>
+      </c>
+      <c r="I398" t="s">
+        <v>21</v>
+      </c>
+      <c r="J398" t="s">
+        <v>22</v>
+      </c>
+      <c r="K398" t="s">
+        <v>37</v>
+      </c>
+      <c r="L398" t="s">
+        <v>40</v>
+      </c>
+      <c r="M398">
+        <v>12543910</v>
+      </c>
+      <c r="N398">
+        <v>13732.212586224699</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D399" t="s">
+        <v>40</v>
+      </c>
+      <c r="E399" t="s">
+        <v>35</v>
+      </c>
+      <c r="F399" t="s">
+        <v>18</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H399" t="s">
+        <v>20</v>
+      </c>
+      <c r="I399" t="s">
+        <v>56</v>
+      </c>
+      <c r="J399" t="s">
+        <v>22</v>
+      </c>
+      <c r="K399" t="s">
+        <v>37</v>
+      </c>
+      <c r="L399" t="s">
+        <v>40</v>
+      </c>
+      <c r="M399">
+        <v>12543910</v>
+      </c>
+      <c r="N399">
+        <v>10730.831178205801</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D400" t="s">
+        <v>60</v>
+      </c>
+      <c r="E400" t="s">
+        <v>27</v>
+      </c>
+      <c r="F400" t="s">
+        <v>18</v>
+      </c>
+      <c r="G400" t="s">
+        <v>19</v>
+      </c>
+      <c r="H400" t="s">
+        <v>20</v>
+      </c>
+      <c r="I400" t="s">
+        <v>29</v>
+      </c>
+      <c r="J400" t="s">
+        <v>22</v>
+      </c>
+      <c r="K400" t="s">
+        <v>37</v>
+      </c>
+      <c r="L400" t="s">
+        <v>60</v>
+      </c>
+      <c r="M400">
+        <v>9958000</v>
+      </c>
+      <c r="N400">
+        <v>11710.292866989401</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D401" t="s">
+        <v>51</v>
+      </c>
+      <c r="E401" t="s">
+        <v>132</v>
+      </c>
+      <c r="F401" t="s">
+        <v>18</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H401" t="s">
+        <v>20</v>
+      </c>
+      <c r="I401" t="s">
+        <v>29</v>
+      </c>
+      <c r="J401" t="s">
+        <v>22</v>
+      </c>
+      <c r="K401" t="s">
+        <v>37</v>
+      </c>
+      <c r="L401" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D402" t="s">
+        <v>51</v>
+      </c>
+      <c r="E402" t="s">
+        <v>27</v>
+      </c>
+      <c r="F402" t="s">
+        <v>18</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H402" t="s">
+        <v>20</v>
+      </c>
+      <c r="I402" t="s">
+        <v>29</v>
+      </c>
+      <c r="J402" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K402" t="s">
+        <v>405</v>
+      </c>
+      <c r="L402" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D403" t="s">
+        <v>51</v>
+      </c>
+      <c r="E403" t="s">
+        <v>35</v>
+      </c>
+      <c r="F403" t="s">
+        <v>18</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H403" t="s">
+        <v>20</v>
+      </c>
+      <c r="I403" t="s">
+        <v>29</v>
+      </c>
+      <c r="J403" t="s">
+        <v>22</v>
+      </c>
+      <c r="K403" t="s">
+        <v>37</v>
+      </c>
+      <c r="L403" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D404" t="s">
+        <v>55</v>
+      </c>
+      <c r="E404" t="s">
+        <v>27</v>
+      </c>
+      <c r="F404" t="s">
+        <v>18</v>
+      </c>
+      <c r="G404" t="s">
+        <v>19</v>
+      </c>
+      <c r="H404" t="s">
+        <v>20</v>
+      </c>
+      <c r="I404" t="s">
+        <v>29</v>
+      </c>
+      <c r="J404" t="s">
+        <v>30</v>
+      </c>
+      <c r="K404" t="s">
+        <v>405</v>
+      </c>
+      <c r="L404" t="s">
+        <v>55</v>
+      </c>
+      <c r="M404">
+        <v>7531000</v>
+      </c>
+      <c r="N404">
+        <v>6067.6388688452498</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D405" t="s">
+        <v>55</v>
+      </c>
+      <c r="E405" t="s">
+        <v>27</v>
+      </c>
+      <c r="F405" t="s">
+        <v>18</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H405" t="s">
+        <v>20</v>
+      </c>
+      <c r="I405" t="s">
+        <v>21</v>
+      </c>
+      <c r="J405" t="s">
+        <v>22</v>
+      </c>
+      <c r="K405" t="s">
+        <v>23</v>
+      </c>
+      <c r="L405" t="s">
+        <v>55</v>
+      </c>
+      <c r="M405">
+        <v>7531000</v>
+      </c>
+      <c r="N405">
+        <v>5083.8105327202402</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E406" t="s">
+        <v>17</v>
+      </c>
+      <c r="F406" t="s">
+        <v>18</v>
+      </c>
+      <c r="G406" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" t="s">
+        <v>20</v>
+      </c>
+      <c r="I406" t="s">
+        <v>21</v>
+      </c>
+      <c r="J406" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K406" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L406" t="s">
+        <v>26</v>
+      </c>
+      <c r="M406">
+        <v>27270000</v>
+      </c>
+      <c r="N406">
+        <v>29990.299081098401</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D407" t="s">
+        <v>26</v>
+      </c>
+      <c r="E407" t="s">
+        <v>17</v>
+      </c>
+      <c r="F407" t="s">
+        <v>18</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H407" t="s">
+        <v>20</v>
+      </c>
+      <c r="I407" t="s">
+        <v>21</v>
+      </c>
+      <c r="J407" t="s">
+        <v>22</v>
+      </c>
+      <c r="K407" t="s">
+        <v>23</v>
+      </c>
+      <c r="L407" t="s">
+        <v>26</v>
+      </c>
+      <c r="M407">
+        <v>27270000</v>
+      </c>
+      <c r="N407">
+        <v>28069.179388790399</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D408" t="s">
+        <v>80</v>
+      </c>
+      <c r="E408" t="s">
+        <v>35</v>
+      </c>
+      <c r="F408" t="s">
+        <v>18</v>
+      </c>
+      <c r="G408" t="s">
+        <v>19</v>
+      </c>
+      <c r="H408" t="s">
+        <v>20</v>
+      </c>
+      <c r="I408" t="s">
+        <v>29</v>
+      </c>
+      <c r="J408" t="s">
+        <v>22</v>
+      </c>
+      <c r="K408" t="s">
+        <v>37</v>
+      </c>
+      <c r="L408" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D409" t="s">
+        <v>97</v>
+      </c>
+      <c r="E409" t="s">
+        <v>27</v>
+      </c>
+      <c r="F409" t="s">
+        <v>18</v>
+      </c>
+      <c r="G409" t="s">
+        <v>19</v>
+      </c>
+      <c r="H409" t="s">
+        <v>20</v>
+      </c>
+      <c r="I409" t="s">
+        <v>21</v>
+      </c>
+      <c r="J409" t="s">
+        <v>22</v>
+      </c>
+      <c r="K409" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L409" t="s">
+        <v>97</v>
+      </c>
+      <c r="M409">
+        <v>43440000</v>
+      </c>
+      <c r="N409">
+        <v>29687.580369256299</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D410" t="s">
+        <v>128</v>
+      </c>
+      <c r="E410" t="s">
+        <v>35</v>
+      </c>
+      <c r="F410" t="s">
+        <v>18</v>
+      </c>
+      <c r="G410" t="s">
+        <v>19</v>
+      </c>
+      <c r="H410" t="s">
+        <v>20</v>
+      </c>
+      <c r="I410" t="s">
+        <v>29</v>
+      </c>
+      <c r="J410" t="s">
+        <v>30</v>
+      </c>
+      <c r="K410" t="s">
+        <v>405</v>
+      </c>
+      <c r="L410" t="s">
+        <v>128</v>
+      </c>
+      <c r="M410">
+        <v>3615000</v>
+      </c>
+      <c r="N410">
+        <v>3577.7981352316401</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E411" t="s">
+        <v>17</v>
+      </c>
+      <c r="F411" t="s">
+        <v>18</v>
+      </c>
+      <c r="G411" t="s">
+        <v>19</v>
+      </c>
+      <c r="H411" t="s">
+        <v>20</v>
+      </c>
+      <c r="I411" t="s">
+        <v>56</v>
+      </c>
+      <c r="J411" t="s">
+        <v>22</v>
+      </c>
+      <c r="K411" t="s">
+        <v>37</v>
+      </c>
+      <c r="L411" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M411">
+        <v>42280000</v>
+      </c>
+      <c r="N411">
+        <v>49805.025621580899</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D412" t="s">
+        <v>40</v>
+      </c>
+      <c r="E412" t="s">
+        <v>27</v>
+      </c>
+      <c r="F412" t="s">
+        <v>18</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H412" t="s">
+        <v>20</v>
+      </c>
+      <c r="I412" t="s">
+        <v>21</v>
+      </c>
+      <c r="J412" t="s">
+        <v>22</v>
+      </c>
+      <c r="K412" t="s">
+        <v>37</v>
+      </c>
+      <c r="L412" t="s">
+        <v>40</v>
+      </c>
+      <c r="M412">
+        <v>12543910</v>
+      </c>
+      <c r="N412">
+        <v>7684.7938885211197</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D413" t="s">
+        <v>60</v>
+      </c>
+      <c r="E413" t="s">
+        <v>17</v>
+      </c>
+      <c r="F413" t="s">
+        <v>18</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H413" t="s">
+        <v>20</v>
+      </c>
+      <c r="I413" t="s">
+        <v>21</v>
+      </c>
+      <c r="J413" t="s">
+        <v>22</v>
+      </c>
+      <c r="K413" t="s">
+        <v>23</v>
+      </c>
+      <c r="L413" t="s">
+        <v>60</v>
+      </c>
+      <c r="M413">
+        <v>9958000</v>
+      </c>
+      <c r="N413">
+        <v>10353.2039043448</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D414" t="s">
+        <v>60</v>
+      </c>
+      <c r="E414" t="s">
+        <v>27</v>
+      </c>
+      <c r="F414" t="s">
+        <v>18</v>
+      </c>
+      <c r="G414" t="s">
+        <v>19</v>
+      </c>
+      <c r="H414" t="s">
+        <v>20</v>
+      </c>
+      <c r="I414" t="s">
+        <v>29</v>
+      </c>
+      <c r="J414" t="s">
+        <v>30</v>
+      </c>
+      <c r="K414" t="s">
+        <v>405</v>
+      </c>
+      <c r="L414" t="s">
+        <v>60</v>
+      </c>
+      <c r="M414">
+        <v>9958000</v>
+      </c>
+      <c r="N414">
+        <v>8715.1571569454209</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D415" t="s">
+        <v>60</v>
+      </c>
+      <c r="E415" t="s">
+        <v>87</v>
+      </c>
+      <c r="F415" t="s">
+        <v>18</v>
+      </c>
+      <c r="G415" t="s">
+        <v>149</v>
+      </c>
+      <c r="H415" t="s">
+        <v>20</v>
+      </c>
+      <c r="I415" t="s">
+        <v>56</v>
+      </c>
+      <c r="J415" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K415" t="s">
+        <v>37</v>
+      </c>
+      <c r="L415" t="s">
+        <v>60</v>
+      </c>
+      <c r="M415">
+        <v>9958000</v>
+      </c>
+      <c r="N415">
+        <v>8138.8914359199798</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D416" t="s">
+        <v>60</v>
+      </c>
+      <c r="E416" t="s">
+        <v>17</v>
+      </c>
+      <c r="F416" t="s">
+        <v>18</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H416" t="s">
+        <v>20</v>
+      </c>
+      <c r="I416" t="s">
+        <v>21</v>
+      </c>
+      <c r="J416" t="s">
+        <v>22</v>
+      </c>
+      <c r="K416" t="s">
+        <v>37</v>
+      </c>
+      <c r="L416" t="s">
+        <v>60</v>
+      </c>
+      <c r="M416">
+        <v>9958000</v>
+      </c>
+      <c r="N416">
+        <v>9700.3720013152106</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D417" t="s">
+        <v>16</v>
+      </c>
+      <c r="E417" t="s">
+        <v>17</v>
+      </c>
+      <c r="F417" t="s">
+        <v>18</v>
+      </c>
+      <c r="G417" t="s">
+        <v>19</v>
+      </c>
+      <c r="H417" t="s">
+        <v>20</v>
+      </c>
+      <c r="I417" t="s">
+        <v>29</v>
+      </c>
+      <c r="J417" t="s">
+        <v>22</v>
+      </c>
+      <c r="K417" t="s">
+        <v>23</v>
+      </c>
+      <c r="L417" t="s">
+        <v>16</v>
+      </c>
+      <c r="M417">
+        <v>21118000</v>
+      </c>
+      <c r="N417">
+        <v>14339.3513704656</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D418" t="s">
+        <v>16</v>
+      </c>
+      <c r="E418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F418" t="s">
+        <v>18</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H418" t="s">
+        <v>20</v>
+      </c>
+      <c r="I418" t="s">
+        <v>29</v>
+      </c>
+      <c r="J418" t="s">
+        <v>22</v>
+      </c>
+      <c r="K418" t="s">
+        <v>37</v>
+      </c>
+      <c r="L418" t="s">
+        <v>16</v>
+      </c>
+      <c r="M418">
+        <v>21118000</v>
+      </c>
+      <c r="N418">
+        <v>23284.508294476</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D419" t="s">
+        <v>51</v>
+      </c>
+      <c r="E419" t="s">
+        <v>27</v>
+      </c>
+      <c r="F419" t="s">
+        <v>18</v>
+      </c>
+      <c r="G419" t="s">
+        <v>19</v>
+      </c>
+      <c r="H419" t="s">
+        <v>20</v>
+      </c>
+      <c r="I419" t="s">
+        <v>21</v>
+      </c>
+      <c r="J419" t="s">
+        <v>22</v>
+      </c>
+      <c r="K419" t="s">
+        <v>37</v>
+      </c>
+      <c r="L419" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D420" t="s">
+        <v>51</v>
+      </c>
+      <c r="E420" t="s">
+        <v>132</v>
+      </c>
+      <c r="F420" t="s">
+        <v>18</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H420" t="s">
+        <v>20</v>
+      </c>
+      <c r="I420" t="s">
+        <v>56</v>
+      </c>
+      <c r="J420" t="s">
+        <v>22</v>
+      </c>
+      <c r="K420" t="s">
+        <v>37</v>
+      </c>
+      <c r="L420" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D421" t="s">
+        <v>55</v>
+      </c>
+      <c r="E421" t="s">
+        <v>934</v>
+      </c>
+      <c r="F421" t="s">
+        <v>467</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H421" t="s">
+        <v>20</v>
+      </c>
+      <c r="I421" t="s">
+        <v>56</v>
+      </c>
+      <c r="J421" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K421" t="s">
+        <v>425</v>
+      </c>
+      <c r="L421" t="s">
+        <v>55</v>
+      </c>
+      <c r="M421">
+        <v>7531000</v>
+      </c>
+      <c r="N421">
+        <v>7454.6105146728396</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D422" t="s">
+        <v>97</v>
+      </c>
+      <c r="E422" t="s">
+        <v>17</v>
+      </c>
+      <c r="F422" t="s">
+        <v>467</v>
+      </c>
+      <c r="G422" t="s">
+        <v>19</v>
+      </c>
+      <c r="H422" t="s">
+        <v>20</v>
+      </c>
+      <c r="I422" t="s">
+        <v>21</v>
+      </c>
+      <c r="K422" t="s">
+        <v>23</v>
+      </c>
+      <c r="L422" t="s">
+        <v>97</v>
+      </c>
+      <c r="M422">
+        <v>43440000</v>
+      </c>
+      <c r="N422">
+        <v>34432.370804938299</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D423" t="s">
+        <v>192</v>
+      </c>
+      <c r="E423" t="s">
+        <v>17</v>
+      </c>
+      <c r="F423" t="s">
+        <v>467</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H423" t="s">
+        <v>20</v>
+      </c>
+      <c r="I423" t="s">
+        <v>29</v>
+      </c>
+      <c r="K423" t="s">
+        <v>23</v>
+      </c>
+      <c r="L423" t="s">
+        <v>192</v>
+      </c>
+      <c r="M423">
+        <v>10340000</v>
+      </c>
+      <c r="N423">
+        <v>11997.093128636199</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D424" t="s">
+        <v>71</v>
+      </c>
+      <c r="E424" t="s">
+        <v>27</v>
+      </c>
+      <c r="F424" t="s">
+        <v>467</v>
+      </c>
+      <c r="G424" t="s">
+        <v>19</v>
+      </c>
+      <c r="H424" t="s">
+        <v>20</v>
+      </c>
+      <c r="I424" t="s">
+        <v>21</v>
+      </c>
+      <c r="K424" t="s">
+        <v>37</v>
+      </c>
+      <c r="L424" t="s">
+        <v>71</v>
+      </c>
+      <c r="M424">
+        <v>11190000</v>
+      </c>
+      <c r="N424">
+        <v>10281.289389838599</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D425" t="s">
+        <v>55</v>
+      </c>
+      <c r="E425" t="s">
+        <v>17</v>
+      </c>
+      <c r="F425" t="s">
+        <v>148</v>
+      </c>
+      <c r="G425" t="s">
+        <v>19</v>
+      </c>
+      <c r="H425" t="s">
+        <v>20</v>
+      </c>
+      <c r="I425" t="s">
+        <v>56</v>
+      </c>
+      <c r="K425" t="s">
+        <v>159</v>
+      </c>
+      <c r="L425" t="s">
+        <v>55</v>
+      </c>
+      <c r="M425">
+        <v>7531000</v>
+      </c>
+      <c r="N425">
+        <v>6411.1376769837198</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D426" t="s">
+        <v>77</v>
+      </c>
+      <c r="E426" t="s">
+        <v>489</v>
+      </c>
+      <c r="F426" t="s">
+        <v>148</v>
+      </c>
+      <c r="G426" t="s">
+        <v>19</v>
+      </c>
+      <c r="H426" t="s">
+        <v>20</v>
+      </c>
+      <c r="I426" t="s">
+        <v>21</v>
+      </c>
+      <c r="K426" t="s">
+        <v>150</v>
+      </c>
+      <c r="L426" t="s">
+        <v>77</v>
+      </c>
+      <c r="M426">
+        <v>8156000</v>
+      </c>
+      <c r="N426">
+        <v>7563.0354933375602</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D427" t="s">
+        <v>71</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F427" t="s">
+        <v>148</v>
+      </c>
+      <c r="G427" t="s">
+        <v>19</v>
+      </c>
+      <c r="H427" t="s">
+        <v>20</v>
+      </c>
+      <c r="I427" t="s">
+        <v>29</v>
+      </c>
+      <c r="J427" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K427" t="s">
+        <v>159</v>
+      </c>
+      <c r="L427" t="s">
+        <v>71</v>
+      </c>
+      <c r="M427">
+        <v>11190000</v>
+      </c>
+      <c r="N427">
+        <v>9311.9844429896802</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D428" t="s">
+        <v>729</v>
+      </c>
+      <c r="E428" t="s">
+        <v>27</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H428" t="s">
+        <v>20</v>
+      </c>
+      <c r="I428" t="s">
+        <v>56</v>
+      </c>
+      <c r="K428" t="s">
+        <v>154</v>
+      </c>
+      <c r="L428" t="s">
+        <v>729</v>
+      </c>
+      <c r="M428">
+        <v>5808000</v>
+      </c>
+      <c r="N428">
+        <v>5459.9890104205097</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E429" t="s">
+        <v>17</v>
+      </c>
+      <c r="F429" t="s">
+        <v>168</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H429" t="s">
+        <v>20</v>
+      </c>
+      <c r="I429" t="s">
+        <v>21</v>
+      </c>
+      <c r="K429" t="s">
+        <v>23</v>
+      </c>
+      <c r="L429" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M429">
+        <v>42280000</v>
+      </c>
+      <c r="N429">
+        <v>43635.131441564503</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D430" t="s">
+        <v>77</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H430" t="s">
+        <v>20</v>
+      </c>
+      <c r="I430" t="s">
+        <v>56</v>
+      </c>
+      <c r="K430" t="s">
+        <v>159</v>
+      </c>
+      <c r="L430" t="s">
+        <v>77</v>
+      </c>
+      <c r="M430">
+        <v>8156000</v>
+      </c>
+      <c r="N430">
+        <v>5162.3854723144896</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D431" t="s">
+        <v>326</v>
+      </c>
+      <c r="E431" t="s">
+        <v>27</v>
+      </c>
+      <c r="F431" t="s">
+        <v>18</v>
+      </c>
+      <c r="G431" t="s">
+        <v>19</v>
+      </c>
+      <c r="H431" t="s">
+        <v>216</v>
+      </c>
+      <c r="I431" t="s">
+        <v>56</v>
+      </c>
+      <c r="K431" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D432" t="s">
+        <v>326</v>
+      </c>
+      <c r="E432" t="s">
+        <v>27</v>
+      </c>
+      <c r="F432" t="s">
+        <v>18</v>
+      </c>
+      <c r="G432" t="s">
+        <v>19</v>
+      </c>
+      <c r="H432" t="s">
+        <v>216</v>
+      </c>
+      <c r="I432" t="s">
+        <v>21</v>
+      </c>
+      <c r="K432" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D433" t="s">
+        <v>326</v>
+      </c>
+      <c r="E433" t="s">
+        <v>27</v>
+      </c>
+      <c r="F433" t="s">
+        <v>18</v>
+      </c>
+      <c r="G433" t="s">
+        <v>19</v>
+      </c>
+      <c r="H433" t="s">
+        <v>216</v>
+      </c>
+      <c r="I433" t="s">
+        <v>21</v>
+      </c>
+      <c r="K433" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D434" t="s">
+        <v>326</v>
+      </c>
+      <c r="E434" t="s">
+        <v>27</v>
+      </c>
+      <c r="F434" t="s">
+        <v>18</v>
+      </c>
+      <c r="G434" t="s">
+        <v>19</v>
+      </c>
+      <c r="H434" t="s">
+        <v>216</v>
+      </c>
+      <c r="I434" t="s">
+        <v>56</v>
+      </c>
+      <c r="J434" t="s">
+        <v>397</v>
+      </c>
+      <c r="K434" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D435" t="s">
+        <v>241</v>
+      </c>
+      <c r="E435" t="s">
+        <v>27</v>
+      </c>
+      <c r="F435" t="s">
+        <v>18</v>
+      </c>
+      <c r="G435" t="s">
+        <v>19</v>
+      </c>
+      <c r="H435" t="s">
+        <v>216</v>
+      </c>
+      <c r="I435" t="s">
+        <v>21</v>
+      </c>
+      <c r="K435" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C436" t="s">
+        <v>997</v>
+      </c>
+      <c r="D436" t="s">
+        <v>241</v>
+      </c>
+      <c r="E436" t="s">
+        <v>27</v>
+      </c>
+      <c r="F436" t="s">
+        <v>18</v>
+      </c>
+      <c r="G436" t="s">
+        <v>19</v>
+      </c>
+      <c r="H436" t="s">
+        <v>216</v>
+      </c>
+      <c r="I436" t="s">
+        <v>21</v>
+      </c>
+      <c r="K436" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D437" t="s">
+        <v>241</v>
+      </c>
+      <c r="E437" t="s">
+        <v>27</v>
+      </c>
+      <c r="F437" t="s">
+        <v>18</v>
+      </c>
+      <c r="G437" t="s">
+        <v>19</v>
+      </c>
+      <c r="H437" t="s">
+        <v>216</v>
+      </c>
+      <c r="I437" t="s">
+        <v>21</v>
+      </c>
+      <c r="K437" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D438" t="s">
+        <v>241</v>
+      </c>
+      <c r="E438" t="s">
+        <v>27</v>
+      </c>
+      <c r="F438" t="s">
+        <v>18</v>
+      </c>
+      <c r="G438" t="s">
+        <v>19</v>
+      </c>
+      <c r="H438" t="s">
+        <v>216</v>
+      </c>
+      <c r="I438" t="s">
+        <v>21</v>
+      </c>
+      <c r="K438" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D439" t="s">
+        <v>219</v>
+      </c>
+      <c r="E439" t="s">
+        <v>27</v>
+      </c>
+      <c r="F439" t="s">
+        <v>18</v>
+      </c>
+      <c r="G439" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" t="s">
+        <v>216</v>
+      </c>
+      <c r="I439" t="s">
+        <v>21</v>
+      </c>
+      <c r="K439" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D440" t="s">
+        <v>219</v>
+      </c>
+      <c r="E440" t="s">
+        <v>27</v>
+      </c>
+      <c r="F440" t="s">
+        <v>18</v>
+      </c>
+      <c r="G440" t="s">
+        <v>19</v>
+      </c>
+      <c r="H440" t="s">
+        <v>216</v>
+      </c>
+      <c r="I440" t="s">
+        <v>21</v>
+      </c>
+      <c r="K440" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D441" t="s">
+        <v>219</v>
+      </c>
+      <c r="E441" t="s">
+        <v>27</v>
+      </c>
+      <c r="F441" t="s">
+        <v>18</v>
+      </c>
+      <c r="G441" t="s">
+        <v>19</v>
+      </c>
+      <c r="H441" t="s">
+        <v>216</v>
+      </c>
+      <c r="I441" t="s">
+        <v>21</v>
+      </c>
+      <c r="K441" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D442" t="s">
+        <v>219</v>
+      </c>
+      <c r="E442" t="s">
+        <v>132</v>
+      </c>
+      <c r="F442" t="s">
+        <v>18</v>
+      </c>
+      <c r="G442" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" t="s">
+        <v>216</v>
+      </c>
+      <c r="I442" t="s">
+        <v>21</v>
+      </c>
+      <c r="K442" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D443" t="s">
+        <v>219</v>
+      </c>
+      <c r="E443" t="s">
+        <v>27</v>
+      </c>
+      <c r="F443" t="s">
+        <v>18</v>
+      </c>
+      <c r="G443" t="s">
+        <v>19</v>
+      </c>
+      <c r="H443" t="s">
+        <v>216</v>
+      </c>
+      <c r="I443" t="s">
+        <v>21</v>
+      </c>
+      <c r="K443" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D444" t="s">
+        <v>214</v>
+      </c>
+      <c r="E444" t="s">
+        <v>35</v>
+      </c>
+      <c r="F444" t="s">
+        <v>18</v>
+      </c>
+      <c r="G444" t="s">
+        <v>215</v>
+      </c>
+      <c r="H444" t="s">
+        <v>216</v>
+      </c>
+      <c r="I444" t="s">
+        <v>29</v>
+      </c>
+      <c r="K444" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D445" t="s">
+        <v>214</v>
+      </c>
+      <c r="E445" t="s">
+        <v>35</v>
+      </c>
+      <c r="F445" t="s">
+        <v>18</v>
+      </c>
+      <c r="G445" t="s">
+        <v>19</v>
+      </c>
+      <c r="H445" t="s">
+        <v>216</v>
+      </c>
+      <c r="I445" t="s">
+        <v>29</v>
+      </c>
+      <c r="J445" t="s">
+        <v>397</v>
+      </c>
+      <c r="K445" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D446" t="s">
+        <v>214</v>
+      </c>
+      <c r="E446" t="s">
+        <v>27</v>
+      </c>
+      <c r="F446" t="s">
+        <v>18</v>
+      </c>
+      <c r="G446" t="s">
+        <v>19</v>
+      </c>
+      <c r="H446" t="s">
+        <v>216</v>
+      </c>
+      <c r="I446" t="s">
+        <v>21</v>
+      </c>
+      <c r="K446" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D447" t="s">
+        <v>214</v>
+      </c>
+      <c r="E447" t="s">
+        <v>27</v>
+      </c>
+      <c r="F447" t="s">
+        <v>18</v>
+      </c>
+      <c r="G447" t="s">
+        <v>19</v>
+      </c>
+      <c r="H447" t="s">
+        <v>216</v>
+      </c>
+      <c r="I447" t="s">
+        <v>56</v>
+      </c>
+      <c r="J447" t="s">
+        <v>738</v>
+      </c>
+      <c r="K447" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D448" t="s">
+        <v>214</v>
+      </c>
+      <c r="E448" t="s">
+        <v>27</v>
+      </c>
+      <c r="F448" t="s">
+        <v>18</v>
+      </c>
+      <c r="G448" t="s">
+        <v>19</v>
+      </c>
+      <c r="H448" t="s">
+        <v>216</v>
+      </c>
+      <c r="I448" t="s">
+        <v>21</v>
+      </c>
+      <c r="K448" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D449" t="s">
+        <v>214</v>
+      </c>
+      <c r="E449" t="s">
+        <v>27</v>
+      </c>
+      <c r="F449" t="s">
+        <v>18</v>
+      </c>
+      <c r="G449" t="s">
+        <v>19</v>
+      </c>
+      <c r="H449" t="s">
+        <v>216</v>
+      </c>
+      <c r="I449" t="s">
+        <v>21</v>
+      </c>
+      <c r="K449" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D450" t="s">
+        <v>214</v>
+      </c>
+      <c r="E450" t="s">
+        <v>132</v>
+      </c>
+      <c r="F450" t="s">
+        <v>18</v>
+      </c>
+      <c r="G450" t="s">
+        <v>19</v>
+      </c>
+      <c r="H450" t="s">
+        <v>216</v>
+      </c>
+      <c r="I450" t="s">
+        <v>56</v>
+      </c>
+      <c r="K450" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D451" t="s">
+        <v>214</v>
+      </c>
+      <c r="E451" t="s">
+        <v>132</v>
+      </c>
+      <c r="F451" t="s">
+        <v>18</v>
+      </c>
+      <c r="G451" t="s">
+        <v>19</v>
+      </c>
+      <c r="H451" t="s">
+        <v>216</v>
+      </c>
+      <c r="I451" t="s">
+        <v>29</v>
+      </c>
+      <c r="K451" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D452" t="s">
+        <v>214</v>
+      </c>
+      <c r="E452" t="s">
+        <v>27</v>
+      </c>
+      <c r="F452" t="s">
+        <v>18</v>
+      </c>
+      <c r="G452" t="s">
+        <v>19</v>
+      </c>
+      <c r="H452" t="s">
+        <v>216</v>
+      </c>
+      <c r="I452" t="s">
+        <v>21</v>
+      </c>
+      <c r="K452" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D453" t="s">
+        <v>233</v>
+      </c>
+      <c r="E453" t="s">
+        <v>27</v>
+      </c>
+      <c r="F453" t="s">
+        <v>18</v>
+      </c>
+      <c r="G453" t="s">
+        <v>19</v>
+      </c>
+      <c r="H453" t="s">
+        <v>216</v>
+      </c>
+      <c r="I453" t="s">
+        <v>21</v>
+      </c>
+      <c r="K453" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D454" t="s">
+        <v>233</v>
+      </c>
+      <c r="E454" t="s">
+        <v>35</v>
+      </c>
+      <c r="F454" t="s">
+        <v>18</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H454" t="s">
+        <v>216</v>
+      </c>
+      <c r="I454" t="s">
+        <v>29</v>
+      </c>
+      <c r="K454" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D455" t="s">
+        <v>233</v>
+      </c>
+      <c r="E455" t="s">
+        <v>35</v>
+      </c>
+      <c r="F455" t="s">
+        <v>18</v>
+      </c>
+      <c r="G455" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H455" t="s">
+        <v>216</v>
+      </c>
+      <c r="I455" t="s">
+        <v>29</v>
+      </c>
+      <c r="K455" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D456" t="s">
+        <v>233</v>
+      </c>
+      <c r="E456" t="s">
+        <v>27</v>
+      </c>
+      <c r="F456" t="s">
+        <v>18</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H456" t="s">
+        <v>216</v>
+      </c>
+      <c r="I456" t="s">
+        <v>56</v>
+      </c>
+      <c r="K456" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D457" t="s">
+        <v>233</v>
+      </c>
+      <c r="E457" t="s">
+        <v>27</v>
+      </c>
+      <c r="F457" t="s">
+        <v>18</v>
+      </c>
+      <c r="G457" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H457" t="s">
+        <v>216</v>
+      </c>
+      <c r="I457" t="s">
+        <v>56</v>
+      </c>
+      <c r="K457" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D458" t="s">
+        <v>347</v>
+      </c>
+      <c r="E458" t="s">
+        <v>27</v>
+      </c>
+      <c r="F458" t="s">
+        <v>18</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H458" t="s">
+        <v>216</v>
+      </c>
+      <c r="I458" t="s">
+        <v>21</v>
+      </c>
+      <c r="K458" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D459" t="s">
+        <v>347</v>
+      </c>
+      <c r="E459" t="s">
+        <v>27</v>
+      </c>
+      <c r="F459" t="s">
+        <v>18</v>
+      </c>
+      <c r="G459" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H459" t="s">
+        <v>216</v>
+      </c>
+      <c r="I459" t="s">
+        <v>21</v>
+      </c>
+      <c r="K459" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D460" t="s">
+        <v>229</v>
+      </c>
+      <c r="E460" t="s">
+        <v>27</v>
+      </c>
+      <c r="F460" t="s">
+        <v>18</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H460" t="s">
+        <v>216</v>
+      </c>
+      <c r="I460" t="s">
+        <v>21</v>
+      </c>
+      <c r="K460" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D461" t="s">
+        <v>229</v>
+      </c>
+      <c r="E461" t="s">
+        <v>27</v>
+      </c>
+      <c r="F461" t="s">
+        <v>18</v>
+      </c>
+      <c r="G461" t="s">
+        <v>19</v>
+      </c>
+      <c r="H461" t="s">
+        <v>216</v>
+      </c>
+      <c r="I461" t="s">
+        <v>21</v>
+      </c>
+      <c r="K461" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D462" t="s">
+        <v>229</v>
+      </c>
+      <c r="E462" t="s">
+        <v>27</v>
+      </c>
+      <c r="F462" t="s">
+        <v>18</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H462" t="s">
+        <v>216</v>
+      </c>
+      <c r="I462" t="s">
+        <v>21</v>
+      </c>
+      <c r="K462" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D463" t="s">
+        <v>258</v>
+      </c>
+      <c r="E463" t="s">
+        <v>27</v>
+      </c>
+      <c r="F463" t="s">
+        <v>18</v>
+      </c>
+      <c r="G463" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H463" t="s">
+        <v>216</v>
+      </c>
+      <c r="I463" t="s">
+        <v>21</v>
+      </c>
+      <c r="K463" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D464" t="s">
+        <v>262</v>
+      </c>
+      <c r="E464" t="s">
+        <v>35</v>
+      </c>
+      <c r="F464" t="s">
+        <v>18</v>
+      </c>
+      <c r="G464" t="s">
+        <v>19</v>
+      </c>
+      <c r="H464" t="s">
+        <v>216</v>
+      </c>
+      <c r="I464" t="s">
+        <v>29</v>
+      </c>
+      <c r="K464" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D465" t="s">
+        <v>262</v>
+      </c>
+      <c r="E465" t="s">
+        <v>27</v>
+      </c>
+      <c r="F465" t="s">
+        <v>18</v>
+      </c>
+      <c r="G465" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H465" t="s">
+        <v>216</v>
+      </c>
+      <c r="I465" t="s">
+        <v>21</v>
+      </c>
+      <c r="K465" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D466" t="s">
+        <v>284</v>
+      </c>
+      <c r="E466" t="s">
+        <v>27</v>
+      </c>
+      <c r="F466" t="s">
+        <v>18</v>
+      </c>
+      <c r="G466" t="s">
+        <v>836</v>
+      </c>
+      <c r="H466" t="s">
+        <v>216</v>
+      </c>
+      <c r="I466" t="s">
+        <v>21</v>
+      </c>
+      <c r="K466" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D467" t="s">
+        <v>301</v>
+      </c>
+      <c r="E467" t="s">
+        <v>27</v>
+      </c>
+      <c r="F467" t="s">
+        <v>18</v>
+      </c>
+      <c r="G467" t="s">
+        <v>19</v>
+      </c>
+      <c r="H467" t="s">
+        <v>216</v>
+      </c>
+      <c r="I467" t="s">
+        <v>21</v>
+      </c>
+      <c r="K467" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D468" t="s">
+        <v>301</v>
+      </c>
+      <c r="E468" t="s">
+        <v>27</v>
+      </c>
+      <c r="F468" t="s">
+        <v>18</v>
+      </c>
+      <c r="G468" t="s">
+        <v>19</v>
+      </c>
+      <c r="H468" t="s">
+        <v>216</v>
+      </c>
+      <c r="I468" t="s">
+        <v>21</v>
+      </c>
+      <c r="K468" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D469" t="s">
+        <v>254</v>
+      </c>
+      <c r="E469" t="s">
+        <v>27</v>
+      </c>
+      <c r="F469" t="s">
+        <v>18</v>
+      </c>
+      <c r="G469" t="s">
+        <v>19</v>
+      </c>
+      <c r="H469" t="s">
+        <v>216</v>
+      </c>
+      <c r="I469" t="s">
+        <v>21</v>
+      </c>
+      <c r="K469" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D470" t="s">
+        <v>254</v>
+      </c>
+      <c r="E470" t="s">
+        <v>87</v>
+      </c>
+      <c r="F470" t="s">
+        <v>18</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H470" t="s">
+        <v>216</v>
+      </c>
+      <c r="I470" t="s">
+        <v>21</v>
+      </c>
+      <c r="K470" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D471" t="s">
+        <v>317</v>
+      </c>
+      <c r="E471" t="s">
+        <v>27</v>
+      </c>
+      <c r="F471" t="s">
+        <v>18</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H471" t="s">
+        <v>216</v>
+      </c>
+      <c r="I471" t="s">
+        <v>21</v>
+      </c>
+      <c r="K471" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D472" t="s">
+        <v>317</v>
+      </c>
+      <c r="E472" t="s">
+        <v>27</v>
+      </c>
+      <c r="F472" t="s">
+        <v>18</v>
+      </c>
+      <c r="G472" t="s">
+        <v>19</v>
+      </c>
+      <c r="H472" t="s">
+        <v>216</v>
+      </c>
+      <c r="I472" t="s">
+        <v>21</v>
+      </c>
+      <c r="K472" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D473" t="s">
+        <v>317</v>
+      </c>
+      <c r="E473" t="s">
+        <v>27</v>
+      </c>
+      <c r="F473" t="s">
+        <v>18</v>
+      </c>
+      <c r="G473" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H473" t="s">
+        <v>216</v>
+      </c>
+      <c r="I473" t="s">
+        <v>21</v>
+      </c>
+      <c r="K473" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D474" t="s">
+        <v>317</v>
+      </c>
+      <c r="E474" t="s">
+        <v>27</v>
+      </c>
+      <c r="F474" t="s">
+        <v>18</v>
+      </c>
+      <c r="G474" t="s">
+        <v>781</v>
+      </c>
+      <c r="H474" t="s">
+        <v>216</v>
+      </c>
+      <c r="I474" t="s">
+        <v>56</v>
+      </c>
+      <c r="K474" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D475" t="s">
+        <v>317</v>
+      </c>
+      <c r="E475" t="s">
+        <v>27</v>
+      </c>
+      <c r="F475" t="s">
+        <v>18</v>
+      </c>
+      <c r="G475" t="s">
+        <v>19</v>
+      </c>
+      <c r="H475" t="s">
+        <v>216</v>
+      </c>
+      <c r="I475" t="s">
+        <v>21</v>
+      </c>
+      <c r="K475" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D476" t="s">
+        <v>317</v>
+      </c>
+      <c r="E476" t="s">
+        <v>27</v>
+      </c>
+      <c r="F476" t="s">
+        <v>18</v>
+      </c>
+      <c r="G476" t="s">
+        <v>477</v>
+      </c>
+      <c r="H476" t="s">
+        <v>216</v>
+      </c>
+      <c r="I476" t="s">
+        <v>21</v>
+      </c>
+      <c r="K476" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D477" t="s">
+        <v>317</v>
+      </c>
+      <c r="E477" t="s">
+        <v>87</v>
+      </c>
+      <c r="F477" t="s">
+        <v>18</v>
+      </c>
+      <c r="G477" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H477" t="s">
+        <v>216</v>
+      </c>
+      <c r="I477" t="s">
+        <v>21</v>
+      </c>
+      <c r="K477" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D478" t="s">
+        <v>293</v>
+      </c>
+      <c r="E478" t="s">
+        <v>27</v>
+      </c>
+      <c r="F478" t="s">
+        <v>18</v>
+      </c>
+      <c r="G478" t="s">
+        <v>19</v>
+      </c>
+      <c r="H478" t="s">
+        <v>216</v>
+      </c>
+      <c r="I478" t="s">
+        <v>21</v>
+      </c>
+      <c r="K478" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D479" t="s">
+        <v>293</v>
+      </c>
+      <c r="E479" t="s">
+        <v>27</v>
+      </c>
+      <c r="F479" t="s">
+        <v>18</v>
+      </c>
+      <c r="G479" t="s">
+        <v>19</v>
+      </c>
+      <c r="H479" t="s">
+        <v>216</v>
+      </c>
+      <c r="I479" t="s">
+        <v>21</v>
+      </c>
+      <c r="K479" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D480" t="s">
+        <v>237</v>
+      </c>
+      <c r="E480" t="s">
+        <v>27</v>
+      </c>
+      <c r="F480" t="s">
+        <v>18</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H480" t="s">
+        <v>216</v>
+      </c>
+      <c r="I480" t="s">
+        <v>21</v>
+      </c>
+      <c r="K480" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D481" t="s">
+        <v>237</v>
+      </c>
+      <c r="E481" t="s">
+        <v>27</v>
+      </c>
+      <c r="F481" t="s">
+        <v>18</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H481" t="s">
+        <v>216</v>
+      </c>
+      <c r="I481" t="s">
+        <v>21</v>
+      </c>
+      <c r="K481" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D482" t="s">
+        <v>276</v>
+      </c>
+      <c r="E482" t="s">
+        <v>27</v>
+      </c>
+      <c r="F482" t="s">
+        <v>18</v>
+      </c>
+      <c r="G482" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H482" t="s">
+        <v>216</v>
+      </c>
+      <c r="I482" t="s">
+        <v>56</v>
+      </c>
+      <c r="K482" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D483" t="s">
+        <v>276</v>
+      </c>
+      <c r="E483" t="s">
+        <v>27</v>
+      </c>
+      <c r="F483" t="s">
+        <v>18</v>
+      </c>
+      <c r="G483" t="s">
+        <v>19</v>
+      </c>
+      <c r="H483" t="s">
+        <v>216</v>
+      </c>
+      <c r="I483" t="s">
+        <v>21</v>
+      </c>
+      <c r="K483" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D484" t="s">
+        <v>276</v>
+      </c>
+      <c r="E484" t="s">
+        <v>27</v>
+      </c>
+      <c r="F484" t="s">
+        <v>18</v>
+      </c>
+      <c r="G484" t="s">
+        <v>19</v>
+      </c>
+      <c r="H484" t="s">
+        <v>216</v>
+      </c>
+      <c r="I484" t="s">
+        <v>21</v>
+      </c>
+      <c r="K484" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D485" t="s">
+        <v>276</v>
+      </c>
+      <c r="E485" t="s">
+        <v>27</v>
+      </c>
+      <c r="F485" t="s">
+        <v>18</v>
+      </c>
+      <c r="G485" t="s">
+        <v>19</v>
+      </c>
+      <c r="H485" t="s">
+        <v>216</v>
+      </c>
+      <c r="I485" t="s">
+        <v>56</v>
+      </c>
+      <c r="K485" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D486" t="s">
+        <v>276</v>
+      </c>
+      <c r="E486" t="s">
+        <v>27</v>
+      </c>
+      <c r="F486" t="s">
+        <v>18</v>
+      </c>
+      <c r="G486" t="s">
+        <v>781</v>
+      </c>
+      <c r="H486" t="s">
+        <v>216</v>
+      </c>
+      <c r="I486" t="s">
+        <v>21</v>
+      </c>
+      <c r="K486" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D487" t="s">
+        <v>276</v>
+      </c>
+      <c r="E487" t="s">
+        <v>27</v>
+      </c>
+      <c r="F487" t="s">
+        <v>18</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H487" t="s">
+        <v>216</v>
+      </c>
+      <c r="I487" t="s">
+        <v>21</v>
+      </c>
+      <c r="K487" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D488" t="s">
+        <v>276</v>
+      </c>
+      <c r="E488" t="s">
+        <v>27</v>
+      </c>
+      <c r="F488" t="s">
+        <v>18</v>
+      </c>
+      <c r="G488" t="s">
+        <v>19</v>
+      </c>
+      <c r="H488" t="s">
+        <v>216</v>
+      </c>
+      <c r="I488" t="s">
+        <v>21</v>
+      </c>
+      <c r="K488" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D489" t="s">
+        <v>245</v>
+      </c>
+      <c r="E489" t="s">
+        <v>27</v>
+      </c>
+      <c r="F489" t="s">
+        <v>18</v>
+      </c>
+      <c r="G489" t="s">
+        <v>781</v>
+      </c>
+      <c r="H489" t="s">
+        <v>216</v>
+      </c>
+      <c r="I489" t="s">
+        <v>21</v>
+      </c>
+      <c r="K489" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D490" t="s">
+        <v>245</v>
+      </c>
+      <c r="E490" t="s">
+        <v>87</v>
+      </c>
+      <c r="F490" t="s">
+        <v>18</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H490" t="s">
+        <v>216</v>
+      </c>
+      <c r="I490" t="s">
+        <v>21</v>
+      </c>
+      <c r="K490" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D491" t="s">
+        <v>245</v>
+      </c>
+      <c r="E491" t="s">
+        <v>27</v>
+      </c>
+      <c r="F491" t="s">
+        <v>18</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H491" t="s">
+        <v>216</v>
+      </c>
+      <c r="I491" t="s">
+        <v>21</v>
+      </c>
+      <c r="K491" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D492" t="s">
+        <v>273</v>
+      </c>
+      <c r="E492" t="s">
+        <v>27</v>
+      </c>
+      <c r="F492" t="s">
+        <v>18</v>
+      </c>
+      <c r="G492" t="s">
+        <v>19</v>
+      </c>
+      <c r="H492" t="s">
+        <v>216</v>
+      </c>
+      <c r="I492" t="s">
+        <v>21</v>
+      </c>
+      <c r="K492" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D493" t="s">
+        <v>273</v>
+      </c>
+      <c r="E493" t="s">
+        <v>35</v>
+      </c>
+      <c r="F493" t="s">
+        <v>18</v>
+      </c>
+      <c r="G493" t="s">
+        <v>19</v>
+      </c>
+      <c r="H493" t="s">
+        <v>216</v>
+      </c>
+      <c r="I493" t="s">
+        <v>29</v>
+      </c>
+      <c r="K493" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D494" t="s">
+        <v>273</v>
+      </c>
+      <c r="E494" t="s">
+        <v>27</v>
+      </c>
+      <c r="F494" t="s">
+        <v>18</v>
+      </c>
+      <c r="G494" t="s">
+        <v>19</v>
+      </c>
+      <c r="H494" t="s">
+        <v>216</v>
+      </c>
+      <c r="I494" t="s">
+        <v>21</v>
+      </c>
+      <c r="K494" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E495" t="s">
+        <v>27</v>
+      </c>
+      <c r="F495" t="s">
+        <v>18</v>
+      </c>
+      <c r="G495" t="s">
+        <v>19</v>
+      </c>
+      <c r="H495" t="s">
+        <v>216</v>
+      </c>
+      <c r="I495" t="s">
+        <v>21</v>
+      </c>
+      <c r="K495" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E496" t="s">
+        <v>27</v>
+      </c>
+      <c r="F496" t="s">
+        <v>18</v>
+      </c>
+      <c r="G496" t="s">
+        <v>19</v>
+      </c>
+      <c r="H496" t="s">
+        <v>216</v>
+      </c>
+      <c r="I496" t="s">
+        <v>56</v>
+      </c>
+      <c r="K496" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E497" t="s">
+        <v>27</v>
+      </c>
+      <c r="F497" t="s">
+        <v>18</v>
+      </c>
+      <c r="G497" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H497" t="s">
+        <v>216</v>
+      </c>
+      <c r="I497" t="s">
+        <v>21</v>
+      </c>
+      <c r="K497" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D498" t="s">
+        <v>306</v>
+      </c>
+      <c r="E498" t="s">
+        <v>27</v>
+      </c>
+      <c r="F498" t="s">
+        <v>18</v>
+      </c>
+      <c r="G498" t="s">
+        <v>19</v>
+      </c>
+      <c r="H498" t="s">
+        <v>216</v>
+      </c>
+      <c r="I498" t="s">
+        <v>56</v>
+      </c>
+      <c r="K498" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D499" t="s">
+        <v>629</v>
+      </c>
+      <c r="E499" t="s">
+        <v>35</v>
+      </c>
+      <c r="F499" t="s">
+        <v>18</v>
+      </c>
+      <c r="G499" t="s">
+        <v>19</v>
+      </c>
+      <c r="H499" t="s">
+        <v>216</v>
+      </c>
+      <c r="I499" t="s">
+        <v>29</v>
+      </c>
+      <c r="K499" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D500" t="s">
+        <v>296</v>
+      </c>
+      <c r="E500" t="s">
+        <v>35</v>
+      </c>
+      <c r="F500" t="s">
+        <v>18</v>
+      </c>
+      <c r="G500" t="s">
+        <v>19</v>
+      </c>
+      <c r="H500" t="s">
+        <v>216</v>
+      </c>
+      <c r="I500" t="s">
+        <v>29</v>
+      </c>
+      <c r="K500" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D501" t="s">
+        <v>659</v>
+      </c>
+      <c r="E501" t="s">
+        <v>27</v>
+      </c>
+      <c r="F501" t="s">
+        <v>18</v>
+      </c>
+      <c r="G501" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H501" t="s">
+        <v>216</v>
+      </c>
+      <c r="I501" t="s">
+        <v>56</v>
+      </c>
+      <c r="J501" t="s">
+        <v>358</v>
+      </c>
+      <c r="K501" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D502" t="s">
+        <v>659</v>
+      </c>
+      <c r="E502" t="s">
+        <v>27</v>
+      </c>
+      <c r="F502" t="s">
+        <v>18</v>
+      </c>
+      <c r="G502" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H502" t="s">
+        <v>216</v>
+      </c>
+      <c r="I502" t="s">
+        <v>56</v>
+      </c>
+      <c r="K502" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D503" t="s">
+        <v>224</v>
+      </c>
+      <c r="E503" t="s">
+        <v>27</v>
+      </c>
+      <c r="F503" t="s">
+        <v>18</v>
+      </c>
+      <c r="G503" t="s">
+        <v>19</v>
+      </c>
+      <c r="H503" t="s">
+        <v>216</v>
+      </c>
+      <c r="I503" t="s">
+        <v>21</v>
+      </c>
+      <c r="K503" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D504" t="s">
+        <v>224</v>
+      </c>
+      <c r="E504" t="s">
+        <v>35</v>
+      </c>
+      <c r="F504" t="s">
+        <v>18</v>
+      </c>
+      <c r="G504" t="s">
+        <v>19</v>
+      </c>
+      <c r="H504" t="s">
+        <v>216</v>
+      </c>
+      <c r="I504" t="s">
+        <v>29</v>
+      </c>
+      <c r="K504" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D505" t="s">
+        <v>233</v>
+      </c>
+      <c r="E505" t="s">
+        <v>27</v>
+      </c>
+      <c r="F505" t="s">
+        <v>331</v>
+      </c>
+      <c r="G505" t="s">
+        <v>644</v>
+      </c>
+      <c r="H505" t="s">
+        <v>216</v>
+      </c>
+      <c r="I505" t="s">
+        <v>21</v>
+      </c>
+      <c r="K505" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D506" t="s">
+        <v>219</v>
+      </c>
+      <c r="E506" t="s">
+        <v>27</v>
+      </c>
+      <c r="F506" t="s">
+        <v>663</v>
+      </c>
+      <c r="G506" t="s">
+        <v>19</v>
+      </c>
+      <c r="H506" t="s">
+        <v>216</v>
+      </c>
+      <c r="I506" t="s">
+        <v>29</v>
+      </c>
+      <c r="K506" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D507" t="s">
+        <v>262</v>
+      </c>
+      <c r="E507" t="s">
+        <v>27</v>
+      </c>
+      <c r="F507" t="s">
+        <v>185</v>
+      </c>
+      <c r="G507" t="s">
+        <v>679</v>
+      </c>
+      <c r="H507" t="s">
+        <v>216</v>
+      </c>
+      <c r="I507" t="s">
+        <v>21</v>
+      </c>
+      <c r="K507" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D508" t="s">
+        <v>326</v>
+      </c>
+      <c r="E508" t="s">
+        <v>27</v>
+      </c>
+      <c r="F508" t="s">
+        <v>172</v>
+      </c>
+      <c r="G508" t="s">
+        <v>19</v>
+      </c>
+      <c r="H508" t="s">
+        <v>216</v>
+      </c>
+      <c r="I508" t="s">
+        <v>56</v>
+      </c>
+      <c r="K508" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D509" t="s">
+        <v>214</v>
+      </c>
+      <c r="E509" t="s">
+        <v>27</v>
+      </c>
+      <c r="F509" t="s">
+        <v>172</v>
+      </c>
+      <c r="G509" t="s">
+        <v>19</v>
+      </c>
+      <c r="H509" t="s">
+        <v>216</v>
+      </c>
+      <c r="I509" t="s">
+        <v>21</v>
+      </c>
+      <c r="K509" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D510" t="s">
+        <v>258</v>
+      </c>
+      <c r="E510" t="s">
+        <v>27</v>
+      </c>
+      <c r="F510" t="s">
+        <v>172</v>
+      </c>
+      <c r="G510" t="s">
+        <v>19</v>
+      </c>
+      <c r="H510" t="s">
+        <v>216</v>
+      </c>
+      <c r="I510" t="s">
+        <v>56</v>
+      </c>
+      <c r="K510" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D511" t="s">
+        <v>293</v>
+      </c>
+      <c r="E511" t="s">
+        <v>27</v>
+      </c>
+      <c r="F511" t="s">
+        <v>172</v>
+      </c>
+      <c r="G511" t="s">
+        <v>19</v>
+      </c>
+      <c r="H511" t="s">
+        <v>216</v>
+      </c>
+      <c r="I511" t="s">
+        <v>21</v>
+      </c>
+      <c r="K511" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D512" t="s">
+        <v>293</v>
+      </c>
+      <c r="E512" t="s">
+        <v>27</v>
+      </c>
+      <c r="F512" t="s">
+        <v>172</v>
+      </c>
+      <c r="G512" t="s">
+        <v>624</v>
+      </c>
+      <c r="H512" t="s">
+        <v>216</v>
+      </c>
+      <c r="I512" t="s">
+        <v>21</v>
+      </c>
+      <c r="K512" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D513" t="s">
+        <v>659</v>
+      </c>
+      <c r="E513" t="s">
+        <v>27</v>
+      </c>
+      <c r="F513" t="s">
+        <v>172</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H513" t="s">
+        <v>216</v>
+      </c>
+      <c r="I513" t="s">
+        <v>56</v>
+      </c>
+      <c r="J513" t="s">
+        <v>474</v>
+      </c>
+      <c r="K513" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D514" t="s">
+        <v>224</v>
+      </c>
+      <c r="E514" t="s">
+        <v>27</v>
+      </c>
+      <c r="F514" t="s">
+        <v>172</v>
+      </c>
+      <c r="G514" t="s">
+        <v>19</v>
+      </c>
+      <c r="H514" t="s">
+        <v>216</v>
+      </c>
+      <c r="I514" t="s">
+        <v>21</v>
+      </c>
+      <c r="K514" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D515" t="s">
+        <v>210</v>
+      </c>
+      <c r="E515" t="s">
+        <v>27</v>
+      </c>
+      <c r="F515" t="s">
+        <v>172</v>
+      </c>
+      <c r="G515" t="s">
+        <v>389</v>
+      </c>
+      <c r="H515" t="s">
+        <v>216</v>
+      </c>
+      <c r="I515" t="s">
+        <v>56</v>
+      </c>
+      <c r="K515" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E516" t="s">
+        <v>17</v>
+      </c>
+      <c r="F516" t="s">
+        <v>18</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H516" t="s">
+        <v>20</v>
+      </c>
+      <c r="I516" t="s">
+        <v>21</v>
+      </c>
+      <c r="J516" t="s">
+        <v>22</v>
+      </c>
+      <c r="K516" t="s">
+        <v>23</v>
+      </c>
+      <c r="L516" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E517" t="s">
+        <v>17</v>
+      </c>
+      <c r="F517" t="s">
+        <v>18</v>
+      </c>
+      <c r="G517" t="s">
+        <v>19</v>
+      </c>
+      <c r="H517" t="s">
+        <v>20</v>
+      </c>
+      <c r="I517" t="s">
+        <v>21</v>
+      </c>
+      <c r="J517" t="s">
+        <v>791</v>
+      </c>
+      <c r="K517" t="s">
+        <v>37</v>
+      </c>
+      <c r="L517" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E518" t="s">
+        <v>17</v>
+      </c>
+      <c r="F518" t="s">
+        <v>18</v>
+      </c>
+      <c r="G518" t="s">
+        <v>19</v>
+      </c>
+      <c r="H518" t="s">
+        <v>20</v>
+      </c>
+      <c r="I518" t="s">
+        <v>21</v>
+      </c>
+      <c r="J518" t="s">
+        <v>791</v>
+      </c>
+      <c r="K518" t="s">
+        <v>23</v>
+      </c>
+      <c r="L518" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E519" t="s">
+        <v>17</v>
+      </c>
+      <c r="F519" t="s">
+        <v>18</v>
+      </c>
+      <c r="G519" t="s">
+        <v>118</v>
+      </c>
+      <c r="H519" t="s">
+        <v>20</v>
+      </c>
+      <c r="I519" t="s">
+        <v>21</v>
+      </c>
+      <c r="J519" t="s">
+        <v>791</v>
+      </c>
+      <c r="K519" t="s">
+        <v>37</v>
+      </c>
+      <c r="L519" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E520" t="s">
+        <v>17</v>
+      </c>
+      <c r="F520" t="s">
+        <v>18</v>
+      </c>
+      <c r="G520" t="s">
+        <v>19</v>
+      </c>
+      <c r="H520" t="s">
+        <v>20</v>
+      </c>
+      <c r="I520" t="s">
+        <v>21</v>
+      </c>
+      <c r="J520" t="s">
+        <v>22</v>
+      </c>
+      <c r="K520" t="s">
+        <v>23</v>
+      </c>
+      <c r="L520" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F521" t="s">
+        <v>18</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H521" t="s">
+        <v>20</v>
+      </c>
+      <c r="I521" t="s">
+        <v>56</v>
+      </c>
+      <c r="J521" t="s">
+        <v>22</v>
+      </c>
+      <c r="K521" t="s">
+        <v>37</v>
+      </c>
+      <c r="L521" t="s">
+        <v>1446</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N521" xr:uid="{3069E18C-185F-40C7-96A8-7BFA689C2F5E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
+++ b/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E0655AE-C7B8-400B-A1AD-DA125A169117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174F5AD-1F3C-4390-A145-BE18328E9C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D66A5166-FA76-460B-BB67-333AABEBD977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D8F11E1-A521-4B78-A8F4-EEAA2926754B}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_fondo con todas las fu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'noticias_fondo con todas las fu'!$A$1:$N$633</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6786" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="2061">
   <si>
     <t>Fecha</t>
   </si>
@@ -5380,7 +5377,832 @@
     <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOZVZHbmMxWDdlRlJiemE2djdiMHpTVXJ5T2NZRlVsNGhCV2I0R1BJbU9GeUZfcWZfRF9wSGtFM3dtQkx6SjVzM2pDaml1ZGdNallXdG9WWXE2NnZjam80LWdOOWF6anRMYS1iOUpreF9KZjRuUDFNWFlibS16aUdUTUhBNkhxREdDbGN1ajFUVE5CN2ZJUTVWTDF6U2pDcnhaUlQ4?oc=5</t>
   </si>
   <si>
+    <t>Tamaulipas</t>
+  </si>
+  <si>
     <t>['industrial', 'Nuevo']</t>
+  </si>
+  <si>
+    <t>Donald Trump asegura que estadounidenses recibirán bono por aranceles; será de 2 mil dólares</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQUFJRLXlFNTdHRkdhaURvNTZjNnhRUE9qbWNaWXQwSnFPb29WTlB3Z2pQS2E4NEJaWVBybmF3UXpGY3ZiRlVHbUViMDdfTVZHRTRZR3ByMEpNMmJaVmhZMzgxVG5MLWE4WFg5QUdOYWhzVlVLWThCV3JpMGo5djhlQlo1SU1NQ0ZPZFhNdU9wTHp4TFBYYWczdmZfamhIZVh3Y3FTaUk5cDZ1WElfa0ZWNjdjaWllMmcxVGZDSjhqLTMwWFMzby1tStIB3AFBVV95cUxQQXdZMzI0NVZDbTQwdUJrYjB0ekVMTmd4SDVoN3VGYlBSMzdvVUptQVNOTG5feklvWWVXVUNHcHMtTldzTFRMaHEzbW9mNmY5QWRfVzI2OTVicmZ4MG8taTJTZGI2bGVZNEw1dlBWZGN1Sy1UUTh3YlJoXzlZR0l3MHlDcGtRMFVmTWFHTl9GMTY5WEkzNnE3MVVRSUlxV29tdHp4SGJBMjdUQ3ZJRDJLM3hma3k1b21ydFZvWEJIVGhlMHhBTE1YRTFCbURBTlNjSEhsU0dlX004UGtx?oc=5</t>
+  </si>
+  <si>
+    <t>['estadounidenses']</t>
+  </si>
+  <si>
+    <t>Trump afirma que cada estadounidense recibirá bono de 2 mil dólares ante ingresos por los aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxQM1o5NjdabXQtTGt6UUlaRjJQcHYtLTlxcjlzUjVQbDZRZE9vZlVGOHg0S1RLTFJGTm1JS01ndzFyR3dOUDhsdkVoSUVtSENSMTA1SHltX3Aybmh4dmpnVm84MzFKMUpJYjJVV1VMZHo4TEVzLURocXk5LXF6WE1saVFjOVhDWXp5bTJ2MkdITmJjUU9KQmtGYU40VXpYZjZ5ZDlNMTZlbkJmQk9WRWI0clZZNWw3Tm1MdjdWclNpRy1GTkxUSUw2UUpBeU9iTjdCMXZ2R2twTG4?oc=5</t>
+  </si>
+  <si>
+    <t>Donald Trump dijo que los ciudadanos norteamericanos recibirán un bono de 2.000 dólares gracias a los aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxOU3lmZUp2azlQVVo5TXcwdG43RlhKWTBjQXJXcWVTOFozWEZSWnB0ZnR0Sy1sVjJVQURQM1QyTjRQUEwxN2t4c3NOQ0NzRE9JUlk3MEhuWGxCWm9qR3BtSHVsZXA3UTMtcGR6S2VuNUoxc0xmSEZjaDhkNjlBaEJPTkRYTnVqTHlPVGs3SExvWloyTktxMWFzTGpGanc0ZFprOVFSQkhYQ3huVXB1aXRTcHlGMWE1TEZ0RlhfeWthcXJLUllDbnZhay1YTVhpSVN3YWZHUWszeWc4TFZucDZJeVR4Z1VZZUx6RUw4M3RmajJhUXPSAY4CQVVfeXFMT0FxZU93ZzE4cUZKNWJpRzJUOU9tdzAwMmVTXy1pUC1yU3RzY2hUdTMyYVVrOUdyNFVVLV91SE1aUjNnck4yTHJHM0k0VllqVVV5eFVNMEhhc2J2Y3BoN1FzQ1JJOVByTHFPNVBrRGhVOU5sSHV5UVZCVFg4Q0ZOV1dPa2lGX3hkTjRPS1dzU2pZZ1QwMlBySFU0b2hVVGlmMkVTZmh0aHpSVDAwS3dxaW9nT3kzTnVhSE11dUdyZ1Q1VzB4WFAtV3piRmZIOHMwN1NndU1PSW9JeVZNT2ZKaXlBTHpuT0t4Vmh2MFlVcnZtZmhHdG5iNm14ZTRfN3NrQjBqRUUzeVhvMXpBZkpR?oc=5</t>
+  </si>
+  <si>
+    <t>['norteamericanos']</t>
+  </si>
+  <si>
+    <t>aranceles, arancel, daños</t>
+  </si>
+  <si>
+    <t>Acuerdo aduanal ajustará a 156% los aranceles de importación para el azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidkFVX3lxTE1yZ0xHZVNBd0ZPdGxaZG13WkFGWVRlUTVRbzhKb0Rud2o0R2dra0JrOHVFYTZfbGVGRkFNa1ZvM1lTZFdwSkcyWWlRazhJdzlhZmJfd0t1ME9HWFFVR2xSa2J1ZmJUNERZSUpUWWRyc2REczJRcXc?oc=5</t>
+  </si>
+  <si>
+    <t>['aduanal']</t>
+  </si>
+  <si>
+    <t>aranceles, arancel, aduana</t>
+  </si>
+  <si>
+    <t>Economía, Seguridad</t>
+  </si>
+  <si>
+    <t>Trump promete "pagar 2 mil dólares a cada persona" gracias a aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxNYzlMMzlCQ0JjX0Ftc29xZ3VEaHJLbm50SnpCLW1FMTFXbjNaZ1RpNVdzT1MzWG1UV1ktWElBNVZ3TUxJdmdMbElWVGlIUFhqV2gyTC1iTFAxY0FCbEMxUTZ6NmJHRmNKYWxUakg4MDQzZXBzZDU3Mi1TanlNRnFta29NeTdqU0wzQlA0RENBM0FYZUJRY0dsQmgtT1_SAZwBQVVfeXFMTmFSNmtHYkdXU2Zjd3lVRDZycy0tcFpNcmx4cFk5dnFwM2c5N2hMS2l3REZfNHNndkV4SDB6MWQwNWc3aHR6MmNZaTBjOUMxTXRhSGsyQnE0ZEhpMGRoOUcwWEhjU3RQTThvdFlncmlHYnBZTUtLT1U3eThySVlKVzJ4NTByVV9sdDJ6b3V0WkdnMDJlWW12ZjZCMWtU?oc=5</t>
+  </si>
+  <si>
+    <t>Aranceles del 50% amenazan vehículos chinos | Motores al Día</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQYTZSNVpNSkhXSTRiRVYyZTk0TkUwalJDel82d0dCVVhYeDhSNjNLQ0J5MFl5bzY3OTJLV0dQd1JUNl8yTjE1ZWptTW5KTHlKNTVkVnA5UE81aXBaQW1jZzY5VktMeHhCaDVMOHBrRUNiNUtHbGVlZnlpV0xabk83R1lxMUFmQ3J2LUl2MW1keUFneHcwTDYzbHVMRFprd1FQMl93S0ZRaXJBSDZXVmVTYU9JM3hHQlROTXo1SXhsclRlRENlX1dlLW5oQdIBywFBVV95cUxPTzJWNk5YMm9Yc0xfaEVrMDlWSGpuMnUyU3hEaG16dm1BT21HdndQZHNCa3JkdVk5T0ttcHptMk1kQW1VN2Rld0VLTWE0THZTOXg1cHZqX3BuWVM4dWdvaGdXeDlNNUY5WVI5NUdPY3dQOVVMMS1PQmhjWUV2SE9FNTFyV1hBTUkydDVSM0Jnc3hCYkhKQzJRV2NoZElxZFpjX3lkS0xIYXRxR2RzOGVLU21XLWpsbUV5MjNmRnJBdWJmcnFLdkRTZmpDYw?oc=5</t>
+  </si>
+  <si>
+    <t>La inversión inmobiliaria en 'retail' en Europa crece un 16% en 2025, según Savills</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNT1dFVGlsNWFPXzFtUTNabVhRa3Y4Mmxwb2ktUFhraGdabzdRVDMzTkgySHlpdEV5Q0p4M1o1NkxycDdqNFhOYVdjQlVoZHJMLUs0RUlVcFFyVFRWeHI4Z0cwTl8ycnRhZTM1STZKbkhkZGNURkJDbFNmUnRNcEtKbGZkMXBFSmlhZHZOejJSWGxBWWtZWG9GcVhETDFuZ3ZKM01kSEdDaFZFNzVRVHV0TmpyY05yNjFvbEN1VC1JaVZYNGJUNFA1RzdUT1XSAecBQVVfeXFMUHdvZERlQ0VRSS12bG1RN25wcVFmTWU1dmI3RzFkZkhXTG1LNm5HYUlkUW9zS1dzUHRCNjgweWdXNUZSYXljV29yZnM3N3B6TllSRVViQVVVdmJYUEFZVUh1dlVybnhUNXlXMVkxTVJ4Q1ExWktQYmpZMmxzMkdtVzVSZGJnT1dTWTR2RXlGNExZN0ZXU2VwWGd4bXNoNEExUGZSMDRHS0ZKTXBSQjhpZHU0cGc3dkR6ZHVKSXV0WkRCTmtxUDFKLXNHenRzYVpxUEFlQjdZRi1ZcWFGTUxkMjlRZHp3QTMw?oc=5</t>
+  </si>
+  <si>
+    <t>Inversión inmobiliaria</t>
+  </si>
+  <si>
+    <t>['inmobiliaria']</t>
+  </si>
+  <si>
+    <t>La construcción de vivienda se acelera a máximos de siete años en España, pero se terminan menos casas que nunca</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxNNTBvbE9nU2tDbnNDdllMYnFTOGRsV01QUHNGSjZpNVdwUHBBYWVaVUhxZm4wdXp6N2JXd29PYVpDMUt6THV2aTRXSVNBV1BIV1E4d3lvc3BJYnVxZ1hlckp3VjhwZDc3aGFQTlZVMHo5enlTSC1NUERhU1V1X2lQOXFWM1R0UUxLal9pcFk2NUJoQTRvWURQeUM3djJITGJfbi1jUWpJS0RWMFUwblNuWU95WjctWkQ1UFFBdlNpSVRNeG40bENtUXpVVXNvVWJUdjhXYVVJODh2U2N6VkHSAfIBQVVfeXFMTTVwYnZyNEo0WFNoM1IxWXJqZFR0OURRYmlpX0k1S1ZoRDFWSUQ0Mzh0SHdNX2dhUEhuU0FWbTZJeGkyYlFQNU5hbm81NVVBcHdsSTRiMzZHbHpoRnlUVlhwT05TOVVzWUJFTWs5REJxczBfY0wwMmpLcmd6TUowbDI0bmFVdEwxb29ESWVKaUV5UV9LTl91U05XQWpRSEdrSzNBVV95c2g5THgzQ2VmZEFCa29Pc3RWeWFNVHZXSWVyMDlmV2tXUVlBLUZPdGxCdkRhRWpJbUY5WXJFd2puUWhXRnFGc00ycGYxUlg3TUlpUnc?oc=5</t>
+  </si>
+  <si>
+    <t>['máximos']</t>
+  </si>
+  <si>
+    <t>Comienza la construcción de escuelas preparatorias en 12 estados, confirma la SICT</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidkFVX3lxTE1DM2tPd1dFQjZpVXdQRS1ra2JLN3YzekVrT3Q2SkRvVF9TNXNBb0dUUm9lS2dURkJBUk04U2JTeFhpemw4c3RLVjVnY1d3QXZEQXpJa2ZUdmRxRWJIcktpa1M2Q0lOOGZsb1lVdWY4XzhLd0kzUHc?oc=5</t>
+  </si>
+  <si>
+    <t>['preparatorias']</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>EU suma más de 2 mil vuelos cancelados; puede empeorar, dice Secretario de Transporte</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNbm1sNEl3SFotWnFKbFlTVTdNSFhxZTVHVFp5MzFSbjJxbk9BY2lVWHJoWU41SjJEcGFjcTRrc0Z5S1dmTlhJaGktREYtYkFwUHlDVkdiMlg0cUhuZXgtNmFZbUFpem1obUZrVllRa2s0dkVuS3p4ZlZnZ1pOSERjWFV1SnpXLXBuUjB4MEVnbjAtRncxVUpIbUNyb1kzeExrNTdneTJ5dlE0Zmxwd3FFMUlFZE9oNXg4RWc?oc=5</t>
+  </si>
+  <si>
+    <t>['cancelados']</t>
+  </si>
+  <si>
+    <t>"Los viajes aéreos se reducirán a un goteo", advierte secretario de Transporte en vísperas del Día de Acción de Gracias</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxQWW0ta0YtMnBSX3l0QkI0X0l4N0JNRURlODRLaE5ic1Y0QnZlNVphaUI1SFhLOW1May1raEUxek8zR2hYbGhqQmdjZGlyU0ZwMVhGYXkyeEdVazVXZFY4VnVUaEdud2xqV243TXZwMHA1MFAwQV9EX2ZlS0Z3RHBBeVFCV19VUWRoU3lqWmNWOHFNU2U1b2Frc0w5S3ktT19SY3V6NEZpak5jZHY3dmk4c0poaHVSN0VsODA0RFNUVFEzMW40MGxuTDkzRnV4MW90a3RzNFBoUlpIbWZuOHJKSzE3SkJZUnRjOXQ3S0Z0QQ?oc=5</t>
+  </si>
+  <si>
+    <t>['aéreos']</t>
+  </si>
+  <si>
+    <t>El secretario de Transporte de EEUU advirtió que el tráfico aéreo podría reducirse al mínimo si continúa el cierre del Gobierno</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxQbk1IYmQ5OVlXb0tnWE5sQi1CSDZOVnNfQzhCTXRBQnhGTEQySVBLdUUxLWlMc3BkNGZrN2ROLWNlNExrZ0Q4TUhxOElsa2ZjSXAwV1RIWmdFc1pfbHRpRzdpcnFMWVhuMjIzVmI1M0kyanJjanJiX09laVRUYVVta0J0RDJwaGlJUDl4ZXhaQ2d6STB1SGhuSDFxQmdLMGViVnJVWkpYVW81dEVoLWt3bXBnZ0psamRrbENCeHo5VmkyRXRKUW1qRWVYNzZPTDFrSXBCdG1LaEd2SFloV3l3RG9BZ01XU2NhUmNCRFN6eFY5Zk1mVWRXa1RzRGFKTTVJa1N1enIzdUpGVmvSAaYCQVVfeXFMTlZ1V0FycDdXNVJFcWpmdHRGT2RCZXBKRTR4YzBLNHBDLXhZaHF0RDF1bDhFSi1GM1dJWnhLVFp0RVBkb1QxdnFkTHNQY2ZtRVFqV1U2RF9WU0xjU1pSamp4NDV6blNCY1Naaks4NmhQVm44bVdacjNsMGExUmphWEhCZTBEWnFUT1A2ZDZUTUtnY3g2dVpqelM4TWI2X2h1d3VaXzZGZmpsN0Y3eVR0TG8tTHdBaFdfQnNFNlh3azlpS1VQbXBmTDRWX0ZXX25RcUhXWnk3MnlwMkRzRW1lc3MxN09jY19KVFNWT3hEX1pYNlZ3Q3dESmthSnAzcTZucHN3djQyRERGOC0xaU1TVU5lMkkyMVZrUnBlZVFqUkhNMVQ1VHZn?oc=5</t>
+  </si>
+  <si>
+    <t>EE.UU. y China suspenden sus investigaciones mutuas sobre el transporte marítimo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOQzdBQmVFVWwxYTJVY0I0RTlSNXRpczY4b212enJCOUQwVkZESVJlQUhYQVdCNV9aSGthTVZpcFpXUUJWUDdRMjk5RFhVX2JNVU9wc3R0MHo5eFdiR01wbDMzcTFTampPbmY3cC1tNi1VWm41Y0tSWVljZmVnNXRIWjRhSVFmVkswck9qcVRRSXhUUnlTeFY0Q0NVS3BINEtmZEE2UnBiMWhoSHNsNWRsQnQ2QjJzUWkxdkVha1lLd2RPdWFzOFRQTWh2d9IB3wFBVV95cUxQcTRmdlk2TXo3YlR2LXpLMWNsM0trMzRzM19pdjVrZy1XWVA0cDNnemh6RHJrV25rclRjVHJYMDFBR1NhaU54T2UtdXEybldpSlVFN0tiTGhsOHZQaFFidUVReXk4VEZibE15R25Ea1MwaUo1QUh4V1lxUXF1QXdrcWg4TVpfTVRjUDRSOTdIemtHdmktYnVWajN6U1dHT1FlbmRKZUdzTjJadEt6TmVWMzdsWmE5ek1EMnY2dDE1cDJSUHFKeUhJZndPTXc1bi1scTBtdWtRWnM5VTRGUTF3?oc=5</t>
+  </si>
+  <si>
+    <t>['mutuas', 'marítimo']</t>
+  </si>
+  <si>
+    <t>La reducción de vuelos por el cierre del gobierno amenaza la cadena de suministro aérea en EEUU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPOFVLQXhLOE9TYXpyTGNNaEdBVG1nQzFCNGpoZ01lWFlhUFVlT0w2dFhSdnM5bF9iYmV3b0tSNG8tLXd6OWhueVFyalNGS0NWZGVVWjExVl9Ga0d2RUs3SGVvcTRpTnpiakwxWjBIT2FiT2R0Qjh0R1hWYkxKakEwaDl4Z2dBX0sxOC0yU3FGbDNtNWtJU0ZqZnJVLWUtU1dwNFN1MGxHb1hNc3NFdUZNOW1FcHl1ZVVnbmpYSFVlcEpYLWViU3ZVdHVvdnI2bHlucWkwTEp3TmdxRm9kR3Z30gH6AUFVX3lxTE05MVdlTkdlZWZub3FzNXZYaFRocExWMW4yM3E5WDZZSWx6WFhBeUxvMFlhQms4S0VyTHRmWlBhQ1dDdmpZZWQ4Ymd0YTJ5QzFCbHYzNzdoSk5LT2g2SHJQQUNUeWJ4bmJIMzZyZVNsVWwwbUFOR0tVdF83ZnI2ckQ5R0otdVpnZ3kwS2ZzVlJvSzdVMjJId1ctUEpCcGhVSm9PQ0VPVUp5d2NBS1kwUlVTa3FGaTNCY3ZmNTZjTDEtbjlCZGF3clJiRVRvY0VWSHYwQkNCRmdvSEJZRDJUbUFBTmhEb1dIYUpzSTY2S250UFBGVlZlcmN5dnc?oc=5</t>
+  </si>
+  <si>
+    <t>Bosch encabeza el ranking mundial de fabricantes de autopartes en 2025</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxOdHBQMk5IX185UkRYT0JTVnJJUnJBbXVRQmFUQWxjdTFfVWRYVzBTbUN0dmE3ZUV4cFJ2d0FlVTgyaXBHY0hpV2I2TUJLeGUxdEMxYmFsX1NEOHNxblJPbVZsalJFejZOTExxZ2Q3RDJ3a2NPclo4NU1DZXJPZ05WX3paY2JCWWNPdXBBVE9GVGNfNTRzTTlKbHlYNA?oc=5</t>
+  </si>
+  <si>
+    <t>merca20.com</t>
+  </si>
+  <si>
+    <t>['mundial']</t>
+  </si>
+  <si>
+    <t>Trump Suggests $2,000 Payouts to Americans as He Defends Tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgNBVV95cUxNbmZOWDlHVFowS25keThXWUNFbGUtY2doV09wenZHOTViRllWWHRDR1ZnSm9CbUc5YnVxUEpIUVFfTlFSZEk0MEwwZFJoRWxUZlNubjJSRGljaVJDRnRaV3dyQnlLcVh3RjBZUmZ2a3VYVGhKZmhvOGxObml0V0Nfc0VoWlQ4eW9jWHhBN1puNzkzcExZdUp2N05kbWQxWEJabkVTUS1OWkpVMEJnbF80blg5OThwekFZVDZLMTM5akM2bGZBMzJ6ZGd2d1A0S0I4dkVUbHBaOUxDampMRmgxdkdka3V4MG9pSnNFZ3d2blJjSmRkUnk5OG1qNXZmQzk0NzB0eEhkczZCaVo1UUFHdFJQQmx5RUk4WmdiQ0xMQ1NPLVZYTGo0eGVXb3RwSnNVTUhXbVFPR2VMaWNVa29ySmxqdGFTNnVKYU10VXFNTThSWkstcTJSd1NPM3gyaGxvMzktUVVtLWp5OFR4MGhVbVNQdnNIUEhUQ05jMDlSdzlhZjBESXJGVS1lSjVyNnZRTVRKVHNSTU1ZUTNudnhuU1dSMF94OVFxY1IyVTJoX1Exdw?oc=5</t>
+  </si>
+  <si>
+    <t>European business braces for greater impact from US tariffs in 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxOdk5RVS1VUU1VNWU2bF83a0gtLWdFWG9UdXExaVdSbkR5V2dVTEFsazBCRGNGX0kzNXBXcTZfckJIbmUzQzJlSWhWcEhaaEtYVlJOOTVoNTdlWldWdTBqWHJIakJEQjJPNlRJbXlGWVJvRnFNbFZDcUVGQkdXbXJhSWhrRUNlTkI0cHZOVWlFX0JlVi1FRGhrUFRyWUYwQWszY1E?oc=5</t>
+  </si>
+  <si>
+    <t>['braces']</t>
+  </si>
+  <si>
+    <t>Trump says tariffs to yield dividends 'of at least $2,000 a person'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxQWDQwSlRjZDNJbVRvaTEyRWg2ZnNhQXZpYzNwQlJ6cWRTek9fNGRyQVpXNDhwc1hQVGlxWUFidW9JQm9lcWNIMGhLQk11bERtdmZxSGJtdkdTM05LRVFNZ2dKVjNEZ3RTYnJ5Qk4wMVZocVUzQkdwbkoxTzhzXzdFN1J4V2lfajQ?oc=5</t>
+  </si>
+  <si>
+    <t>What to know about Trump’s $2K tariff check proposal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxOZFprWXY2ZV9zeHBaWVR2OVlxbmY2cXlDbGNlaWNUdHBPQkJXSzJfRU9GMEJuMllGTHh1cklRUW9QVl9ESVVtVGt5VzQ2SFlqa2thYnVTdjZ5NWhVbExRNHhOTDlEMWM0dXM4SElxR1RPQ2Q0Z0l6OUswSk1WY19EMmFkYlhmekVYaUpIYmtVbm5SVnRjSHVwU0F2Y1JmZ9IBowFBVV95cUxPZU9fdEZiSmgzSzVWVUpFREREWXZZRF9LV3Qzcmh3UTRYelFtUFRxalRJTktwNFJkWVdKZllFUFJVZWJhWWZ6a3JNU3l0R21ZT3Bxc0xfUHBWaDhQUUwwZUlUd3BEVjNVNW52ZUZQeWRBNS1Jc2NJRE1uak4wVDN3M0NENWhxVTF0VzUtUDFmSEtHVHpmLTQ4Y2lCLTZTaGVjOG1V?oc=5</t>
+  </si>
+  <si>
+    <t>['about', 'proposal']</t>
+  </si>
+  <si>
+    <t>Trump says Americans will receive $2K each from tariff push</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxPdTF3WnE0ekcyX2tiMml6TGxfSnQ2Tjd2NjZ5Qld5VGp6OEtLR1VQcTdWWnl2WEFUREl3Uk1aVGZHS2FrSkJ0THVxT0N3dXJmNDgwcFdyNjhtSnI3Z2EzSlpoX2x3Yy1xT0NfZm9tODc0Wm9iSWtOczRnbFFjZWlLdkZjUzdib0pyQ3A40gGQAUFVX3lxTE1YYzJqNWNFN3NJZll5OElzS0JBWjZMcGlzMTZHdzljQ201ZDhGSi1vUllLb05zOTM4Q3liaWs0aVpMV0h1ZDhtR0VNRDBxZnlTcnY3NnlieHhwcl9OaDJWcDBmQVVabHMzbExLNXFBZnIxYXo4VHA1LXVtNVR2WHlJSEF6UnY2V1hfUjRZYmNXRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump again promises $2,000 tariff dividend as SCOTUS decision looms</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifkFVX3lxTE05SzJuRm51cEtIVHBNZV9rQ3Nzam9BNkhRTG9JQVl2RkI1RnE3U0ZUaGlndzNvNVlHeXl4dnIyQzN2Mmc5NWZGREtiWTAyam9XeWJKYWx2TTFERzNxVHNucFV4bEhhbkRfakVwZjlCai1sdHdvMlFzNVhUeC14UQ?oc=5</t>
+  </si>
+  <si>
+    <t>['promises', 'dividend']</t>
+  </si>
+  <si>
+    <t>Tariffs aren't meant for revenue and will shrink over time, Bessent says</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidEFVX3lxTFBiRUY0UDM1VFBhQnAzWmd3WUJtanVBcTRJR2VEUEEwMXdfRHRROTU4eEhNcWNKdHI1eENwcmVjMjI5THRvNGFudkc3UGJzNmN3dVRUNS1HdUVIUGpiYjdaVGx6UVFMRERpYkJQeXYtRXpTNUVU?oc=5</t>
+  </si>
+  <si>
+    <t>Trump floats giving Americans cash for health care and tariff dividends</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQQlNoTEpxNnU1WnhaZDhTTG92MVBubFVQejF1WWR4ZjFJQktqTDFTVUVCTUpxZ1ZQYnZlZVJ0TnQ5VkEya0lxbGhFM2ZBMkxsUmZfbE44clBjaHktbTdDdHFCMi1jRUtPY0l5SEZuV0p4bnJqSW9seTRNY25uY0E0Ym1CVmlVTjBoZTBzbUxSajdSaVJKcDczRExPLXdIaHo5TEdNdlJIZFM5Z0FCUEw1UmUyY3JBbWFaQUxaVjlIczJLSExhNzh30gFWQVVfeXFMTlJXLUtCRkdSbjZFOEVlWk5yc3B5TXRXTExxV0V6UDRlZjRCcWlEX1lpdzNtb2tibWZyU3pZYVBZZDR0dk1Qbm1SRnNRYjZQN2xoNTlrYkE?oc=5</t>
+  </si>
+  <si>
+    <t>Trump says he'll issue $2,000 tariff dividend to all except 'high-income people'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNWHRCZjl6MGR4YVlicU5BNTQyTFdsYmdfcFpqcy13UmxKTVMtSzh6X28xeGhBNDNURUI3TXJKVU9SWVkzcDVfcmRUbU9DUUluajRWX2ZTWFZMdGtuRVUxWWJsMzk5ZERGOWl0T0pjb3dyemJJTzYzWU5DWlgzNlJQaVpKamhXOExodW9wNVZQdE56cTlNTHNpYXJ5WEJ6d3V5dUHSAacBQVVfeXFMT19UOF80RE1qa2RGZkVwMWVkT0Z1b205bS1IMVlOeU5fSS0wTVlsWC1FR0pOUDZHU0dWZzZxUFZYejVRQmpQVEk4OFlSRlBzYTBNTDJNSmN1WUszR2tOZmhlQ0h0RTBVclJpVVBMcXRSZTVTeTB2MXhON2FqRUwwVXUyZ0FOZXl5U0Y4aVNBVWtMZkpNa3pXLWhpYVR2NGRTZlpaZlhFTDg?oc=5</t>
+  </si>
+  <si>
+    <t>['dividend']</t>
+  </si>
+  <si>
+    <t>Trump says Americans will receive $2,000 tariff dividend</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNcVdsTnMxOXlOeElMVVZsYTZINHlYOEQzbVJUOFRtYVdLZkVzZzdZX2pSaTZUZ3BxSEstMjMyemRuejVvVm9PQlRndElBOG9tSnBrVmNwWXZRLWI2RGQ3NEk4OEJoX3FnVVFBNENLZzg4OWFoSTZ0ZHZTOXlnNmdWLWZxYTN6UVFZbTdLSmtQWGlIR290cVZrWWJOUWVMV01hRWZDeVN3Q0FTVEN4R1E?oc=5</t>
+  </si>
+  <si>
+    <t>Trump Promises ‘At Least $2000’ Tariff Dividend Payments Directly To Americans</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQbkxGNG1uWmFudUhLZEFBMG9MemJScmZvS01rdy0tNWRJVFZhREMxNUhCOFRJWTFJX1VjZkpaYmNla3h2NHdxTTdrWVdYSWVsMy0wZkxfT0h6OUhqTm5qY002VGhBYm10YkV2d05rTmhlbDQ4WE4wYkd0Z2tzRFpjbi13anRqanQzNlE3SjktaVFhTTJ0M1RiV3pxMmJjV3p2Rll0NTA1dTFGd2lDdU5KVTl1a0x2c1RlUkxmOGp2anhkdFVDNlZV?oc=5</t>
+  </si>
+  <si>
+    <t>A $2,000 Tariff Dividend? Trump’s New Pitch Raises Tax Concerns</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQVl9iSzFZNFFtYVRsaldoZmVaV2N0a0tUVGtMcURrVUVDNGhUeExQWVV2eFBlMVRRc3F5b1JfSzF0dVF6LWVEWDNFX1V4bFNCb3d3eXBqcWNpeGF3d083R1RMU1JFelNsekxqSmsyOWF6SHBDQTByaHdpVHg2cWJ4MDBKaUt6U2ZvWE5SdlM4aWFYcUFvcEZRbjU1dkp2YVliUVhEYmwtNjU4RmxjekdCemUyX1A?oc=5</t>
+  </si>
+  <si>
+    <t>Trump calls tariff opponents 'fools,' promises $2K dividend payments for Americans</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNdEg1d3RJcHBBOXNEbVhBeTcxOHkzS2hzbTRkd2hVVEVkdUNTM0p1ODdiYVRCLVNHTnA0bFZRSmE4OHlfQVNLRjZSdlhtRVhienFTd2NNZXdScXBBWV91anlDZUFYLXp3c0VVQ3RMaUF4RG5mNTZCN0NKODBic1dvMDNnQXE1d2ZKV1J1RmRCV0M3TWVKTTNHc00zel9BUlUwUXlXOC0tamp4dGFzV1d1WFB0RdIBuAFBVV95cUxPcFZyUEpNVXJPVU9HVWxCazFZZkdhdWFBeHljcUwtaDBwVExDVDhfMktSdk9TLTZPUENYejdNdEk2QndyaTFVSW9RSFI4OUE0MTkxYVpTcGg5alM0eHptcm1ONGdRd0RENnhTOGZVTHBfMktZZWtHNFJrb3ZKNUw2eHhwTkZTdFRocTRTXzFENGEyTWNUZFZFVGN3Y0xDc2k0YW9yQ0pzekRGSVpfcVdYV05YTkFPS1B3?oc=5</t>
+  </si>
+  <si>
+    <t>['calls', 'opponents', 'dividend']</t>
+  </si>
+  <si>
+    <t>Former U.S. commerce secretary blasts Trump's 'disastrous' tariff policy</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPdmp1cmx0c212ckRWcVJzV2dpUWdBVVRGbGxzalVDWVpERF9SeGJ6NmZFaTN0ZnczanVrT3VlRUNuVWhuRmxnRWFmNnhja1poektfZi13ZktOakRWQ2EtMWt2UG44U3d3TUtvbU91TFVrT2FqYlJvQkZZd3o4R1RqOFN0WktkeWNqSExQZjN1Z3lnRnhWRzFFSUJDc1ZYaUdab2h0YUpxdDNOSE1mYk5BbTBoNVIxWHF2d1E?oc=5</t>
+  </si>
+  <si>
+    <t>['blasts']</t>
+  </si>
+  <si>
+    <t>Trump promises a $2,000 tariff 'dividend' that Treasury secretary says could come via tax cuts already signed into law</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNeXBpQkg5blNqWUprWkd4VGtIeWRJMTd5TVRqTHFZc3dBQjNPOUhkRlpwdHlBUFQ5NWZ5emtvbDdxTmhEMktHemtMMk45VnpxbDc3dVlaMUY3UGJjcUsxdEl0S3I3Zjg1Z3I0VmlhZFJ0cERZY3RpRk1iMUxHVHIwVS05QjFaVHlDRE95eXI5MzVvdWxDVnN1aHl6a3ZpNm9kM1lsT0RienV1UWQ0WmZTUkRtQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['promises', 'dividend', 'secretary', 'into']</t>
+  </si>
+  <si>
+    <t>Trump floats idea of $2,000 tariff dividend checks to most Americans</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitANBVV95cUxNb0RaY2k4OXpqVXBnd2NDaVhHVzBNUXlXbktJLU9jaklSbGo0aGQ3SEdGNDZ0Qno0cUlUaDFvdnJRajVpX2h4VHplYUotVUlXN3FjZlExRGF2NDV3SWJBR3NLVGpqdlk1am5DVXNySU5hRWFqc1ZnRzQyUTZZcWtUalZMeUV0YlJ3b1k2dDFxcUhoUDdUR3Q1ZFo3WGVveE5VbHJBVXg1ZXZjd2wzRmJIXzMwQld4LXhCeFdDVDJBeWh0TWJ0aFl1T3M4aUpaZm1hVFprOUt1RXR3MW9ZVE41VVlxU3FKMjZncGVVZ1VQdi1nVGkxZG1iMWJ0ZjRHY2lMUmh5ODNFNE9zUFZ2YTNKWjRNM08zUGlwVndldWd1dS1mdWNfZlh5d2hpN2xyZk8ycTVjXzRkdWwzRlVlTk1adkFSS2R1NnRkcV9RTXlxTkgyclE4TVdyUS14ZVkzMmFYR0Vqa2hlWUQtRDFGdjJRUkdmSlJBUTd3UDdoUlVtN0I1elhQMlZYMEFkeTZRV2lWcmZiVzU3MGVQRFhoY1owa1d6MVFhbHIySldwT0tIWnRXTzBv?oc=5</t>
+  </si>
+  <si>
+    <t>['floats', 'dividend']</t>
+  </si>
+  <si>
+    <t>China Curbs Drug Precursors to North America After US Trade Deal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxQMW1EcU1rQlEyX0htSEdpM0Y0SEl0OFhKWkhnczN5ZV9JazVNUUlyaHYwSndPVEc1QjZiRGREb1M0NHJON1hlUUZ6Q1hrVFd3OGNSLWsyakh1a25NOWN6aGJpVUNteFdMeS1tajY0ZDRPendDNm9oZFd1TWtHMC1wTGJTMng3aFJaWXdTd2xlSzk2Vjc0SEJzVWlScHI1T3E3SVA3cTF5S0pYQnJkVHFhNFg2QzBqZw?oc=5</t>
+  </si>
+  <si>
+    <t>For some hurting U.S. soybean farmers, a trade deal with China may not be enough to save the farm</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOYlVKQWFUME9maVJ3ZlR3RzVidTVZWjNCYWQ3RnZfSEVxZ0s5b0pJa3BYbjU4RFFXQ21oeVl0M2huMjBXbDR2dFFGZXhUeWVNdWpPTFFMbHpZckRsblB4aHB5aWwyYXJramF2RC1ONUVpZTFETHEwYzRHQk56YjR1NWhSeHRXR3M0eklvX1h6ZW9iS2ZfYkZjNXRQTEFpVTlpMDFnM1BlQ3hJWjcyZzFjczZ5WGpodVNLSkx6d0Q2RkxIbWNpdEHSAcsBQVVfeXFMUEpCTDA0S3RRR2t1T0k2Z0FhYTZhZ0VNOXN0VTNNOTRPQlBTVDNfb0U1b05fNFpCdENfbFNDWUZZbkowWWtYWUlMVmtXeXp1VEhEX2FuU3luNGJQTGgxVVFQTF82X2JyNGRNVzlqQ191RV93RE5lbHlsTk9ISnNRd3RjdG55MVdya0JzQ3YxSGswam1iX1BRWllkS1VPRU5lSl9CdlFvOTdRV25oakcwSTAzalVZa1QtblVKb25jem1lenhwLXFkaXRSclE?oc=5</t>
+  </si>
+  <si>
+    <t>['some', 'deal']</t>
+  </si>
+  <si>
+    <t>Flight cuts from government shutdown strain a supply chain that's already stretched thin</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxPQlFDeWo0UE0tZ0ZrX1ctUlcwZy1TSFZueVdoaHRrWWR6Q2w4RnlvRHBpWTV1N1hiYUQwc2hQd1AtQ3JLN2NiZXJoekJzcmJodXd4NFRLc3ExUWRncW1IcTl4Mzc1RHRRQkIyRFFnNFlIR2R6MHQzanpqWi05MmhiWUtFY0NTWkhOM1FpcE55ZUVYNUpYRnZNY2EtTF9TYUVxTXN3alJBTVhwVGJPNXF2SjBITThaREZxZ3JhSGNjN3I1eXdpU2sxbzBWNjZWVUxDVmc?oc=5</t>
+  </si>
+  <si>
+    <t>Flight cuts from government shutdown strain a supply chain that’s already stretched thin</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQekIzTDRNQVE3ekdLZWVidmdGWmNDOE1SYmMxT1FBVTBtc0ZjVlhQZTlzdXJKaFI5THVKUEQwakJPZDVZSlo4R2RkbENWYVhLT3hWVktKUFFucEoxWGM2LW5PZHpNWFg4bHpueGJKSWx0YkNCNzBITmpEZi13SVhxZnhxdjBqbVJEM0tIRDNqNWprS1V6RW9DSC1uSlBUQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Empieza economía de Canadá a resentir aranceles de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxOZlJiZVhiWUxPMjBKM0p3VWg5ZkRreF9EWWZhdldzeTdBQ1BVVGxETi1Eb1BsUkNLT3FQSGYxWk1yRFl2NVN5eGVhTTlmY3cya3d0WGphMl9NRTR4ODVjOGxtZzl5R1Z4OFUzalAzcGJmUnlWaTlJcmpPYTFoOGpEanBFNjE3OV8xTkJrc3Ffbm5lalNr?oc=5</t>
+  </si>
+  <si>
+    <t>elnorte.com</t>
+  </si>
+  <si>
+    <t>Parques industriales al alza: la nueva mina de oro de las Fibras está en el sector logístico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPUGZuQ3Y1MEg4WF9WZU9XUnZxSV9BUlR1cERUa2kxbW9FSlJPd0N1YnRZZXo3Q1h6U2hsN1Ruamstc1JuenpXQnBiY2taNjVQd2lid1c2N0NFXzd0YmVVQ0hvVkFtRUk3Q3F1S2Zjd2x2eG1yeXVFWF9mVUFzS3k4UVJ2Ml9ZNE83RXdXcVc2cU9VX1FXR3Zz0gGkAUFVX3lxTFAzT1hYWVFLc2UzVnFXd0xtbnFJT014VDNMMUljYjlwV29xMEUzZHpidkE3Y21LQjlfd3ZZamNmTUNjWHJHLXFoelEzdVZoY3g3SVVNdXlPWnliMmg1T3FSTndrNTdKSVp5OFNaMFgtdTdGNHBickZVZl9neWpkWE5iNktmdHB2VGlrVUt2ZDdMNnNlRmFuUV9PMGhpZTVMSU1YYkVv?oc=5</t>
+  </si>
+  <si>
+    <t>['industriales', 'nueva', 'logístico']</t>
+  </si>
+  <si>
+    <t>Querétaro consolida más de 50 parques industriales y liderazgo tecnológico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNNmZlX3gzaUhYaUxyQ1Y1Z0F6cHozekhHdG8wRGxtMTd5cTI2Sjc3SDZIVTJBS002WnFkWVFBWk1pS1ZEZlVCZE5rbmFTWlFUamFaS1FWT1oxdVZuZmxyamtvN3k2Ul9ObU42ZW9kUS0yRXUtZjZLTWFlZmtOaThOVDktZ0dMX2ZTVVlPd004TWpPbF9UTUVtZEJWZjJGSDZFbnBxNlJHdkEwRjBXSFE?oc=5</t>
+  </si>
+  <si>
+    <t>['industriales', 'tecnológico']</t>
+  </si>
+  <si>
+    <t>México impone arancel de entre 156 y 210% a las importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPdFYwR09rSUFmc1F3Q1NCdExQWUpvbjlfUmZza1RFeV9WdW5tR2hzencyVFN2QVVUZHFwQ3kycWs4U0o0LWJxWEszdkxGOU1BOXRpRWVjc3hZT09YbWZZZndpeUZ1UkVKbWVNdGtrUzhhdGZmUDFxQUFhZlZCelNFODNtRDEyRDRqTTdlaENfREFvQlZRNmNKS3dTeE5OSXRWWDlJRTFlUVRBMlpoTDZVdHhn0gG3AUFVX3lxTE9Gcm1yaFhyd3lCMGxOYmlYS1lmOTFwZ2x4X29lN0tGSzZCRGV3SWZlMXBHNmQ5dmZtNlR5N2Nqa3ZiZHNORnRzcm91TXA5Yjg2eUdjQW11NUJYcEZzX2t0Nk9qMkdWdmVhU05rTVFFY01MMHlDY091ZjdyQ1BwUjJyTXlTUWpFdk1scmV3ZzFNb3oxS2RMTVVndmx4Tmx5VGxEdjFfa0gtNk8wdk9QZE45Y1hjaktZaw?oc=5</t>
+  </si>
+  <si>
+    <t>Va arancel de 156% sobre el valor total de las importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxQN0VYOGJvNUhGaHc1ck55LUJLMlRZcmxoNUFybUxoeTNIUVgwTVlLRm1aWmpESGlIb0dtamRTWlp4TkJ6UFVqLUlNaE15RHhMUDlwQVIyNUp1MVlTSnRDTlliQmxrRE4ycWJvd19zcFVyX1huQU41bWllcFlwcEw5enkxN2FaVXVFZzM5RWZiVWVNWkVVOW50V29sMmI1b1NuUlZwc210clJja3RkVUJtRy1ua2VpbDhsX0xTdlc3bk9iNmw1Zzc5T1hhMWNrWGfSAc8BQVVfeXFMUDdFWDhibzVIRmh3NXJOeS1CSzJUWXJsaDVBcm1MaHkzSFFYME1ZS0ZtWlpqREhpSG9HbWpkU1paeE5CelBVai1JTWhNeUR4TFA5cEFSMjVKdTFZU0p0Q05ZYkJsa0ROMnFib3dfc3BVcl9YbkFONW1pZXBZcHBMOXp5MTdhWlV1RWczOUVmYlVlTVpFVTludFdvbDJiNW9TblJWcHNtdHJSY2t0ZFVCbUctbmtlaWw4bF9MU3ZXN25PYjZsNWc3OU9YYTFja1hn?oc=5</t>
+  </si>
+  <si>
+    <t>['total']</t>
+  </si>
+  <si>
+    <t>México impone aranceles de hasta 210% a la importación de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxOVDBtOTNsMkY4QnZWMGZpWVVGMGV1Q0wyNUl4TWZUUWdHVWxNVmpYRVAwZkhPdkxqRXZ1MVduWU5jaXdYYzROTDFiNmdSVGhPWm5nbFZoa1RUTnlqQVhES3k0cUNPWmtmSEJwOG56US05WlZBSkZJWEJMa1g2N0FvY0VaY01ZLVg0UUdud0FZeHh3WWQ3RjZlbzdDOVRLUTRoSzlFMi04NGRRRGhHM3UxTTFoZUdYV0Y4ZkRHWE5yWQ?oc=5</t>
+  </si>
+  <si>
+    <t>China anuncia restricciones sobre precursores de utilizado para producir fentanilo, solicitado por Estados Unidos tras acuerdo arancelario con Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxPaHhUcG1VSzhoT2tnMnRqTlBTMUdlREp2T1JRUTZlM2NNMTRoSmYtTVB5amRIX2l2YS0wNzdJbDFuSEVodkNPcVM0eGFMM3E5Nl9kUnRGdWxjZ1JTN1dUOGpNS1daMGNVTmRCUFpkSU1xekoyWVcwaVhuYlBPZmd4UW52bkFWajAtV2dYbWNSVTBOcmpzcGItQUEweDVvQlBBUUZXNHI3aXJHeXNnNXhELVdudkFmZC14Q1hfRlI0NUEtVlBYUkE1NXdZc9IB3wFBVV95cUxPc1FYd3NYWjdDMldJTTB2RU8yRlZYTkhoU0lqbjkxMk1Gc0NzT2FXS1lEU1Rwc3RXV2dlVEVLVWp5QlBqR19tbUs1UmNwMlFLRVU3cDBlMDl4MzZIb1BYVHhQSmFNY0xoazQ3aXRqb01vTXRoVWR6MkFxY3plM1g0MEFwcUN2OGl6ZnhfYjdsZFExckE5d3Y3eGtKN1EzMEEwb2FITktNMll4b0FhWXlWRXU1MVNNVF9pdDRPa3BBaHB4WGxyNERabi15ZmhvQVk0QkZfcHQ0bjNWeXJyMkdR?oc=5</t>
+  </si>
+  <si>
+    <t>México impone arancel de hasta 210 por ciento a las importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxON051cGVKVFlRcnY5WFkxaW9jOEpKaEkyUTVFSUxQVVJFdy14UDQzaXdFdlF0Qng3bkpCcUgta1UzVFlLYTFvMDAtQndCOEtybWZUZXBfUWEzbUVaX2VSOUxKcW44M3plV3pKYVlqQWFncmhzWmo3Nm5nSVNvOXFhM2Y0WHZNREtpNS0zdmg1TVZLYXRBeldIX2FWNHhDTVpVcnFpUi1mM0YySUF6bjFSSDMtMjJ1WDFZd2ZvcjQxVVd1SkNkZUZQR1p6U0FFQjE5bWfSAdcBQVVfeXFMUGJnTUJtNWVVNDRwUDBVUjdyLTRQc0hPbjdSTVdwcGx6cGZiaXh0cGY0aFMtYXRyQ2ZUV28xZlJDZl9ZaG02Ty04MDMtZV9LU25kVHh5ZlRrNlNyT3VhVmM1Mzl5cEk0TkFUQldsbXoxQjYtUmZHTG1kSmV0ZHVzV2wzWGYxU0c2cGhUOW1Ecld3VTZaMWNFSnE0cl9YSWVpTGpOSnA2bXAxdUFPWksyQTl6RnFIQVExYUNqV0FRWEpnVFMyb1RETW80TWJXdm5yQUZlYkNqZVk?oc=5</t>
+  </si>
+  <si>
+    <t>México impone aranceles de hasta 210 % a las importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxNSlN0T3pQOFY2NFM2ZVR2eWd4TVF1alBLdlZ3REQzdlBYYnJ6MzEwcUlTWks1cXZ4ZWxSeDhsSlNIUjk1cDBkY0ZEemtiTzlYb1FHOHk4UmpSLXNzVU02cTY3VlQ4WnhZRkgtN2F0NENsalJMYXI4dS1yLTNfT05nRzVrMGYyOWc?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno de México actualiza arancel de importación al azúcar hasta a 210 por ciento</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQbm5ydTlDaFplZXBwbFZ6VGZmWUpsSzh6Q05QdEMxcnJhWGZNLUZOeVNDeEFaZjFIQ3RMdndGVEpjendBWnYydVE0SDZmeVdaWG5IQUhPVGd2Q2xfblhVbFNTZlBKN2NRNDdpTGNTTk5wWVlCSFh2N29tUTNhYzVadDR4VW9DTXNHYTY3Z0pNMzk1cDNvSWV3b3Y3c25UZS1IOUw4NzlmaVFCeFUtVVNfdU14b255TmdieERR?oc=5</t>
+  </si>
+  <si>
+    <t>Rusia impone aranceles a los productos tecnológicos para impulsar su producción nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPX2VZQ09WSjdjclgzQWNzeE9RdzFaeWRDcG4tcEROYlpEMWFsbm9zX0lMX0dTUnVwWUJzM05JUzhqaTIyZW8wak5nOHQwaWlVUy1wYk1VVkRiREZTOWt5MjBLNmI5ZGJ5V1BkUVp2TDVKbm8xT2UwcEVVbGpaa09NWTRTa1VTbFFqTlNsalh6akZhUWtYdUVwdV9hdFY2Ri1oQ1F2UndyUkFuZ044ZmNzV1RfYlJFVlM3Rkoyby1ZT3dpbEhrTXBxRnhwMkF5SW8?oc=5</t>
+  </si>
+  <si>
+    <t>['tecnológicos', 'nacional']</t>
+  </si>
+  <si>
+    <t>Arancel de México a autos chinos se votará en diciembre; automotrices ya analizan destinos de importación</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPZURwTTIzMEpKUUJaZmNqWnpwa3hYaVZEUU5ZMzI4XzlFTTFEY1ZjUmNRaElvcFpzRElITnRIa0ZPV2ZMdklOMTVBWm1wMjlsS2lWUjY0OTJVSm9qN0FDTVJzcE85cFg3WnFWdnVLLThENTczVkRmbWJrRFpYa3NldHIzZUgzTGF1Yl9adno4WFdIS0hqMWg5Rmk5TlhOWnlNZXfSAa8BQVVfeXFMUDhLUWJBTkVWV3FDam9salNNd1VxUzZzMDVmOUFjNk9iY3hrSWhLTTNQNGJLSTN3Tkl4UW9JM2IwenFGaHdCZm1xZDZQNWNDd05BbFFhUE4tSEZFMlNEU1NPNnBSQ3lpZ1dIRE5Oc2ZEZ1V5ajZBUlJwWFVPaFNUVVp3X25HYW9Jb18xa1BjVU5fMVFDNHhxVWc5YnB5dXlKTmtBZ180Z3FzZDJ3ajVoVQ?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevos']</t>
+  </si>
+  <si>
+    <t>México Eleva hasta 210% el Arancel a Importación de Azúcar ante Caída de Precios y Sobreoferta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxPeVRXdlVPdHFKWTBueUVEWE41c2YweXMxa3BSdGRWaUN6ckc0X3hWQjc3RjJBajk1VlhVZzF2bk1UTmFHMzBlSUYtSkxUdW8tUmZLNUozcjdXM2h1NjJqR3VEUlBteE5kWkh2aGEtODZ4OTBhejdrWlN3ZUlqVDVZNk9mZ0pscktQd0pVbllCY1hqcG42S21mS1l4MUVjeUcxZ1U4Tng4MWZuajJNbmhxV3ZxVmMxRUN6U29DRHo2R20xc2E3?oc=5</t>
+  </si>
+  <si>
+    <t>México impone aranceles al azúcar importada hasta 210%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQUXNsQXBYVWZiV2ZpMXlKd0RQLWxKYkNLVnNtbmNTdklmbmd6TEtMdWtxdURvLUYwT0JyTk40MF9ETGVkRlR1cDdqRUJ5eTFnLXBCMTQzbU5xMUhENG1aMGRnaG14RXVHblkyVUoyN3QwTDJmeGlFZ1d1aEFad043UQ?oc=5</t>
+  </si>
+  <si>
+    <t>['importada']</t>
+  </si>
+  <si>
+    <t>Aranceles al azúcar en México: suben hasta 210% a las importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxQT0tGVWZ3UTlLX19vOXEyTkZMVmVLWEt0bm9tVUFQV3lncmFsOEE5TnA5dFMyUWdleldfSDBqbm0tWUMxM3RUOFFHWnRjT05TSi1FRnhrQ1RJQnphejlubHhlaGpOaWs2TzNyNlprTjNGMWpYQ0JfaVVsNUpRRWlUZEF6SmdXMm1kdFZ2dU00UUZkWXN2Y1RRbzRtUzZaYjczV1NTWVYySG9kdDJ00gHHAUFVX3lxTFBXVkliRVdrSGxCckFibzZOLUZKMFhyVkREQ1Rkb0FXNjNZb3YyZ0k2aFl5azFXNnpJRTg2UWYxQjFYUHpvcEU4d2p1VW1kekNoLVlfbTlYaHZ5SkdLUS1vbFpMTnVjNjBkM1phVF9mWEJPelJSQkNkT2xkNVM5WGl0cTZkXzZPY2JYS3JFYWdVWFotM3lkNy1hVG5QYzFjRjlsMTlxeGtMUTRXb2JnX2F4eXg4LWRZYVBQNjBxYVoxWnZHbnBPLTQ?oc=5</t>
+  </si>
+  <si>
+    <t>China anuncia restricciones a productos químicos usados para producir fentanilo tras acuerdo con Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxQeE5iRW9SNHo4QlZaOVp1YmFMVXVFaXlEUUtJaHF6MU5NMWF6c05hdkxVUUJNbGU4MkVkTm11aTRFTVprVm1uZE5jRW93ZmVGSTdCbGx0RnNoWGJCVDNIbzQzT2thRXc0VzJtLXJkci1RYnZZeVhfT2VsSUNqNGpJeFQ2Um1ra1I0MVFzcVlIdUZvMFNVdkZhUVhIWXRYOVJsMDhYNTZfWmp4MmhpcnVFT2ZWck5pdW5uX0NZaWZ4UmlTU290TG5mT25Ia1hlbnRaTkplNkxxOUVkSnJDUTAtVlVrV0xXUlZqNERwcXRURktsM2cy0gH0AUFVX3lxTFB4TmJFb1I0ejhCVlo5WnViYUxVdUVpeURRS0locXoxTk0xYXpzTmF2TFVRQk1sZTgyRWRObXVpNEVNWmtWbW5kTmNFb3dmZUZJN0JsbHRGc2hYYkJUM0hvNDNPa2FFdzRXMm0tcmRyLVFidll5WF9PZWxJQ2o0akl4VDZSbWtrUjQxUXNxWUh1Rm8wU1V2RmFRWEhZdFg5UmwwOFg1Nl9aangyaGlydUVPZlZyTml1bm5fQ1lpZnhSaVNTb3RMbmZPbkhrWGVudFpOSmU2THE5RWRKckNRMC1WVWtXTFdSVmo0RHBxdFRGS2wzZzI?oc=5</t>
+  </si>
+  <si>
+    <t>['químicos']</t>
+  </si>
+  <si>
+    <t>Sheinbaum aplica arancel al azúcar importada de hasta 210% desde este martes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNZXBJaDlsOE5EZjFYaVZMNlp6YmRndF91bV9ySkUxWmtVUlQzY2VINWNMTF82MUc2azJ2R1ZCQkgyYk9GWVpoRUV6aUpVOU1acER4V24xOUJPaEdpMzN5MHlDMGtpUjlJamVSd2ZHSmhES2tCZEJMeDBaYUJmTnpOc1JPWjNub2lFRFgyUVlJbW1RRWRCUU9seG9wOWlhdDgyVHRYUTlSS3BmaUJvMnpKZdIBsAFBVV95cUxNZXBJaDlsOE5EZjFYaVZMNlp6YmRndF91bV9ySkUxWmtVUlQzY2VINWNMTF82MUc2azJ2R1ZCQkgyYk9GWVpoRUV6aUpVOU1acER4V24xOUJPaEdpMzN5MHlDMGtpUjlJamVSd2ZHSmhES2tCZEJMeDBaYUJmTnpOc1JPWjNub2lFRFgyUVlJbW1RRWRCUU9seG9wOWlhdDgyVHRYUTlSS3BmaUJvMnpKZQ?oc=5</t>
+  </si>
+  <si>
+    <t>['arancel', 'importada']</t>
+  </si>
+  <si>
+    <t>México impone aranceles de hasta el 210% a las importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxOeTJIV2ZDTUYzQlhhMkdmb1FqNV8yNXFMMVhsYTRfaUdKUHp2WUk2NFNrMlhTNFFMR3dWakR3bmdrTDRDTjd1aG1Zc0Nsb3U2S3AzNW5DRHVSWURydkx0ZUNOUGJUbnJHcHN2a0lUXzEyMndCdGZtR19zeWZtU0NzXzdOUWs5bWh0eTBDQWdCdlA5TjRmWGU2bGloR1NkaF9UajBsSVpjRVRtbXN4NkJsQdIBxAFBVV95cUxPYXpaVk9nTVV4bF9HVkY2XzVxNXhzNkdrY3F0WnJwYmVlM0dNa1BhZ20zNXVmTGZQMzdZa3o4NVVsdndrUFFMcHFmdmVPT2xDVWtlVGIxT0Rpbl92d181RGtaTHZLU180M3BvQlQtcGdqTFUzbW1HVXpRVnNoRlNWWVRWdjZEVEpKeExEVFlJV3RFOXZpR3o4Vmt2OFhQMkEyVm9HZ25CWERmUUVpbTh6OGFuSjk4UVo0aXFYNExMMGhDejVL?oc=5</t>
+  </si>
+  <si>
+    <t>Fortalecen al sector azucarero nacional con arancel de 156%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidkFVX3lxTFB6N2dxYmkyQk83Z3hfQnRoVl83T2V3aGpQYlc1dGs4NGdtakpmVDBzQWxXOC02RG1MVzFXaDdrQjhvYVU2SVRsYTZpZnY3cUEtWUdCRGZBdWFOWUU4RExDcHF5TC13OW1JTEFGZ2RYQ0R0TkxuX0E?oc=5</t>
+  </si>
+  <si>
+    <t>['nacional']</t>
+  </si>
+  <si>
+    <t>fortalece, arancel</t>
+  </si>
+  <si>
+    <t>Actualiza gobierno federal arancel de importación al azúcar a 156%; busca proteger la producción nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOa3g2UnVUOHFUOFJST0tsTjhVeXh3R3JMaHg0ZlVhaUtuaVYzYjhsQ3c0cVotaTZhdDAxY2YwREdKekdXcXFzYUpLNTV3MDNXM1l1c2R5eTlnSlRCRU1ubUQ0NGsya0ZkbFU2X2IwT2h4OUtDNW95Vm1RMHlQNEhOdi1EUHpKWU1wVTNtWUh2aWFyTnBqVUl4YjlxeFBCUnlLd1dtOEV6RTNqQ3NfalZMLXI2YndraEFv?oc=5</t>
+  </si>
+  <si>
+    <t>['Actualiza', 'federal', 'arancel', 'nacional']</t>
+  </si>
+  <si>
+    <t>Anuncia Gobierno federal arancel de hasta 210% a importación de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQUmVMWW1oYlNNU3pOaTNqbjZGNi1qc2tkMmxlX24wbTlqVUo5ODZFZEVadVljT21zRVktc3B0MkhmT2pXUjcwWlQxR3BhN2hiOFpaQW5MSkNLRV9ER0xLd1FMYjJYeTRhcDFvYS1iTUREbFNibUVJRVVZRlZRTHpYYVBta19SSmZ2ZUtkRURUc05PM1ZCakNvVFhxX0RQdW9wdm9iLQ?oc=5</t>
+  </si>
+  <si>
+    <t>mexico.quadratin.com.mx</t>
+  </si>
+  <si>
+    <t>['federal', 'arancel']</t>
+  </si>
+  <si>
+    <t>México eleva aranceles al azúcar hasta 210%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTE5BWUhWSXdrdWE4cndONVRuTTFZUGNheDk2R3RqaUdyN3FvM0RldHg1SUtXRmQ3alZTanp5WGtnNzhZcFlPWmQxeF9kOHR4cGpOVk0yWUpwVmltNnFVWUZ3eHIzdEg1VlNhbU5Ma0xZbk04R1lZTUNNXzhqWlNHdmPSAX9BVV95cUxQRHA3WjM3cWxldzFPOGIybGt6TXNBV2tHelRCSlU3clZ4RDJWT0xuR0cxal9QWUxBX3FEYUdET1MwNUk1Z0dvVU9qbFJwUFZQVkhSX1lDS1hMSXRJYnJGZ1BOSm1rSkM1UzZSbjY3LW9LbUtBWGZYLUQ2Y2R4YTNR?oc=5</t>
+  </si>
+  <si>
+    <t>Aranceles: México impondrá impuestos del 156% al 210% a azúcar importada</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOY2VYRzVySWlIYzREZWUwOWtyLVotTW9yQ3ZEemlpZ0gzSFJDV09hX2toLUZmaUM4LUNVS0tvQlRlenRLZ3kxLXJmRUNXN1lGTGRoeUhqTTZaRTBzQ0RLTHBRblVHb3lhZEpiTEV0ZDQzSjRCSmxZd0E1cE5KTGl3OXBCRWZkOGQwZ3MxOTduNS1MVDQzWl9HWENfa1V5SnZla3RSekwwOWJVdVY3a3ZlZWlhdlNzempacW9lM19tZlpRSFZwZXp5eERJOFpKMFHSAdQBQVVfeXFMTklnZUxxakF0czY3bkdQQXpCckgtY2d1ZV9xTGhJd19mYThDNjc2cmZLNUYyRTFwNW8ySDV1UjlvS0dtUHZIeVdQWGh6ZFlReV9USW9FbTlwZ29PNGMyRTc3QTJQMjRidzFNRUgzNTRleWZlTVZSc25Ma1lnbjgzd3BmSmdsNnZxQV9HSXJST1JLZXdacGk0OGl3TDhVXzRWLVhUVUV2ZUZhaEREUVdVQXc0TUNLZUdoS1RWUS0tR3B2VEZieE8yb09JNFM5UERLSE1sSzI?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro busca aumentar aranceles a la importación de vehículos y motos de combustión interna</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxQcGtVRXI1SWthMzQtbTU3Wk8zSFVtNS1KSnhuQjZpd1dlc2xHaVpQa1RMZlFNSGxqWVBkd1dSRkQ3ZURXMWlfci1hREd5WnphQW1zZ2thQ195bWZsb09RZEFsSGVxMUl0VVRzV3dsRXlkbnBjUGFPOHdON01GRU1YaXhvTGltM0g2RUVqMV9OYkxQcFR3NmRZXzZvcmtWMG4tNHdHWDRvdm1oTS1sMmhjRVZBd0J1bVBpZXM1R1pfQ0ZXekxJc25FcjYyeDhVVFhHZEwwWWlrYV9lTERaX1VuT0ROcE5fS2RGdEHSAf4BQVVfeXFMT08wU3U3X3czMENNVmtnSElxdm93eDRDNDVfcUg1al9zUzM4aC1tY0pZOEdYM2VaY3RKWnhSZWtJcWJvaWI4WDRDOFdxLXdWdG9iVmk3UDE4dXVCS1BTdnZZZ1I3VUZxbzBoZElOQ0VXZzVfUGZVdkNjRHR1X0xWWE1qbHEtb09RUGROOHYtQlFHSS1zM0JKa28yWGNtM3d1QnNyZmNuUm1rU2lQSUFFRFVKZ2s1aEZlOHVwQmdfSUpNWVEwY1k1Y0QzWjQ3RmZDTDdUMHRuNXBiVldDTGx0bkVXckdxSWhDdVpxb1h3Vmxrb0NQeTUyUDlYQlE5WVE?oc=5</t>
+  </si>
+  <si>
+    <t>['interna']</t>
+  </si>
+  <si>
+    <t>Aranceles de México a China: Oposición empresarial y política los frenan hasta diciembre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxPVHVUZzhzTFF6dTRqMVJKYXdwMFZ1SlJZTnY5bmpPRkFoSWx6UGo5ek11V2swbW1YMnpFUlFick1mOVJuQU5sdFpKdy13QWdsM2JodVJuNUdEa1o2ZWxrQ3c2RDNZQ3dDZkNCY2Y5WUhZSDZjNlNlOElpT01ubDRlbDZDUS1SX3VrRlhsT2hocEdzVjhvNDBrRDdwQnppVXFrbktTbVMwN3UxMlJDa1BFR1lXVU1SWTlKbWtrMnVkcUJmZTBxaUZ5Vkh1Z1Zrc21ITWZYRzE3MUQ?oc=5</t>
+  </si>
+  <si>
+    <t>['empresarial', 'política']</t>
+  </si>
+  <si>
+    <t>La mayor amenaza para Honda proviene de la competencia que representan los fabricantes de autos chinos, no de los aranceles ni de los chips</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxPbExPd0hvZjUxZ1ZZeWNFZzFXNUoxY1oxZ0Z2ZHpOWHBHbXhpbklVODZGTm5pcTdhR1QwR3VHNEhFanc0andUMXJJMU94MlB6WURFNnRCX085am9BVjVzRk5PcldPeU5CYTVnS1R3X2RoTXMzMzFQOXFyX3JMVlF2dWxodGdKNHoxRm81emZZa3p1ejF1amU4ZmZ1TTU4Vi1aY0wtM19WdlJKQXJnZzFIUXA4Yk1ma3pTN1JXWEFB?oc=5</t>
+  </si>
+  <si>
+    <t>['mayor', 'chinos']</t>
+  </si>
+  <si>
+    <t>Trump se muestra abierto a reducir los aranceles a India ante un acuerdo comercial que está "muy cerca"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxONTRqNVVrSnFKdU14dWtVMDgtcXNWYXJYSDhFVDVpUWtNNTBMSF9HaGlVN3otdUNqTFRXRkFLSHltWEtVR1M2cGhfalVIRldNd0xNeGx1ODE3ZVhIUEJCNHVKNEdWWEc5UTlCbFFCV0ZpOWJrcUo0SXFKRmQxY1VfTzlKcEtwam4zZVNXUkQyT3RPN0xISEFzNkFRXzY0OWpmTlFSVXZaT2VUcy1SckwwNEZXdVFua0t3QlBaUDl0MWVYVTJhb3pVSGhDcGJ3X1pqVkRKbDlJRlRqV1VhN0E2d0F6aVktNEJRTVHSAYQCQVVfeXFMTnhYa3dpaXRHLWhqcFJtS0lRN1NqRm1JVnlkX0FkZzZoczhZTk1WdFlna0pta1YxMFFfSUQ5R3hyc29KbjVrM2lwUDZBdEZCVjZ1Um5tVnh1dDVBLUxNdHU5eUZ5RGNCejU5UnlmQjZ4Z29PUEY3LTZRRDNvM2pkUG9HRnp2RTkxbGZWVWg1UU9GcXVvMHdscUNpQXUzUVZadzJjYlp3V2QwQTIxNVBYbTBuVmtxWlRjUkhjVEFlT2ZWXzZBRXBvaGZIRllMQWJuZkF2ZVFQNU04eU5hMVh0eXpNWk53elVkY1N6V29RVmRKZDJhN0o1amtJX1JuS1Z3emEyT2Q?oc=5</t>
+  </si>
+  <si>
+    <t>['abierto', 'comercial']</t>
+  </si>
+  <si>
+    <t>Impacto de 0.5% a 0.6% en el PIB de la UE por aranceles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1tTGRaU3dnS0xXcHdsY0ZfNFZCRi1xdTVLU051R05FQjFuYWY0b3N6S3EzQ3ZLV0NHUFVCbVpJRTk4OFRrdkJvVXFNVzRfekxoVXhlVWt6MVB6VHczU09aemluWFdtdw?oc=5</t>
+  </si>
+  <si>
+    <t>"La transformación de Puebla está en curso": Armenta anuncia reconstrucción de 22 vialidades más</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxQNkd0cDJFM2tzM0YwMUlkNDdLNVpDcW5vWEJ1QzF4eEQ1UXMxR0xzLWRoNGUzOGFWcy1UeUR1N2dBQTN0T2JnamV3dm9VbTVKel93S0loQ0ZCUUZjMXB4SFh0UWw4ZTFDb244clpvVDM1TTFPSElIR1pnVzNWUE5PRzlQMHhRNGc0S095VXZnVkU3YnA2OTdINXItd1NqYjhvMFRzQ0JnUjc5T0Vab3F6VWxudGlzUTVaNjJ5OEtxRk9LMEsxR0IyWG9TTVVVc0FNNHJ3X0otbDFUSDlvU2c5d0Z1LTdXRFll0gHuAUFVX3lxTE9CLTdVRVhLalJtYWVvVW1sdlJ5TmlObUlrYm92TF9sSW5hVFZ3dENKRkh4ZDRXMUpJdmZoeTRFVElaeGs3TFdpbG1nRnVvX09MWmpmdHV5eWIxRWtkMjI2bjNRbWx3UjZKU3dHNXNNRTk4R2d1SndMTnlZdDgwWUZ4Y0ZXUzhlYUlXNjc0VkFoa1BCa2MzZDhFMUE3eEQ5M19Qel9XRDB5TjA0WV9qZ0lZNDE5ZjBmeTF5bmZ4a21Sc0o2RW16ZUkxSWl4VXQ2SEsxLTJpb2JVZUhYWFU5ZDhEQUQ5NWtwZXVHbW5yVXc?oc=5</t>
+  </si>
+  <si>
+    <t>Fabricación de autopartes en México se mantuvo estable en agosto a pesar de aranceles pero reporta caída entre enero y agosto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOT0NDZ0ZsaHRLQkZnSERjZFpId0NIckhrZUdvNEtSLVlETnZvZ1hqZXFmYlVzbUpXZVg0aWI5dlhXNTNHNXFBWXBGOURJZFJLTWdlWGVPTjg1czhPUzNKU2NoY3Fac1JFYjV1UUJMZFIwUV9UQjRyblJEQjg3SmhmM24wcGQ2ZGtnQ1l0cVotRDJBbGUwR1NHZGE5eEFQX2RvbDdlODFlYWlGU2lNbHJfS0k2M3Q5RVF5dXfSAb8BQVVfeXFMTzFBMjJDX0lwcHhUVjBUSmJzWlpNZWpmMTFMWDZiNzB5WjZhUUJ3aS1jZ1B5bXJjVXlMNnhGcm94VFo1NGwyVWxLMVhsY2NLQmdMaEQzT2xITGZBcm4weGZndHBOUDNhZjlDZXVjOW1UNVJpLVRGVGpDUklHM01qMHVGQ2d5UUxXRTNxRXpuRWpmYktaa0prUm9wVmk2aTZ2Q0h0Rm44Q0w2OXYxN0NCTzFjQUU5Snl5OTJBYVlCS3M?oc=5</t>
+  </si>
+  <si>
+    <t>Producción de autopartes cae 5.4% entre enero y agosto • Economía y finanzas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxObXZEZVdneGZFQlhEMEM5dkF0Q1dkc0tQSzhYOWF1XzZIQ0pWNFg1eXNIRXlvMFdkMVJ4R2dTZjB0SFJObVV6bDdDeTBMTEdteFJYbTcxVVpjb0lOcjl3LXBzYlBSQk5sWFEyaDYyNVBRR2ZNY09uSFRNaEc0RWRnVk93?oc=5</t>
+  </si>
+  <si>
+    <t>Producción de autopartes retrocede 5.4% hasta agosto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxNUjVxTFBiY1Z2MkYyZkRhMnktVXo0dXhDMGMxc0REb0xZMzlwaFAzY2lQakhGSEpNNFZYTFZFUnlRbF9yU0RES3d4N1llUzF0Z1BhS1JIU1laTl9ySDRVSldpMzBpSjJQQ2JlRTZ0MElaYlRQWnNSQmtuX0g5NXpmeS1CNFRTaExJcVpYLUdsQ2VtTGtm0gGoAUFVX3lxTFBsRzVVOVo1eDBmc2JwM2Q5Rl9mbm0wQl9sZnZLWWhqQTE3QmFsUTV6dkwwbjNsTVRXMFdHREg2REY3SkFGSEJYeWo5YWpPUks3MjJDaXE5QWhlNGJPd205REgtR2tObXhBMFYzZGlWYXEwc1pLQjhFS2E2T0dJYzR0X0l0aUhwRjU0SWlUekxBQXY3TnlTSVl3WlhYNEFzeV9vM0l6a28zSw?oc=5</t>
+  </si>
+  <si>
+    <t>retrocede</t>
+  </si>
+  <si>
+    <t>Responsables de política monetaria de la Fed están divididos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPRFVtQTF2YXNTRTBIeS1vMFhsWEhjRnBQQkFfMVRhR0tEUVVxVGJSbG9TODFkb1BaNEJvd2Z0MlNZQU1HQUNjak8yU2ZrbHNvR3BEUk1UYWhZZHZPUzI2dks3cEZ2a1VrVF9XaVVLTWhBLXRscTFSems1bW1TSkNrWFhIa1dYMjFLaXVQVWN1ekhqVUd3RkwwdnRTRWpnY015OFg2MVV2aG05ajjSAbABQVVfeXFMTjluSkJSaFJpWmpTb3ZxanJWSzVBNUd4NVUteVRoc0NwY2Jab3N0R2VlVGJBMHUweTRjel9QUnpjbmJjM3ZFZGZrc3JSSUE2SUZPbnVTNGpWSGVhc09LOUh1TzV0bFJUbVQtLTEyYnRWZkVUVW1iXzY2aHlLNUNBV2lxTXNWajVFamg0WVJzUHRYcWJONEJpaU1oUnNvZXVGclQ1S2NPbVg0b1lpVFpOQWI?oc=5</t>
+  </si>
+  <si>
+    <t>['monetaria', 'divididos']</t>
+  </si>
+  <si>
+    <t>Oro rebasa 4,100 dólares la onza, ante posible recorte en tasa de la Fed</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxPY1dNYlhrVXlUdW9DQWJSV2Rkdm8tdjVZLUZ2T25HUWx1TlJlaTNsV3MxcTNpazlpLU8zWVBFcS1WY2RncHlDNjdWVTdVSnVYS181TVdkWXFTcXZSUTl2SGQ2Nk40WGpEZU5YUk82MzNrY0NVVV8tUl9BVk01U1JKdXdYSU5RTjFmTG40ZVd2V3FKTFVNWXYwOW1LbTE2SGtXUi1CbzdFVGMwcVgyX01aSmVERVhMVWfSAbwBQVVfeXFMTzBfZnUtcmZIel9QUkE0V3JJWUhreEhMWU04dzZsY1J5a2doeTEzYUEtemVpRHoyRHByeHAzekJ2UkxtZ0ZiZ2l0WDZVNzluSW9jZnFSMHFzN3dVbjZ6OHdqV3BOblQ2X2tQOWY2TUdyNmdzRDl3Ym1QV20xRFN0WjlLWmllZS16ZzYwaUdWbEFzTzRkZWZfWmZMRU55M3oxdTEzdTVXR3VJZm53MHZSYWRRb2R5X2FMSEhOMi0?oc=5</t>
+  </si>
+  <si>
+    <t>['posible']</t>
+  </si>
+  <si>
+    <t>¿Proponen desobedecer a Powell? Gobernador de la Fed quiere tercer recorte a la tasa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxOQXpLcGFOZlhOVjdHcDMtM3ZnVTIwOUF2SXFjYnQwWUhXbnphWDdURE9HT3RQSktZN2hQVXhLZ2Z1NTBxYzV2Q0N4UUlBWkpaMi02TmJoelFIN2VXdGNEZkZyREhkcGtSTExZRDdnWVFHZ2ZpbWUwZ0hINDdKX3lURzhJcUZ1bS1laDlCTUFRYUFqNV9sc19ITEhZaWRKYkVBYXJQMUZGU3h4Qk91cHEwMFZUbW5La3JxbUpYcm1ld3NORjBDb1pQVjRYTXY?oc=5</t>
+  </si>
+  <si>
+    <t>Judicial, Exterior, Interior</t>
+  </si>
+  <si>
+    <t>Imponen aranceles de hasta 210% a importación de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPYWZQY2xsTGxOY1RPNDE4a09UUEV5WXFHaWJSNlRFZE1RSmNlQnJKZTljWUpmVTdUNWpqeUtDWGVMV1hrM3B4TUo0UTB3QlBwN08tY296VmRKd3FiVnRjQmZuYW5ROUJFN3NhN3k4NkNxY0JFdXRKcGxxMFp0bnZKNUs0S3RCQUJ0QVFsLXJPVl91eE9XUXhvTy1Bc1NHcU1kdlJRMWF6SjF3UdIBrwFBVV95cUxNYUdZWGh5MkcydE05LTlLakJGWlo3VlBEUFVHMUY5cXZDbkZDblRpaU8zelIxVGVIT1VSR2NkaUJXYnFxOUtmQTdEeHJ0X1Q0dVp2TzFVSlhQXy1sZzRTQ1VJSnVfWFg4bFB2c3R4c1JOOWRULXdvajhfclpkWlduNHlCYUVkTjkyYm10elhUdmtEdE1icndaaEFTaVg4NlN6Q016emhSVm9aSEhmMzNn?oc=5</t>
+  </si>
+  <si>
+    <t>Empresa española, inocente; México quita arancel por dumping a vigas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxNb3pTaFVaZTVyaHhrNE9SWWhpTEpPdzJ1WFByVWFhLW11MHlMdVVVbWxocmswUnRzNWtudjV4eFJoTU54S0p6ckNmUmNPMjVDY3ZiTTcwanF4aTg5SzdYVHlSSmozSzVwN3ZKbXBFcEljR1E3d0Z2ZXRwQktsdzJhdUFzZUVLaXNUdVcyYnNzbmxhSV9KS3ZCb1hmQ2Y?oc=5</t>
+  </si>
+  <si>
+    <t>['española', 'inocente']</t>
+  </si>
+  <si>
+    <t>Se retrasa hasta diciembre paquete de aranceles a China</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxOMmMxbkZZTzBrbGlHaGNUcExqT18yWDZkUzBqOExXTl9QRkZtbWhNa1dXMEItNmxDcHcwUTBZajN3NEFsYWphYWZBMWxnVDNtUTZ1UWpUdC1IV2NCdmFEendQMFY4WHNYbXJ4ODhOYjNQRHNGNV9oUkRJOVYydzUtSjlabjVJRTRJWUtqcU9kUmNUYkVfb1pPaHdMQTNHOFZpeHpDa0dGXzF3elnSAbABQVVfeXFMT1JCQzh5dXNZbXM3c09JNXhCX2gxZ1A2TmFSX2g2b3NBNGlnRzRTdDh5NHlMRmN3aDRMZE1kWGQwMkRaenJEWmtNeFBrdnU3QUc4dlNTcVd3WmZodllGNDFoUU1tOXhxREx2VXYtMUE2NVRtYjkyNlZ5YzE1TTdWejBOVWdqRHJPS01kOG9tMVRaakI1N3lJZGw5ZGFjRENEQVFZS0x2aDQ0UHU5enZFS0I?oc=5</t>
+  </si>
+  <si>
+    <t>México eleva hasta 210% los aranceles al azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAFBVV95cUxPamhLUFByVmg5bDFjY1MtaXRuTzluVEtTMkg0X1BvcmlnMkhjTjZkR1ZaNGVBdVIzWG55Q3l0cUZhOTRLSng0TlQ4UmtvNlNmVXhZSmRfOFpBYUVSOTl2X3RXaW9PUTFBT24xTjR6VnNFUFRnN1lTcEphREVWM0l1azdDZzHSAX5BVV95cUxOYjRhOHFSM1ZSUjdsbjNqcVpHY1FkajVQRUgxNUJzQk9QYWczTmlFdnZIVTBvdE9NR2Q1OTJyYUxKdlF4OTMwaU1xU1JJMkRmSkE4V1pzRWlYNjE5dFk2S3dkdzRLYWdnYklwczk5Qlp6dE9Ga1VSblZwNEJkYWc?oc=5</t>
+  </si>
+  <si>
+    <t>netnoticias.mx</t>
+  </si>
+  <si>
+    <t>Anuncia gobernadora construcción de desaladora en San Quintín</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQZExQWjdabXJjZFhxUUlkenhGS3Nhb1lqdUQ2S3lObVJnUm1QQXVsYnQyZVdPdGc5ZF9XbVJ2ejNsUmpuWWVGZGxReUJFZFA4R1lXS3hvVDZPY3hHSjg2cGF2MzhzdjdCNkRWM2JtWEcwOGE3dlVZRWRXMWxqZDU0TVE1M2xHTnczenV5V3dIYm9Ld2JsZUdwVktJUzA4bjFQ?oc=5</t>
+  </si>
+  <si>
+    <t>jornadabc.com.mx</t>
+  </si>
+  <si>
+    <t>construcción</t>
+  </si>
+  <si>
+    <t>['gobernadora']</t>
+  </si>
+  <si>
+    <t>Marina anuncia construcción de planta desalinizadora en San Quintín</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQYVZNekYwMnhUX2hNcGNnbHl2VmJNZ3Zlb09EWi1lbXhtQng1QVNyT0x4dDlvZzFOR1VVb2VzQXgxVC1pTDZhNEJaOWRua0x2NWhhMkVWVXdRZHRIdXBxQTk3cXJXTWlqV2lIWjZLVTJaak15eUVydjA3dGE3UGtpVUtySWRnQ0pTY0ZmZXBha1owdzFMeGF6WXZkTC1sZVBlRzI3Qkd3?oc=5</t>
+  </si>
+  <si>
+    <t>puntonorte.info</t>
+  </si>
+  <si>
+    <t>['desalinizadora']</t>
+  </si>
+  <si>
+    <t>anuncia construcción, Marina</t>
+  </si>
+  <si>
+    <t>Seguridad, Interior</t>
+  </si>
+  <si>
+    <t>Producción de autopartes retrocede 5.4% de enero a agosto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxPZjZGMmN6STd3dDNrLWFHNkxrU3R5d2NPRGZYQXl6aDJJbHpKM2NzQ2U2MGZmUW54ZVBCVTU2U2dENDhnRlc3bzNidTBOVmcwRnV5a1BRam5pNDFWSU5uaFg4SXNYcHV4dTdhOE1Xb293Nmt3U0RmMTRBMmREVFQ0WjBmeUJTNk4xSGJHbGJXRjRFQTBMVHdPeHh5bTNuZHM?oc=5</t>
+  </si>
+  <si>
+    <t>elporvenir.mx</t>
+  </si>
+  <si>
+    <t>Producción de autopartes en México cae un 5.4% de enero a agosto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxPVUZ5Wi1nSVpsX1RSNUNfd0hYcmx4UElTY21nQWZhbkpabDEtRmE1cWdyX1lHUFFKSVNUUFdmYUpENnpvQjdfWEo1c0RjYy1QT1lsQV9HZHpBQnpTaE9rcVg2bTVrN200ZGhqOWJYOTgxbHZZeHdCOTdOUndkUWtVcXJWcGdET05WNkRjQ0FPeFpNZTNnYllfY3J6NXJvT3J4MnhqR1pqNDk4TXdSaDRRa0dJNUFTQdIBuwFBVV95cUxNcWRZZ0RiZDJVM1hkTzBIdVhRSkZmZy1STG1pb3hBVUpNX0Zoa2NnMjhvX2xYbkcwZndfSlNYcktJN2xySnNMejRENk9WVGZWN3RIbGRJMlU5bFRLNzFqYXJjTi1aX0dubkU1NXAySi1Fc1dobmFVZjZFNC1VVGdOT29hdFdLc2YxWUotbFdzajVqWGdxNFZqZGc5MnFjMElycjJhZ2duWW13YUtSS1RsYmZfZHN1WHdXZDRJ?oc=5</t>
+  </si>
+  <si>
+    <t>China announces restrictions on chemicals for fentanyl production after deal with Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOalBiNVRmZHpXalg3R0F0VkVkNHB0NXpubnowM0tJdVdqT1RYYVYyU2g3RWRGcnpyeTNWX3dGV0FRaDhBXzNCS0pNcDdNVlFCa1lRZGNQRFJLUGNlRFNSc0NKaEtVTTlkQ1QtZ0NlR2huaURSM3JIR3llNGVQcTB0a2pzRjMydEIycHloYlowcktpN2pQRmFyUmZVdGNnR3FaaERiXzhaR1VuZE9hYlVOekplZi1GS3EtemFhYWZhbEpjblp5QTYxc3hwWmJrbHBTUHJfakt5eFVUdHpKR3FPQw?oc=5</t>
+  </si>
+  <si>
+    <t>['restrictions', 'deal']</t>
+  </si>
+  <si>
+    <t>Switzerland Moves Close to Securing Improved 15% Tariff Deal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxPMHBpaDFFWEE3VXhfM291ZWlfQVNfaGNvMktIY2RSb0hWdHExdl9vQUJQSXBSZ3QyMndsYnd6cXlxc2tsMFdPc3lGbjZ4RGVBT1puc3JnRmZWTm8yYXJOb0k2LTVLSDNfSHd4SDVpWDF0Q29HcHZGT2w1bmdNWWw2MkZfbjZDVmtEZkhoekdsTXBDYWRYdUpKdDhZaWJxQ1FSYzFIOTdxb0U0T0sxZWVjUGV4dw?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum’s China Tariffs Plan Meets Business, Party Backlash</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxQRk9LaU5vNkNhODloU05Nc3RXdUpwM3NXcmV6MkVja0gwQmlQVUdZcHVrUm1ObUdwYjFqT3g2M3lWMUFoR2ZXdDFya1VhXzVLT1RlQ2tvdGdkbk5VLWlGVzhxS1FJZmtweGpHeW5ySUo1YVlBbWt6SVVacHM3b1V1NHhxdWRrWWozSGFSd0IyV0RGXy0wdDRleDVaWFBnbFNscXhwejdqQVZNVHNlUFU5Ug?oc=5</t>
+  </si>
+  <si>
+    <t>Trump Says Close to India Trade Deal to Bring Tariff Rate Down</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOQXZ3SFAwZWo1bDRad3lwMnVrUjhpTHVVSlU2a2FSazBHbThDQWZfRFQ5RjVBcEJOQlh6aHh6SXBFMTRnMmVmNXE3U2ZsaG5WZ2V3NXJwWVJfRTROcGl0YTMycHpGU2FCZWRuRjJaVklpZ1NXNllfcXlfTTA0VlJfYlc3eWhCSFBLaWtUMWY3eTR6bkRJMHNqQ1MteUpPNEhkRjdTOEZFWHZ3dW4xYXBOSlJ3Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Chinese goods dumping started before tariffs, ECB study finds</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNdnVEMF9ybnZJTF9idmdGbklXVjVjVzNmZWIza2V5Sy11RkhmLUNNREVmdWtWVGR4UUJaOGw0TFJLckNEblVRWnZVVHI0SFVkQ211aDJkRlJqUnVmWGxBVVBKcVdkdy1UYjJoYWVkSUdiemVIbGdZZl92QkpGR2JIQmtGbUItQTRkVy1oUDFmR0FTZHVuOVBVQVRXcTVmd2pGOS1yWFVlNnNYekM2?oc=5</t>
+  </si>
+  <si>
+    <t>Sony raises profit forecast by 8%, cites lower tariff impact, anime strength</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNT3hLZlVfMVFJVVVzbUdtWlVRQjZSeXhCZEdFd2VjMzRIRmttandlYzd3NkhNOWxWSjdpUTM5OUNJaGc0djVyZG1uMmFZWGZEWldlbUw0SXpMVzk2Y0FoZUxoYS12MG5fakVLVDJVYzNtaXNiU1lPaDFWQXdrZDNkNVFKWWJFS3A2c1l6SHlHMlpBamg3MXEtY24zTWJ0Y0J5N2VWenBNTjBuNFEwVDhNbA?oc=5</t>
+  </si>
+  <si>
+    <t>Honda's bigger threat comes from China's EV makers, not tariffs or chips</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxPLVJPdUtJbXczQTJiRHBGU0ZibjNTT1plZ0ZoYUV0THhSaEJaR044aHpTbjdnTGM4ZDV0eGtYNjIzaF9VRTdvZ21FSC01LWVtMGVUX0F3dlhCaXFoLVllWE1scUxhY2dMYkhjdF9rRVpaU3BzdC01Nl9SS2JaUU5LbTV0SDY4UnZXaVFMWl9abnhDS3JPUmJ4YXRkbnVSTWQzdFJFUkdxd0xIeTRXWkVDVm5tS19QU2xFT1EtNGZ4aGhYVHlfZHNxRHlR?oc=5</t>
+  </si>
+  <si>
+    <t>["Honda's"]</t>
+  </si>
+  <si>
+    <t>Swiss watchmakers rise on optimism over possible reduction in Trump tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNX2plUzNlUkswTlZOalE5Zk1Yd1ZzZ19vQVRjLTJDZ2dQeDRVQ1BzVG9tWW9nRDVPVl8wRlBmSHVTT3F5V0VIRmFCWVRkLWRBLU5YeFhwSWw4UldGSUJlWjZZRDV2NEg2M0pkdzBVRnRsSFl4NTdnNlFURzFXWndkME1BVm1oREpuZ05VUGNZQjNsRWpkd3pOSDc5UWc2S0tHN0s1VS1QYmhvTUpJaUpuOTQtZ01vWl9WTnRVNi1yVTVsbmdyRG5pZV9n?oc=5</t>
+  </si>
+  <si>
+    <t>['possible']</t>
+  </si>
+  <si>
+    <t>Trump says he is working on a deal to lower tariff rate on Swiss imports</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOOEhYdXgtTEZzY01uN3ZfSXY3ekRYcXhrREVISVZrRkpwbFp1djBQREJIa3cxbi13d1VSMFEtUUxHOGN6eFN6ZVZWS3ZDRy1sNkVfcTAzNHZiNHBUUVgwY0xfT19SUldmT3YyTFJnaEhzTTR2bWE4V2lyNnJndEFIYWQtczh3TkExWVA3bWludVcwc1M3LWhha0FsR2U1Wm1KbFhLQlQ3MFRhbDR2UGpibE10SFlzNE9aekE?oc=5</t>
+  </si>
+  <si>
+    <t>U.S. and Switzerland working on a deal to slash 39% tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNeXRGQVloT0dvVU1kdTl0a2N1Xzc4R29JX2dCX0F6bFlNSlJSWUhyZlBNMXk2UGNoLTN0VEJwQWZiMzlXZVFxbDhNb2R5TlJDcGlGOGFnZUctT0dhYk4xYzlsbURCMUxrajY5VmRvZzNGNE1XTllfYVNneHZiVzBJVGdYMXpOa0laRlJGUG1SbVpzX0JGYmVWd0dfajRLZWV5M2fSAacBQVVfeXFMTmgxWEE4YkF0dDNoeHNyXzhjLTl2VFVUTEVQU0R3SC1mZ21NcVl5bzBsZG5IOTloYmNjQ2ZLZ09Tc3pTQTFlWGdZdWF5SU5abTFUNXY0WFlUN1VOZjFURlM4NzJxNDhXckp5dEo4dUFTT0JiY0NCeWV5MGRyVV9kd0pHVG1UY2JPTDJ5aXZNazlpbU5jUXZpRkl2ZWwwSnVIZmRuQW9WUzA?oc=5</t>
+  </si>
+  <si>
+    <t>Craft brewery owner continues to feel the pinch of Trump's tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQcjhqMk9uZkd3aDlWdGM4c0RiYVBHN3FGdGNXbjJlemlmamdWQkhuQ19JdkJLVHlWUFpFT1FyVVQ2Q3c0TTlNb3VTRXd0Y1Uya2lTWFREVld4N0d2LUJPYUcxMzd3dDE4YVQyVjA3dWE1UG45UndHdGlVdDF6dDF6d18xWGN1M1BwZU9HUFk1dFRrbl9GRFpsMEV5MXNzUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Tariffs could force Americans to say 'arrivederci' to Italian pasta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxPV1NtR0ZEZTNqLTRyem9scC04aUNydE9uQ1gxVHBQdnAwRFBLZnFzMXFwRmQ5dmtqa0dsbnU5VWh6WXlnZTJnNWZlVGxpNnB0UXFtcVByampTWnRyM1o4SDJtaGVVMlRZWW9tZ2w0eENyUHNIdi1mWEktWGY2ZWN1RGM1V0ZsUWR2T25iNkFGQ29JR0hIUGl6Snh3TnFlQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['force', 'arrivederci', 'pasta']</t>
+  </si>
+  <si>
+    <t>President Trump’s $2,000 tariff rebate plan could cost $600B annually, experts warn</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxNM2loTVppTXczaFNCM19sQXUwSGpaTmFkUjNQZU1Ud0VMaF84bnpKQUtKVnBNTHlUX2xtWG52MjZOMWc1c1hlX1BKaXk4UG1vMXBGUXNpUld5enQ4dnhfRG81M2NFZy1CcXdGZWlKVEdxclZrTWsxZ3pHYW1lRDN3VVR4cDZib091c0g4REdXV19FYmZDU3ZNUnZtLVFESmlrRjlmYjhoQVB5N3RvQnhBSjYyYUxGQkVyVXY2THVUemg3V1N4SjdZY25UWnJtUWc?oc=5</t>
+  </si>
+  <si>
+    <t>['annually']</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNSHh0bnl2SGpFbXNkYVJuMGxhUVdDcG5OUWtTemstcVhTQmhyQ0pjVms3UzBxOTdPRExBcmRCUEU5aThXSzRxQ3hnWU5rTk16dk5xZU1EcW9yaWhzNzU0MTYzQXlSUHJ4VTQzSG1XNF9hTWRUYzBGR3V6ekhncHYyRWcxYUtQOUpIdUd4MEJleUpkMkRERzFxajFEN2ZpVFZ5dUhQV18xZG9UbzRB?oc=5</t>
+  </si>
+  <si>
+    <t>Trump tariffs hammer China’s economy—exports plunge to 7-month low</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1qTXNpanhPZlZONmN0aUZNUzh4T2FnYm4zZkZheDFiaXRuS0FjUDFkeDZ4bGxsdEU1RTdpWUlPajA2bjFybmpxcm9nbVhiRS1PaWZhLUUwWHh3OVk?oc=5</t>
+  </si>
+  <si>
+    <t>Sony lifts profit view on anime strength and tariff revision</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxQQWIwNkZmNkZZSlY1aWtWRHFDVDdqRnZZY3JoUG9FOGFxbGdWTDNaRHJPWjNYcWpDbjBFT20zUEJRaG5YeHBmbXZOdC1ocEdVN2xTX3NZWG9IQlRXRDJRYTJQXzVURm04UE5PcjBmOXV5dWw4aWJ1d2tZQ1hIclJRWWtvd0stbk9VZ0QzSQ?oc=5</t>
+  </si>
+  <si>
+    <t>['lifts']</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxQZTdlYlhOTVhhYjEzRHFuTnVUVF9nZTFETEVwUnBKU28wbVF3czZBcF83cDNjeXpxa003T0hWakxQNlBXdG9rMGtmYVl4UjVWRVRGS0tRU09lRGFNdXliZ0xNbUZadmxxWEZQTERDanprM2JwSEZoNzFtX0ltd2ZkemtIdVhwVHlETklja1ZueWRrR2pXNEVDMDRROVFUY2M3UnVoQlQ4TVA2bHgyMjBGS0cxZ3BMYldCajBRTHBnSlo?oc=5</t>
+  </si>
+  <si>
+    <t>Treasury yields climb as investors focus on government shutdown, fate of tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gRBVV95cUxNSWhZNHdUdnVZaHltYUJUckhkLW9YSzRWY01DeUhXdTlmNXhTMkhOekJtY0F3aTZvMHpQamNCNXlqNmtLNHE3WGgxX185UzROTUM0djJ0bUhZWFUxZmMzMkdidVVkR2p3V3duTDBaRkN5em1CQ2ZpYWpHQWxHbkJTbGgzN18tY0FoQXppLXdVZ0QtQ3l1Z0ZkRE9mVERNYU1PN3pNSnJPMUREcGxscjl4SlBKUXN6SnBQaFVpRnFfRUE3MzNaaGxRejRlWTQ2eUlqWWV1QmJaWXNUekVUZXBvWHdLN28yZkVmbXJ0Umc0Q21BSUxZUlhxeVZGM2h0dVJRV0ZMajhkZzBjVXJ1aU02MGUyYTdnR1RVWWZWVHNuSDk0a3M1NEVQOWZVNi1WOF8xMmpETl9NRmFmREFpbF9idVd0S0JXTmNaNWpCenMwckNXQzlsNDZ0YXRyb3FIV0hWazJzUmsxblpmdXNhbzBZWFpGeEFXa3VGamZtRG1BbFVsV01KbDNiMEZGdWk1NkIyZlZEeW9Lck1PUXQzOXV2UFlac3dVOHcweEpqbjVFUklJS2wwR0ZRWkYxTF8wQlBzNlZsamVDeE1WOWN2TF9YUVFlWDhvRHJzWXF1Nzhwak81REhDSlkyem1YZVRLTGxFekxzbC1CWWZXRHFoeEx1ZklGYnphdGRwc0VjNTdXVWVLYWN5cTh5T0lwMlpKV3RBWk1BRW5nNnM0ZWdtaXJBeWMzWkNQUXhsNE1nUkoxclR4c3h0MFp6bkJ4V3cxLUFXeG9OdUdOY2Y1MUNqdGpsT0pLVzRIdw?oc=5</t>
+  </si>
+  <si>
+    <t>['yields']</t>
+  </si>
+  <si>
+    <t>Investors Focus on India-US Trade Deal after Trump Comments</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxQVjZYVzMwTEttbk9HTjZHT3kyOXQ4NEJjWWpwWEREbWJFVUdQYlFTRzJyVDk0T1h5T0R0emd0VFY2bXVicU9NYlNpblBPNy1tOG8wRmFfN1JfU1NHOTZQSDNkY0NWV0FOTjUzLTVFZ0lWNThOTkZFQkZXbDVMbHdkckxrVDVjd0tkaDZ1bXJGRnJhMGR4YmZsYXBscmp1Ym9abHBsUDE0M0lfZE4tZEF1UElR?oc=5</t>
+  </si>
+  <si>
+    <t>Trump says US getting close to reaching a trade deal with India</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxQdkJ0Yzl0SUo3UlJJbjNSYnQyWFIzUmYzSnlRVVJ0dWRDeDBQVkV2QVZHdkR6TW1jWU5vOTQ3ZDBIa0E2ZlBuMDJPUnRYam84dTdZSk1Zb1FRMjl0ZzhXamdfXzJvdDZoUnhRSkJHOWRXRG5qcEYxb19zYVNFdDFxeDFEOU43bGlUaWhQSWR6aTQ2eWtuWXdzNy0yc2twR3h5MWw2ODlKVmEzQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Paramount Reports Streaming Growth in First Earnings Since Skydance Merger</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwNBVV95cUxNS2dEcm55Q0VnODBITHNqbVlDa0hrNHVBYTZmUFVtLThjTTlmZjlPLW1lSTNGeTdIMWVMd0xWZjZSWTBqRkthbVlUSHF4SV9JTFBTTElhMHJ2cGhzQUVhNXdqdmJXdms4ajRRdHRvYjBPLWt3M0F6TWY1OTMyWGU3dzRXakdHR1UydzlWNjNuNjJraU4wa3JvT2hOSXY2Qlhza0k2VUt3ZWJiVlg2LTVRbVZNaVNTVHJhdUhzUWp0N1BTMzhKRWRzTUxRN1FpN2dFODJzb1haY29UcXdMcEtfMUxIZXM0YWZ0eFRmQk45dEJMMnFPZFVRWHV2ajJqMnBlQmUwVlJlSE12V1VMbGM4NHR0ckpOLXpZUmFWRjR4dkdLNG4wVmFNbXlCVW5DQjViTFJCdW1WbDdhSmx0a19YNmtWeXVBNFVkVzFZTTc1ZWx4Smd6SmhkLV93OTVxMi1XZ3NuTnJoa2taelEyd0VWNnFfN005Q3lZeWJJZUZ6RklDQTNNQUtNdmpDcHN5ZGhJRndvbmt0Tzc2Q0JFbzB3bzlOakpEZ1JWSmpnWk11SVExcndQX3V0aXE3ZkppaUU?oc=5</t>
+  </si>
+  <si>
+    <t>Watch Paramount Boosts Post-Merger Savings Target to $3 Billion</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxPaDJmcTlTeUVqZXNQdVZYOXVNUnFFZDBBUVRUVGFsLVAwS1drRlFjRV9iWFlSYWxDa2FzVjVVRC1TbVRIb1Nva2hwVlNRTFplcmxfNTExX1FWTk1kY2t3UlkzamlVRDZoY2swMDVadDlJU0wwa01UUFg1SUJJa0FWWEpzbEpEeGFNd3QxZTEtcmxIc0dkdzFLVjZmRF9WVTBoU0YyQXdfcw?oc=5</t>
+  </si>
+  <si>
+    <t>Paramount Skydance expects another $1B in merger savings as David Ellison resets spending</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxOVUhFT2lCOTJJd3QwQ0gtTWFKVndQMWQ4RDFTck80aHVrM1FDSnNRUVlNMWRZQWlUYVF6NFFWNkI1andDb3E1LWZ5SWRNdGdpM3pKN2cwOVkxenZOYVp6cmZjcnBITHJwVEppMXhoV25yLXdJMmlwUnBqUDJReVZvdjlUMGIwc2ZxT3gtVNIBkgFBVV95cUxNM3VLajRuY1JONmQ5TXlmQVVHcVVHWUZ2MVZOMXI3QTBxV2FlOE5wZ0JJMWRZck5JdVJIajcwVUxiTXpZenRRS0tzc1RjSmlrN2FpRUt0cWVYcDI5RGMtUzRmV0xkQUp3SldId1UxS1owZ0xHbEE4MnhvckFleVh4YmNYYU94ZUUxLVViX3R5UWw5UQ?oc=5</t>
+  </si>
+  <si>
+    <t>['expects', 'spending']</t>
+  </si>
+  <si>
+    <t>Continental-United Airlines Merger Could 'Send Airfares Skyward'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihgJBVV95cUxPZ1BPbG03SFZnSjJDcTFKT3BsZUhvMmxYbzRrOXhGdjhBUnpXUlRSWi1UTjFHbGZKTHhQOUhQSWoyaXRObEN6MFFQNURoTzc1UEdvOW5rb3h6OU9NYmVPN21zajZveUVfOW1ZMnZNMzZlWTJzY2taVjFZY1BmdE1fZTNVTWo1OVB3amNfYndqalpCVmRxOTA5bEZWaFZhaXpWSmNHa0hPSVFvdHVXYWsxUXdGM3Ezb1ZldHBBLUE1OTAzWVRRSDM0MkM4ZWRielpCdVdlRUdTajBRRmhCRTRmdi1jRVUySDU5dXhwQmZ4NWE5cFpobG9mNU9lalZ4V04xdlBIbWJ30gG6AUFVX3lxTE1YWFMwdGtlTkJvNU53MjZVWldvbllBRnZYenppN2NnYTlIM2xmc01EcXVOS0FfaTFzUEo4dWwwQzNkSkdZbFdGMkx6ajl4MzluT2YzbXQ5bGM0UEIxS2xvMU0wekFmNzhuUXEzbFFHYTdXUlFKTlJUZFpidnZITjVUZmlNTV8zYmJfYWV3OENhR25XcExpV0xqcHpPeHA5amFkOUM4TFN0c2ZwMjh1M3lsWHBHdmdJaVVXZw?oc=5</t>
+  </si>
+  <si>
+    <t>GoTo Shares Rise For A Second Day Amid Hopes Of Merger With Rival Grab</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQa01ONmxPak1XYTNFOTRuaXZ5MU5CdFNOOFBlOWJPQkZIdVdhLTNYS1I2Y3F3aUs1aGQ0eDRLZDgtdWE5RDN1VF9BMk5mT3o5SktQYkl1aW9aNWtZaU9hdHNMMDgwU0dlQVpvNHhScU8yZTVTYi1GV0FBVWk4U01KSmxkZ1BpUkNReUhER0RGNC1STzMtZlJGTldkNWFlYUJwX3JkOERxRUJEa05YZEo1MFZTcjZrOWZDc2pvSjZBSWZRSVc3?oc=5</t>
+  </si>
+  <si>
+    <t>Movano Shares Take Flight on Reverse Merger With Corvex</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipANBVV95cUxPc0k2R2doNWRhNkZKc29ydlRNWEVmRFVpV2ZzTWtGVkVTYUE1LWZkdm1Za24zU2ZSTWY3Ql91WllEeVo0aVBhOC10NTFPODVjeVk4R280d2pxVzFXLUxjcTJmelpOWlhQUmx4ci15T203bjhzVEhmMTdLcHRhaGNYTEwwTVZDR09KNk1wZVhfbVRfQnBKMF9TcmFqT0hMcWtqa2pXQ3JNUmdUSTMyVzloTDR4YmhPTHRObUw0Vmp0MFJTQWVZcmpfRkJJUUxkUmlzeFVxTlpZR29Pd0hZSURHMVE3ck43Ulp3SUM1QWJmeDZlWUxDQzZsSnR0QlhsUVI1QWU5ZFJKaUtaOC1rWUxGcXB2eVVqdU1uM2dxNUNrcWZVYjJicGQ4MHBNZU5rUHhLdnl3Rk5rZ2ZpNEJzdVRJSWRmSUwyUVVSeEdmMlE0ckZBQW1OZVVjZ1h2SGNyZVhOWlNGRk5jOGQzU2w2c3JoajFTY3pGZWphZDUxckQ5RG5UeHBuTHFpaDNnOGNvdk4zeXZRM2dSSHUzZVEzVEdNNlN5ZjM?oc=5</t>
+  </si>
+  <si>
+    <t>Bosch India's quarterly profit rises on demand for auto parts, consumer electronics</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxQTmRDTkRyVXdkMWNRMzdIMDhIMXNjQ2F3S2Rrb2xHOGtaLU9xVHpBQjVNODZ3T1VJeWxIVkxISzlMeWtiemp2RVpLX0JicTlzZWlqS1hyWndhNVZBRkRYa0tCVTRoTUlRb3g5V3RhR2lPeWozb0tzWUtaUU5fbHRyMUlVbnRrZTM4Unp6MnE1cGI4UWJOc2VkMFpKTFZFajJxdkYzd2JyNXF1dEt2MjF4QjlWajRpSkZCT1hHQ2xsVQ?oc=5</t>
+  </si>
+  <si>
+    <t>['rises']</t>
   </si>
 </sst>
 </file>
@@ -6221,11 +7043,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950B9C32-257D-47DB-8442-358E7953D76C}">
-  <dimension ref="A1:N667"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF80B9-D138-4A87-951A-321001EFD58C}">
+  <dimension ref="A1:N773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N685"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29468,7 +30290,7 @@
         <v>10340000</v>
       </c>
       <c r="N621">
-        <v>12192.9833454318</v>
+        <v>12192.98335</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.3">
@@ -29509,7 +30331,7 @@
         <v>10340000</v>
       </c>
       <c r="N622">
-        <v>11775.845365745099</v>
+        <v>11775.845369999999</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.3">
@@ -29550,7 +30372,7 @@
         <v>8156000</v>
       </c>
       <c r="N623">
-        <v>5315.9083964173396</v>
+        <v>5315.9083959999998</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.3">
@@ -29632,7 +30454,7 @@
         <v>7531000</v>
       </c>
       <c r="N625">
-        <v>8610.8308139408091</v>
+        <v>8610.8308140000008</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.3">
@@ -29676,7 +30498,7 @@
         <v>7531000</v>
       </c>
       <c r="N626">
-        <v>7374.4692923817702</v>
+        <v>7374.4692919999998</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.3">
@@ -29720,7 +30542,7 @@
         <v>9958000</v>
       </c>
       <c r="N627">
-        <v>9779.15639384108</v>
+        <v>9779.1563939999996</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.3">
@@ -29764,7 +30586,7 @@
         <v>21118000</v>
       </c>
       <c r="N628">
-        <v>18127.704185576</v>
+        <v>18127.70419</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.3">
@@ -29878,7 +30700,7 @@
         <v>7531000</v>
       </c>
       <c r="N631">
-        <v>8354.26585956702</v>
+        <v>8354.2658599999995</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.3">
@@ -29919,7 +30741,7 @@
         <v>81608</v>
       </c>
       <c r="N632">
-        <v>85.490792191115801</v>
+        <v>85.490792189999993</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.3">
@@ -29960,7 +30782,7 @@
         <v>10340000</v>
       </c>
       <c r="N633">
-        <v>7689.1536558457401</v>
+        <v>7689.1536560000004</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.3">
@@ -30001,7 +30823,7 @@
         <v>21118000</v>
       </c>
       <c r="N634">
-        <v>21250.754843948202</v>
+        <v>21250.754840000001</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.3">
@@ -30042,7 +30864,7 @@
         <v>81608</v>
       </c>
       <c r="N635">
-        <v>75.835130812699902</v>
+        <v>75.835130809999995</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.3">
@@ -30083,7 +30905,7 @@
         <v>43440000</v>
       </c>
       <c r="N636">
-        <v>33640.087458640701</v>
+        <v>33640.087460000002</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.3">
@@ -30124,7 +30946,7 @@
         <v>11190000</v>
       </c>
       <c r="N637">
-        <v>9245.3750779810907</v>
+        <v>9245.3750779999991</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.3">
@@ -30165,7 +30987,7 @@
         <v>43217020</v>
       </c>
       <c r="N638">
-        <v>48058.740776163497</v>
+        <v>48058.74078</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.3">
@@ -30206,7 +31028,7 @@
         <v>43217020</v>
       </c>
       <c r="N639">
-        <v>48369.176728131497</v>
+        <v>48369.176729999999</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.3">
@@ -30804,7 +31626,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>45968</v>
       </c>
@@ -30839,7 +31661,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>45968</v>
       </c>
@@ -30874,7 +31696,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>45968</v>
       </c>
@@ -30909,7 +31731,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>45968</v>
       </c>
@@ -30944,7 +31766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>45968</v>
       </c>
@@ -30979,7 +31801,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>45968</v>
       </c>
@@ -31014,7 +31836,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>45968</v>
       </c>
@@ -31049,7 +31871,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>45967</v>
       </c>
@@ -31084,7 +31906,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>45968</v>
       </c>
@@ -31119,7 +31941,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>45967</v>
       </c>
@@ -31154,7 +31976,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>45968</v>
       </c>
@@ -31164,14 +31986,17 @@
       <c r="C667" t="s">
         <v>1784</v>
       </c>
+      <c r="D667" t="s">
+        <v>1431</v>
+      </c>
       <c r="E667" t="s">
-        <v>1431</v>
+        <v>1785</v>
       </c>
       <c r="F667" t="s">
         <v>786</v>
       </c>
       <c r="G667" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H667" t="s">
         <v>20</v>
@@ -31186,8 +32011,4122 @@
         <v>1431</v>
       </c>
     </row>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D668" t="s">
+        <v>97</v>
+      </c>
+      <c r="E668" t="s">
+        <v>27</v>
+      </c>
+      <c r="F668" t="s">
+        <v>18</v>
+      </c>
+      <c r="G668" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H668" t="s">
+        <v>20</v>
+      </c>
+      <c r="I668" t="s">
+        <v>21</v>
+      </c>
+      <c r="J668" t="s">
+        <v>22</v>
+      </c>
+      <c r="K668" t="s">
+        <v>890</v>
+      </c>
+      <c r="L668" t="s">
+        <v>97</v>
+      </c>
+      <c r="M668">
+        <v>43440000</v>
+      </c>
+      <c r="N668">
+        <v>47150.239009999998</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D669" t="s">
+        <v>729</v>
+      </c>
+      <c r="E669" t="s">
+        <v>27</v>
+      </c>
+      <c r="F669" t="s">
+        <v>18</v>
+      </c>
+      <c r="G669" t="s">
+        <v>19</v>
+      </c>
+      <c r="H669" t="s">
+        <v>20</v>
+      </c>
+      <c r="I669" t="s">
+        <v>21</v>
+      </c>
+      <c r="J669" t="s">
+        <v>22</v>
+      </c>
+      <c r="K669" t="s">
+        <v>890</v>
+      </c>
+      <c r="L669" t="s">
+        <v>729</v>
+      </c>
+      <c r="M669">
+        <v>5808000</v>
+      </c>
+      <c r="N669">
+        <v>5193.3048550000003</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D670" t="s">
+        <v>34</v>
+      </c>
+      <c r="E670" t="s">
+        <v>27</v>
+      </c>
+      <c r="F670" t="s">
+        <v>18</v>
+      </c>
+      <c r="G670" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H670" t="s">
+        <v>20</v>
+      </c>
+      <c r="I670" t="s">
+        <v>21</v>
+      </c>
+      <c r="J670" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K670" t="s">
+        <v>890</v>
+      </c>
+      <c r="L670" t="s">
+        <v>34</v>
+      </c>
+      <c r="M670">
+        <v>43217020</v>
+      </c>
+      <c r="N670">
+        <v>46923.031799999997</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D671" t="s">
+        <v>60</v>
+      </c>
+      <c r="E671" t="s">
+        <v>27</v>
+      </c>
+      <c r="F671" t="s">
+        <v>18</v>
+      </c>
+      <c r="G671" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H671" t="s">
+        <v>20</v>
+      </c>
+      <c r="I671" t="s">
+        <v>56</v>
+      </c>
+      <c r="J671" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K671" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L671" t="s">
+        <v>60</v>
+      </c>
+      <c r="M671">
+        <v>9958000</v>
+      </c>
+      <c r="N671">
+        <v>10876.20939</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D672" t="s">
+        <v>16</v>
+      </c>
+      <c r="E672" t="s">
+        <v>27</v>
+      </c>
+      <c r="F672" t="s">
+        <v>18</v>
+      </c>
+      <c r="G672" t="s">
+        <v>19</v>
+      </c>
+      <c r="H672" t="s">
+        <v>20</v>
+      </c>
+      <c r="I672" t="s">
+        <v>21</v>
+      </c>
+      <c r="J672" t="s">
+        <v>22</v>
+      </c>
+      <c r="K672" t="s">
+        <v>890</v>
+      </c>
+      <c r="L672" t="s">
+        <v>16</v>
+      </c>
+      <c r="M672">
+        <v>21118000</v>
+      </c>
+      <c r="N672">
+        <v>24035.807710000001</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D673" t="s">
+        <v>16</v>
+      </c>
+      <c r="E673" t="s">
+        <v>27</v>
+      </c>
+      <c r="F673" t="s">
+        <v>18</v>
+      </c>
+      <c r="G673" t="s">
+        <v>118</v>
+      </c>
+      <c r="H673" t="s">
+        <v>20</v>
+      </c>
+      <c r="I673" t="s">
+        <v>56</v>
+      </c>
+      <c r="J673" t="s">
+        <v>22</v>
+      </c>
+      <c r="K673" t="s">
+        <v>890</v>
+      </c>
+      <c r="L673" t="s">
+        <v>16</v>
+      </c>
+      <c r="M673">
+        <v>21118000</v>
+      </c>
+      <c r="N673">
+        <v>15395.2255</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D674" t="s">
+        <v>34</v>
+      </c>
+      <c r="E674" t="s">
+        <v>132</v>
+      </c>
+      <c r="F674" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G674" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H674" t="s">
+        <v>20</v>
+      </c>
+      <c r="I674" t="s">
+        <v>29</v>
+      </c>
+      <c r="K674" t="s">
+        <v>159</v>
+      </c>
+      <c r="L674" t="s">
+        <v>34</v>
+      </c>
+      <c r="M674">
+        <v>43217020</v>
+      </c>
+      <c r="N674">
+        <v>31044.714390000001</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D675" t="s">
+        <v>40</v>
+      </c>
+      <c r="E675" t="s">
+        <v>132</v>
+      </c>
+      <c r="F675" t="s">
+        <v>148</v>
+      </c>
+      <c r="G675" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H675" t="s">
+        <v>20</v>
+      </c>
+      <c r="I675" t="s">
+        <v>21</v>
+      </c>
+      <c r="K675" t="s">
+        <v>159</v>
+      </c>
+      <c r="L675" t="s">
+        <v>40</v>
+      </c>
+      <c r="M675">
+        <v>12543910</v>
+      </c>
+      <c r="N675">
+        <v>10380.934950000001</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D676" t="s">
+        <v>60</v>
+      </c>
+      <c r="E676" t="s">
+        <v>17</v>
+      </c>
+      <c r="F676" t="s">
+        <v>148</v>
+      </c>
+      <c r="G676" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H676" t="s">
+        <v>20</v>
+      </c>
+      <c r="I676" t="s">
+        <v>29</v>
+      </c>
+      <c r="K676" t="s">
+        <v>1815</v>
+      </c>
+      <c r="L676" t="s">
+        <v>60</v>
+      </c>
+      <c r="M676">
+        <v>9958000</v>
+      </c>
+      <c r="N676">
+        <v>11598.412549999999</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D677" t="s">
+        <v>128</v>
+      </c>
+      <c r="E677" t="s">
+        <v>27</v>
+      </c>
+      <c r="F677" t="s">
+        <v>199</v>
+      </c>
+      <c r="G677" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H677" t="s">
+        <v>20</v>
+      </c>
+      <c r="I677" t="s">
+        <v>56</v>
+      </c>
+      <c r="K677" t="s">
+        <v>154</v>
+      </c>
+      <c r="L677" t="s">
+        <v>128</v>
+      </c>
+      <c r="M677">
+        <v>3615000</v>
+      </c>
+      <c r="N677">
+        <v>3645.7094790000001</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D678" t="s">
+        <v>729</v>
+      </c>
+      <c r="E678" t="s">
+        <v>27</v>
+      </c>
+      <c r="F678" t="s">
+        <v>199</v>
+      </c>
+      <c r="G678" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H678" t="s">
+        <v>20</v>
+      </c>
+      <c r="I678" t="s">
+        <v>56</v>
+      </c>
+      <c r="K678" t="s">
+        <v>159</v>
+      </c>
+      <c r="L678" t="s">
+        <v>729</v>
+      </c>
+      <c r="M678">
+        <v>5808000</v>
+      </c>
+      <c r="N678">
+        <v>5936.4822549999999</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D679" t="s">
+        <v>34</v>
+      </c>
+      <c r="E679" t="s">
+        <v>27</v>
+      </c>
+      <c r="F679" t="s">
+        <v>199</v>
+      </c>
+      <c r="G679" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H679" t="s">
+        <v>20</v>
+      </c>
+      <c r="I679" t="s">
+        <v>56</v>
+      </c>
+      <c r="K679" t="s">
+        <v>154</v>
+      </c>
+      <c r="L679" t="s">
+        <v>34</v>
+      </c>
+      <c r="M679">
+        <v>43217020</v>
+      </c>
+      <c r="N679">
+        <v>34729.310980000002</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D680" t="s">
+        <v>51</v>
+      </c>
+      <c r="E680" t="s">
+        <v>27</v>
+      </c>
+      <c r="F680" t="s">
+        <v>199</v>
+      </c>
+      <c r="G680" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H680" t="s">
+        <v>20</v>
+      </c>
+      <c r="I680" t="s">
+        <v>21</v>
+      </c>
+      <c r="K680" t="s">
+        <v>154</v>
+      </c>
+      <c r="L680" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D681" t="s">
+        <v>34</v>
+      </c>
+      <c r="E681" t="s">
+        <v>27</v>
+      </c>
+      <c r="F681" t="s">
+        <v>682</v>
+      </c>
+      <c r="G681" t="s">
+        <v>741</v>
+      </c>
+      <c r="H681" t="s">
+        <v>20</v>
+      </c>
+      <c r="I681" t="s">
+        <v>56</v>
+      </c>
+      <c r="K681" t="s">
+        <v>154</v>
+      </c>
+      <c r="L681" t="s">
+        <v>34</v>
+      </c>
+      <c r="M681">
+        <v>43217020</v>
+      </c>
+      <c r="N681">
+        <v>32508.8982</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E682" t="s">
+        <v>17</v>
+      </c>
+      <c r="F682" t="s">
+        <v>447</v>
+      </c>
+      <c r="G682" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H682" t="s">
+        <v>20</v>
+      </c>
+      <c r="I682" t="s">
+        <v>21</v>
+      </c>
+      <c r="K682" t="s">
+        <v>159</v>
+      </c>
+      <c r="L682" t="s">
+        <v>1831</v>
+      </c>
+      <c r="M682">
+        <v>678161</v>
+      </c>
+      <c r="N682">
+        <v>677.86205770000004</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D683" t="s">
+        <v>219</v>
+      </c>
+      <c r="E683" t="s">
+        <v>27</v>
+      </c>
+      <c r="F683" t="s">
+        <v>18</v>
+      </c>
+      <c r="G683" t="s">
+        <v>19</v>
+      </c>
+      <c r="H683" t="s">
+        <v>216</v>
+      </c>
+      <c r="I683" t="s">
+        <v>21</v>
+      </c>
+      <c r="K683" t="s">
+        <v>154</v>
+      </c>
+      <c r="L683" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D684" t="s">
+        <v>233</v>
+      </c>
+      <c r="E684" t="s">
+        <v>132</v>
+      </c>
+      <c r="F684" t="s">
+        <v>18</v>
+      </c>
+      <c r="G684" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H684" t="s">
+        <v>216</v>
+      </c>
+      <c r="I684" t="s">
+        <v>56</v>
+      </c>
+      <c r="K684" t="s">
+        <v>159</v>
+      </c>
+      <c r="L684" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D685" t="s">
+        <v>347</v>
+      </c>
+      <c r="E685" t="s">
+        <v>27</v>
+      </c>
+      <c r="F685" t="s">
+        <v>18</v>
+      </c>
+      <c r="G685" t="s">
+        <v>19</v>
+      </c>
+      <c r="H685" t="s">
+        <v>216</v>
+      </c>
+      <c r="I685" t="s">
+        <v>21</v>
+      </c>
+      <c r="K685" t="s">
+        <v>154</v>
+      </c>
+      <c r="L685" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D686" t="s">
+        <v>229</v>
+      </c>
+      <c r="E686" t="s">
+        <v>27</v>
+      </c>
+      <c r="F686" t="s">
+        <v>18</v>
+      </c>
+      <c r="G686" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H686" t="s">
+        <v>216</v>
+      </c>
+      <c r="I686" t="s">
+        <v>21</v>
+      </c>
+      <c r="K686" t="s">
+        <v>154</v>
+      </c>
+      <c r="L686" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D687" t="s">
+        <v>229</v>
+      </c>
+      <c r="E687" t="s">
+        <v>27</v>
+      </c>
+      <c r="F687" t="s">
+        <v>18</v>
+      </c>
+      <c r="G687" t="s">
+        <v>19</v>
+      </c>
+      <c r="H687" t="s">
+        <v>216</v>
+      </c>
+      <c r="I687" t="s">
+        <v>21</v>
+      </c>
+      <c r="K687" t="s">
+        <v>154</v>
+      </c>
+      <c r="L687" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D688" t="s">
+        <v>258</v>
+      </c>
+      <c r="E688" t="s">
+        <v>27</v>
+      </c>
+      <c r="F688" t="s">
+        <v>18</v>
+      </c>
+      <c r="G688" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H688" t="s">
+        <v>216</v>
+      </c>
+      <c r="I688" t="s">
+        <v>21</v>
+      </c>
+      <c r="K688" t="s">
+        <v>154</v>
+      </c>
+      <c r="L688" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D689" t="s">
+        <v>258</v>
+      </c>
+      <c r="E689" t="s">
+        <v>27</v>
+      </c>
+      <c r="F689" t="s">
+        <v>18</v>
+      </c>
+      <c r="G689" t="s">
+        <v>19</v>
+      </c>
+      <c r="H689" t="s">
+        <v>216</v>
+      </c>
+      <c r="I689" t="s">
+        <v>21</v>
+      </c>
+      <c r="K689" t="s">
+        <v>159</v>
+      </c>
+      <c r="L689" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D690" t="s">
+        <v>254</v>
+      </c>
+      <c r="E690" t="s">
+        <v>27</v>
+      </c>
+      <c r="F690" t="s">
+        <v>18</v>
+      </c>
+      <c r="G690" t="s">
+        <v>19</v>
+      </c>
+      <c r="H690" t="s">
+        <v>216</v>
+      </c>
+      <c r="I690" t="s">
+        <v>21</v>
+      </c>
+      <c r="K690" t="s">
+        <v>154</v>
+      </c>
+      <c r="L690" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D691" t="s">
+        <v>317</v>
+      </c>
+      <c r="E691" t="s">
+        <v>27</v>
+      </c>
+      <c r="F691" t="s">
+        <v>18</v>
+      </c>
+      <c r="G691" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H691" t="s">
+        <v>216</v>
+      </c>
+      <c r="I691" t="s">
+        <v>21</v>
+      </c>
+      <c r="K691" t="s">
+        <v>154</v>
+      </c>
+      <c r="L691" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D692" t="s">
+        <v>269</v>
+      </c>
+      <c r="E692" t="s">
+        <v>27</v>
+      </c>
+      <c r="F692" t="s">
+        <v>18</v>
+      </c>
+      <c r="G692" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H692" t="s">
+        <v>216</v>
+      </c>
+      <c r="I692" t="s">
+        <v>21</v>
+      </c>
+      <c r="K692" t="s">
+        <v>154</v>
+      </c>
+      <c r="L692" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D693" t="s">
+        <v>273</v>
+      </c>
+      <c r="E693" t="s">
+        <v>27</v>
+      </c>
+      <c r="F693" t="s">
+        <v>18</v>
+      </c>
+      <c r="G693" t="s">
+        <v>19</v>
+      </c>
+      <c r="H693" t="s">
+        <v>216</v>
+      </c>
+      <c r="I693" t="s">
+        <v>21</v>
+      </c>
+      <c r="K693" t="s">
+        <v>154</v>
+      </c>
+      <c r="L693" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D694" t="s">
+        <v>273</v>
+      </c>
+      <c r="E694" t="s">
+        <v>27</v>
+      </c>
+      <c r="F694" t="s">
+        <v>18</v>
+      </c>
+      <c r="G694" t="s">
+        <v>19</v>
+      </c>
+      <c r="H694" t="s">
+        <v>216</v>
+      </c>
+      <c r="I694" t="s">
+        <v>56</v>
+      </c>
+      <c r="K694" t="s">
+        <v>154</v>
+      </c>
+      <c r="L694" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D695" t="s">
+        <v>210</v>
+      </c>
+      <c r="E695" t="s">
+        <v>27</v>
+      </c>
+      <c r="F695" t="s">
+        <v>18</v>
+      </c>
+      <c r="G695" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H695" t="s">
+        <v>216</v>
+      </c>
+      <c r="I695" t="s">
+        <v>21</v>
+      </c>
+      <c r="K695" t="s">
+        <v>154</v>
+      </c>
+      <c r="L695" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D696" t="s">
+        <v>560</v>
+      </c>
+      <c r="E696" t="s">
+        <v>27</v>
+      </c>
+      <c r="F696" t="s">
+        <v>18</v>
+      </c>
+      <c r="G696" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H696" t="s">
+        <v>216</v>
+      </c>
+      <c r="I696" t="s">
+        <v>56</v>
+      </c>
+      <c r="K696" t="s">
+        <v>159</v>
+      </c>
+      <c r="L696" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D697" t="s">
+        <v>580</v>
+      </c>
+      <c r="E697" t="s">
+        <v>27</v>
+      </c>
+      <c r="F697" t="s">
+        <v>18</v>
+      </c>
+      <c r="G697" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H697" t="s">
+        <v>216</v>
+      </c>
+      <c r="I697" t="s">
+        <v>56</v>
+      </c>
+      <c r="J697" t="s">
+        <v>358</v>
+      </c>
+      <c r="K697" t="s">
+        <v>154</v>
+      </c>
+      <c r="L697" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D698" t="s">
+        <v>224</v>
+      </c>
+      <c r="E698" t="s">
+        <v>27</v>
+      </c>
+      <c r="F698" t="s">
+        <v>18</v>
+      </c>
+      <c r="G698" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H698" t="s">
+        <v>216</v>
+      </c>
+      <c r="I698" t="s">
+        <v>21</v>
+      </c>
+      <c r="K698" t="s">
+        <v>154</v>
+      </c>
+      <c r="L698" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D699" t="s">
+        <v>690</v>
+      </c>
+      <c r="E699" t="s">
+        <v>27</v>
+      </c>
+      <c r="F699" t="s">
+        <v>18</v>
+      </c>
+      <c r="G699" t="s">
+        <v>19</v>
+      </c>
+      <c r="H699" t="s">
+        <v>216</v>
+      </c>
+      <c r="I699" t="s">
+        <v>21</v>
+      </c>
+      <c r="K699" t="s">
+        <v>154</v>
+      </c>
+      <c r="L699" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D700" t="s">
+        <v>214</v>
+      </c>
+      <c r="E700" t="s">
+        <v>35</v>
+      </c>
+      <c r="F700" t="s">
+        <v>331</v>
+      </c>
+      <c r="G700" t="s">
+        <v>19</v>
+      </c>
+      <c r="H700" t="s">
+        <v>216</v>
+      </c>
+      <c r="I700" t="s">
+        <v>21</v>
+      </c>
+      <c r="K700" t="s">
+        <v>154</v>
+      </c>
+      <c r="L700" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D701" t="s">
+        <v>293</v>
+      </c>
+      <c r="E701" t="s">
+        <v>35</v>
+      </c>
+      <c r="F701" t="s">
+        <v>331</v>
+      </c>
+      <c r="G701" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H701" t="s">
+        <v>216</v>
+      </c>
+      <c r="I701" t="s">
+        <v>56</v>
+      </c>
+      <c r="K701" t="s">
+        <v>154</v>
+      </c>
+      <c r="L701" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D702" t="s">
+        <v>241</v>
+      </c>
+      <c r="E702" t="s">
+        <v>27</v>
+      </c>
+      <c r="F702" t="s">
+        <v>682</v>
+      </c>
+      <c r="G702" t="s">
+        <v>379</v>
+      </c>
+      <c r="H702" t="s">
+        <v>216</v>
+      </c>
+      <c r="I702" t="s">
+        <v>56</v>
+      </c>
+      <c r="K702" t="s">
+        <v>159</v>
+      </c>
+      <c r="L702" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D703" t="s">
+        <v>245</v>
+      </c>
+      <c r="E703" t="s">
+        <v>27</v>
+      </c>
+      <c r="F703" t="s">
+        <v>682</v>
+      </c>
+      <c r="G703" t="s">
+        <v>379</v>
+      </c>
+      <c r="H703" t="s">
+        <v>216</v>
+      </c>
+      <c r="I703" t="s">
+        <v>56</v>
+      </c>
+      <c r="K703" t="s">
+        <v>159</v>
+      </c>
+      <c r="L703" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="704" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E704" t="s">
+        <v>41</v>
+      </c>
+      <c r="F704" t="s">
+        <v>18</v>
+      </c>
+      <c r="G704" t="s">
+        <v>19</v>
+      </c>
+      <c r="H704" t="s">
+        <v>20</v>
+      </c>
+      <c r="I704" t="s">
+        <v>56</v>
+      </c>
+      <c r="J704" t="s">
+        <v>22</v>
+      </c>
+      <c r="K704" t="s">
+        <v>890</v>
+      </c>
+      <c r="L704" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M704">
+        <v>4774000</v>
+      </c>
+      <c r="N704">
+        <v>4561.1152519999996</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D705" t="s">
+        <v>66</v>
+      </c>
+      <c r="E705" t="s">
+        <v>17</v>
+      </c>
+      <c r="F705" t="s">
+        <v>786</v>
+      </c>
+      <c r="G705" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H705" t="s">
+        <v>20</v>
+      </c>
+      <c r="I705" t="s">
+        <v>21</v>
+      </c>
+      <c r="K705" t="s">
+        <v>23</v>
+      </c>
+      <c r="L705" t="s">
+        <v>66</v>
+      </c>
+      <c r="M705">
+        <v>1840825</v>
+      </c>
+      <c r="N705">
+        <v>1173.474886</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D706" t="s">
+        <v>485</v>
+      </c>
+      <c r="E706" t="s">
+        <v>147</v>
+      </c>
+      <c r="F706" t="s">
+        <v>786</v>
+      </c>
+      <c r="G706" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H706" t="s">
+        <v>20</v>
+      </c>
+      <c r="I706" t="s">
+        <v>21</v>
+      </c>
+      <c r="K706" t="s">
+        <v>159</v>
+      </c>
+      <c r="L706" t="s">
+        <v>485</v>
+      </c>
+      <c r="M706">
+        <v>81608</v>
+      </c>
+      <c r="N706">
+        <v>70.067613159999993</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D707" t="s">
+        <v>55</v>
+      </c>
+      <c r="E707" t="s">
+        <v>17</v>
+      </c>
+      <c r="F707" t="s">
+        <v>18</v>
+      </c>
+      <c r="G707" t="s">
+        <v>19</v>
+      </c>
+      <c r="H707" t="s">
+        <v>20</v>
+      </c>
+      <c r="I707" t="s">
+        <v>56</v>
+      </c>
+      <c r="J707" t="s">
+        <v>791</v>
+      </c>
+      <c r="K707" t="s">
+        <v>23</v>
+      </c>
+      <c r="L707" t="s">
+        <v>55</v>
+      </c>
+      <c r="M707">
+        <v>7531000</v>
+      </c>
+      <c r="N707">
+        <v>5902.3742579999998</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D708" t="s">
+        <v>206</v>
+      </c>
+      <c r="E708" t="s">
+        <v>17</v>
+      </c>
+      <c r="F708" t="s">
+        <v>18</v>
+      </c>
+      <c r="G708" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H708" t="s">
+        <v>20</v>
+      </c>
+      <c r="I708" t="s">
+        <v>56</v>
+      </c>
+      <c r="J708" t="s">
+        <v>791</v>
+      </c>
+      <c r="K708" t="s">
+        <v>23</v>
+      </c>
+      <c r="L708" t="s">
+        <v>206</v>
+      </c>
+      <c r="M708">
+        <v>155076</v>
+      </c>
+      <c r="N708">
+        <v>160.26304099999999</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D709" t="s">
+        <v>26</v>
+      </c>
+      <c r="E709" t="s">
+        <v>17</v>
+      </c>
+      <c r="F709" t="s">
+        <v>18</v>
+      </c>
+      <c r="G709" t="s">
+        <v>19</v>
+      </c>
+      <c r="H709" t="s">
+        <v>20</v>
+      </c>
+      <c r="I709" t="s">
+        <v>56</v>
+      </c>
+      <c r="J709" t="s">
+        <v>22</v>
+      </c>
+      <c r="K709" t="s">
+        <v>23</v>
+      </c>
+      <c r="L709" t="s">
+        <v>26</v>
+      </c>
+      <c r="M709">
+        <v>27270000</v>
+      </c>
+      <c r="N709">
+        <v>21518.781419999999</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D710" t="s">
+        <v>97</v>
+      </c>
+      <c r="E710" t="s">
+        <v>35</v>
+      </c>
+      <c r="F710" t="s">
+        <v>18</v>
+      </c>
+      <c r="G710" t="s">
+        <v>994</v>
+      </c>
+      <c r="H710" t="s">
+        <v>20</v>
+      </c>
+      <c r="I710" t="s">
+        <v>21</v>
+      </c>
+      <c r="J710" t="s">
+        <v>98</v>
+      </c>
+      <c r="K710" t="s">
+        <v>31</v>
+      </c>
+      <c r="L710" t="s">
+        <v>97</v>
+      </c>
+      <c r="M710">
+        <v>43440000</v>
+      </c>
+      <c r="N710">
+        <v>42147.246339999998</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D711" t="s">
+        <v>192</v>
+      </c>
+      <c r="E711" t="s">
+        <v>17</v>
+      </c>
+      <c r="F711" t="s">
+        <v>18</v>
+      </c>
+      <c r="G711" t="s">
+        <v>19</v>
+      </c>
+      <c r="H711" t="s">
+        <v>20</v>
+      </c>
+      <c r="I711" t="s">
+        <v>56</v>
+      </c>
+      <c r="J711" t="s">
+        <v>791</v>
+      </c>
+      <c r="K711" t="s">
+        <v>23</v>
+      </c>
+      <c r="L711" t="s">
+        <v>192</v>
+      </c>
+      <c r="M711">
+        <v>10340000</v>
+      </c>
+      <c r="N711">
+        <v>11378.782869999999</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D712" t="s">
+        <v>637</v>
+      </c>
+      <c r="E712" t="s">
+        <v>17</v>
+      </c>
+      <c r="F712" t="s">
+        <v>18</v>
+      </c>
+      <c r="G712" t="s">
+        <v>19</v>
+      </c>
+      <c r="H712" t="s">
+        <v>20</v>
+      </c>
+      <c r="I712" t="s">
+        <v>56</v>
+      </c>
+      <c r="J712" t="s">
+        <v>22</v>
+      </c>
+      <c r="K712" t="s">
+        <v>23</v>
+      </c>
+      <c r="L712" t="s">
+        <v>637</v>
+      </c>
+      <c r="M712">
+        <v>2565000</v>
+      </c>
+      <c r="N712">
+        <v>1710.6044979999999</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D713" t="s">
+        <v>128</v>
+      </c>
+      <c r="E713" t="s">
+        <v>17</v>
+      </c>
+      <c r="F713" t="s">
+        <v>18</v>
+      </c>
+      <c r="G713" t="s">
+        <v>19</v>
+      </c>
+      <c r="H713" t="s">
+        <v>20</v>
+      </c>
+      <c r="I713" t="s">
+        <v>56</v>
+      </c>
+      <c r="J713" t="s">
+        <v>791</v>
+      </c>
+      <c r="K713" t="s">
+        <v>23</v>
+      </c>
+      <c r="L713" t="s">
+        <v>128</v>
+      </c>
+      <c r="M713">
+        <v>3615000</v>
+      </c>
+      <c r="N713">
+        <v>2600.656669</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D714" t="s">
+        <v>729</v>
+      </c>
+      <c r="E714" t="s">
+        <v>132</v>
+      </c>
+      <c r="F714" t="s">
+        <v>18</v>
+      </c>
+      <c r="G714" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H714" t="s">
+        <v>20</v>
+      </c>
+      <c r="I714" t="s">
+        <v>21</v>
+      </c>
+      <c r="J714" t="s">
+        <v>620</v>
+      </c>
+      <c r="K714" t="s">
+        <v>23</v>
+      </c>
+      <c r="L714" t="s">
+        <v>729</v>
+      </c>
+      <c r="M714">
+        <v>5808000</v>
+      </c>
+      <c r="N714">
+        <v>5746.6204250000001</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D715" t="s">
+        <v>66</v>
+      </c>
+      <c r="E715" t="s">
+        <v>17</v>
+      </c>
+      <c r="F715" t="s">
+        <v>18</v>
+      </c>
+      <c r="G715" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H715" t="s">
+        <v>20</v>
+      </c>
+      <c r="I715" t="s">
+        <v>56</v>
+      </c>
+      <c r="J715" t="s">
+        <v>22</v>
+      </c>
+      <c r="K715" t="s">
+        <v>23</v>
+      </c>
+      <c r="L715" t="s">
+        <v>66</v>
+      </c>
+      <c r="M715">
+        <v>1840825</v>
+      </c>
+      <c r="N715">
+        <v>1420.2891990000001</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D716" t="s">
+        <v>63</v>
+      </c>
+      <c r="E716" t="s">
+        <v>17</v>
+      </c>
+      <c r="F716" t="s">
+        <v>18</v>
+      </c>
+      <c r="G716" t="s">
+        <v>19</v>
+      </c>
+      <c r="H716" t="s">
+        <v>20</v>
+      </c>
+      <c r="I716" t="s">
+        <v>56</v>
+      </c>
+      <c r="J716" t="s">
+        <v>791</v>
+      </c>
+      <c r="K716" t="s">
+        <v>23</v>
+      </c>
+      <c r="L716" t="s">
+        <v>63</v>
+      </c>
+      <c r="M716">
+        <v>20380000</v>
+      </c>
+      <c r="N716">
+        <v>21810.691719999999</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E717" t="s">
+        <v>17</v>
+      </c>
+      <c r="F717" t="s">
+        <v>18</v>
+      </c>
+      <c r="G717" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H717" t="s">
+        <v>20</v>
+      </c>
+      <c r="I717" t="s">
+        <v>56</v>
+      </c>
+      <c r="J717" t="s">
+        <v>22</v>
+      </c>
+      <c r="K717" t="s">
+        <v>23</v>
+      </c>
+      <c r="L717" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M717">
+        <v>42280000</v>
+      </c>
+      <c r="N717">
+        <v>41176.154949999996</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D718" t="s">
+        <v>34</v>
+      </c>
+      <c r="E718" t="s">
+        <v>17</v>
+      </c>
+      <c r="F718" t="s">
+        <v>18</v>
+      </c>
+      <c r="G718" t="s">
+        <v>19</v>
+      </c>
+      <c r="H718" t="s">
+        <v>20</v>
+      </c>
+      <c r="I718" t="s">
+        <v>56</v>
+      </c>
+      <c r="J718" t="s">
+        <v>22</v>
+      </c>
+      <c r="K718" t="s">
+        <v>23</v>
+      </c>
+      <c r="L718" t="s">
+        <v>34</v>
+      </c>
+      <c r="M718">
+        <v>43217020</v>
+      </c>
+      <c r="N718">
+        <v>46765.562729999998</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D719" t="s">
+        <v>114</v>
+      </c>
+      <c r="E719" t="s">
+        <v>35</v>
+      </c>
+      <c r="F719" t="s">
+        <v>18</v>
+      </c>
+      <c r="G719" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H719" t="s">
+        <v>20</v>
+      </c>
+      <c r="I719" t="s">
+        <v>21</v>
+      </c>
+      <c r="J719" t="s">
+        <v>30</v>
+      </c>
+      <c r="K719" t="s">
+        <v>31</v>
+      </c>
+      <c r="L719" t="s">
+        <v>114</v>
+      </c>
+      <c r="M719">
+        <v>7531000</v>
+      </c>
+      <c r="N719">
+        <v>5155.2392159999999</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D720" t="s">
+        <v>71</v>
+      </c>
+      <c r="E720" t="s">
+        <v>17</v>
+      </c>
+      <c r="F720" t="s">
+        <v>18</v>
+      </c>
+      <c r="G720" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H720" t="s">
+        <v>20</v>
+      </c>
+      <c r="I720" t="s">
+        <v>56</v>
+      </c>
+      <c r="J720" t="s">
+        <v>791</v>
+      </c>
+      <c r="K720" t="s">
+        <v>23</v>
+      </c>
+      <c r="L720" t="s">
+        <v>71</v>
+      </c>
+      <c r="M720">
+        <v>11190000</v>
+      </c>
+      <c r="N720">
+        <v>13240.69889</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D721" t="s">
+        <v>40</v>
+      </c>
+      <c r="E721" t="s">
+        <v>17</v>
+      </c>
+      <c r="F721" t="s">
+        <v>18</v>
+      </c>
+      <c r="G721" t="s">
+        <v>19</v>
+      </c>
+      <c r="H721" t="s">
+        <v>20</v>
+      </c>
+      <c r="I721" t="s">
+        <v>56</v>
+      </c>
+      <c r="J721" t="s">
+        <v>22</v>
+      </c>
+      <c r="K721" t="s">
+        <v>23</v>
+      </c>
+      <c r="L721" t="s">
+        <v>40</v>
+      </c>
+      <c r="M721">
+        <v>12543910</v>
+      </c>
+      <c r="N721">
+        <v>13830.007310000001</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A722" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D722" t="s">
+        <v>60</v>
+      </c>
+      <c r="E722" t="s">
+        <v>17</v>
+      </c>
+      <c r="F722" t="s">
+        <v>18</v>
+      </c>
+      <c r="G722" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H722" t="s">
+        <v>20</v>
+      </c>
+      <c r="I722" t="s">
+        <v>56</v>
+      </c>
+      <c r="J722" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K722" t="s">
+        <v>23</v>
+      </c>
+      <c r="L722" t="s">
+        <v>60</v>
+      </c>
+      <c r="M722">
+        <v>9958000</v>
+      </c>
+      <c r="N722">
+        <v>6053.624221</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A723" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D723" t="s">
+        <v>60</v>
+      </c>
+      <c r="E723" t="s">
+        <v>17</v>
+      </c>
+      <c r="F723" t="s">
+        <v>18</v>
+      </c>
+      <c r="G723" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H723" t="s">
+        <v>20</v>
+      </c>
+      <c r="I723" t="s">
+        <v>56</v>
+      </c>
+      <c r="J723" t="s">
+        <v>791</v>
+      </c>
+      <c r="K723" t="s">
+        <v>23</v>
+      </c>
+      <c r="L723" t="s">
+        <v>60</v>
+      </c>
+      <c r="M723">
+        <v>9958000</v>
+      </c>
+      <c r="N723">
+        <v>6344.9802600000003</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A724" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E724" t="s">
+        <v>17</v>
+      </c>
+      <c r="F724" t="s">
+        <v>18</v>
+      </c>
+      <c r="G724" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H724" t="s">
+        <v>20</v>
+      </c>
+      <c r="I724" t="s">
+        <v>56</v>
+      </c>
+      <c r="J724" t="s">
+        <v>791</v>
+      </c>
+      <c r="K724" t="s">
+        <v>23</v>
+      </c>
+      <c r="L724" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M724">
+        <v>2424000</v>
+      </c>
+      <c r="N724">
+        <v>2790.213221</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A725" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D725" t="s">
+        <v>16</v>
+      </c>
+      <c r="E725" t="s">
+        <v>17</v>
+      </c>
+      <c r="F725" t="s">
+        <v>18</v>
+      </c>
+      <c r="G725" t="s">
+        <v>19</v>
+      </c>
+      <c r="H725" t="s">
+        <v>20</v>
+      </c>
+      <c r="I725" t="s">
+        <v>56</v>
+      </c>
+      <c r="J725" t="s">
+        <v>22</v>
+      </c>
+      <c r="K725" t="s">
+        <v>23</v>
+      </c>
+      <c r="L725" t="s">
+        <v>16</v>
+      </c>
+      <c r="M725">
+        <v>21118000</v>
+      </c>
+      <c r="N725">
+        <v>15749.76576</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A726" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D726" t="s">
+        <v>47</v>
+      </c>
+      <c r="E726" t="s">
+        <v>17</v>
+      </c>
+      <c r="F726" t="s">
+        <v>18</v>
+      </c>
+      <c r="G726" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H726" t="s">
+        <v>20</v>
+      </c>
+      <c r="I726" t="s">
+        <v>56</v>
+      </c>
+      <c r="J726" t="s">
+        <v>22</v>
+      </c>
+      <c r="K726" t="s">
+        <v>23</v>
+      </c>
+      <c r="L726" t="s">
+        <v>47</v>
+      </c>
+      <c r="M726">
+        <v>12670000</v>
+      </c>
+      <c r="N726">
+        <v>7639.519652</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A727" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D727" t="s">
+        <v>51</v>
+      </c>
+      <c r="E727" t="s">
+        <v>87</v>
+      </c>
+      <c r="F727" t="s">
+        <v>18</v>
+      </c>
+      <c r="G727" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H727" t="s">
+        <v>20</v>
+      </c>
+      <c r="I727" t="s">
+        <v>56</v>
+      </c>
+      <c r="J727" t="s">
+        <v>22</v>
+      </c>
+      <c r="K727" t="s">
+        <v>37</v>
+      </c>
+      <c r="L727" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A728" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D728" t="s">
+        <v>26</v>
+      </c>
+      <c r="E728" t="s">
+        <v>17</v>
+      </c>
+      <c r="F728" t="s">
+        <v>18</v>
+      </c>
+      <c r="G728" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H728" t="s">
+        <v>20</v>
+      </c>
+      <c r="I728" t="s">
+        <v>56</v>
+      </c>
+      <c r="J728" t="s">
+        <v>22</v>
+      </c>
+      <c r="K728" t="s">
+        <v>37</v>
+      </c>
+      <c r="L728" t="s">
+        <v>26</v>
+      </c>
+      <c r="M728">
+        <v>27270000</v>
+      </c>
+      <c r="N728">
+        <v>17171.675759999998</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A729" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D729" t="s">
+        <v>80</v>
+      </c>
+      <c r="E729" t="s">
+        <v>35</v>
+      </c>
+      <c r="F729" t="s">
+        <v>18</v>
+      </c>
+      <c r="G729" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H729" t="s">
+        <v>20</v>
+      </c>
+      <c r="I729" t="s">
+        <v>21</v>
+      </c>
+      <c r="J729" t="s">
+        <v>22</v>
+      </c>
+      <c r="K729" t="s">
+        <v>37</v>
+      </c>
+      <c r="L729" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A730" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D730" t="s">
+        <v>34</v>
+      </c>
+      <c r="E730" t="s">
+        <v>35</v>
+      </c>
+      <c r="F730" t="s">
+        <v>18</v>
+      </c>
+      <c r="G730" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H730" t="s">
+        <v>20</v>
+      </c>
+      <c r="I730" t="s">
+        <v>29</v>
+      </c>
+      <c r="J730" t="s">
+        <v>22</v>
+      </c>
+      <c r="K730" t="s">
+        <v>37</v>
+      </c>
+      <c r="L730" t="s">
+        <v>34</v>
+      </c>
+      <c r="M730">
+        <v>43217020</v>
+      </c>
+      <c r="N730">
+        <v>49954.72193</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A731" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D731" t="s">
+        <v>60</v>
+      </c>
+      <c r="E731" t="s">
+        <v>132</v>
+      </c>
+      <c r="F731" t="s">
+        <v>18</v>
+      </c>
+      <c r="G731" t="s">
+        <v>19</v>
+      </c>
+      <c r="H731" t="s">
+        <v>20</v>
+      </c>
+      <c r="I731" t="s">
+        <v>56</v>
+      </c>
+      <c r="J731" t="s">
+        <v>22</v>
+      </c>
+      <c r="K731" t="s">
+        <v>37</v>
+      </c>
+      <c r="L731" t="s">
+        <v>60</v>
+      </c>
+      <c r="M731">
+        <v>9958000</v>
+      </c>
+      <c r="N731">
+        <v>10642.73437</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A732" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D732" t="s">
+        <v>93</v>
+      </c>
+      <c r="E732" t="s">
+        <v>908</v>
+      </c>
+      <c r="F732" t="s">
+        <v>148</v>
+      </c>
+      <c r="G732" t="s">
+        <v>19</v>
+      </c>
+      <c r="H732" t="s">
+        <v>20</v>
+      </c>
+      <c r="I732" t="s">
+        <v>29</v>
+      </c>
+      <c r="J732" t="s">
+        <v>452</v>
+      </c>
+      <c r="K732" t="s">
+        <v>150</v>
+      </c>
+      <c r="L732" t="s">
+        <v>93</v>
+      </c>
+      <c r="M732">
+        <v>11840000</v>
+      </c>
+      <c r="N732">
+        <v>11140.51777</v>
+      </c>
+    </row>
+    <row r="733" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A733" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D733" t="s">
+        <v>55</v>
+      </c>
+      <c r="E733" t="s">
+        <v>17</v>
+      </c>
+      <c r="F733" t="s">
+        <v>447</v>
+      </c>
+      <c r="G733" t="s">
+        <v>141</v>
+      </c>
+      <c r="H733" t="s">
+        <v>20</v>
+      </c>
+      <c r="I733" t="s">
+        <v>21</v>
+      </c>
+      <c r="K733" t="s">
+        <v>159</v>
+      </c>
+      <c r="L733" t="s">
+        <v>55</v>
+      </c>
+      <c r="M733">
+        <v>7531000</v>
+      </c>
+      <c r="N733">
+        <v>8413.2108050000006</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A734" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D734" t="s">
+        <v>80</v>
+      </c>
+      <c r="E734" t="s">
+        <v>17</v>
+      </c>
+      <c r="F734" t="s">
+        <v>447</v>
+      </c>
+      <c r="G734" t="s">
+        <v>19</v>
+      </c>
+      <c r="H734" t="s">
+        <v>20</v>
+      </c>
+      <c r="I734" t="s">
+        <v>56</v>
+      </c>
+      <c r="J734" t="s">
+        <v>497</v>
+      </c>
+      <c r="K734" t="s">
+        <v>23</v>
+      </c>
+      <c r="L734" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A735" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D735" t="s">
+        <v>97</v>
+      </c>
+      <c r="E735" t="s">
+        <v>17</v>
+      </c>
+      <c r="F735" t="s">
+        <v>447</v>
+      </c>
+      <c r="G735" t="s">
+        <v>19</v>
+      </c>
+      <c r="H735" t="s">
+        <v>20</v>
+      </c>
+      <c r="I735" t="s">
+        <v>56</v>
+      </c>
+      <c r="J735" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K735" t="s">
+        <v>159</v>
+      </c>
+      <c r="L735" t="s">
+        <v>97</v>
+      </c>
+      <c r="M735">
+        <v>43440000</v>
+      </c>
+      <c r="N735">
+        <v>30254.988829999998</v>
+      </c>
+    </row>
+    <row r="736" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A736" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D736" t="s">
+        <v>55</v>
+      </c>
+      <c r="E736" t="s">
+        <v>27</v>
+      </c>
+      <c r="F736" t="s">
+        <v>172</v>
+      </c>
+      <c r="G736" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H736" t="s">
+        <v>20</v>
+      </c>
+      <c r="I736" t="s">
+        <v>21</v>
+      </c>
+      <c r="K736" t="s">
+        <v>154</v>
+      </c>
+      <c r="L736" t="s">
+        <v>55</v>
+      </c>
+      <c r="M736">
+        <v>7531000</v>
+      </c>
+      <c r="N736">
+        <v>6105.1356100000003</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A737" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D737" t="s">
+        <v>55</v>
+      </c>
+      <c r="E737" t="s">
+        <v>27</v>
+      </c>
+      <c r="F737" t="s">
+        <v>172</v>
+      </c>
+      <c r="G737" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H737" t="s">
+        <v>20</v>
+      </c>
+      <c r="I737" t="s">
+        <v>21</v>
+      </c>
+      <c r="K737" t="s">
+        <v>804</v>
+      </c>
+      <c r="L737" t="s">
+        <v>55</v>
+      </c>
+      <c r="M737">
+        <v>7531000</v>
+      </c>
+      <c r="N737">
+        <v>8317.7786149999993</v>
+      </c>
+    </row>
+    <row r="738" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A738" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D738" t="s">
+        <v>26</v>
+      </c>
+      <c r="E738" t="s">
+        <v>27</v>
+      </c>
+      <c r="F738" t="s">
+        <v>172</v>
+      </c>
+      <c r="G738" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H738" t="s">
+        <v>20</v>
+      </c>
+      <c r="I738" t="s">
+        <v>21</v>
+      </c>
+      <c r="K738" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L738" t="s">
+        <v>26</v>
+      </c>
+      <c r="M738">
+        <v>27270000</v>
+      </c>
+      <c r="N738">
+        <v>30100.981589999999</v>
+      </c>
+    </row>
+    <row r="739" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A739" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E739" t="s">
+        <v>17</v>
+      </c>
+      <c r="F739" t="s">
+        <v>18</v>
+      </c>
+      <c r="G739" t="s">
+        <v>19</v>
+      </c>
+      <c r="H739" t="s">
+        <v>20</v>
+      </c>
+      <c r="I739" t="s">
+        <v>56</v>
+      </c>
+      <c r="J739" t="s">
+        <v>22</v>
+      </c>
+      <c r="K739" t="s">
+        <v>23</v>
+      </c>
+      <c r="L739" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="740" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A740" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E740" t="s">
+        <v>17</v>
+      </c>
+      <c r="F740" t="s">
+        <v>18</v>
+      </c>
+      <c r="G740" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H740" t="s">
+        <v>20</v>
+      </c>
+      <c r="I740" t="s">
+        <v>21</v>
+      </c>
+      <c r="J740" t="s">
+        <v>791</v>
+      </c>
+      <c r="K740" t="s">
+        <v>23</v>
+      </c>
+      <c r="L740" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="741" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A741" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E741" t="s">
+        <v>17</v>
+      </c>
+      <c r="F741" t="s">
+        <v>18</v>
+      </c>
+      <c r="G741" t="s">
+        <v>19</v>
+      </c>
+      <c r="H741" t="s">
+        <v>20</v>
+      </c>
+      <c r="I741" t="s">
+        <v>21</v>
+      </c>
+      <c r="J741" t="s">
+        <v>22</v>
+      </c>
+      <c r="K741" t="s">
+        <v>37</v>
+      </c>
+      <c r="L741" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="742" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A742" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E742" t="s">
+        <v>17</v>
+      </c>
+      <c r="F742" t="s">
+        <v>18</v>
+      </c>
+      <c r="G742" t="s">
+        <v>19</v>
+      </c>
+      <c r="H742" t="s">
+        <v>20</v>
+      </c>
+      <c r="I742" t="s">
+        <v>56</v>
+      </c>
+      <c r="J742" t="s">
+        <v>22</v>
+      </c>
+      <c r="K742" t="s">
+        <v>23</v>
+      </c>
+      <c r="L742" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="743" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A743" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G743" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H743" t="s">
+        <v>20</v>
+      </c>
+      <c r="I743" t="s">
+        <v>29</v>
+      </c>
+      <c r="K743" t="s">
+        <v>150</v>
+      </c>
+      <c r="L743" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="744" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A744" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F744" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G744" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H744" t="s">
+        <v>20</v>
+      </c>
+      <c r="I744" t="s">
+        <v>29</v>
+      </c>
+      <c r="J744" t="s">
+        <v>1993</v>
+      </c>
+      <c r="K744" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L744" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="745" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A745" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E745" t="s">
+        <v>17</v>
+      </c>
+      <c r="F745" t="s">
+        <v>447</v>
+      </c>
+      <c r="G745" t="s">
+        <v>19</v>
+      </c>
+      <c r="H745" t="s">
+        <v>20</v>
+      </c>
+      <c r="I745" t="s">
+        <v>56</v>
+      </c>
+      <c r="J745" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K745" t="s">
+        <v>159</v>
+      </c>
+      <c r="L745" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="746" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A746" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E746" t="s">
+        <v>17</v>
+      </c>
+      <c r="F746" t="s">
+        <v>447</v>
+      </c>
+      <c r="G746" t="s">
+        <v>19</v>
+      </c>
+      <c r="H746" t="s">
+        <v>20</v>
+      </c>
+      <c r="I746" t="s">
+        <v>56</v>
+      </c>
+      <c r="J746" t="s">
+        <v>497</v>
+      </c>
+      <c r="K746" t="s">
+        <v>159</v>
+      </c>
+      <c r="L746" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A747" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B747" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D747" t="s">
+        <v>241</v>
+      </c>
+      <c r="E747" t="s">
+        <v>35</v>
+      </c>
+      <c r="F747" t="s">
+        <v>18</v>
+      </c>
+      <c r="G747" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H747" t="s">
+        <v>216</v>
+      </c>
+      <c r="I747" t="s">
+        <v>21</v>
+      </c>
+      <c r="K747" t="s">
+        <v>154</v>
+      </c>
+      <c r="L747" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="748" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A748" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B748" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C748" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D748" t="s">
+        <v>214</v>
+      </c>
+      <c r="E748" t="s">
+        <v>132</v>
+      </c>
+      <c r="F748" t="s">
+        <v>18</v>
+      </c>
+      <c r="G748" t="s">
+        <v>19</v>
+      </c>
+      <c r="H748" t="s">
+        <v>216</v>
+      </c>
+      <c r="I748" t="s">
+        <v>29</v>
+      </c>
+      <c r="K748" t="s">
+        <v>159</v>
+      </c>
+      <c r="L748" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A749" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B749" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D749" t="s">
+        <v>214</v>
+      </c>
+      <c r="E749" t="s">
+        <v>17</v>
+      </c>
+      <c r="F749" t="s">
+        <v>18</v>
+      </c>
+      <c r="G749" t="s">
+        <v>19</v>
+      </c>
+      <c r="H749" t="s">
+        <v>216</v>
+      </c>
+      <c r="I749" t="s">
+        <v>56</v>
+      </c>
+      <c r="K749" t="s">
+        <v>154</v>
+      </c>
+      <c r="L749" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="750" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A750" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B750" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D750" t="s">
+        <v>214</v>
+      </c>
+      <c r="E750" t="s">
+        <v>35</v>
+      </c>
+      <c r="F750" t="s">
+        <v>18</v>
+      </c>
+      <c r="G750" t="s">
+        <v>19</v>
+      </c>
+      <c r="H750" t="s">
+        <v>216</v>
+      </c>
+      <c r="I750" t="s">
+        <v>29</v>
+      </c>
+      <c r="K750" t="s">
+        <v>154</v>
+      </c>
+      <c r="L750" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="751" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A751" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C751" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D751" t="s">
+        <v>233</v>
+      </c>
+      <c r="E751" t="s">
+        <v>35</v>
+      </c>
+      <c r="F751" t="s">
+        <v>18</v>
+      </c>
+      <c r="G751" t="s">
+        <v>19</v>
+      </c>
+      <c r="H751" t="s">
+        <v>216</v>
+      </c>
+      <c r="I751" t="s">
+        <v>21</v>
+      </c>
+      <c r="K751" t="s">
+        <v>159</v>
+      </c>
+      <c r="L751" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A752" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B752" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C752" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D752" t="s">
+        <v>233</v>
+      </c>
+      <c r="E752" t="s">
+        <v>35</v>
+      </c>
+      <c r="F752" t="s">
+        <v>18</v>
+      </c>
+      <c r="G752" t="s">
+        <v>19</v>
+      </c>
+      <c r="H752" t="s">
+        <v>216</v>
+      </c>
+      <c r="I752" t="s">
+        <v>29</v>
+      </c>
+      <c r="K752" t="s">
+        <v>159</v>
+      </c>
+      <c r="L752" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A753" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B753" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C753" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D753" t="s">
+        <v>233</v>
+      </c>
+      <c r="E753" t="s">
+        <v>35</v>
+      </c>
+      <c r="F753" t="s">
+        <v>18</v>
+      </c>
+      <c r="G753" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H753" t="s">
+        <v>216</v>
+      </c>
+      <c r="I753" t="s">
+        <v>21</v>
+      </c>
+      <c r="K753" t="s">
+        <v>154</v>
+      </c>
+      <c r="L753" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A754" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D754" t="s">
+        <v>233</v>
+      </c>
+      <c r="E754" t="s">
+        <v>132</v>
+      </c>
+      <c r="F754" t="s">
+        <v>18</v>
+      </c>
+      <c r="G754" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H754" t="s">
+        <v>216</v>
+      </c>
+      <c r="I754" t="s">
+        <v>29</v>
+      </c>
+      <c r="K754" t="s">
+        <v>154</v>
+      </c>
+      <c r="L754" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A755" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C755" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D755" t="s">
+        <v>233</v>
+      </c>
+      <c r="E755" t="s">
+        <v>132</v>
+      </c>
+      <c r="F755" t="s">
+        <v>18</v>
+      </c>
+      <c r="G755" t="s">
+        <v>215</v>
+      </c>
+      <c r="H755" t="s">
+        <v>216</v>
+      </c>
+      <c r="I755" t="s">
+        <v>29</v>
+      </c>
+      <c r="K755" t="s">
+        <v>154</v>
+      </c>
+      <c r="L755" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A756" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D756" t="s">
+        <v>262</v>
+      </c>
+      <c r="E756" t="s">
+        <v>132</v>
+      </c>
+      <c r="F756" t="s">
+        <v>18</v>
+      </c>
+      <c r="G756" t="s">
+        <v>215</v>
+      </c>
+      <c r="H756" t="s">
+        <v>216</v>
+      </c>
+      <c r="I756" t="s">
+        <v>29</v>
+      </c>
+      <c r="K756" t="s">
+        <v>159</v>
+      </c>
+      <c r="L756" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A757" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D757" t="s">
+        <v>317</v>
+      </c>
+      <c r="E757" t="s">
+        <v>27</v>
+      </c>
+      <c r="F757" t="s">
+        <v>18</v>
+      </c>
+      <c r="G757" t="s">
+        <v>19</v>
+      </c>
+      <c r="H757" t="s">
+        <v>216</v>
+      </c>
+      <c r="I757" t="s">
+        <v>56</v>
+      </c>
+      <c r="K757" t="s">
+        <v>154</v>
+      </c>
+      <c r="L757" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A758" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B758" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D758" t="s">
+        <v>317</v>
+      </c>
+      <c r="E758" t="s">
+        <v>27</v>
+      </c>
+      <c r="F758" t="s">
+        <v>18</v>
+      </c>
+      <c r="G758" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H758" t="s">
+        <v>216</v>
+      </c>
+      <c r="I758" t="s">
+        <v>56</v>
+      </c>
+      <c r="K758" t="s">
+        <v>159</v>
+      </c>
+      <c r="L758" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A759" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C759" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D759" t="s">
+        <v>237</v>
+      </c>
+      <c r="E759" t="s">
+        <v>27</v>
+      </c>
+      <c r="F759" t="s">
+        <v>18</v>
+      </c>
+      <c r="G759" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H759" t="s">
+        <v>216</v>
+      </c>
+      <c r="I759" t="s">
+        <v>56</v>
+      </c>
+      <c r="K759" t="s">
+        <v>154</v>
+      </c>
+      <c r="L759" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A760" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C760" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D760" t="s">
+        <v>245</v>
+      </c>
+      <c r="E760" t="s">
+        <v>35</v>
+      </c>
+      <c r="F760" t="s">
+        <v>18</v>
+      </c>
+      <c r="G760" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H760" t="s">
+        <v>216</v>
+      </c>
+      <c r="I760" t="s">
+        <v>29</v>
+      </c>
+      <c r="K760" t="s">
+        <v>154</v>
+      </c>
+      <c r="L760" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A761" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D761" t="s">
+        <v>210</v>
+      </c>
+      <c r="E761" t="s">
+        <v>35</v>
+      </c>
+      <c r="F761" t="s">
+        <v>18</v>
+      </c>
+      <c r="G761" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H761" t="s">
+        <v>216</v>
+      </c>
+      <c r="I761" t="s">
+        <v>56</v>
+      </c>
+      <c r="K761" t="s">
+        <v>154</v>
+      </c>
+      <c r="L761" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A762" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D762" t="s">
+        <v>296</v>
+      </c>
+      <c r="E762" t="s">
+        <v>35</v>
+      </c>
+      <c r="F762" t="s">
+        <v>18</v>
+      </c>
+      <c r="G762" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H762" t="s">
+        <v>216</v>
+      </c>
+      <c r="I762" t="s">
+        <v>29</v>
+      </c>
+      <c r="K762" t="s">
+        <v>159</v>
+      </c>
+      <c r="L762" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E763" t="s">
+        <v>35</v>
+      </c>
+      <c r="F763" t="s">
+        <v>18</v>
+      </c>
+      <c r="G763" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H763" t="s">
+        <v>216</v>
+      </c>
+      <c r="I763" t="s">
+        <v>29</v>
+      </c>
+      <c r="K763" t="s">
+        <v>154</v>
+      </c>
+      <c r="L763" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D764" t="s">
+        <v>224</v>
+      </c>
+      <c r="E764" t="s">
+        <v>27</v>
+      </c>
+      <c r="F764" t="s">
+        <v>18</v>
+      </c>
+      <c r="G764" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H764" t="s">
+        <v>216</v>
+      </c>
+      <c r="I764" t="s">
+        <v>21</v>
+      </c>
+      <c r="K764" t="s">
+        <v>159</v>
+      </c>
+      <c r="L764" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D765" t="s">
+        <v>214</v>
+      </c>
+      <c r="E765" t="s">
+        <v>35</v>
+      </c>
+      <c r="F765" t="s">
+        <v>331</v>
+      </c>
+      <c r="G765" t="s">
+        <v>215</v>
+      </c>
+      <c r="H765" t="s">
+        <v>216</v>
+      </c>
+      <c r="I765" t="s">
+        <v>29</v>
+      </c>
+      <c r="K765" t="s">
+        <v>154</v>
+      </c>
+      <c r="L765" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A766" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D766" t="s">
+        <v>233</v>
+      </c>
+      <c r="E766" t="s">
+        <v>35</v>
+      </c>
+      <c r="F766" t="s">
+        <v>331</v>
+      </c>
+      <c r="G766" t="s">
+        <v>565</v>
+      </c>
+      <c r="H766" t="s">
+        <v>216</v>
+      </c>
+      <c r="I766" t="s">
+        <v>29</v>
+      </c>
+      <c r="K766" t="s">
+        <v>154</v>
+      </c>
+      <c r="L766" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A767" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D767" t="s">
+        <v>219</v>
+      </c>
+      <c r="E767" t="s">
+        <v>27</v>
+      </c>
+      <c r="F767" t="s">
+        <v>364</v>
+      </c>
+      <c r="G767" t="s">
+        <v>19</v>
+      </c>
+      <c r="H767" t="s">
+        <v>216</v>
+      </c>
+      <c r="I767" t="s">
+        <v>29</v>
+      </c>
+      <c r="K767" t="s">
+        <v>159</v>
+      </c>
+      <c r="L767" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D768" t="s">
+        <v>214</v>
+      </c>
+      <c r="E768" t="s">
+        <v>27</v>
+      </c>
+      <c r="F768" t="s">
+        <v>364</v>
+      </c>
+      <c r="G768" t="s">
+        <v>19</v>
+      </c>
+      <c r="H768" t="s">
+        <v>216</v>
+      </c>
+      <c r="I768" t="s">
+        <v>29</v>
+      </c>
+      <c r="K768" t="s">
+        <v>159</v>
+      </c>
+      <c r="L768" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A769" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D769" t="s">
+        <v>262</v>
+      </c>
+      <c r="E769" t="s">
+        <v>27</v>
+      </c>
+      <c r="F769" t="s">
+        <v>364</v>
+      </c>
+      <c r="G769" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H769" t="s">
+        <v>216</v>
+      </c>
+      <c r="I769" t="s">
+        <v>21</v>
+      </c>
+      <c r="K769" t="s">
+        <v>159</v>
+      </c>
+      <c r="L769" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A770" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D770" t="s">
+        <v>317</v>
+      </c>
+      <c r="E770" t="s">
+        <v>27</v>
+      </c>
+      <c r="F770" t="s">
+        <v>364</v>
+      </c>
+      <c r="G770" t="s">
+        <v>19</v>
+      </c>
+      <c r="H770" t="s">
+        <v>216</v>
+      </c>
+      <c r="I770" t="s">
+        <v>21</v>
+      </c>
+      <c r="K770" t="s">
+        <v>159</v>
+      </c>
+      <c r="L770" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A771" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D771" t="s">
+        <v>273</v>
+      </c>
+      <c r="E771" t="s">
+        <v>27</v>
+      </c>
+      <c r="F771" t="s">
+        <v>364</v>
+      </c>
+      <c r="G771" t="s">
+        <v>19</v>
+      </c>
+      <c r="H771" t="s">
+        <v>216</v>
+      </c>
+      <c r="I771" t="s">
+        <v>21</v>
+      </c>
+      <c r="K771" t="s">
+        <v>159</v>
+      </c>
+      <c r="L771" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A772" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D772" t="s">
+        <v>224</v>
+      </c>
+      <c r="E772" t="s">
+        <v>27</v>
+      </c>
+      <c r="F772" t="s">
+        <v>364</v>
+      </c>
+      <c r="G772" t="s">
+        <v>19</v>
+      </c>
+      <c r="H772" t="s">
+        <v>216</v>
+      </c>
+      <c r="I772" t="s">
+        <v>21</v>
+      </c>
+      <c r="K772" t="s">
+        <v>159</v>
+      </c>
+      <c r="L772" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A773" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D773" t="s">
+        <v>233</v>
+      </c>
+      <c r="E773" t="s">
+        <v>35</v>
+      </c>
+      <c r="F773" t="s">
+        <v>447</v>
+      </c>
+      <c r="G773" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H773" t="s">
+        <v>216</v>
+      </c>
+      <c r="I773" t="s">
+        <v>29</v>
+      </c>
+      <c r="K773" t="s">
+        <v>159</v>
+      </c>
+      <c r="L773" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N667" xr:uid="{950B9C32-257D-47DB-8442-358E7953D76C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
+++ b/noticias_fondo con todas las fuentes_rango_03-07-2025.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\Fondo Sergio\monitoreo-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174F5AD-1F3C-4390-A145-BE18328E9C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F32F789E-AF0B-460E-AAEA-1F044C2F463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D8F11E1-A521-4B78-A8F4-EEAA2926754B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6BD9FE6-F68E-439B-B496-8A3DA804F187}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_fondo con todas las fu" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'noticias_fondo con todas las fu'!$A$1:$N$827</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8461" uniqueCount="2196">
   <si>
     <t>Fecha</t>
   </si>
@@ -3928,9 +3931,6 @@
     <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxPa0pxLUk4QmxOZ1BlTWVZNFZldWVPWXVZUWdzRjlYUmp3WTdDSlJvNUVlM09FZFVpMW1vcEEwempTa2l3VzA3cndudEhZU3VSaTJTSUxNckpPenpQWEtXYlpNOW5kYlNIb0Vsd2ZzbGkxb3pHWTU3eUVEQzR6YklrdkZXREJpcEYzY2tSU0ZVMWx1OEwzVjRwaWVVRXkyQXJTdjVDNHdfVkJmSk9RdkNjNjJsRDVFYnFqelVzaHhIWHY4WUFBYktESzRpYTEzMTV1NWwtcU8wZnhSd1hhak9EdE5JdEI?oc=5</t>
   </si>
   <si>
-    <t>Transporte de carga</t>
-  </si>
-  <si>
     <t>['aéreo']</t>
   </si>
   <si>
@@ -6203,6 +6203,414 @@
   </si>
   <si>
     <t>['rises']</t>
+  </si>
+  <si>
+    <t>Colombia va por alza de arancel a autos importados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPMXozQV9CbkpGX2xTcmJ0ZG8wTFVvSXAtTUgyREZuZHNNaFdFbUpfX0hDTVV2WXhfNGlMWldHOVJkdTNXZXRWLWU3cWNCTkpyQ3F1a2YwZVdmZzlid0thcmtSWDFRSGNSZ0dpc0lTYjJaZU5McnBBMVZFUDYyVjRpQVM2NXJMTUI2LVQzbVQ4bzlDR3VNOHYyN05adks1QWFneEHSAacBQVVfeXFMT2QzeWtYOGFDWnVhcTBydFNKbkNFbUpkUFFwMDJsZkRSWGVReEJvZEEzMzBSSFdQZFh4RGYwYy1sOWVHT3dJV3p3LWkxZDdIYXlsOTBGYlBTXzEyR1FiQ1dBSHREWUcxd2JLYS1fM2d5M19hcVFxdm9PamptbFBYbV9oMDRHUDc4RDFsY3FNdDZ6ZHN5UGhGZnNDeGNKdXk5ekJMSUUweW8?oc=5</t>
+  </si>
+  <si>
+    <t>Arancel al azúcar, correcto, pero insuficiente para equilibrar el mercado: GCMA</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQRUJkRHFQSzh1OHVqcGpPUmRNQ1lfeWZyN2FmODhDMW5mZTlSc1VFbWxMeW5yMEFmM0FPdG1LcU9BRlc2dUFnMElFVlF0RG80bmFfdnVudDdVcjJIT2prbXB4RlRRWGktZnJ4NnU0Mk5JNzJzTC12U1JJSXZYNjFBX1BRMmNVWU1PWFdZUkpvaUpoTmQ0Z1dCcFZfYkRKdHdEbmNkbWNScmkwY0ZfWGZWS0paMW83NUs5c3N1MEtLak9UYVVqRDJV0gHMAUFVX3lxTE9FS25Xcmw0NHcwVzJCeXM5MWdyNzBlbVRfbVZkVnc1S1hWVE5qZnBnVVN4VnNEU1plS2tqd2RZOHJneE96U0FYWnlNSHppZ3Fscmw1LVhwamlMZzR5TFprRUNHT0xTWklLVkNnQTJHUm9XRE1rVzIzNkk5bnpmSFJLOURiWVZqam5palJoUldvTFdDOVRMR3p3RTVFTzdsYXEyeXNicWUyVjNFSDJTTEI4TWJxLVphNnVHZnlibWdrbzl6VUxsRURDOG5ZSg?oc=5</t>
+  </si>
+  <si>
+    <t>['correcto', 'insuficiente']</t>
+  </si>
+  <si>
+    <t>El alza de aranceles a las importaciones de azúcar en realidad es una actualización: Marcelo Ebrard</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOYnFSM1JUY0JfR05md2FFU3dmZ3FBb2lNcUN3cjZ3bkpSOFg3am84aGcyeUM4ZzFKYzRqZ3RmeFJlcV9MdzhTeFRLUEI1c2UwQzFRdTJEUjl0dDFldEZqenAxNmE3elhBeVQ3YnVDWXlEOV9mTUF1TlZOeVRVZjlrSERvdlBkdERoTldxVklPYU9qNFFsYVZmeHQwelpDRF9sYTJjLThfOGpaZEdidmFqLXl1QmhGQm5PaEU5Z0p6ZHFkQ2dudHB4ZGxKRnl4Q0HSAdQBQVVfeXFMTXFFVjJxbjhDZmh0WHBkQzgzNEhSaFBpcTRJTlFGbnZFelBHVE1qMlhJUVhxUkJ3NDlaNTIzdl94SFYxV3R0MExXd21BdGQ3dzNxbXp5STRhZGNIbUNyc0NNU3pieC13Y1FEcUg4TFUxZ1YxZFpKY3dvc2lJRUZBZ2dkX3FhMldNaW9tVDg3RTVmVF94UmRVRjZONEFtcS0yeC1DdUc5Q1AtdWh2MUpSdWpXTkhGY2JOcnlBNU1UeHVldWxpcFp4b3BJYTVSckhUb0ZsNG4?oc=5</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Labra: Los aranceles y los precios de transferencia definirán el futuro del nearshoring en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxOUG8zUWVGbl9TVnhiQ3Y0SkYzY1ZBb3V2eFRVd0s4THpQU1hhY0ZMYXNzUEFWMlZhWEtkRHl0a3k1VGU0aF9FRTBFdW1JVGZPamlZSGZjeVRwdTBBbmhwMVdxVlZneUFiSWNfTTNqcXU3OE1XQWpqaGNxZWswT2pDMGtuY0lQeUQxSTFzRjRLVXRralpHRDhfcklHbm43WmR4Vi1IMjd0aTI2cWFRc0RtaGNZa050QWRjek5kQWtOeWRhRlVHTnNtS0pQaWdtdkN0b1VRdFdoMExiMktST2VwSDJfbnlNYU8tN1hBRmN3Wk05U08wa2g4?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno descarta impacto inflacionario por alza de arancel al azúcar • Economía y finanzas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNUzVvdkZLUUFZWnlZYzJHLUhmME1IeVdRenRHZ0N3VV9aLUprQVE2Sk9WSFlqR1NOZUczaURpZkl3R3JrMmJkZFZtZDdZQ29ORE00TUZwb1NnLUdwV3ZuZzZISkxPQ1BVbm9JWjFyOUNnUEpGeFlyZmVVNTBXTkNPWFZXZC1yU04xRjFNQ0czR1FxZkhaYklF?oc=5</t>
+  </si>
+  <si>
+    <t>['inflacionario']</t>
+  </si>
+  <si>
+    <t>Secretaría de Economía justifica alza de arancel al azúcar: es para proteger producción y frenar importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxNNk5lejA5emJ1bFJBcXB1NG5iSEpJeVFWRzVOdkowZWJKc0o3RXJfNkVRYVRzRDEyRGd0ZGx3NzA1YkhLVmpwU3I1VzF2dE40QWpxX01qbGlWTUZpUXdIenpWR3EtZFFjUXpQbUlMM3ZKYzJXenFxOTJVYzc3UXd5STZ4ZlFjeWhmVURrYUktS1ZPZDJ4ZUp2eG4yblE0YjFlSjFmVjNDNzZTZXVNUlNlX052dlV1bm45LXJCcFFMd3JqZFdlOWFrWFFtRTFlcU5rV0liVFZuZ0VCeVk3S0RhTkRwZ9IB9wFBVV95cUxPdHhEQ1ZqNnhFbWRDcFJNbjJReEdfOHRfaUo1SGxwcGZkbHQzRVBDY3RMS3k1c1I0NFJKWFlrZXFITnVHcXMzVUVMS2dBLURfY3VTOEZsZmtISnVMa3B3VGJ0djloSG9LQU1yRS1HQVBSSHZ1NmpsUTkyLWZIeUMwWEZyQ1drdGkxQnVBQVlHNHl5ejUtZTBQeHgyRlJKelhHVU5wN3RzeFF6eFlsR3c1a1lmVE1fZGRKWXdYRFRRSFFvaHZpd1FsY09pTTlRcUo1R2VQN2dBSzVXSDhZWFAyZlZrSEhoSE1WWUhCX1phcUQ4TEE5SmxV?oc=5</t>
+  </si>
+  <si>
+    <t>['justifica']</t>
+  </si>
+  <si>
+    <t>Ajustan arancel a importación de azúcar; será de 156% en grano, remolacha o jarabe y llegará a 210.44% para azúcar líquida, refinada e invertida</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigJBVV95cUxPRUJPNDRNcTVRSnVXemZqM3djREVhMGhPZEVrSkJiRy13SDl0QkVtQ0Z2b0RhLXQ5eFFXVFkxYVpJNXZLOFZ5YTZVMnNUMDkwaldRWkFrdl9NZXQtWWcwUWlucXlfTVBicnFBR3MyRmljYUxvbXg4Q0pkMmt4NzYzbVVIY0Jldl9mUEE0dS1pb3d0aGh1a2E1QkY1SmhkMzhfNjZoX1lnTVZaRng5dEt1WVh2QzN3SmNZY3dYUDJOcWttd2RfQ2lnSFZoaWNERmJ3QmJpLUJTa3JhY19Kek1oTUNVVnVydmdpNDNGbG1DYUJ5azhud1ZvMFpKdFljai1PT05xenR3Z0U4d9IBngJBVV95cUxPZGY2bmxxOWpVaFUtRGlRNmIxVU5HY1hEOTlGeVU3UDRmRENpWGZocWxmZ3JQN1pzUFdhVjZzOWlxVTVaenlOZUhydDM1Y256MWtnWEtvTmZJTG10WE9KRFoxYnhJem1xN2k5X0t5aGpCRVIwTjJ1ZEJKaDJBSXJVc2E0VzVDQ3hsazliZFBZQ2hLVHZHNi1WakpUSkxUNmNNN3lXMlhKeFlnX1p1NmhPMTdDMklFU0k0QkNuXzFGeUF1Rkd2WGNfS0Z5Tk5nMmswSVB6MUZrdkxoUnJrVk4xZmwzVlQ2WHFMNXc1ZjhIcmVOOHdzQ25odVp0UmQ4em93a2tEWWZ0LXhENHhkNnozSHNvemlZWmU2cGVESDdn?oc=5</t>
+  </si>
+  <si>
+    <t>['líquida', 'refinada', 'invertida']</t>
+  </si>
+  <si>
+    <t>Gobierno justifica aumento de arancel de hasta 210% para proteger a los cañeros y frenar importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOMTN6ZVgxanhfRjZ0WVUxS3ZyVi1oanN3WTdYWnlkeUk5ZUY0U0xZdk43bGg0N3R2WnppdkF2ek5rWVVRRG9OT1l0VXRvWElVU1l4WEFRNnMwVktJakIxYjFtQTc0Zm4tVmV0UjREQzl2aU1xeHNINHNfNC1tMng1Qm9vSGRPSEgwR0R4WGRjajQ1ZnZfSkg2dHFRVGdXNkNORlBIdmg2VlF2ekh6ZzZwNGt5bURjQkpTMkYtOGJGYnhySUFJdnJiV3NzYnpNdFRZRHJ3ZjhxUVhKam93Qk00?oc=5</t>
+  </si>
+  <si>
+    <t>México impone aranceles al azúcar de hasta 210% y estas son las razones detrás de la decisión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMie0FVX3lxTE1CZ0M2d1hFN3M4VlltZ3F0dHV5bGdGTXJ3cjBxZHB2eTBfaFdQUVJ1SmxXV1JVWVB4V1FfQWNDbE5NZ29XeGdqa3VrUmc3VTNFZnZyMjN4LVV1NXIyS2p6OU54RkMwZzk5bUhJWmpHeTdjVHF4YkN5Rzc5MNIBiAFBVV95cUxNdHN6UGVQUVBoaTBIWXNCZDJid1YxbHZSdFBrNDVkLUhYQzFhTWxvWVFXWXNfNUJ6dEFEa014QXpoeTcxcVdzdk1IMWRtYUxOVmlnZUREUTNkUWc0T1c2bVNkUy1qb0FRYjhwN1Itdzh3RnB0anZPTUZuQmFpenFMd0hXeEEteERu?oc=5</t>
+  </si>
+  <si>
+    <t>Nuevo arancel del 156% protege la caña de azúcar en México, dice gobierno; sector agradece a Sheinbaum</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOcVV3TXVQTm9DX3VlbmJacERzM2tkZ1FTMTNHaHdvbmVVcXBxOHJXWFBFVUZEQWFrV1ZzRGVBcUpnX3ljczVNYjRIMHFaZi0tWUxqamk5b3I2WmM2OEM0M0tmVm5JZkNMU2VmRXcyR3E2LXpPU2VMWUZjYkxSVXVONkoyemVWYXVMQkxPaDBQRlZVWkRoVnp2WGZpVk9lRDFEc1JmUzFOVmkwRkNGTVh6X2dSSlRlQVQzQ0xCRTFoLW9VV1B4YmJ1SUZHQTJRZzQ?oc=5</t>
+  </si>
+  <si>
+    <t>['Nuevo']</t>
+  </si>
+  <si>
+    <t>agradece, arancel</t>
+  </si>
+  <si>
+    <t>Decreto que eleva a 156% el arancel de azúcar importada, combatirá la competencia desleal: sector azucarero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNaGNDWEJNLWsybkVpMmNOSVh5TVlzbFRabGduVUxGTE5MU000VUhSWDdXTWJEQ2gzb29PWFZNSGtSZmRRSUxINEoweXhSZU0wUnlSNXpkc3k1emZnNUo2WWxqbVl6WnBlYThUcHJIaUg2aDBrY1R0a196WnA5SXdvZHppeFVJdDJlZ3V2S2hmdUtWamZlTGQ2S3g0YVAyMDJzOFh6QVh5VGJ0TzNMdG10TUlTeTRoTWk4dEFWczhxZDljaHB4akNQNF9zRUJzWXprd1puVg?oc=5</t>
+  </si>
+  <si>
+    <t>['importada', 'desleal']</t>
+  </si>
+  <si>
+    <t>arancel, tira</t>
+  </si>
+  <si>
+    <t>Tienditas esperan alza de precios por arancel al azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxQel9xZmpJdG8tOW5rcjdfYXVjS29NbW56SzE0UVRWS3VMR0xZRHJJTHBUd0xmVnZUNHk4d1lEcjlUYWY4Nlh3VmNiUlhMbHd1R2ljS0VGaWxKMDJSbXhKdnJIRmxOaktMT1pOYzB4cElkZHdmNTJJWVpjVFRLSGdHSV92WHdxRnVRNV92MWdwa3haeWxHX2dNUWF2Tk1SNnkzaFlKSHhyRlBNZw?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno protege al sector cañero con nuevo arancel al azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxPalBsU092MzZhVmgtYU02UmVnN1hrcW9VNXM5LUdDOFE0dURCOFpOMnoyZVR4VjVydDRFUWFzR0tRMkJzRHA1VW5SUkpabTBISW9RMWNlM2tYckpxcmJPNHhKcnJsd3FkOUJsVjlBUXo2SVBMMTlxQzBITlh0Qy1IaDNJdXhveWMzN3hkb2ZCX0dEaExQQzlleExwUXJ3dFZlekd0cE1qRlVSc2wt?oc=5</t>
+  </si>
+  <si>
+    <t>['cañero', 'nuevo']</t>
+  </si>
+  <si>
+    <t>Ebrard admite que los aranceles de Estados Unidos al aluminio y acero perjudican a México: buscan bajarlos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNOFJzTEVrZGtIc2xRME5sWEtxcmRVY3d6cGdSd3ItWS1uZzFCaWdTbk41YWVyVl94TTNja19Cb2F4dXBaYm1ZNldjaFR0Szg2RFRpQWxoNS1HVXE1ckhlckF2SV9VYjJkN2lueFo2RGFjaFQ5Mlp5LWJZNkdRWThYSW9HcF9pNmJJQUctMXZDdVMyV3RhXzBpNzl2M1VXUHhROU56dHh2VmNDbHdXY2c1UWJzOVpyRlpYYjVaYUZHaHd2UjQ?oc=5</t>
+  </si>
+  <si>
+    <t>México justifica alza de arancel al azúcar para proteger producción y frenar importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxQTXNaMjJCRW8xU250WTNVeWpvUmFZZ25zV2FYTFVKbC1rRnlXdkVwZTRhRzhXMWhtdHF3UlFZR1BIR19IeVJxTmpLWVU3d1YycmFoaU9adVoyYUlrMkdObW43SGFhYnlUSzRjQVVtTW9peWx3Zkp3OEhjOWkzLVFpV1V1R1lVb2JhUGxnMVFVRHJhR2VuUFd0dWpmNXUzb0xJa0lDamV1VU51THRXdmdmMHZ4dWZYRWRyTGY4YWZQOGxMX3c0S2U2ekE0Zk1XSHQtSWNHNXlIWlp5Mkd40gHcAUFVX3lxTFBNc1oyMkJFbzFTbnRZM1V5am9SYVlnbnNXYVhMVUpsLWtGeVd2RXBlNGFHOFcxaG10cXdSUVlHUEhHX0h5UnFOaktZVTd3VjJyYWhpT1p1WjJhSWsyR05tbjdIYWFieVRLNGNBVW1Nb2l5bHdmSnc4SGM5aTMtUWlXVXVHWVVvYmFQbGcxUVVEcmFHZW5QV3R1amY1dTNvTElrSUNqZXVVTnVMdFd2Z2Ywdnh1ZlhFZHJMZjhhZlA4bExfdzRLZTZ6QTRmTVdIdC1JY0c1eUhaWnkyR3g?oc=5</t>
+  </si>
+  <si>
+    <t>Industria, sindicato y unión de azucareros avalan arancel al azúcar; Economía justifica alza para proteger producción y frenar importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgJBVV95cUxQbnAzektKUFRSNlBNaUlMcEtack84RnNnY0t4dkl0N0tVRlk1YlJzSmdCTWc4dE5jb0szUmZZX0NGLTlEN3BDMi11LUgzWHl6UDZMZDdDLWxDLXZkTU9HZHZsRzNDaTlSUHpOd1lKN0JMaE4zZWRJaHoxRmNEcjNtdFZJaVROSk5jeFBvNWR0RFMxXzNIbnpOaF9HRFVXdGFwMFdoTnhzTWlvVXBoMTBoODNfUnJjSGZQeUFKUXdHYmtWS3dmb0FPUXVCVlhUY1l1MGJoQXY0LWh0WnJ6R0FuZVJ0RXFOTGo3T09YWlJ4MTBfMVFPTUZWWnVjV1BXeVIzRC0tNUNUWDhvN3NWTWJkMndFQTNJN2M3YVHSAZoCQVVfeXFMUG5wM3pLSlBUUjZQTWlJTHBLWnJPOEZzZ2NLeHZJdDdLVUZZNWJSc0pnQk1nOHROY29LM1JmWV9DRi05RDdwQzItdS1IM1h5elA2TGQ3Qy1sQy12ZE1PR2R2bEczQ2k5UlB6TndZSjdCTGhOM2VkSWh6MUZjRHIzbXRWSWlUTkpOY3hQbzVkdERTMV8zSG56TmhfR0RVV3RhcDBXaE54c01pb1VwaDEwaDgzX1JyY0hmUHlBSlF3R2JrVkt3Zm9BT1F1QlZYVGNZdTBiaEF2NC1odFpyekdBbmVSdEVxTkxqN09PWFpSeDEwXzFRT01GVlp1Y1dQV3lSM0QtLTVDVFg4bzdzVk1iZDJ3RUEzSTdjN2FR?oc=5</t>
+  </si>
+  <si>
+    <t>['arancel']</t>
+  </si>
+  <si>
+    <t>Respalda la industria arancel de 156% a importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidkFVX3lxTE05QWh2TTZuVG9FQ1BiVUFmNVZKcXJPNWxldHExWDRMZy1SelVKdUtPelVONFFyWnVGV0pzbUg4XzFqVXo4VnV1cUYyV1JubC1BN3IzMGRjSE5Ob0gwVmtYbkdBalNTXzlIV0pfbTQ3cEY4UEZac1E?oc=5</t>
+  </si>
+  <si>
+    <t>Respalda industria aranceles del gobierno a importaciones de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxQT0ZGNHZtMTVjcm55d3BlMmo1WjhZUWhsNmJuM3hrMlZuVTBTQlh1QkpQNk9DM0lqM0hFcVRGdk1QR2tOSURRRnhxRVl5am9fVU9MQjFWLWRaalExbm5hMktMd0FaRVJXdTMyNWNnNjcxeEhJcm03M0d5X1RWS1NobFZLb2dmU2hqNUtDUUVZMFRQbWhzSVNMd00yUVZXZ3J5LXhXNWVXbkZvT181UG0yTkhGaVRyQUJXS0pfdGFmNA?oc=5</t>
+  </si>
+  <si>
+    <t>Arancel al Azúcar Importada: Alivio para Productores Mexicanos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxPc3JXNzNpeVFyUGZEWmVRb1RleHVLS1BvYU5KSzNrUWZMYzZnN0V4bXlXZWpEQk5fQTA4WVJHcnd5UFFNckZDVzhTOHVFTmJBTjZ2cktlRHNST1V3TnVlcEZGeUZudHNqdTJPWk5TZmJTZkFiR2xIVnBfdEdnOEhSbjk1S2VlR0Jr0gGIAUFVX3lxTE5sWkVVUDBjQjduMkZ5RXBuSHJ6S2xndkVWUmZDc1ZPbEtpVW5OVGEyRVp5RlVIWkRwU2V1bU5vMjlsVzIxdG1FazdKcHZySmJaQ3Z2OUNLYjBZVlFDTWVndjdqblBYWDc3MmRVQ2d4SVZnQlF2RURSdndiVUhMZ19hRDkyM1I2NVA?oc=5</t>
+  </si>
+  <si>
+    <t>México justifica arancel del 156 % al azúcar como medida de protección nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxNcnV6T2hwSEVkMC1VbVRiaFNIU0FycHloU0RkajRKdnFJWkxQc1NHWUxMUHItNk5yZTEyTlc0SnBKWkFSWWFIZmR0WkhvQjFGRk9ZY09Zak9xdVkwdGEyU3BhRFBXaEVsVFlzcVR3aHdXMzhOc05pVWdHX3NZNDJxVV9ZQ2JmajJaQlRVcHFRZk9LOFVYSG9uWU91UDZFRUhsUmM1SG9TTE5GZXpGMy10Nko0OTZQajJsY01iVjZBd3NVejhuVEVkbkNB0gHPAUFVX3lxTFB4cEhHVE1ETE9wZ0oxNVBYbkhiU2paMElkSTd4eG05b1FRdG00QTNnWE12di16SEdxTmFLa0ludmtueHQtaFVFQ3BjYmxoSFN0emZnUlU1Zld3NEdOY19vaFZ3UVBscGdQNjZhcTBQbW1uNlA2YlVURG10NGJjZE1YMENvY0tNY0V6ZkR2TWgwNXFsRHIyTENlYnFKMW8wbk1Lckc1THhtQ1phaWZqZnN2enhrYksxUkpZTFhCZXBHNGZlV3hzUktSdnR5S0JxVQ?oc=5</t>
+  </si>
+  <si>
+    <t>['arancel', 'nacional']</t>
+  </si>
+  <si>
+    <t>Aranceles de Trump al acero de México no durarán para siempre, pronostica iniciativa privada de EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPb1NlZzVCN1I4bDlmV21lRG00QXBGRXk5bWhBTHdiZUdLOC12bC01ak1FWnlva2hGOERpeHhoYV9UU3dVQjZFeW0ySmVfS3FXT3JYU19HcUc1N0YwSmcwSDVTcWxuaVdib0YySmNRNTBIRDI3R1BlS1ktUndHZ2tLQnlnckREbkQwLWpXdVhDLVQ3dGtxa2JSaHZ3NEw4NGdBVmZ2NlAzX0c3Q2tMVTFiSEwwQk5wZE9Mc2Nlc2VNTldIaHI2NUVudG9BMnNWQ0k?oc=5</t>
+  </si>
+  <si>
+    <t>dura, aranceles, arancel</t>
+  </si>
+  <si>
+    <t>Aranceles de Trump provocan caída histórica en la industria de tractocamiones en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQUWg5b0VqUU1PUjdKdU1YZXJMQXE1ZE96clNNcHM4MElwYjJ4OFZ4SmJiUFd4eGlNQU5pQzRaa2hhMTVqb0VXQUhZcVVjMVFOTHJBa3NfLW16U00zVHBkUXFDR3NXNWFUVllhdGpOTU1qeHpHU0dEd2RaU3EwVWttUW1tMVRRTFI4SVNpWV9wTlRKS2Q4QlU2TmdoTEExU3QwOHZhN0l6ZVFIT0N6LWFV?oc=5</t>
+  </si>
+  <si>
+    <t>['histórica']</t>
+  </si>
+  <si>
+    <t>Aranceles de Trump: Ebrard anuncia avance del 85% en las negociaciones previo a revisión del T-MEC</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxObUZzQmpNSGpRVDJkenZpTUtsdzNiM2NSZWI2QmpsYWRKc3RkWG83RUh2bWt2QnZrR2prNnIxYTBLNkJkYm1oY1oxcDVZUU5VMk41NGtZZmk1N09VYnpHVTk1X0JCamZaZ0d6cWV2RndXTWlEUGhUODVCYlZqNWVTYm80SW9uTkdIZDB3LXA4ODNvWW9mNFlwNmlfQm9QU2gyYmNqLXAxU25DV0RPS1VoZTVSQUFLeHdSNlJqSjZNeWVqTUtEMGhUT184cjBSYk14bDJjOEhZelVMUWdkd0Nxdk5TZ21ZdDZMVjN3ZtIB8gFBVV95cUxNUVRuWjM2NElRX0gyWWk2VnZhUENvYnZCRnNGMmxDd2JLV09nMUl3T3F3R21VQldlejBOcWYxRi1USTRwb2NLOTNteGhpMnFaZnVQdUduMjlHQTI3b284eDJfNTdvdDNEOWxDdGVHdjJVam5QTWJTTmNkcDA5YS1XWW1SLXNUdm5aS0FqSThkek9QaUhPZmNXQ1FYUmtwb3ZoelpXN0pUWmUwalY3VUJkNHRiQWpXUnhFTTVBUUVOVHFJTk9VeWZuN205SjdkMTBpQUFVY09TcmVPbE1FbC1RSUxyZVlmVUdHcnEwYmdzV2M5dw?oc=5</t>
+  </si>
+  <si>
+    <t>avance, aranceles, arancel</t>
+  </si>
+  <si>
+    <t>Industriales cañeros agradecen al Gobierno por modificar aranceles a importación de azúcar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxOQXhfQkZNRlQ3S1BQU0ZWQktab1JxdElEVUpXajNwSEFreU9wTV92X3M2Y21JU3hSalZZQWNsTV9fU294WExVMFJBdl9FRVVrSE5UN2ppcUpQX2dzajdRRlJvYTY1TVduVFU4MkYxRXZsUTFXbHFzb0UxWHVHYTJKSl9VTWUxdVkzNElFRU9wVXVCQzNUR09PX2tVT0VyN01OaU0yd2JiMGVZNkoyVFNDZm1EbGFPbTc1MGJSZDhmQ2E4T1VXTDV3VjZhVEdfNDRvTlBCMzJBazBra1I20gHcAUFVX3lxTE5BeF9CRk1GVDdLUFBTRlZCS1pvUnF0SURVSldqM3BIQWt5T3BNX3ZfczZjbUlTeFJqVllBY2xNX19Tb3hYTFUwUkF2X0VFVWtITlQ3amlxSlBfZ3NqN1FGUm9hNjVNV25UVTgyRjFFdmxRMVdscXNvRTFYdUdhMkpKX1VNZTF1WTM0SUVFT3BVdUJDM1RHT09fa1VPRXI3TU5pTTJ3YmIwZVk2SjJUU0NmbURsYU9tNzUwYlJkOGZDYThPVVdMNXdWNmFUR180NG9OUEIzMkFrMGtrUjY?oc=5</t>
+  </si>
+  <si>
+    <t>['cañeros']</t>
+  </si>
+  <si>
+    <t>agradece, aranceles, arancel</t>
+  </si>
+  <si>
+    <t>México impone aranceles de hasta 210% al azúcar importado para proteger su industria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxNVm9jNjZMdkJWSHREY0NQUDA2U3VidWZZbXpCVTV0YzVTZ0FRVEo0ekY3c0JkOTNsdmhSRmNjOEFGaWRQeDJyYUtVY0x4VmRDUXE5bW10MmRCWTVTU3BmZDdRSWpKZ0pwV184VzRNTkxtUEZLS2xKNzRUaENzTzdZdHRBX3R1YU5fb2x6ZmZoTkZBeGd4QU0tUkZ4Zi05d1hyc2ZCLU9td0FLUlNlOW1yNVhOY1ZwdzdQSmt3RjlFWEZvOTJNand2QlZMbjhMQlZtMnfSAeYBQVVfeXFMTjNiUm8tZnc3b1hWNGhtYnJXbmVTMkdpWmZQWHA0M2tQOUVoRDc2SHdaY1otUFMtR3A1bnVLc3ByajV2ekl3VDg2b2tZbUxvU2JaTGl1VWJHVjhZbnFhbUVaQjQ4UXJ1aTBRT25NREZ3TXUwMm1QX2I2M20xOVZaWEJweFNUbU1wUWRDZWNETWFsbjY0SXQ3ZW5HVkRzcGo2XzAxcDBsQlFWN3pJaTl4VVhnU1JWWEI3R2FTNFloUldMSTRoMUw4Q1huUkt4VVFWbFFNanlwZ0d3bldmZk5razlvaW1CT1E?oc=5</t>
+  </si>
+  <si>
+    <t>Un Black Friday con menos descuentos: aranceles obligan a marcas a recortar sus ofertas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQTmNXOEVHcjRva1dXcU9KcURqLTlOcG9Zc2xaQTlYeVFjQ0N6Skc0TFBOTkRZQXBFV3k4cGFwQ0hQSmVNTmtCc0RuY2hiVFhYZUU0VVdzN2h1Q1hHdXducjhzdGs5Ni15RUVMSXJleDdqd0VKR1VlekVmME55aGZTRDBqemVZYno2Z2pSdW5TcFg0WmlhR1ZVOGRLdWhNMk13eXpIcE9RZFZTV2RXZlZDSG05REZNcDBFeVY5YURqSldoRWVpU1HSAdoBQVVfeXFMUGNxSXpPQVhNZXhhVWxWdElheHdZV1RtSERaQ2tubEVSTkFCc1I4dExWSzBXYUNJUWFMa2FMS1RuYkx4elFwVUtmWU9PUmtzYUstSjEweVdNWldueXN1Q0xuLVpQOXJQY1dRWjVMZzRKV0JEbmkzd2pQYTdqWi1wQ2NWVTFkZ3o0MEd6MnFPNThGMlB6TEVaLUFzMU1qMExNdmpFMXNJeVg2d1B4TURiSTBkWVg0dWVMQ3B0OFo1UVdqdGQ0cndlckFMek9DVXRzdWpEaUxWTW9ZS1E?oc=5</t>
+  </si>
+  <si>
+    <t>La actividad industrial continúa a la baja, lastrada por la construcción</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1ucm1fNkZmNFdHbXhpbDVkTHFBUDBfa3RTNlVSNTV3bFdUdFNHQXdPY2ZFOENFY054VDJ2SWVra1ZJNW1PTWpaT2stbUdtX29BNmZnc0Z6Ql9ZTHExVDZRRTJOWV9Sdw?oc=5</t>
+  </si>
+  <si>
+    <t>['industrial', 'lastrada']</t>
+  </si>
+  <si>
+    <t>Caída en construcción frena actividad industrial de México en septiembre: Inegi</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxNbUxzZXoxdTFSLTJGZTJ2SGFkQUhDTE5QUHh3SFpiS0lwTnN0blhXdHdpMVdJR0dkWWJQYkJDcHdJVzQyYW85RkhRc19GMnY2dlcxTi1QVTUxYTVEWE5SZUN2TnVCZVhvMGF3VnJjOC1rNmZ4UHh1UzNUUEFiRENsbFhKRmhaZ0Y3MXREOXZ3Um81VV9BQjdN0gGXAUFVX3lxTE93VWN5clA4cDM4bHZSNTBzbk1QMTNndUROYkFfRU5YVE56ZjNMQWNRaHlPT21DSU00cXprRWg2LTVKa0JTdzhUNUhuT3FlalZWbzRycW55MWZCNEdNOXl5MUpXUUxEMVFvN3Y3MUJvV0dnVkhmcmFMbWFjY2hlcFhmc3ZTUV95Sm10YnRzWlhSTlBXTFZPN0E?oc=5</t>
+  </si>
+  <si>
+    <t>Arranca la Expo Transporte ANPACT 2025: Rogelio Arzate</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxOSURjbmFrTUZ2d2llS1hRWV9Tano3d2hOaEdDOWV6bVZyMy1oNTlvOUtqUnNiWjFtZzh1SHlhLWd5LWtKZ3hhZTlOQndTd0NWQ0ZuR0hYX3B6VXNlZVltR3kyYVRjZW1ObHpkLUM5b0IzWWhiVVhuNHZfbktXNkpsVzI1MzVOd1NBbllMTlBSVlRfX0NMbzlsVFVkWnJRd3ZqU0HSAaIBQVVfeXFMTklEY25ha01GdndpZUtYUVlfU2p6N3doTmhHQzllem1WcjMtaDU5bzlLalJzYloxbWc4dUh5YS1neS1rSmd4YWU5TkJ3U3dDVkNGbkdIWF9welVzZWVZbUd5MmFUY2VtTmx6ZC1DOW9CM1loYlVYbjR2X25LVzZKbFcyNTM1TndTQW5ZTE5QUlZUX19DTG85bFRVZFpyUXd2alNB?oc=5</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Expo Transporte ANPACT 2025 consolida a México como líder continental del autotransporte</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPanktYi01dHlaUnp3RDA5b1FRVl8yQ3dWLWZlY1BWTlhSYnZjcWpWMnA3QnE2blppRXV4c3lNV19rTUp0R0psd01LU0k4MEd0TXZFTElTYkFDWENEempHOC1XMC1zeGVXa1RiOHc0cXVEak1yZWctMlFPNUl1NXJjNEFyTm9Yb0dCbkNlUjZpVWstaVA0WmhETDVtVlIyanFhZ3VwWGozTlFHcW50bVdoaGlnNHFiM1dsdndFVFFTSlRENkg4ejFWeW1XZ3hiTWRFTVpEeWRfUTBYMWYwRG5jRlA3OHV5VDJGU0JB?oc=5</t>
+  </si>
+  <si>
+    <t>['consolida', 'continental']</t>
+  </si>
+  <si>
+    <t>Expo Transporte ANPACT 2025 arranca en Guadalajara: México reafirma su liderazgo mundial en vehículos pesados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNSV9Udkk1dDhoN2NVb1RlM0tWeTN5UG5UbEJEa0RlTnFHZmxJYUExYW5xclNMMllwVTVFVlZITDVRc0doSkRnZVBVR0ZNbGE2bTgydF9DYXNKTW1rZTR4RDdyMkVMV3BWbE1mRks5aF8xcldmWThPdHhNR3hONFF4MDJfYWFjWGZ3ckxKbkJfcTdkUmpRZjZoUW1sdTNkVTZvVHQ4QW9kSzI2MHRuaG1tNEgzYll5SVF4dmJsREtVOWZoUkNSeGl4ZVV1WFF6dTBMZFJvSC0yVEVVdFg3UFJ5aWdB0gHiAUFVX3lxTE1JX1R2STV0OGg3Y1VvVGUzS1Z5M3lQblRsQkRrRGVOcUdmbElhQTFhbnFyU0wyWXBVNUVWVkhMNVFzR2hKRGdlUFVHRk1sYTZtODJ0X0Nhc0pNbWtlNHhEN3IyRUxXcFZsTWZGSzloXzFyV2ZZOE90eE1HeE40UXgwMl9hYWNYZndyTEpuQl9xN2RSalFmNmhRbWx1M2RVNm9UdDhBb2RLMjYwdG5obW00SDNiWXlJUXh2YmxES1U5ZmhSQ1J4aXhlVXVYUXp1MExkUm9ILTJURVV0WDdQUnlpZ0E?oc=5</t>
+  </si>
+  <si>
+    <t>['mundial', 'pesados']</t>
+  </si>
+  <si>
+    <t>Pese a la caída en producción de vehículos pesados, Expo Transporte ANPACT 2025 rompe récords e impulsa el fu</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihgJBVV95cUxPcU12RHdOQXJzM3JZeFdkemM0SVUyOWM0TUpIc00tLXdUZTdFSG84WjJaV251YnJnV0NQdlhldzYxVzFDeEJOUEItNFNfcm13Y3FLakFOb0Q4eFpsVFJieUxNRHNCcGpZeUM5anNmb1E4NTY0MU9sU0pwVklLM2xVY1ZGcUU5RFpUbnQ2endyS0lVb0ZjZjBnNFhqcUMwZjU5ZWw3dEhmNjFNOERHOWIycXdhdTFDSF9YYXhrcWtEcE5JZUpDQzh4ajZwaUJnTXlOMHFiek5BblFEVzlFaDlSQVNKUmF4bm82cHpEaE5jTGpZZHA4TTFFdDNuT2lkYUtxOWpsWHhB0gGGAkFVX3lxTE9xTXZEd05BcnMzcll4V2R6YzRJVTI5YzRNSkhzTS0td1RlN0VIbzhaMlpXbnVicmdXQ1B2WGV3NjFXMUN4Qk5QQi00U19ybXdjcUtqQU5vRDh4WmxUUmJ5TE1Ec0Jwall5Qzlqc2ZvUTg1NjQxT2xTSnBWSUszbFVjVkZxRTlEWlRudDZ6d3JLSVVvRmNmMGc0WGpxQzBmNTllbDd0SGY2MU04REc5YjJxd2F1MUNIX1hheGtxa0RwTkllSkNDOHhqNnBpQmdNeU4wcWJ6TkFuUURXOUVoOVJBU0pSYXhubzZwekRoTmNMallkcDhNMUV0M25PaWRhS3E5amxYeEE?oc=5</t>
+  </si>
+  <si>
+    <t>Expo Transporte ANPACT 2025 fortalece el liderazgo de México en la industria de vehículos pesados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOS0ZVTmQ3MEVlLW1mM2JQaHZxT3dVZVNFRWlINHdWb3Y4aGJXNmpIOVZxRUxlb3R1WDh3VFZmdHRZUmVDTHRxdW1UUF9ZV1ZhTlpUNEJYUWNnLWJfUXFKMU5uWHpVS25nanhfdzB0enZLZEZ4dmlVV1h6X1BaY0VNZUtwQ3dRSk5Qb3FsYkRLVk5LbXlsNjBPd0ZCbVlSS0gyYmJieHdOM1J4MzFySzF2VG9XUTNUNUxlcW80ZGFTRmJWTFJKWnFOYUhSM3M2WjNBOTZlM0JFR0tsZw?oc=5</t>
+  </si>
+  <si>
+    <t>Precio del dólar hoy: Peso se aprecia ante expectativa de un nuevo recorte de la Fed en diciembre</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxOb1p6TllVUEI2Z0R5UnV2TS04bVR2R2k3STFzdWZDMDBoX2ZZQi0xdXZvZ09YLUxReVZPYkdQN3IwRnF5c2pobkhWYVBWYkhqdGg2N3ctenJhMmpzWDNfTHhqWEFPUGl1WXRiWURRcThWdkRnU3NvMUpUWGVMVGZLTXMtcTJjYXNxdWwxZVJ6MXMtSkF6TjV2Z1FRREUweXpaeTdxM2RNNGNZTDA1Ni1kMHIzRmRsV1BoMUs4aTNjdkU0c3RidkR3b1J6VjZXMDA2M3fSAeYBQVVfeXFMUGMzd01sMGdyQTlsUGVmYllNNmZtbExTU1E2S0JwV0NHWHBMY2pHRVMxWFpRWXJTaVFuUEVEQ1drSkV2UUFXUzRXUnRkVlAxLVRjb2Z6Z1JkWnhkcy10SGdWUzFjYW8wTnBVd2R1eHVKdFRtd3NXaVlkLUxUaU5La2kyTTA0Q2o2Ym5uNEpQLVdGcFlheU5Eb3dqbFFrSmFBT2RuRFBtUjFDZTMzNkN6ajRPb0hudVhhN3ZmTnd5YTNYT0FvUmlienAwSkhkQ1V6QndCMWVnZGFPbzVQVmVDUWlkbHpYOHc?oc=5</t>
+  </si>
+  <si>
+    <t>Exterior, Judicial</t>
+  </si>
+  <si>
+    <t>Peso gana 0.17% ante un dólar débil y posible recorte de tasas de la Fed</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPM2huV25ZUS1mUlVTZV9yUGNBbFU4aWdpc252OFl1dER1czNEWUVHRVZxOEtfZV9uYTdSYnQyWUZaSXJHUjVRWmQybTV4OWIyTUl5Y0hTV3gyMVAxdGFqNDcyeVlxdlN6bkloQ3dtWkdiaWhhMTk2R2tmU1BDRkxaQnM4NDNnZmtmYWVpMUdfMmRNNnI0YmFqUDNzR1NJREpueHNjSEU2UVZMVEY5MzFGSmlneU5KWmtYR0VXQWl4bDYxSHBjaGp2Wm1sNjY3dms?oc=5</t>
+  </si>
+  <si>
+    <t>['débil', 'posible']</t>
+  </si>
+  <si>
+    <t>débil</t>
+  </si>
+  <si>
+    <t>México justifica arancel del 156% al azúcar para proteger producción y frenar importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxPbTd2cGRQcHc0QkN4cTdiVmNicDBGZU4xVkNsMmxWMFhodWU0VXdIWFBtYU8wNFlIYXQzUDBlVTBrc0lOTnMxMlNLM0VrVV9hLUVkaDlYa3pjRDZRMUZ4Mk9EQXA0N0o3cjRjaFVLOEl3STB2TERTY2ZpWTBWQkFyeWVrNnpRU3B1QkVHblVTSml3RU9wTnVQbDhQVzBwR3NnWjZfYXZUOHp5Qk9vNUNRTEtyOThqT0QwdmlwRjlrWEdqUW5jOXBna1JNanBlREJmalY4Ykt6SFBScVXSAdsBQVVfeXFMT203dnBkUHB3NEJDeHE3YlZjYnAwRmVOMVZDbDJsVjBYaHVlNFV3SFhQbWFPMDRZSGF0M1AwZVUwa3NJTk5zMTJTSzNFa1VfYS1FZGg5WGt6Y0Q2UTFGeDJPREFwNDdKN3I0Y2hVSzhJd0kwdkxEU2NmaVkwVkJBcnllazZ6UVNwdUJFR25VU0ppd0VPcE51UGw4UFcwcEdzZ1o2X2F2VDh6eUJPbzVDUUxLcjk4ak9EMHZpcEY5a1hHalFuYzlwZ2tSTWpwZURCZmpWOGJLekhQUnFV?oc=5</t>
+  </si>
+  <si>
+    <t>abcnoticias.mx</t>
+  </si>
+  <si>
+    <t>Afirma Economía que aranceles al azúcar para frenar importaciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQbGpFNFEyR0FsNU9mM19MelBROHRfek9QR2NUZ3RYak9jcngwb2szRG9KellhcDV5UnhBd096SXZFenRSTHZXd0twZEt3TXh5d3VNS0REeUtMVDhkaWlCaklwaHdhcTFTbnlsZEJXWlJvUVM5RGFoZGlZZUFodzlzX3lBeU1xM1hZTWQySVd5MFFxcmdocU5WcUNHZGEtNHZKblVXZg?oc=5</t>
+  </si>
+  <si>
+    <t>These coffee shops took pride in being community hubs. Then tariffs hit.</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxPN1VyQmhWSnhhTGdIVU1xYTEtdjVQSExxcmFHako0SXViREtVSEVsd0xjdG1uWVB5ZDROa2RjU001dnJRdjliZWRfX3U3Y1g3RlhndzlhUFVJV1lHdDRMc1VKYkZBWU9QMXBLaWV1bmtpLTF0bzYwanRnQTNDUEkxeGM1aw?oc=5</t>
+  </si>
+  <si>
+    <t>Black Friday Deals Eroded by Trump's Tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxQY2FGeG92MWpOWmdpSXloUlhhZVlXa3FDWVFKZTZCRjR6ZVhmc0ZLVWZoV3BmVk5zODBBQm5sdFhjVkxOZ0xHWnRpc0w2ZXl3ZW9DNmZJWG1fdi1HVFVnMkJIb0dfSzYzcXZBa0JrYWttV3RLdEhyZDBqWEttMkVua3lLYmdUaUN5OVRJZnhaQnlmbjc0SGU4dGdGMA?oc=5</t>
+  </si>
+  <si>
+    <t>Swiss Billionaires Pivotal in Wooing Trump Ahead of Tariff Deal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxOYmxtaVFJbWtVZTdidDZHcmhVenRHWGhaZTlTQ2FUTDFyWFZiMHp0RXJVdTh3alJqdVQwZWhxVXJJVlpvZUpBeDNyUUFub2lJZ0FwU2xzR181ZkxYU2hYWWtSS2wzOVB6QVVaWUNjNXM5bW4tOGpJWE0tNVczUktxVm9DYXNOd1Vhc0xUMFdUM0tCWmpVWVlCLTdpaGx3VlctZDdCcVFiWjN6bFFRaTBjVmNXUEg?oc=5</t>
+  </si>
+  <si>
+    <t>India’s RBI Shields Currency, Bond Markets as US Tariffs Bite</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxObExSeEozc3VNMlAyQ0Y5djUtRlFiNjJlVDBIU3lGQjYycHlVLUFSenRCSm02SkZpRXo0ZlF0QnVxM2pQWGJCa3JQQVM5QXB2ajNYTS1lZ2VYTFZmSWZUVE9EckdnY0diNkpXRGpKSy0wY3pSVENzT2h5QTFzMFFIc1RsZERjc3NXUmRhZ3ZpRWU5cUhBelZmVzY4WEpVZTRXNGpselJwZkxIbGdTcGlGeA?oc=5</t>
+  </si>
+  <si>
+    <t>Vietnam eyes tariff deal soon, as US seeks to cut huge trade deficit</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNb0Z4NnB3OXdpdVZIMHZuUlEyZF9PcHg5SzBCUFBkdlZ1WGZDNkpCR21PRExRSVd5ZEF6NkZVbzVVeW1RM2pER3NReWwydmpVY0xvS29tU2VvSW5rcWxIQjY4X0ZaMU40b1BwVVYxTDloOHhWLVRoNWJPQy1RX2s2NUVjRzl1OEJacFk5ZURlQ1hIY3hmYjgzTkNyR3lkTXE3NndEQ3RLSUNrR3RFcXpRbnNJV3A?oc=5</t>
+  </si>
+  <si>
+    <t>Swiss could clinch deal for lower US tariffs by end of this week, says source</t>
+  </si>
+  <si>
+    <t>['source']</t>
+  </si>
+  <si>
+    <t>Italian pasta exports to the U.S. could face 107% tariff rate</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxPR2hkLU8yekd2T1VFNzZlVmMxM3M3bzdhLXhDNFg2eFFSd2VXSzVsWUtXY0Mxbnl3ZUxtZ0hGZ29FS1JnNUZ4U2wtS3daQXR3cUQwMlN1MmpzbTRnd0dwcGhVN3BrbFFPUHh0UmZUT05KdFR6c3o5Nll4RWh2RXpWbmR1OUQ0TC0xajBVQ1Z30gFWQVVfeXFMUHVBR0NfRWJRVEppRnc3QTQ3VjBCM2F2c19OU3VZVnk5UnR4bnY3M0dORUdRNW02cXNVbUJKUzlfdk5rbm1JUWgtUFRxRl9KZ2hhSDc1aXc?oc=5</t>
+  </si>
+  <si>
+    <t>Italian pasta brands could soon face steep tariffs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxPTU1Qc2VYR2k5LXpYbWN6Ty1BSmRZeXJranRMTEVZbzd3MlFJQjlQQWpqZ2xuY1ZjS0IyQVhMdnBBQWFLdThwZ2lQMnEwNUxCbTBnVHg3Wmp6RlZyb19Ud2RMb2E5dVV6ZzQ2emlQX2ZIa1VhdXlSVEhMT2RielJyRUw0Tmg1LVk0MlAxbExrQ2ZRajFlSEIyaFloUE1CSnNzX0HSAWZBVV95cUxPWVBjakF2YjZIYUZHNV93c28zZnBtWng0OFg2UEZINDRfMDkxTnJtMHV2R3FLUVZWTk90VE5ab1E1dzZKV2ppai15NlY0OHdES3JlV0tCcUxNcEJuV3MyVGJGUnM0aXc?oc=5</t>
+  </si>
+  <si>
+    <t>Republican senators express concerns about lack of tariff exemptions</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwJBVV95cUxObm9IdlJWOE5fQ2xQNGNKTDZPUTluTWl4czhsMklnb25FcjhTODZMYVh1dHFlRVNmeVVDeV9zbU1wQWdYcDlzRFg1WDhVd29aYVppdlJlZk1TRHNIa2dvYm9HNzhKZVM3QzV3ajNXd0NuT2c3UVBZU3U1aDF1QzV3YWxvWlR5QlFZc2xHTkpkVEY2QzIzVnNaSE04TW8yTUtBWE16dzBYZF85dG1mNFU3cHpLbFlsNGJCcjlBQ0NMbThhemVOTF9fanJEYmZoeTREM1pOcU8yR3F3M0FaTHZVYmdyazZDdHVhS2xBTm9qRUVyQVcyT0FlY1JlRjk0ZVpWcllBLU83aw?oc=5</t>
+  </si>
+  <si>
+    <t>['concerns', 'about']</t>
+  </si>
+  <si>
+    <t>Italian imports store owner on threat of new pasta tariffs: "We can only absorb so much"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxOQVY5REs3MUo5N3ZDWThDZEVoZzhpN3EzWkk3MWUzaG53Y3hsMzZoNzZqV3VFRTAtbzE5VngzZi1kSzhBZlFIM3o1UzVORGFBUkZGYVNfZFZpUnl2Y2toWDNLWEtEUDVfdUM1SHFpUHNPRkVKSDk5czNQbWVGYXM3eE1VWFhrTTR4YkxtTG1xUFZLTEIwLTBsYVNvWVBjNEhES2VGSnZHZDZTdHRFNjRzUXVfMHFPR0U?oc=5</t>
+  </si>
+  <si>
+    <t>U.S. proposes steep tariff on Italian pasta, prices could soar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNNjRUelRWbkIyUUhBZmhsTWVyclhDeW5kOTktVzhDNVlsVkI3akpJZlRpR1o4V1VmNzBvVlNKRW9USHc4dTRnWWRxc202OVlKQnQ3NWZtbzdMZWwzQjh6MTg3Q2puSjBUSmRxSTNqRFY0V3o2RFNESFNFR05pTjBsbU90WlpmR2FqRnBKeFRVVmcxTW05bUQ2Q2xGS2NnZw?oc=5</t>
+  </si>
+  <si>
+    <t>['steep', 'pasta']</t>
+  </si>
+  <si>
+    <t>Trump proposes tariffs on Italian pasta companies</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNSWNNM0FnOXRyRm93OEhCbVZIUlg3Z0w3SUw2SmJjb0JYUHZ0aC1KZElDTWFKY1FKTmZManJjTWFsX3pRYWhRZk1Kd1FfcmF2MWh0YXR2ZEJzVWpYaGtKZFFGTWlfUU1GN0t3XzJCTUpyLXRrMUlYYmw3RGxOMXV0YTNGaw?oc=5</t>
+  </si>
+  <si>
+    <t>['on', 'pasta']</t>
+  </si>
+  <si>
+    <t>Indonesia's GoTo says it supports government policies, including potential mergers</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOTGRqV3F4SFdUbkdYVzk3OTVUUUgzRTdKRjh6RGs2VmhiT0FCSHhaNnh0RXRFcHFqV01DVTNYVXFzNHBHMjNlYXJQQmVRMXJvZjBHVWk2WVBxWl94WTRJcDlWZXI4LThBR0tzRDMxR3NCeUZzc1JGZ1pRN0prUVJjamI2bFFPOTNNX3d2ekFCSm1qc2FqY05nVUdSb2FzeDgtZmV5c0FjRi1nc3h1dFMtdWoyX0Fhbl83dmx6TkpEVnZyLUpiUmp3ZjBlbElQMFJS?oc=5</t>
+  </si>
+  <si>
+    <t>['potential']</t>
+  </si>
+  <si>
+    <t>Christmas price warning as tariffs, supply chains drive up holiday costs</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9maWhjT21SS2VXYnAyZGo4ZjctV0NuNGdSellZUGoxMlQxN1FoZW44WV9MQ29qODMxNEpZOGlPM05yRlZ2UXM0VDdaeDVfeGRQUW9GXzd3b0xwVUE?oc=5</t>
+  </si>
+  <si>
+    <t>Cadena de suministros</t>
+  </si>
+  <si>
+    <t>The Fed Is Increasingly Torn Over a December Rate Cut</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwNBVV95cUxNRWZYZEh6LTNPVkhnNmIzeU1NSU5lMU9ZX1l6WWpHSWFVQWFNbEhPRkktMTBEbE1ER1ViQ1hYZC11UlQxNHYtdFk5T2tucktaSlNNc3pVcy1MTU5rdDgzRzBfOGo2T0sySHpfQnpRdU9lVnQwS25zZVNvVkdFMXhqdnlRWEJsSHRDYl9RVVZwU2FXZnB5eTB4cWhMcmVseTd4cnJERUFHSmNuT0x2VV9DcHgxYmJZZU9fbzg1UklPM3pHWkpDU0g1dlJjY1BsMXI1My1tOERaMzMwRTlLd1BVS0pTZk9FZGxpTHg1aXo5RnVXVGdRRXZnNHRuWXJCU0kycjVIeUFDMFhqWVZ2ek9lbmZXOTRkZHRQSG1SVm1PdTFTbVJqbWR5ZkEwTmZsOGdFcnp2SDB1aW9IYUtHdGtlcFBVTWVNYURleGpQZDRmbHA2bEhJVTdvcnA4QTdZLTlSUUxHVTBkVlFCNzlmZHg4UmVKaEFRVHBXVWVhOXRKcEsyMXJBTTlKWVdQejRlTUlOTy15WUEyREZuMnZZbmY0QTk2VXJ2WVdHSmJsTXFyMA?oc=5</t>
+  </si>
+  <si>
+    <t>Hopes for a December rate cut are fading fast despite labor fears—Jerome Powell will have his work cut out attempting to unite the Fed</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPeFgtRW8ySnRzY0NXNndOTUFJLWJ2QlBJTWktZ0RuaGxodkZXMXdacVRYellnZXdrblFHWHljOVVhZ0E0bGZmZ2c5NU9CamFpYll3TFczanB1SWcyWGtqUUhsdDhXdzJ4NzdRSVUtbms4SS1XSzR1bElvdFpBcklKUl82WWx1RkZ1Yk1RR1FrQzJ5LTFFVHk3c0lsS0ZYM200SlRaYg?oc=5</t>
+  </si>
+  <si>
+    <t>['fears—Jerome']</t>
   </si>
 </sst>
 </file>
@@ -7043,14 +7451,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF80B9-D138-4A87-951A-321001EFD58C}">
-  <dimension ref="A1:N773"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD78E7-9E02-47A8-AC10-BAB04B9E99D9}">
+  <dimension ref="A1:N827"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="B586" sqref="B586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24561,10 +24972,10 @@
         <v>27</v>
       </c>
       <c r="F461" t="s">
+        <v>199</v>
+      </c>
+      <c r="G461" t="s">
         <v>1302</v>
-      </c>
-      <c r="G461" t="s">
-        <v>1303</v>
       </c>
       <c r="H461" t="s">
         <v>20</v>
@@ -24590,10 +25001,10 @@
         <v>45966</v>
       </c>
       <c r="B462" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C462" t="s">
         <v>1304</v>
-      </c>
-      <c r="C462" t="s">
-        <v>1305</v>
       </c>
       <c r="D462" t="s">
         <v>1138</v>
@@ -24605,7 +25016,7 @@
         <v>168</v>
       </c>
       <c r="G462" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H462" t="s">
         <v>20</v>
@@ -24631,22 +25042,22 @@
         <v>45966</v>
       </c>
       <c r="B463" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C463" t="s">
         <v>1307</v>
-      </c>
-      <c r="C463" t="s">
-        <v>1308</v>
       </c>
       <c r="D463" t="s">
         <v>77</v>
       </c>
       <c r="E463" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F463" t="s">
+        <v>199</v>
+      </c>
+      <c r="G463" t="s">
         <v>1309</v>
-      </c>
-      <c r="F463" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1310</v>
       </c>
       <c r="H463" t="s">
         <v>20</v>
@@ -24672,10 +25083,10 @@
         <v>45966</v>
       </c>
       <c r="B464" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C464" t="s">
         <v>1311</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1312</v>
       </c>
       <c r="D464" t="s">
         <v>326</v>
@@ -24704,10 +25115,10 @@
         <v>45966</v>
       </c>
       <c r="B465" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C465" t="s">
         <v>1313</v>
-      </c>
-      <c r="C465" t="s">
-        <v>1314</v>
       </c>
       <c r="D465" t="s">
         <v>326</v>
@@ -24736,10 +25147,10 @@
         <v>45966</v>
       </c>
       <c r="B466" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C466" t="s">
         <v>1315</v>
-      </c>
-      <c r="C466" t="s">
-        <v>1316</v>
       </c>
       <c r="D466" t="s">
         <v>326</v>
@@ -24768,10 +25179,10 @@
         <v>45966</v>
       </c>
       <c r="B467" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C467" t="s">
         <v>1317</v>
-      </c>
-      <c r="C467" t="s">
-        <v>1318</v>
       </c>
       <c r="D467" t="s">
         <v>241</v>
@@ -24800,10 +25211,10 @@
         <v>45966</v>
       </c>
       <c r="B468" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C468" t="s">
         <v>1319</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1320</v>
       </c>
       <c r="D468" t="s">
         <v>241</v>
@@ -24832,10 +25243,10 @@
         <v>45966</v>
       </c>
       <c r="B469" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C469" t="s">
         <v>1321</v>
-      </c>
-      <c r="C469" t="s">
-        <v>1322</v>
       </c>
       <c r="D469" t="s">
         <v>241</v>
@@ -24864,10 +25275,10 @@
         <v>45966</v>
       </c>
       <c r="B470" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C470" t="s">
         <v>1323</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1324</v>
       </c>
       <c r="D470" t="s">
         <v>219</v>
@@ -24896,10 +25307,10 @@
         <v>45966</v>
       </c>
       <c r="B471" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C471" t="s">
         <v>1325</v>
-      </c>
-      <c r="C471" t="s">
-        <v>1326</v>
       </c>
       <c r="D471" t="s">
         <v>219</v>
@@ -24928,10 +25339,10 @@
         <v>45966</v>
       </c>
       <c r="B472" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C472" t="s">
         <v>1327</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1328</v>
       </c>
       <c r="D472" t="s">
         <v>219</v>
@@ -24960,10 +25371,10 @@
         <v>45966</v>
       </c>
       <c r="B473" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C473" t="s">
         <v>1329</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1330</v>
       </c>
       <c r="D473" t="s">
         <v>214</v>
@@ -24992,10 +25403,10 @@
         <v>45966</v>
       </c>
       <c r="B474" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C474" t="s">
         <v>1331</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1332</v>
       </c>
       <c r="D474" t="s">
         <v>214</v>
@@ -25027,10 +25438,10 @@
         <v>45966</v>
       </c>
       <c r="B475" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C475" t="s">
         <v>1333</v>
-      </c>
-      <c r="C475" t="s">
-        <v>1334</v>
       </c>
       <c r="D475" t="s">
         <v>214</v>
@@ -25059,10 +25470,10 @@
         <v>45966</v>
       </c>
       <c r="B476" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C476" t="s">
         <v>1335</v>
-      </c>
-      <c r="C476" t="s">
-        <v>1336</v>
       </c>
       <c r="D476" t="s">
         <v>214</v>
@@ -25083,7 +25494,7 @@
         <v>56</v>
       </c>
       <c r="K476" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
@@ -25091,10 +25502,10 @@
         <v>45966</v>
       </c>
       <c r="B477" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C477" t="s">
         <v>1338</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1339</v>
       </c>
       <c r="D477" t="s">
         <v>214</v>
@@ -25123,10 +25534,10 @@
         <v>45966</v>
       </c>
       <c r="B478" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C478" t="s">
         <v>1340</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1341</v>
       </c>
       <c r="D478" t="s">
         <v>233</v>
@@ -25155,10 +25566,10 @@
         <v>45966</v>
       </c>
       <c r="B479" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C479" t="s">
         <v>1342</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1343</v>
       </c>
       <c r="D479" t="s">
         <v>233</v>
@@ -25170,7 +25581,7 @@
         <v>18</v>
       </c>
       <c r="G479" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H479" t="s">
         <v>216</v>
@@ -25187,10 +25598,10 @@
         <v>45966</v>
       </c>
       <c r="B480" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C480" t="s">
         <v>1345</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1346</v>
       </c>
       <c r="D480" t="s">
         <v>233</v>
@@ -25202,7 +25613,7 @@
         <v>18</v>
       </c>
       <c r="G480" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H480" t="s">
         <v>216</v>
@@ -25219,10 +25630,10 @@
         <v>45966</v>
       </c>
       <c r="B481" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C481" t="s">
         <v>1348</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1349</v>
       </c>
       <c r="D481" t="s">
         <v>233</v>
@@ -25234,7 +25645,7 @@
         <v>18</v>
       </c>
       <c r="G481" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H481" t="s">
         <v>216</v>
@@ -25251,10 +25662,10 @@
         <v>45966</v>
       </c>
       <c r="B482" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C482" t="s">
         <v>1351</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1352</v>
       </c>
       <c r="D482" t="s">
         <v>233</v>
@@ -25266,7 +25677,7 @@
         <v>18</v>
       </c>
       <c r="G482" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H482" t="s">
         <v>216</v>
@@ -25283,10 +25694,10 @@
         <v>45966</v>
       </c>
       <c r="B483" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C483" t="s">
         <v>1354</v>
-      </c>
-      <c r="C483" t="s">
-        <v>1355</v>
       </c>
       <c r="D483" t="s">
         <v>347</v>
@@ -25298,7 +25709,7 @@
         <v>18</v>
       </c>
       <c r="G483" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H483" t="s">
         <v>216</v>
@@ -25315,10 +25726,10 @@
         <v>45966</v>
       </c>
       <c r="B484" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C484" t="s">
         <v>1357</v>
-      </c>
-      <c r="C484" t="s">
-        <v>1358</v>
       </c>
       <c r="D484" t="s">
         <v>347</v>
@@ -25330,7 +25741,7 @@
         <v>18</v>
       </c>
       <c r="G484" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H484" t="s">
         <v>216</v>
@@ -25347,10 +25758,10 @@
         <v>45966</v>
       </c>
       <c r="B485" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C485" t="s">
         <v>1360</v>
-      </c>
-      <c r="C485" t="s">
-        <v>1361</v>
       </c>
       <c r="D485" t="s">
         <v>229</v>
@@ -25362,7 +25773,7 @@
         <v>18</v>
       </c>
       <c r="G485" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H485" t="s">
         <v>216</v>
@@ -25379,10 +25790,10 @@
         <v>45966</v>
       </c>
       <c r="B486" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C486" t="s">
         <v>1363</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1364</v>
       </c>
       <c r="D486" t="s">
         <v>229</v>
@@ -25411,10 +25822,10 @@
         <v>45966</v>
       </c>
       <c r="B487" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C487" t="s">
         <v>1365</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1366</v>
       </c>
       <c r="D487" t="s">
         <v>229</v>
@@ -25426,7 +25837,7 @@
         <v>18</v>
       </c>
       <c r="G487" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H487" t="s">
         <v>216</v>
@@ -25443,10 +25854,10 @@
         <v>45966</v>
       </c>
       <c r="B488" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C488" t="s">
         <v>1368</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1369</v>
       </c>
       <c r="D488" t="s">
         <v>262</v>
@@ -25475,10 +25886,10 @@
         <v>45966</v>
       </c>
       <c r="B489" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C489" t="s">
         <v>1370</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1371</v>
       </c>
       <c r="D489" t="s">
         <v>284</v>
@@ -25507,10 +25918,10 @@
         <v>45966</v>
       </c>
       <c r="B490" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C490" t="s">
         <v>1372</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1373</v>
       </c>
       <c r="D490" t="s">
         <v>301</v>
@@ -25539,10 +25950,10 @@
         <v>45966</v>
       </c>
       <c r="B491" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C491" t="s">
         <v>1374</v>
-      </c>
-      <c r="C491" t="s">
-        <v>1375</v>
       </c>
       <c r="D491" t="s">
         <v>301</v>
@@ -25571,10 +25982,10 @@
         <v>45966</v>
       </c>
       <c r="B492" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C492" t="s">
         <v>1376</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1377</v>
       </c>
       <c r="D492" t="s">
         <v>254</v>
@@ -25603,10 +26014,10 @@
         <v>45966</v>
       </c>
       <c r="B493" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C493" t="s">
         <v>1378</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1379</v>
       </c>
       <c r="D493" t="s">
         <v>317</v>
@@ -25618,7 +26029,7 @@
         <v>18</v>
       </c>
       <c r="G493" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H493" t="s">
         <v>216</v>
@@ -25635,10 +26046,10 @@
         <v>45966</v>
       </c>
       <c r="B494" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C494" t="s">
         <v>1381</v>
-      </c>
-      <c r="C494" t="s">
-        <v>1382</v>
       </c>
       <c r="D494" t="s">
         <v>317</v>
@@ -25667,10 +26078,10 @@
         <v>45966</v>
       </c>
       <c r="B495" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C495" t="s">
         <v>1383</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1384</v>
       </c>
       <c r="D495" t="s">
         <v>317</v>
@@ -25699,10 +26110,10 @@
         <v>45966</v>
       </c>
       <c r="B496" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C496" t="s">
         <v>1385</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1386</v>
       </c>
       <c r="D496" t="s">
         <v>293</v>
@@ -25731,10 +26142,10 @@
         <v>45966</v>
       </c>
       <c r="B497" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C497" t="s">
         <v>1387</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1388</v>
       </c>
       <c r="D497" t="s">
         <v>293</v>
@@ -25763,10 +26174,10 @@
         <v>45966</v>
       </c>
       <c r="B498" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C498" t="s">
         <v>1389</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1390</v>
       </c>
       <c r="D498" t="s">
         <v>237</v>
@@ -25778,7 +26189,7 @@
         <v>18</v>
       </c>
       <c r="G498" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H498" t="s">
         <v>216</v>
@@ -25795,10 +26206,10 @@
         <v>45966</v>
       </c>
       <c r="B499" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C499" t="s">
         <v>1392</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1393</v>
       </c>
       <c r="D499" t="s">
         <v>276</v>
@@ -25810,7 +26221,7 @@
         <v>18</v>
       </c>
       <c r="G499" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H499" t="s">
         <v>216</v>
@@ -25827,10 +26238,10 @@
         <v>45966</v>
       </c>
       <c r="B500" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C500" t="s">
         <v>1395</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1396</v>
       </c>
       <c r="D500" t="s">
         <v>276</v>
@@ -25859,10 +26270,10 @@
         <v>45966</v>
       </c>
       <c r="B501" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C501" t="s">
         <v>1397</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1398</v>
       </c>
       <c r="D501" t="s">
         <v>276</v>
@@ -25874,7 +26285,7 @@
         <v>18</v>
       </c>
       <c r="G501" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H501" t="s">
         <v>216</v>
@@ -25891,10 +26302,10 @@
         <v>45966</v>
       </c>
       <c r="B502" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C502" t="s">
         <v>1400</v>
-      </c>
-      <c r="C502" t="s">
-        <v>1401</v>
       </c>
       <c r="D502" t="s">
         <v>245</v>
@@ -25923,10 +26334,10 @@
         <v>45966</v>
       </c>
       <c r="B503" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C503" t="s">
         <v>1402</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1403</v>
       </c>
       <c r="D503" t="s">
         <v>245</v>
@@ -25938,7 +26349,7 @@
         <v>18</v>
       </c>
       <c r="G503" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H503" t="s">
         <v>216</v>
@@ -25955,10 +26366,10 @@
         <v>45966</v>
       </c>
       <c r="B504" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C504" t="s">
         <v>1404</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1405</v>
       </c>
       <c r="D504" t="s">
         <v>273</v>
@@ -25987,10 +26398,10 @@
         <v>45966</v>
       </c>
       <c r="B505" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C505" t="s">
         <v>1406</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1407</v>
       </c>
       <c r="D505" t="s">
         <v>1208</v>
@@ -26019,10 +26430,10 @@
         <v>45966</v>
       </c>
       <c r="B506" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C506" t="s">
         <v>1408</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1409</v>
       </c>
       <c r="D506" t="s">
         <v>306</v>
@@ -26051,10 +26462,10 @@
         <v>45966</v>
       </c>
       <c r="B507" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C507" t="s">
         <v>1410</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1411</v>
       </c>
       <c r="D507" t="s">
         <v>560</v>
@@ -26075,7 +26486,7 @@
         <v>29</v>
       </c>
       <c r="K507" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
@@ -26083,10 +26494,10 @@
         <v>45966</v>
       </c>
       <c r="B508" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C508" t="s">
         <v>1413</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1414</v>
       </c>
       <c r="D508" t="s">
         <v>296</v>
@@ -26115,10 +26526,10 @@
         <v>45966</v>
       </c>
       <c r="B509" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C509" t="s">
         <v>1415</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1416</v>
       </c>
       <c r="D509" t="s">
         <v>224</v>
@@ -26147,10 +26558,10 @@
         <v>45966</v>
       </c>
       <c r="B510" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C510" t="s">
         <v>1417</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1418</v>
       </c>
       <c r="D510" t="s">
         <v>233</v>
@@ -26179,10 +26590,10 @@
         <v>45966</v>
       </c>
       <c r="B511" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C511" t="s">
         <v>1419</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1420</v>
       </c>
       <c r="D511" t="s">
         <v>219</v>
@@ -26211,10 +26622,10 @@
         <v>45966</v>
       </c>
       <c r="B512" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C512" t="s">
         <v>1421</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1422</v>
       </c>
       <c r="D512" t="s">
         <v>262</v>
@@ -26243,10 +26654,10 @@
         <v>45966</v>
       </c>
       <c r="B513" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C513" t="s">
         <v>1423</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1424</v>
       </c>
       <c r="D513" t="s">
         <v>214</v>
@@ -26275,10 +26686,10 @@
         <v>45966</v>
       </c>
       <c r="B514" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C514" t="s">
         <v>1425</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1426</v>
       </c>
       <c r="D514" t="s">
         <v>258</v>
@@ -26307,10 +26718,10 @@
         <v>45966</v>
       </c>
       <c r="B515" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C515" t="s">
         <v>1427</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1428</v>
       </c>
       <c r="D515" t="s">
         <v>224</v>
@@ -26339,13 +26750,13 @@
         <v>45966</v>
       </c>
       <c r="B516" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C516" t="s">
         <v>1429</v>
       </c>
-      <c r="C516" t="s">
+      <c r="D516" t="s">
         <v>1430</v>
-      </c>
-      <c r="D516" t="s">
-        <v>1431</v>
       </c>
       <c r="E516" t="s">
         <v>17</v>
@@ -26354,7 +26765,7 @@
         <v>18</v>
       </c>
       <c r="G516" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H516" t="s">
         <v>20</v>
@@ -26369,7 +26780,7 @@
         <v>23</v>
       </c>
       <c r="L516" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.3">
@@ -26377,13 +26788,13 @@
         <v>45966</v>
       </c>
       <c r="B517" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C517" t="s">
         <v>1433</v>
       </c>
-      <c r="C517" t="s">
+      <c r="D517" t="s">
         <v>1434</v>
-      </c>
-      <c r="D517" t="s">
-        <v>1435</v>
       </c>
       <c r="E517" t="s">
         <v>17</v>
@@ -26407,7 +26818,7 @@
         <v>37</v>
       </c>
       <c r="L517" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.3">
@@ -26415,13 +26826,13 @@
         <v>45966</v>
       </c>
       <c r="B518" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C518" t="s">
         <v>1436</v>
       </c>
-      <c r="C518" t="s">
+      <c r="D518" t="s">
         <v>1437</v>
-      </c>
-      <c r="D518" t="s">
-        <v>1438</v>
       </c>
       <c r="E518" t="s">
         <v>17</v>
@@ -26445,7 +26856,7 @@
         <v>23</v>
       </c>
       <c r="L518" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.3">
@@ -26453,13 +26864,13 @@
         <v>45966</v>
       </c>
       <c r="B519" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C519" t="s">
         <v>1439</v>
       </c>
-      <c r="C519" t="s">
-        <v>1440</v>
-      </c>
       <c r="D519" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E519" t="s">
         <v>17</v>
@@ -26483,7 +26894,7 @@
         <v>37</v>
       </c>
       <c r="L519" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.3">
@@ -26491,13 +26902,13 @@
         <v>45966</v>
       </c>
       <c r="B520" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C520" t="s">
         <v>1441</v>
       </c>
-      <c r="C520" t="s">
+      <c r="D520" t="s">
         <v>1442</v>
-      </c>
-      <c r="D520" t="s">
-        <v>1443</v>
       </c>
       <c r="E520" t="s">
         <v>17</v>
@@ -26521,7 +26932,7 @@
         <v>23</v>
       </c>
       <c r="L520" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.3">
@@ -26529,22 +26940,22 @@
         <v>45966</v>
       </c>
       <c r="B521" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C521" t="s">
         <v>1444</v>
       </c>
-      <c r="C521" t="s">
+      <c r="D521" t="s">
         <v>1445</v>
       </c>
-      <c r="D521" t="s">
+      <c r="E521" t="s">
         <v>1446</v>
       </c>
-      <c r="E521" t="s">
+      <c r="F521" t="s">
+        <v>18</v>
+      </c>
+      <c r="G521" t="s">
         <v>1447</v>
-      </c>
-      <c r="F521" t="s">
-        <v>18</v>
-      </c>
-      <c r="G521" t="s">
-        <v>1448</v>
       </c>
       <c r="H521" t="s">
         <v>20</v>
@@ -26559,7 +26970,7 @@
         <v>37</v>
       </c>
       <c r="L521" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.3">
@@ -26567,10 +26978,10 @@
         <v>45967</v>
       </c>
       <c r="B522" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C522" t="s">
         <v>1449</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1450</v>
       </c>
       <c r="D522" t="s">
         <v>66</v>
@@ -26582,7 +26993,7 @@
         <v>882</v>
       </c>
       <c r="G522" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H522" t="s">
         <v>20</v>
@@ -26608,10 +27019,10 @@
         <v>45967</v>
       </c>
       <c r="B523" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C523" t="s">
         <v>1452</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1453</v>
       </c>
       <c r="D523" t="s">
         <v>55</v>
@@ -26652,10 +27063,10 @@
         <v>45967</v>
       </c>
       <c r="B524" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C524" t="s">
         <v>1454</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1455</v>
       </c>
       <c r="D524" t="s">
         <v>55</v>
@@ -26696,10 +27107,10 @@
         <v>45967</v>
       </c>
       <c r="B525" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C525" t="s">
         <v>1456</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1457</v>
       </c>
       <c r="D525" t="s">
         <v>26</v>
@@ -26740,10 +27151,10 @@
         <v>45967</v>
       </c>
       <c r="B526" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C526" t="s">
         <v>1458</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1459</v>
       </c>
       <c r="D526" t="s">
         <v>80</v>
@@ -26778,10 +27189,10 @@
         <v>45967</v>
       </c>
       <c r="B527" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C527" t="s">
         <v>1460</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1461</v>
       </c>
       <c r="D527" t="s">
         <v>80</v>
@@ -26816,10 +27227,10 @@
         <v>45967</v>
       </c>
       <c r="B528" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C528" t="s">
         <v>1462</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1463</v>
       </c>
       <c r="D528" t="s">
         <v>97</v>
@@ -26831,7 +27242,7 @@
         <v>18</v>
       </c>
       <c r="G528" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H528" t="s">
         <v>20</v>
@@ -26860,10 +27271,10 @@
         <v>45967</v>
       </c>
       <c r="B529" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C529" t="s">
         <v>1465</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1466</v>
       </c>
       <c r="D529" t="s">
         <v>192</v>
@@ -26884,7 +27295,7 @@
         <v>56</v>
       </c>
       <c r="J529" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="K529" t="s">
         <v>23</v>
@@ -26904,10 +27315,10 @@
         <v>45967</v>
       </c>
       <c r="B530" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C530" t="s">
         <v>1468</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1469</v>
       </c>
       <c r="D530" t="s">
         <v>729</v>
@@ -26948,10 +27359,10 @@
         <v>45967</v>
       </c>
       <c r="B531" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C531" t="s">
         <v>1470</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1471</v>
       </c>
       <c r="D531" t="s">
         <v>63</v>
@@ -26992,10 +27403,10 @@
         <v>45967</v>
       </c>
       <c r="B532" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C532" t="s">
         <v>1472</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1473</v>
       </c>
       <c r="D532" t="s">
         <v>71</v>
@@ -27036,10 +27447,10 @@
         <v>45967</v>
       </c>
       <c r="B533" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C533" t="s">
         <v>1474</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1475</v>
       </c>
       <c r="D533" t="s">
         <v>136</v>
@@ -27051,7 +27462,7 @@
         <v>18</v>
       </c>
       <c r="G533" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H533" t="s">
         <v>20</v>
@@ -27080,10 +27491,10 @@
         <v>45967</v>
       </c>
       <c r="B534" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C534" t="s">
         <v>1477</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1478</v>
       </c>
       <c r="D534" t="s">
         <v>117</v>
@@ -27095,7 +27506,7 @@
         <v>18</v>
       </c>
       <c r="G534" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H534" t="s">
         <v>20</v>
@@ -27124,10 +27535,10 @@
         <v>45967</v>
       </c>
       <c r="B535" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C535" t="s">
         <v>1480</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1481</v>
       </c>
       <c r="D535" t="s">
         <v>51</v>
@@ -27139,7 +27550,7 @@
         <v>18</v>
       </c>
       <c r="G535" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H535" t="s">
         <v>20</v>
@@ -27162,10 +27573,10 @@
         <v>45967</v>
       </c>
       <c r="B536" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C536" t="s">
         <v>1483</v>
-      </c>
-      <c r="C536" t="s">
-        <v>1484</v>
       </c>
       <c r="D536" t="s">
         <v>55</v>
@@ -27206,10 +27617,10 @@
         <v>45967</v>
       </c>
       <c r="B537" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C537" t="s">
         <v>1485</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1486</v>
       </c>
       <c r="D537" t="s">
         <v>206</v>
@@ -27250,10 +27661,10 @@
         <v>45967</v>
       </c>
       <c r="B538" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C538" t="s">
         <v>1487</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1488</v>
       </c>
       <c r="D538" t="s">
         <v>26</v>
@@ -27294,10 +27705,10 @@
         <v>45967</v>
       </c>
       <c r="B539" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C539" t="s">
         <v>1489</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1490</v>
       </c>
       <c r="D539" t="s">
         <v>97</v>
@@ -27309,7 +27720,7 @@
         <v>18</v>
       </c>
       <c r="G539" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H539" t="s">
         <v>20</v>
@@ -27338,10 +27749,10 @@
         <v>45967</v>
       </c>
       <c r="B540" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C540" t="s">
         <v>1492</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1493</v>
       </c>
       <c r="D540" t="s">
         <v>97</v>
@@ -27353,7 +27764,7 @@
         <v>18</v>
       </c>
       <c r="G540" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H540" t="s">
         <v>20</v>
@@ -27365,7 +27776,7 @@
         <v>22</v>
       </c>
       <c r="K540" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="L540" t="s">
         <v>97</v>
@@ -27382,10 +27793,10 @@
         <v>45967</v>
       </c>
       <c r="B541" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C541" t="s">
         <v>1496</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1497</v>
       </c>
       <c r="D541" t="s">
         <v>40</v>
@@ -27397,7 +27808,7 @@
         <v>18</v>
       </c>
       <c r="G541" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H541" t="s">
         <v>20</v>
@@ -27426,10 +27837,10 @@
         <v>45967</v>
       </c>
       <c r="B542" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C542" t="s">
         <v>1499</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1500</v>
       </c>
       <c r="D542" t="s">
         <v>117</v>
@@ -27441,7 +27852,7 @@
         <v>18</v>
       </c>
       <c r="G542" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H542" t="s">
         <v>20</v>
@@ -27470,10 +27881,10 @@
         <v>45967</v>
       </c>
       <c r="B543" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C543" t="s">
         <v>1502</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1503</v>
       </c>
       <c r="D543" t="s">
         <v>51</v>
@@ -27485,7 +27896,7 @@
         <v>18</v>
       </c>
       <c r="G543" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H543" t="s">
         <v>20</v>
@@ -27508,10 +27919,10 @@
         <v>45967</v>
       </c>
       <c r="B544" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C544" t="s">
         <v>1505</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1506</v>
       </c>
       <c r="D544" t="s">
         <v>206</v>
@@ -27549,22 +27960,22 @@
         <v>45967</v>
       </c>
       <c r="B545" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C545" t="s">
         <v>1507</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1508</v>
       </c>
       <c r="D545" t="s">
         <v>192</v>
       </c>
       <c r="E545" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F545" t="s">
         <v>148</v>
       </c>
       <c r="G545" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H545" t="s">
         <v>20</v>
@@ -27593,10 +28004,10 @@
         <v>45967</v>
       </c>
       <c r="B546" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C546" t="s">
         <v>1511</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1512</v>
       </c>
       <c r="D546" t="s">
         <v>192</v>
@@ -27608,7 +28019,7 @@
         <v>148</v>
       </c>
       <c r="G546" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H546" t="s">
         <v>20</v>
@@ -27634,10 +28045,10 @@
         <v>45967</v>
       </c>
       <c r="B547" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C547" t="s">
         <v>1513</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1514</v>
       </c>
       <c r="D547" t="s">
         <v>71</v>
@@ -27675,10 +28086,10 @@
         <v>45967</v>
       </c>
       <c r="B548" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C548" t="s">
         <v>1515</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1516</v>
       </c>
       <c r="D548" t="s">
         <v>80</v>
@@ -27710,10 +28121,10 @@
         <v>45967</v>
       </c>
       <c r="B549" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C549" t="s">
         <v>1517</v>
-      </c>
-      <c r="C549" t="s">
-        <v>1518</v>
       </c>
       <c r="D549" t="s">
         <v>51</v>
@@ -27725,7 +28136,7 @@
         <v>185</v>
       </c>
       <c r="G549" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H549" t="s">
         <v>20</v>
@@ -27734,7 +28145,7 @@
         <v>21</v>
       </c>
       <c r="J549" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="K549" t="s">
         <v>23</v>
@@ -27748,10 +28159,10 @@
         <v>45967</v>
       </c>
       <c r="B550" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C550" t="s">
         <v>1521</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1522</v>
       </c>
       <c r="D550" t="s">
         <v>55</v>
@@ -27789,10 +28200,10 @@
         <v>45967</v>
       </c>
       <c r="B551" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C551" t="s">
         <v>1523</v>
-      </c>
-      <c r="C551" t="s">
-        <v>1524</v>
       </c>
       <c r="D551" t="s">
         <v>34</v>
@@ -27830,10 +28241,10 @@
         <v>45967</v>
       </c>
       <c r="B552" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C552" t="s">
         <v>1525</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1526</v>
       </c>
       <c r="D552" t="s">
         <v>51</v>
@@ -27845,7 +28256,7 @@
         <v>172</v>
       </c>
       <c r="G552" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H552" t="s">
         <v>20</v>
@@ -27865,13 +28276,13 @@
         <v>45967</v>
       </c>
       <c r="B553" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C553" t="s">
         <v>1528</v>
       </c>
-      <c r="C553" t="s">
-        <v>1529</v>
-      </c>
       <c r="D553" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E553" t="s">
         <v>17</v>
@@ -27880,7 +28291,7 @@
         <v>18</v>
       </c>
       <c r="G553" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H553" t="s">
         <v>20</v>
@@ -27895,7 +28306,7 @@
         <v>37</v>
       </c>
       <c r="L553" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.3">
@@ -27903,13 +28314,13 @@
         <v>45967</v>
       </c>
       <c r="B554" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C554" t="s">
         <v>1530</v>
       </c>
-      <c r="C554" t="s">
+      <c r="D554" t="s">
         <v>1531</v>
-      </c>
-      <c r="D554" t="s">
-        <v>1532</v>
       </c>
       <c r="E554" t="s">
         <v>17</v>
@@ -27933,7 +28344,7 @@
         <v>37</v>
       </c>
       <c r="L554" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.3">
@@ -27941,10 +28352,10 @@
         <v>45967</v>
       </c>
       <c r="B555" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C555" t="s">
         <v>1533</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1534</v>
       </c>
       <c r="D555" t="s">
         <v>326</v>
@@ -27976,10 +28387,10 @@
         <v>45967</v>
       </c>
       <c r="B556" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C556" t="s">
         <v>1535</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1536</v>
       </c>
       <c r="D556" t="s">
         <v>241</v>
@@ -27991,7 +28402,7 @@
         <v>18</v>
       </c>
       <c r="G556" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H556" t="s">
         <v>216</v>
@@ -28011,10 +28422,10 @@
         <v>45967</v>
       </c>
       <c r="B557" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C557" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D557" t="s">
         <v>241</v>
@@ -28026,7 +28437,7 @@
         <v>18</v>
       </c>
       <c r="G557" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H557" t="s">
         <v>216</v>
@@ -28046,10 +28457,10 @@
         <v>45967</v>
       </c>
       <c r="B558" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C558" t="s">
         <v>1540</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1541</v>
       </c>
       <c r="D558" t="s">
         <v>241</v>
@@ -28081,10 +28492,10 @@
         <v>45967</v>
       </c>
       <c r="B559" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C559" t="s">
         <v>1542</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1543</v>
       </c>
       <c r="D559" t="s">
         <v>219</v>
@@ -28116,10 +28527,10 @@
         <v>45967</v>
       </c>
       <c r="B560" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C560" t="s">
         <v>1544</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1545</v>
       </c>
       <c r="D560" t="s">
         <v>219</v>
@@ -28151,10 +28562,10 @@
         <v>45967</v>
       </c>
       <c r="B561" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C561" t="s">
         <v>1546</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1547</v>
       </c>
       <c r="D561" t="s">
         <v>214</v>
@@ -28189,10 +28600,10 @@
         <v>45967</v>
       </c>
       <c r="B562" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C562" t="s">
         <v>1548</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1549</v>
       </c>
       <c r="D562" t="s">
         <v>214</v>
@@ -28224,10 +28635,10 @@
         <v>45967</v>
       </c>
       <c r="B563" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C563" t="s">
         <v>1550</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1551</v>
       </c>
       <c r="D563" t="s">
         <v>214</v>
@@ -28259,10 +28670,10 @@
         <v>45967</v>
       </c>
       <c r="B564" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C564" t="s">
         <v>1552</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1553</v>
       </c>
       <c r="D564" t="s">
         <v>214</v>
@@ -28294,10 +28705,10 @@
         <v>45967</v>
       </c>
       <c r="B565" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C565" t="s">
         <v>1554</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1555</v>
       </c>
       <c r="D565" t="s">
         <v>233</v>
@@ -28329,10 +28740,10 @@
         <v>45967</v>
       </c>
       <c r="B566" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C566" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D566" t="s">
         <v>233</v>
@@ -28364,10 +28775,10 @@
         <v>45967</v>
       </c>
       <c r="B567" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C567" t="s">
         <v>1557</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1558</v>
       </c>
       <c r="D567" t="s">
         <v>233</v>
@@ -28379,7 +28790,7 @@
         <v>18</v>
       </c>
       <c r="G567" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H567" t="s">
         <v>216</v>
@@ -28399,10 +28810,10 @@
         <v>45967</v>
       </c>
       <c r="B568" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C568" t="s">
         <v>1560</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1561</v>
       </c>
       <c r="D568" t="s">
         <v>233</v>
@@ -28414,7 +28825,7 @@
         <v>18</v>
       </c>
       <c r="G568" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H568" t="s">
         <v>216</v>
@@ -28434,10 +28845,10 @@
         <v>45967</v>
       </c>
       <c r="B569" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C569" t="s">
         <v>1563</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1564</v>
       </c>
       <c r="D569" t="s">
         <v>347</v>
@@ -28469,10 +28880,10 @@
         <v>45967</v>
       </c>
       <c r="B570" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C570" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D570" t="s">
         <v>229</v>
@@ -28504,10 +28915,10 @@
         <v>45967</v>
       </c>
       <c r="B571" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C571" t="s">
         <v>1566</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1567</v>
       </c>
       <c r="D571" t="s">
         <v>229</v>
@@ -28539,10 +28950,10 @@
         <v>45967</v>
       </c>
       <c r="B572" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C572" t="s">
         <v>1568</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1569</v>
       </c>
       <c r="D572" t="s">
         <v>258</v>
@@ -28554,7 +28965,7 @@
         <v>18</v>
       </c>
       <c r="G572" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H572" t="s">
         <v>216</v>
@@ -28574,10 +28985,10 @@
         <v>45967</v>
       </c>
       <c r="B573" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C573" t="s">
         <v>1570</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1571</v>
       </c>
       <c r="D573" t="s">
         <v>258</v>
@@ -28609,10 +29020,10 @@
         <v>45967</v>
       </c>
       <c r="B574" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C574" t="s">
         <v>1572</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1573</v>
       </c>
       <c r="D574" t="s">
         <v>258</v>
@@ -28644,10 +29055,10 @@
         <v>45967</v>
       </c>
       <c r="B575" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C575" t="s">
         <v>1574</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1575</v>
       </c>
       <c r="D575" t="s">
         <v>262</v>
@@ -28659,7 +29070,7 @@
         <v>18</v>
       </c>
       <c r="G575" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H575" t="s">
         <v>216</v>
@@ -28679,10 +29090,10 @@
         <v>45967</v>
       </c>
       <c r="B576" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C576" t="s">
         <v>1577</v>
-      </c>
-      <c r="C576" t="s">
-        <v>1578</v>
       </c>
       <c r="D576" t="s">
         <v>262</v>
@@ -28714,10 +29125,10 @@
         <v>45967</v>
       </c>
       <c r="B577" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C577" t="s">
         <v>1579</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1580</v>
       </c>
       <c r="D577" t="s">
         <v>262</v>
@@ -28729,7 +29140,7 @@
         <v>18</v>
       </c>
       <c r="G577" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H577" t="s">
         <v>216</v>
@@ -28749,10 +29160,10 @@
         <v>45967</v>
       </c>
       <c r="B578" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C578" t="s">
         <v>1582</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1583</v>
       </c>
       <c r="D578" t="s">
         <v>262</v>
@@ -28784,10 +29195,10 @@
         <v>45967</v>
       </c>
       <c r="B579" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C579" t="s">
         <v>1584</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1585</v>
       </c>
       <c r="D579" t="s">
         <v>262</v>
@@ -28799,7 +29210,7 @@
         <v>18</v>
       </c>
       <c r="G579" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H579" t="s">
         <v>216</v>
@@ -28819,10 +29230,10 @@
         <v>45967</v>
       </c>
       <c r="B580" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C580" t="s">
         <v>1587</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1588</v>
       </c>
       <c r="D580" t="s">
         <v>262</v>
@@ -28834,7 +29245,7 @@
         <v>18</v>
       </c>
       <c r="G580" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H580" t="s">
         <v>216</v>
@@ -28854,10 +29265,10 @@
         <v>45967</v>
       </c>
       <c r="B581" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C581" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D581" t="s">
         <v>284</v>
@@ -28869,7 +29280,7 @@
         <v>18</v>
       </c>
       <c r="G581" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H581" t="s">
         <v>216</v>
@@ -28889,10 +29300,10 @@
         <v>45967</v>
       </c>
       <c r="B582" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C582" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D582" t="s">
         <v>254</v>
@@ -28904,7 +29315,7 @@
         <v>18</v>
       </c>
       <c r="G582" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H582" t="s">
         <v>216</v>
@@ -28924,10 +29335,10 @@
         <v>45967</v>
       </c>
       <c r="B583" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C583" t="s">
         <v>1592</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1593</v>
       </c>
       <c r="D583" t="s">
         <v>254</v>
@@ -28959,10 +29370,10 @@
         <v>45967</v>
       </c>
       <c r="B584" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C584" t="s">
         <v>1594</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1595</v>
       </c>
       <c r="D584" t="s">
         <v>254</v>
@@ -28974,7 +29385,7 @@
         <v>18</v>
       </c>
       <c r="G584" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H584" t="s">
         <v>216</v>
@@ -28994,10 +29405,10 @@
         <v>45967</v>
       </c>
       <c r="B585" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C585" t="s">
         <v>1596</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1597</v>
       </c>
       <c r="D585" t="s">
         <v>317</v>
@@ -29029,10 +29440,10 @@
         <v>45967</v>
       </c>
       <c r="B586" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C586" t="s">
         <v>1598</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1599</v>
       </c>
       <c r="D586" t="s">
         <v>317</v>
@@ -29044,7 +29455,7 @@
         <v>18</v>
       </c>
       <c r="G586" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H586" t="s">
         <v>216</v>
@@ -29064,10 +29475,10 @@
         <v>45967</v>
       </c>
       <c r="B587" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C587" t="s">
         <v>1601</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1602</v>
       </c>
       <c r="D587" t="s">
         <v>317</v>
@@ -29079,7 +29490,7 @@
         <v>18</v>
       </c>
       <c r="G587" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H587" t="s">
         <v>216</v>
@@ -29099,10 +29510,10 @@
         <v>45967</v>
       </c>
       <c r="B588" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C588" t="s">
         <v>1603</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1604</v>
       </c>
       <c r="D588" t="s">
         <v>293</v>
@@ -29134,10 +29545,10 @@
         <v>45967</v>
       </c>
       <c r="B589" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C589" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D589" t="s">
         <v>293</v>
@@ -29149,7 +29560,7 @@
         <v>18</v>
       </c>
       <c r="G589" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H589" t="s">
         <v>216</v>
@@ -29169,10 +29580,10 @@
         <v>45967</v>
       </c>
       <c r="B590" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C590" t="s">
         <v>1607</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1608</v>
       </c>
       <c r="D590" t="s">
         <v>293</v>
@@ -29204,10 +29615,10 @@
         <v>45967</v>
       </c>
       <c r="B591" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C591" t="s">
         <v>1609</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1610</v>
       </c>
       <c r="D591" t="s">
         <v>269</v>
@@ -29219,7 +29630,7 @@
         <v>18</v>
       </c>
       <c r="G591" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H591" t="s">
         <v>216</v>
@@ -29239,10 +29650,10 @@
         <v>45967</v>
       </c>
       <c r="B592" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C592" t="s">
         <v>1612</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1613</v>
       </c>
       <c r="D592" t="s">
         <v>237</v>
@@ -29274,10 +29685,10 @@
         <v>45967</v>
       </c>
       <c r="B593" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C593" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D593" t="s">
         <v>237</v>
@@ -29289,7 +29700,7 @@
         <v>18</v>
       </c>
       <c r="G593" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H593" t="s">
         <v>216</v>
@@ -29309,10 +29720,10 @@
         <v>45967</v>
       </c>
       <c r="B594" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C594" t="s">
         <v>1616</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1617</v>
       </c>
       <c r="D594" t="s">
         <v>237</v>
@@ -29344,10 +29755,10 @@
         <v>45967</v>
       </c>
       <c r="B595" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C595" t="s">
         <v>1618</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1619</v>
       </c>
       <c r="D595" t="s">
         <v>237</v>
@@ -29359,7 +29770,7 @@
         <v>18</v>
       </c>
       <c r="G595" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H595" t="s">
         <v>216</v>
@@ -29379,10 +29790,10 @@
         <v>45967</v>
       </c>
       <c r="B596" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C596" t="s">
         <v>1621</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1622</v>
       </c>
       <c r="D596" t="s">
         <v>237</v>
@@ -29394,7 +29805,7 @@
         <v>18</v>
       </c>
       <c r="G596" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H596" t="s">
         <v>216</v>
@@ -29414,10 +29825,10 @@
         <v>45967</v>
       </c>
       <c r="B597" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C597" t="s">
         <v>1624</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1625</v>
       </c>
       <c r="D597" t="s">
         <v>276</v>
@@ -29449,10 +29860,10 @@
         <v>45967</v>
       </c>
       <c r="B598" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C598" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D598" t="s">
         <v>245</v>
@@ -29484,10 +29895,10 @@
         <v>45967</v>
       </c>
       <c r="B599" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C599" t="s">
         <v>1627</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1628</v>
       </c>
       <c r="D599" t="s">
         <v>245</v>
@@ -29519,10 +29930,10 @@
         <v>45967</v>
       </c>
       <c r="B600" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C600" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D600" t="s">
         <v>273</v>
@@ -29554,10 +29965,10 @@
         <v>45967</v>
       </c>
       <c r="B601" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C601" t="s">
         <v>1630</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1631</v>
       </c>
       <c r="D601" t="s">
         <v>273</v>
@@ -29589,10 +30000,10 @@
         <v>45967</v>
       </c>
       <c r="B602" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C602" t="s">
         <v>1632</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1633</v>
       </c>
       <c r="D602" t="s">
         <v>963</v>
@@ -29624,10 +30035,10 @@
         <v>45967</v>
       </c>
       <c r="B603" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C603" t="s">
         <v>1634</v>
-      </c>
-      <c r="C603" t="s">
-        <v>1635</v>
       </c>
       <c r="D603" t="s">
         <v>210</v>
@@ -29659,10 +30070,10 @@
         <v>45967</v>
       </c>
       <c r="B604" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C604" t="s">
         <v>1636</v>
-      </c>
-      <c r="C604" t="s">
-        <v>1637</v>
       </c>
       <c r="D604" t="s">
         <v>210</v>
@@ -29674,7 +30085,7 @@
         <v>18</v>
       </c>
       <c r="G604" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H604" t="s">
         <v>216</v>
@@ -29694,10 +30105,10 @@
         <v>45967</v>
       </c>
       <c r="B605" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C605" t="s">
         <v>1639</v>
-      </c>
-      <c r="C605" t="s">
-        <v>1640</v>
       </c>
       <c r="D605" t="s">
         <v>210</v>
@@ -29729,10 +30140,10 @@
         <v>45967</v>
       </c>
       <c r="B606" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C606" t="s">
         <v>1641</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1642</v>
       </c>
       <c r="D606" t="s">
         <v>210</v>
@@ -29744,7 +30155,7 @@
         <v>18</v>
       </c>
       <c r="G606" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H606" t="s">
         <v>216</v>
@@ -29764,10 +30175,10 @@
         <v>45967</v>
       </c>
       <c r="B607" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C607" t="s">
         <v>1644</v>
-      </c>
-      <c r="C607" t="s">
-        <v>1645</v>
       </c>
       <c r="D607" t="s">
         <v>306</v>
@@ -29799,10 +30210,10 @@
         <v>45967</v>
       </c>
       <c r="B608" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C608" t="s">
         <v>1646</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1647</v>
       </c>
       <c r="D608" t="s">
         <v>306</v>
@@ -29834,10 +30245,10 @@
         <v>45967</v>
       </c>
       <c r="B609" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C609" t="s">
         <v>1648</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1649</v>
       </c>
       <c r="D609" t="s">
         <v>560</v>
@@ -29869,13 +30280,13 @@
         <v>45967</v>
       </c>
       <c r="B610" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C610" t="s">
         <v>1650</v>
       </c>
-      <c r="C610" t="s">
+      <c r="D610" t="s">
         <v>1651</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1652</v>
       </c>
       <c r="E610" t="s">
         <v>27</v>
@@ -29896,7 +30307,7 @@
         <v>159</v>
       </c>
       <c r="L610" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.3">
@@ -29904,10 +30315,10 @@
         <v>45967</v>
       </c>
       <c r="B611" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C611" t="s">
         <v>1653</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1654</v>
       </c>
       <c r="D611" t="s">
         <v>580</v>
@@ -29939,10 +30350,10 @@
         <v>45967</v>
       </c>
       <c r="B612" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C612" t="s">
         <v>1655</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1656</v>
       </c>
       <c r="D612" t="s">
         <v>224</v>
@@ -29974,10 +30385,10 @@
         <v>45967</v>
       </c>
       <c r="B613" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C613" t="s">
         <v>1657</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1658</v>
       </c>
       <c r="D613" t="s">
         <v>224</v>
@@ -30009,10 +30420,10 @@
         <v>45967</v>
       </c>
       <c r="B614" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C614" t="s">
         <v>1659</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1660</v>
       </c>
       <c r="D614" t="s">
         <v>224</v>
@@ -30044,10 +30455,10 @@
         <v>45967</v>
       </c>
       <c r="B615" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C615" t="s">
         <v>1661</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1662</v>
       </c>
       <c r="D615" t="s">
         <v>224</v>
@@ -30059,7 +30470,7 @@
         <v>18</v>
       </c>
       <c r="G615" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H615" t="s">
         <v>216</v>
@@ -30079,10 +30490,10 @@
         <v>45967</v>
       </c>
       <c r="B616" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C616" t="s">
         <v>1664</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1665</v>
       </c>
       <c r="D616" t="s">
         <v>219</v>
@@ -30114,10 +30525,10 @@
         <v>45967</v>
       </c>
       <c r="B617" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C617" t="s">
         <v>1666</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1667</v>
       </c>
       <c r="D617" t="s">
         <v>214</v>
@@ -30149,10 +30560,10 @@
         <v>45966</v>
       </c>
       <c r="B618" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C618" t="s">
         <v>1668</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1669</v>
       </c>
       <c r="D618" t="s">
         <v>293</v>
@@ -30184,10 +30595,10 @@
         <v>45966</v>
       </c>
       <c r="B619" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C619" t="s">
         <v>1670</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1671</v>
       </c>
       <c r="D619" t="s">
         <v>293</v>
@@ -30219,10 +30630,10 @@
         <v>45966</v>
       </c>
       <c r="B620" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C620" t="s">
         <v>1672</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1673</v>
       </c>
       <c r="D620" t="s">
         <v>224</v>
@@ -30254,22 +30665,22 @@
         <v>45968</v>
       </c>
       <c r="B621" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C621" t="s">
         <v>1674</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1675</v>
       </c>
       <c r="D621" t="s">
         <v>192</v>
       </c>
       <c r="E621" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F621" t="s">
         <v>786</v>
       </c>
       <c r="G621" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H621" t="s">
         <v>20</v>
@@ -30278,7 +30689,7 @@
         <v>29</v>
       </c>
       <c r="J621" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="K621" t="s">
         <v>159</v>
@@ -30298,22 +30709,22 @@
         <v>45968</v>
       </c>
       <c r="B622" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C622" t="s">
         <v>1677</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1678</v>
       </c>
       <c r="D622" t="s">
         <v>192</v>
       </c>
       <c r="E622" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F622" t="s">
         <v>786</v>
       </c>
       <c r="G622" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H622" t="s">
         <v>20</v>
@@ -30339,10 +30750,10 @@
         <v>45968</v>
       </c>
       <c r="B623" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C623" t="s">
         <v>1679</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1680</v>
       </c>
       <c r="D623" t="s">
         <v>77</v>
@@ -30354,7 +30765,7 @@
         <v>882</v>
       </c>
       <c r="G623" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H623" t="s">
         <v>20</v>
@@ -30380,10 +30791,10 @@
         <v>45968</v>
       </c>
       <c r="B624" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C624" t="s">
         <v>1682</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1683</v>
       </c>
       <c r="D624" t="s">
         <v>80</v>
@@ -30395,7 +30806,7 @@
         <v>18</v>
       </c>
       <c r="G624" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H624" t="s">
         <v>20</v>
@@ -30404,7 +30815,7 @@
         <v>56</v>
       </c>
       <c r="J624" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="K624" t="s">
         <v>37</v>
@@ -30418,10 +30829,10 @@
         <v>45968</v>
       </c>
       <c r="B625" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C625" t="s">
         <v>1686</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1687</v>
       </c>
       <c r="D625" t="s">
         <v>55</v>
@@ -30462,10 +30873,10 @@
         <v>45968</v>
       </c>
       <c r="B626" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C626" t="s">
         <v>1688</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1689</v>
       </c>
       <c r="D626" t="s">
         <v>55</v>
@@ -30477,7 +30888,7 @@
         <v>18</v>
       </c>
       <c r="G626" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H626" t="s">
         <v>20</v>
@@ -30506,10 +30917,10 @@
         <v>45968</v>
       </c>
       <c r="B627" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C627" t="s">
         <v>1691</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1692</v>
       </c>
       <c r="D627" t="s">
         <v>60</v>
@@ -30521,7 +30932,7 @@
         <v>18</v>
       </c>
       <c r="G627" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H627" t="s">
         <v>20</v>
@@ -30550,10 +30961,10 @@
         <v>45968</v>
       </c>
       <c r="B628" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C628" t="s">
         <v>1694</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1695</v>
       </c>
       <c r="D628" t="s">
         <v>16</v>
@@ -30594,10 +31005,10 @@
         <v>45968</v>
       </c>
       <c r="B629" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C629" t="s">
         <v>1696</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1697</v>
       </c>
       <c r="D629" t="s">
         <v>51</v>
@@ -30609,7 +31020,7 @@
         <v>18</v>
       </c>
       <c r="G629" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H629" t="s">
         <v>20</v>
@@ -30632,10 +31043,10 @@
         <v>45968</v>
       </c>
       <c r="B630" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C630" t="s">
         <v>1699</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1700</v>
       </c>
       <c r="D630" t="s">
         <v>51</v>
@@ -30667,10 +31078,10 @@
         <v>45968</v>
       </c>
       <c r="B631" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C631" t="s">
         <v>1701</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1702</v>
       </c>
       <c r="D631" t="s">
         <v>55</v>
@@ -30708,22 +31119,22 @@
         <v>45968</v>
       </c>
       <c r="B632" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C632" t="s">
         <v>1703</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1704</v>
       </c>
       <c r="D632" t="s">
         <v>485</v>
       </c>
       <c r="E632" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F632" t="s">
         <v>447</v>
       </c>
       <c r="G632" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H632" t="s">
         <v>20</v>
@@ -30749,10 +31160,10 @@
         <v>45968</v>
       </c>
       <c r="B633" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C633" t="s">
         <v>1706</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1707</v>
       </c>
       <c r="D633" t="s">
         <v>192</v>
@@ -30790,10 +31201,10 @@
         <v>45968</v>
       </c>
       <c r="B634" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C634" t="s">
         <v>1708</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1709</v>
       </c>
       <c r="D634" t="s">
         <v>16</v>
@@ -30805,7 +31216,7 @@
         <v>148</v>
       </c>
       <c r="G634" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H634" t="s">
         <v>20</v>
@@ -30831,22 +31242,22 @@
         <v>45968</v>
       </c>
       <c r="B635" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C635" t="s">
         <v>1711</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1712</v>
       </c>
       <c r="D635" t="s">
         <v>485</v>
       </c>
       <c r="E635" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F635" t="s">
         <v>168</v>
       </c>
       <c r="G635" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H635" t="s">
         <v>20</v>
@@ -30872,10 +31283,10 @@
         <v>45968</v>
       </c>
       <c r="B636" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C636" t="s">
         <v>1714</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1715</v>
       </c>
       <c r="D636" t="s">
         <v>97</v>
@@ -30887,7 +31298,7 @@
         <v>185</v>
       </c>
       <c r="G636" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H636" t="s">
         <v>20</v>
@@ -30913,10 +31324,10 @@
         <v>45968</v>
       </c>
       <c r="B637" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C637" t="s">
         <v>1717</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1718</v>
       </c>
       <c r="D637" t="s">
         <v>71</v>
@@ -30937,7 +31348,7 @@
         <v>21</v>
       </c>
       <c r="K637" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="L637" t="s">
         <v>71</v>
@@ -30954,10 +31365,10 @@
         <v>45968</v>
       </c>
       <c r="B638" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C638" t="s">
         <v>1719</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1720</v>
       </c>
       <c r="D638" t="s">
         <v>34</v>
@@ -30969,7 +31380,7 @@
         <v>137</v>
       </c>
       <c r="G638" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H638" t="s">
         <v>20</v>
@@ -30995,10 +31406,10 @@
         <v>45968</v>
       </c>
       <c r="B639" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C639" t="s">
         <v>1722</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1723</v>
       </c>
       <c r="D639" t="s">
         <v>34</v>
@@ -31036,10 +31447,10 @@
         <v>45968</v>
       </c>
       <c r="B640" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C640" t="s">
         <v>1724</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1725</v>
       </c>
       <c r="D640" t="s">
         <v>326</v>
@@ -31071,10 +31482,10 @@
         <v>45968</v>
       </c>
       <c r="B641" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C641" t="s">
         <v>1726</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1727</v>
       </c>
       <c r="D641" t="s">
         <v>326</v>
@@ -31106,10 +31517,10 @@
         <v>45968</v>
       </c>
       <c r="B642" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C642" t="s">
         <v>1728</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1729</v>
       </c>
       <c r="D642" t="s">
         <v>326</v>
@@ -31141,10 +31552,10 @@
         <v>45968</v>
       </c>
       <c r="B643" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C643" t="s">
         <v>1730</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1731</v>
       </c>
       <c r="D643" t="s">
         <v>219</v>
@@ -31176,10 +31587,10 @@
         <v>45968</v>
       </c>
       <c r="B644" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C644" t="s">
         <v>1732</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1733</v>
       </c>
       <c r="D644" t="s">
         <v>214</v>
@@ -31211,10 +31622,10 @@
         <v>45968</v>
       </c>
       <c r="B645" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C645" t="s">
         <v>1734</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1735</v>
       </c>
       <c r="D645" t="s">
         <v>214</v>
@@ -31246,10 +31657,10 @@
         <v>45968</v>
       </c>
       <c r="B646" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C646" t="s">
         <v>1736</v>
-      </c>
-      <c r="C646" t="s">
-        <v>1737</v>
       </c>
       <c r="D646" t="s">
         <v>214</v>
@@ -31281,10 +31692,10 @@
         <v>45968</v>
       </c>
       <c r="B647" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C647" t="s">
         <v>1738</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1739</v>
       </c>
       <c r="D647" t="s">
         <v>233</v>
@@ -31296,7 +31707,7 @@
         <v>18</v>
       </c>
       <c r="G647" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H647" t="s">
         <v>216</v>
@@ -31316,10 +31727,10 @@
         <v>45968</v>
       </c>
       <c r="B648" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C648" t="s">
         <v>1741</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1742</v>
       </c>
       <c r="D648" t="s">
         <v>233</v>
@@ -31351,10 +31762,10 @@
         <v>45968</v>
       </c>
       <c r="B649" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C649" t="s">
         <v>1743</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1744</v>
       </c>
       <c r="D649" t="s">
         <v>233</v>
@@ -31386,10 +31797,10 @@
         <v>45968</v>
       </c>
       <c r="B650" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C650" t="s">
         <v>1745</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1746</v>
       </c>
       <c r="D650" t="s">
         <v>233</v>
@@ -31401,7 +31812,7 @@
         <v>18</v>
       </c>
       <c r="G650" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H650" t="s">
         <v>216</v>
@@ -31421,10 +31832,10 @@
         <v>45968</v>
       </c>
       <c r="B651" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C651" t="s">
         <v>1748</v>
-      </c>
-      <c r="C651" t="s">
-        <v>1749</v>
       </c>
       <c r="D651" t="s">
         <v>233</v>
@@ -31436,7 +31847,7 @@
         <v>18</v>
       </c>
       <c r="G651" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H651" t="s">
         <v>216</v>
@@ -31456,10 +31867,10 @@
         <v>45968</v>
       </c>
       <c r="B652" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C652" t="s">
         <v>1751</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1752</v>
       </c>
       <c r="D652" t="s">
         <v>233</v>
@@ -31491,10 +31902,10 @@
         <v>45968</v>
       </c>
       <c r="B653" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C653" t="s">
         <v>1753</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1754</v>
       </c>
       <c r="D653" t="s">
         <v>317</v>
@@ -31506,7 +31917,7 @@
         <v>18</v>
       </c>
       <c r="G653" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H653" t="s">
         <v>216</v>
@@ -31526,10 +31937,10 @@
         <v>45968</v>
       </c>
       <c r="B654" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C654" t="s">
         <v>1756</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1757</v>
       </c>
       <c r="D654" t="s">
         <v>317</v>
@@ -31561,10 +31972,10 @@
         <v>45968</v>
       </c>
       <c r="B655" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C655" t="s">
         <v>1758</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1759</v>
       </c>
       <c r="D655" t="s">
         <v>237</v>
@@ -31596,10 +32007,10 @@
         <v>45968</v>
       </c>
       <c r="B656" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C656" t="s">
         <v>1760</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1761</v>
       </c>
       <c r="D656" t="s">
         <v>245</v>
@@ -31631,10 +32042,10 @@
         <v>45968</v>
       </c>
       <c r="B657" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C657" t="s">
         <v>1762</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1763</v>
       </c>
       <c r="D657" t="s">
         <v>245</v>
@@ -31646,7 +32057,7 @@
         <v>18</v>
       </c>
       <c r="G657" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H657" t="s">
         <v>216</v>
@@ -31666,10 +32077,10 @@
         <v>45968</v>
       </c>
       <c r="B658" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C658" t="s">
         <v>1765</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1766</v>
       </c>
       <c r="D658" t="s">
         <v>273</v>
@@ -31701,10 +32112,10 @@
         <v>45968</v>
       </c>
       <c r="B659" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C659" t="s">
         <v>1767</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1768</v>
       </c>
       <c r="D659" t="s">
         <v>210</v>
@@ -31736,10 +32147,10 @@
         <v>45968</v>
       </c>
       <c r="B660" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C660" t="s">
         <v>1769</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1770</v>
       </c>
       <c r="D660" t="s">
         <v>210</v>
@@ -31771,10 +32182,10 @@
         <v>45968</v>
       </c>
       <c r="B661" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C661" t="s">
         <v>1771</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1772</v>
       </c>
       <c r="D661" t="s">
         <v>580</v>
@@ -31806,10 +32217,10 @@
         <v>45968</v>
       </c>
       <c r="B662" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C662" t="s">
         <v>1773</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1774</v>
       </c>
       <c r="D662" t="s">
         <v>214</v>
@@ -31841,10 +32252,10 @@
         <v>45968</v>
       </c>
       <c r="B663" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C663" t="s">
         <v>1775</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1776</v>
       </c>
       <c r="D663" t="s">
         <v>233</v>
@@ -31876,10 +32287,10 @@
         <v>45967</v>
       </c>
       <c r="B664" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C664" t="s">
         <v>1777</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1778</v>
       </c>
       <c r="D664" t="s">
         <v>233</v>
@@ -31911,10 +32322,10 @@
         <v>45968</v>
       </c>
       <c r="B665" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C665" t="s">
         <v>1779</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1780</v>
       </c>
       <c r="D665" t="s">
         <v>229</v>
@@ -31946,10 +32357,10 @@
         <v>45967</v>
       </c>
       <c r="B666" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C666" t="s">
         <v>1781</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1782</v>
       </c>
       <c r="D666" t="s">
         <v>233</v>
@@ -31981,22 +32392,22 @@
         <v>45968</v>
       </c>
       <c r="B667" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C667" t="s">
         <v>1783</v>
       </c>
-      <c r="C667" t="s">
+      <c r="D667" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E667" t="s">
         <v>1784</v>
-      </c>
-      <c r="D667" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E667" t="s">
-        <v>1785</v>
       </c>
       <c r="F667" t="s">
         <v>786</v>
       </c>
       <c r="G667" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H667" t="s">
         <v>20</v>
@@ -32008,7 +32419,7 @@
         <v>23</v>
       </c>
       <c r="L667" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.3">
@@ -32016,10 +32427,10 @@
         <v>45971</v>
       </c>
       <c r="B668" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C668" t="s">
         <v>1787</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1788</v>
       </c>
       <c r="D668" t="s">
         <v>97</v>
@@ -32031,7 +32442,7 @@
         <v>18</v>
       </c>
       <c r="G668" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H668" t="s">
         <v>20</v>
@@ -32060,10 +32471,10 @@
         <v>45971</v>
       </c>
       <c r="B669" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C669" t="s">
         <v>1790</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1791</v>
       </c>
       <c r="D669" t="s">
         <v>729</v>
@@ -32104,10 +32515,10 @@
         <v>45971</v>
       </c>
       <c r="B670" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C670" t="s">
         <v>1792</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1793</v>
       </c>
       <c r="D670" t="s">
         <v>34</v>
@@ -32119,7 +32530,7 @@
         <v>18</v>
       </c>
       <c r="G670" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H670" t="s">
         <v>20</v>
@@ -32128,7 +32539,7 @@
         <v>21</v>
       </c>
       <c r="J670" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="K670" t="s">
         <v>890</v>
@@ -32148,10 +32559,10 @@
         <v>45971</v>
       </c>
       <c r="B671" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C671" t="s">
         <v>1796</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1797</v>
       </c>
       <c r="D671" t="s">
         <v>60</v>
@@ -32163,7 +32574,7 @@
         <v>18</v>
       </c>
       <c r="G671" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H671" t="s">
         <v>20</v>
@@ -32172,10 +32583,10 @@
         <v>56</v>
       </c>
       <c r="J671" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K671" t="s">
         <v>1799</v>
-      </c>
-      <c r="K671" t="s">
-        <v>1800</v>
       </c>
       <c r="L671" t="s">
         <v>60</v>
@@ -32192,10 +32603,10 @@
         <v>45971</v>
       </c>
       <c r="B672" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C672" t="s">
         <v>1801</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1802</v>
       </c>
       <c r="D672" t="s">
         <v>16</v>
@@ -32236,10 +32647,10 @@
         <v>45971</v>
       </c>
       <c r="B673" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C673" t="s">
         <v>1803</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1804</v>
       </c>
       <c r="D673" t="s">
         <v>16</v>
@@ -32280,10 +32691,10 @@
         <v>45971</v>
       </c>
       <c r="B674" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C674" t="s">
         <v>1805</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1806</v>
       </c>
       <c r="D674" t="s">
         <v>34</v>
@@ -32292,10 +32703,10 @@
         <v>132</v>
       </c>
       <c r="F674" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G674" t="s">
         <v>1807</v>
-      </c>
-      <c r="G674" t="s">
-        <v>1808</v>
       </c>
       <c r="H674" t="s">
         <v>20</v>
@@ -32321,10 +32732,10 @@
         <v>45971</v>
       </c>
       <c r="B675" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C675" t="s">
         <v>1809</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1810</v>
       </c>
       <c r="D675" t="s">
         <v>40</v>
@@ -32336,7 +32747,7 @@
         <v>148</v>
       </c>
       <c r="G675" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H675" t="s">
         <v>20</v>
@@ -32362,10 +32773,10 @@
         <v>45971</v>
       </c>
       <c r="B676" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C676" t="s">
         <v>1812</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1813</v>
       </c>
       <c r="D676" t="s">
         <v>60</v>
@@ -32377,7 +32788,7 @@
         <v>148</v>
       </c>
       <c r="G676" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H676" t="s">
         <v>20</v>
@@ -32386,7 +32797,7 @@
         <v>29</v>
       </c>
       <c r="K676" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="L676" t="s">
         <v>60</v>
@@ -32403,10 +32814,10 @@
         <v>45971</v>
       </c>
       <c r="B677" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C677" t="s">
         <v>1816</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1817</v>
       </c>
       <c r="D677" t="s">
         <v>128</v>
@@ -32418,7 +32829,7 @@
         <v>199</v>
       </c>
       <c r="G677" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H677" t="s">
         <v>20</v>
@@ -32444,10 +32855,10 @@
         <v>45971</v>
       </c>
       <c r="B678" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C678" t="s">
         <v>1819</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1820</v>
       </c>
       <c r="D678" t="s">
         <v>729</v>
@@ -32459,7 +32870,7 @@
         <v>199</v>
       </c>
       <c r="G678" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H678" t="s">
         <v>20</v>
@@ -32485,10 +32896,10 @@
         <v>45971</v>
       </c>
       <c r="B679" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C679" t="s">
         <v>1822</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1823</v>
       </c>
       <c r="D679" t="s">
         <v>34</v>
@@ -32500,7 +32911,7 @@
         <v>199</v>
       </c>
       <c r="G679" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H679" t="s">
         <v>20</v>
@@ -32526,10 +32937,10 @@
         <v>45971</v>
       </c>
       <c r="B680" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C680" t="s">
         <v>1824</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1825</v>
       </c>
       <c r="D680" t="s">
         <v>51</v>
@@ -32541,7 +32952,7 @@
         <v>199</v>
       </c>
       <c r="G680" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H680" t="s">
         <v>20</v>
@@ -32561,10 +32972,10 @@
         <v>45971</v>
       </c>
       <c r="B681" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C681" t="s">
         <v>1827</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1828</v>
       </c>
       <c r="D681" t="s">
         <v>34</v>
@@ -32602,13 +33013,13 @@
         <v>45971</v>
       </c>
       <c r="B682" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C682" t="s">
         <v>1829</v>
       </c>
-      <c r="C682" t="s">
+      <c r="D682" t="s">
         <v>1830</v>
-      </c>
-      <c r="D682" t="s">
-        <v>1831</v>
       </c>
       <c r="E682" t="s">
         <v>17</v>
@@ -32617,7 +33028,7 @@
         <v>447</v>
       </c>
       <c r="G682" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H682" t="s">
         <v>20</v>
@@ -32629,7 +33040,7 @@
         <v>159</v>
       </c>
       <c r="L682" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="M682">
         <v>678161</v>
@@ -32643,10 +33054,10 @@
         <v>45971</v>
       </c>
       <c r="B683" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C683" t="s">
         <v>1833</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1834</v>
       </c>
       <c r="D683" t="s">
         <v>219</v>
@@ -32678,10 +33089,10 @@
         <v>45971</v>
       </c>
       <c r="B684" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C684" t="s">
         <v>1835</v>
-      </c>
-      <c r="C684" t="s">
-        <v>1836</v>
       </c>
       <c r="D684" t="s">
         <v>233</v>
@@ -32693,7 +33104,7 @@
         <v>18</v>
       </c>
       <c r="G684" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H684" t="s">
         <v>216</v>
@@ -32713,10 +33124,10 @@
         <v>45971</v>
       </c>
       <c r="B685" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C685" t="s">
         <v>1838</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1839</v>
       </c>
       <c r="D685" t="s">
         <v>347</v>
@@ -32748,10 +33159,10 @@
         <v>45971</v>
       </c>
       <c r="B686" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C686" t="s">
         <v>1840</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1841</v>
       </c>
       <c r="D686" t="s">
         <v>229</v>
@@ -32763,7 +33174,7 @@
         <v>18</v>
       </c>
       <c r="G686" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H686" t="s">
         <v>216</v>
@@ -32783,10 +33194,10 @@
         <v>45971</v>
       </c>
       <c r="B687" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C687" t="s">
         <v>1843</v>
-      </c>
-      <c r="C687" t="s">
-        <v>1844</v>
       </c>
       <c r="D687" t="s">
         <v>229</v>
@@ -32818,10 +33229,10 @@
         <v>45971</v>
       </c>
       <c r="B688" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C688" t="s">
         <v>1845</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1846</v>
       </c>
       <c r="D688" t="s">
         <v>258</v>
@@ -32833,7 +33244,7 @@
         <v>18</v>
       </c>
       <c r="G688" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H688" t="s">
         <v>216</v>
@@ -32853,10 +33264,10 @@
         <v>45971</v>
       </c>
       <c r="B689" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C689" t="s">
         <v>1848</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1849</v>
       </c>
       <c r="D689" t="s">
         <v>258</v>
@@ -32888,10 +33299,10 @@
         <v>45971</v>
       </c>
       <c r="B690" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C690" t="s">
         <v>1850</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1851</v>
       </c>
       <c r="D690" t="s">
         <v>254</v>
@@ -32923,10 +33334,10 @@
         <v>45971</v>
       </c>
       <c r="B691" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C691" t="s">
         <v>1852</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1853</v>
       </c>
       <c r="D691" t="s">
         <v>317</v>
@@ -32938,7 +33349,7 @@
         <v>18</v>
       </c>
       <c r="G691" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H691" t="s">
         <v>216</v>
@@ -32958,10 +33369,10 @@
         <v>45971</v>
       </c>
       <c r="B692" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C692" t="s">
         <v>1855</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1856</v>
       </c>
       <c r="D692" t="s">
         <v>269</v>
@@ -32973,7 +33384,7 @@
         <v>18</v>
       </c>
       <c r="G692" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H692" t="s">
         <v>216</v>
@@ -32993,10 +33404,10 @@
         <v>45971</v>
       </c>
       <c r="B693" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C693" t="s">
         <v>1857</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1858</v>
       </c>
       <c r="D693" t="s">
         <v>273</v>
@@ -33028,10 +33439,10 @@
         <v>45971</v>
       </c>
       <c r="B694" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C694" t="s">
         <v>1859</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1860</v>
       </c>
       <c r="D694" t="s">
         <v>273</v>
@@ -33063,10 +33474,10 @@
         <v>45971</v>
       </c>
       <c r="B695" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C695" t="s">
         <v>1861</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1862</v>
       </c>
       <c r="D695" t="s">
         <v>210</v>
@@ -33078,7 +33489,7 @@
         <v>18</v>
       </c>
       <c r="G695" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H695" t="s">
         <v>216</v>
@@ -33098,10 +33509,10 @@
         <v>45971</v>
       </c>
       <c r="B696" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C696" t="s">
         <v>1864</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1865</v>
       </c>
       <c r="D696" t="s">
         <v>560</v>
@@ -33113,7 +33524,7 @@
         <v>18</v>
       </c>
       <c r="G696" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H696" t="s">
         <v>216</v>
@@ -33133,10 +33544,10 @@
         <v>45971</v>
       </c>
       <c r="B697" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C697" t="s">
         <v>1867</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1868</v>
       </c>
       <c r="D697" t="s">
         <v>580</v>
@@ -33148,7 +33559,7 @@
         <v>18</v>
       </c>
       <c r="G697" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H697" t="s">
         <v>216</v>
@@ -33171,10 +33582,10 @@
         <v>45971</v>
       </c>
       <c r="B698" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C698" t="s">
         <v>1870</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1871</v>
       </c>
       <c r="D698" t="s">
         <v>224</v>
@@ -33186,7 +33597,7 @@
         <v>18</v>
       </c>
       <c r="G698" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H698" t="s">
         <v>216</v>
@@ -33206,10 +33617,10 @@
         <v>45971</v>
       </c>
       <c r="B699" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C699" t="s">
         <v>1857</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1858</v>
       </c>
       <c r="D699" t="s">
         <v>690</v>
@@ -33241,10 +33652,10 @@
         <v>45971</v>
       </c>
       <c r="B700" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C700" t="s">
         <v>1873</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1874</v>
       </c>
       <c r="D700" t="s">
         <v>214</v>
@@ -33276,10 +33687,10 @@
         <v>45971</v>
       </c>
       <c r="B701" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C701" t="s">
         <v>1875</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1876</v>
       </c>
       <c r="D701" t="s">
         <v>293</v>
@@ -33291,7 +33702,7 @@
         <v>331</v>
       </c>
       <c r="G701" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H701" t="s">
         <v>216</v>
@@ -33311,10 +33722,10 @@
         <v>45971</v>
       </c>
       <c r="B702" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C702" t="s">
         <v>1878</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1879</v>
       </c>
       <c r="D702" t="s">
         <v>241</v>
@@ -33346,10 +33757,10 @@
         <v>45971</v>
       </c>
       <c r="B703" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C703" t="s">
         <v>1880</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1881</v>
       </c>
       <c r="D703" t="s">
         <v>245</v>
@@ -33381,13 +33792,13 @@
         <v>45971</v>
       </c>
       <c r="B704" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C704" t="s">
         <v>1882</v>
       </c>
-      <c r="C704" t="s">
+      <c r="D704" t="s">
         <v>1883</v>
-      </c>
-      <c r="D704" t="s">
-        <v>1884</v>
       </c>
       <c r="E704" t="s">
         <v>41</v>
@@ -33411,7 +33822,7 @@
         <v>890</v>
       </c>
       <c r="L704" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="M704">
         <v>4774000</v>
@@ -33425,10 +33836,10 @@
         <v>45972</v>
       </c>
       <c r="B705" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C705" t="s">
         <v>1885</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1886</v>
       </c>
       <c r="D705" t="s">
         <v>66</v>
@@ -33440,7 +33851,7 @@
         <v>786</v>
       </c>
       <c r="G705" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H705" t="s">
         <v>20</v>
@@ -33466,10 +33877,10 @@
         <v>45972</v>
       </c>
       <c r="B706" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C706" t="s">
         <v>1888</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1889</v>
       </c>
       <c r="D706" t="s">
         <v>485</v>
@@ -33481,7 +33892,7 @@
         <v>786</v>
       </c>
       <c r="G706" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H706" t="s">
         <v>20</v>
@@ -33507,10 +33918,10 @@
         <v>45972</v>
       </c>
       <c r="B707" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C707" t="s">
         <v>1891</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1892</v>
       </c>
       <c r="D707" t="s">
         <v>55</v>
@@ -33551,10 +33962,10 @@
         <v>45972</v>
       </c>
       <c r="B708" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C708" t="s">
         <v>1893</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1894</v>
       </c>
       <c r="D708" t="s">
         <v>206</v>
@@ -33566,7 +33977,7 @@
         <v>18</v>
       </c>
       <c r="G708" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H708" t="s">
         <v>20</v>
@@ -33595,10 +34006,10 @@
         <v>45972</v>
       </c>
       <c r="B709" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C709" t="s">
         <v>1896</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1897</v>
       </c>
       <c r="D709" t="s">
         <v>26</v>
@@ -33639,10 +34050,10 @@
         <v>45972</v>
       </c>
       <c r="B710" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C710" t="s">
         <v>1898</v>
-      </c>
-      <c r="C710" t="s">
-        <v>1899</v>
       </c>
       <c r="D710" t="s">
         <v>97</v>
@@ -33683,10 +34094,10 @@
         <v>45972</v>
       </c>
       <c r="B711" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C711" t="s">
         <v>1900</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1901</v>
       </c>
       <c r="D711" t="s">
         <v>192</v>
@@ -33727,10 +34138,10 @@
         <v>45972</v>
       </c>
       <c r="B712" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C712" t="s">
         <v>1902</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1903</v>
       </c>
       <c r="D712" t="s">
         <v>637</v>
@@ -33771,10 +34182,10 @@
         <v>45972</v>
       </c>
       <c r="B713" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C713" t="s">
         <v>1904</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1905</v>
       </c>
       <c r="D713" t="s">
         <v>128</v>
@@ -33815,10 +34226,10 @@
         <v>45972</v>
       </c>
       <c r="B714" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C714" t="s">
         <v>1906</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1907</v>
       </c>
       <c r="D714" t="s">
         <v>729</v>
@@ -33830,7 +34241,7 @@
         <v>18</v>
       </c>
       <c r="G714" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H714" t="s">
         <v>20</v>
@@ -33859,10 +34270,10 @@
         <v>45972</v>
       </c>
       <c r="B715" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C715" t="s">
         <v>1909</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1910</v>
       </c>
       <c r="D715" t="s">
         <v>66</v>
@@ -33874,7 +34285,7 @@
         <v>18</v>
       </c>
       <c r="G715" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H715" t="s">
         <v>20</v>
@@ -33903,10 +34314,10 @@
         <v>45972</v>
       </c>
       <c r="B716" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C716" t="s">
         <v>1912</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1913</v>
       </c>
       <c r="D716" t="s">
         <v>63</v>
@@ -33947,10 +34358,10 @@
         <v>45972</v>
       </c>
       <c r="B717" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C717" t="s">
         <v>1914</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1915</v>
       </c>
       <c r="D717" t="s">
         <v>1138</v>
@@ -33962,7 +34373,7 @@
         <v>18</v>
       </c>
       <c r="G717" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H717" t="s">
         <v>20</v>
@@ -33991,10 +34402,10 @@
         <v>45972</v>
       </c>
       <c r="B718" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C718" t="s">
         <v>1917</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1918</v>
       </c>
       <c r="D718" t="s">
         <v>34</v>
@@ -34035,10 +34446,10 @@
         <v>45972</v>
       </c>
       <c r="B719" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C719" t="s">
         <v>1919</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1920</v>
       </c>
       <c r="D719" t="s">
         <v>114</v>
@@ -34050,7 +34461,7 @@
         <v>18</v>
       </c>
       <c r="G719" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H719" t="s">
         <v>20</v>
@@ -34079,10 +34490,10 @@
         <v>45972</v>
       </c>
       <c r="B720" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C720" t="s">
         <v>1922</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1923</v>
       </c>
       <c r="D720" t="s">
         <v>71</v>
@@ -34094,7 +34505,7 @@
         <v>18</v>
       </c>
       <c r="G720" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H720" t="s">
         <v>20</v>
@@ -34123,10 +34534,10 @@
         <v>45972</v>
       </c>
       <c r="B721" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C721" t="s">
         <v>1925</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1926</v>
       </c>
       <c r="D721" t="s">
         <v>40</v>
@@ -34167,10 +34578,10 @@
         <v>45972</v>
       </c>
       <c r="B722" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C722" t="s">
         <v>1927</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1928</v>
       </c>
       <c r="D722" t="s">
         <v>60</v>
@@ -34182,7 +34593,7 @@
         <v>18</v>
       </c>
       <c r="G722" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H722" t="s">
         <v>20</v>
@@ -34191,7 +34602,7 @@
         <v>56</v>
       </c>
       <c r="J722" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="K722" t="s">
         <v>23</v>
@@ -34211,10 +34622,10 @@
         <v>45972</v>
       </c>
       <c r="B723" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C723" t="s">
         <v>1931</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1932</v>
       </c>
       <c r="D723" t="s">
         <v>60</v>
@@ -34226,7 +34637,7 @@
         <v>18</v>
       </c>
       <c r="G723" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H723" t="s">
         <v>20</v>
@@ -34255,13 +34666,13 @@
         <v>45972</v>
       </c>
       <c r="B724" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C724" t="s">
         <v>1934</v>
       </c>
-      <c r="C724" t="s">
+      <c r="D724" t="s">
         <v>1935</v>
-      </c>
-      <c r="D724" t="s">
-        <v>1936</v>
       </c>
       <c r="E724" t="s">
         <v>17</v>
@@ -34270,7 +34681,7 @@
         <v>18</v>
       </c>
       <c r="G724" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H724" t="s">
         <v>20</v>
@@ -34285,7 +34696,7 @@
         <v>23</v>
       </c>
       <c r="L724" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="M724">
         <v>2424000</v>
@@ -34299,10 +34710,10 @@
         <v>45972</v>
       </c>
       <c r="B725" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C725" t="s">
         <v>1938</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1939</v>
       </c>
       <c r="D725" t="s">
         <v>16</v>
@@ -34343,10 +34754,10 @@
         <v>45972</v>
       </c>
       <c r="B726" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C726" t="s">
         <v>1940</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1941</v>
       </c>
       <c r="D726" t="s">
         <v>47</v>
@@ -34358,7 +34769,7 @@
         <v>18</v>
       </c>
       <c r="G726" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H726" t="s">
         <v>20</v>
@@ -34387,10 +34798,10 @@
         <v>45972</v>
       </c>
       <c r="B727" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C727" t="s">
         <v>1942</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1943</v>
       </c>
       <c r="D727" t="s">
         <v>51</v>
@@ -34402,7 +34813,7 @@
         <v>18</v>
       </c>
       <c r="G727" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="H727" t="s">
         <v>20</v>
@@ -34425,10 +34836,10 @@
         <v>45972</v>
       </c>
       <c r="B728" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C728" t="s">
         <v>1945</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1946</v>
       </c>
       <c r="D728" t="s">
         <v>26</v>
@@ -34440,7 +34851,7 @@
         <v>18</v>
       </c>
       <c r="G728" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H728" t="s">
         <v>20</v>
@@ -34469,10 +34880,10 @@
         <v>45972</v>
       </c>
       <c r="B729" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C729" t="s">
         <v>1948</v>
-      </c>
-      <c r="C729" t="s">
-        <v>1949</v>
       </c>
       <c r="D729" t="s">
         <v>80</v>
@@ -34484,7 +34895,7 @@
         <v>18</v>
       </c>
       <c r="G729" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H729" t="s">
         <v>20</v>
@@ -34507,10 +34918,10 @@
         <v>45972</v>
       </c>
       <c r="B730" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C730" t="s">
         <v>1951</v>
-      </c>
-      <c r="C730" t="s">
-        <v>1952</v>
       </c>
       <c r="D730" t="s">
         <v>34</v>
@@ -34522,7 +34933,7 @@
         <v>18</v>
       </c>
       <c r="G730" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H730" t="s">
         <v>20</v>
@@ -34551,10 +34962,10 @@
         <v>45972</v>
       </c>
       <c r="B731" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C731" t="s">
         <v>1954</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1955</v>
       </c>
       <c r="D731" t="s">
         <v>60</v>
@@ -34595,10 +35006,10 @@
         <v>45972</v>
       </c>
       <c r="B732" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C732" t="s">
         <v>1956</v>
-      </c>
-      <c r="C732" t="s">
-        <v>1957</v>
       </c>
       <c r="D732" t="s">
         <v>93</v>
@@ -34639,10 +35050,10 @@
         <v>45972</v>
       </c>
       <c r="B733" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C733" t="s">
         <v>1958</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1959</v>
       </c>
       <c r="D733" t="s">
         <v>55</v>
@@ -34680,10 +35091,10 @@
         <v>45972</v>
       </c>
       <c r="B734" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C734" t="s">
         <v>1960</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1961</v>
       </c>
       <c r="D734" t="s">
         <v>80</v>
@@ -34718,10 +35129,10 @@
         <v>45972</v>
       </c>
       <c r="B735" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C735" t="s">
         <v>1962</v>
-      </c>
-      <c r="C735" t="s">
-        <v>1963</v>
       </c>
       <c r="D735" t="s">
         <v>97</v>
@@ -34742,7 +35153,7 @@
         <v>56</v>
       </c>
       <c r="J735" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="K735" t="s">
         <v>159</v>
@@ -34762,10 +35173,10 @@
         <v>45972</v>
       </c>
       <c r="B736" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C736" t="s">
         <v>1965</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1966</v>
       </c>
       <c r="D736" t="s">
         <v>55</v>
@@ -34777,7 +35188,7 @@
         <v>172</v>
       </c>
       <c r="G736" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="H736" t="s">
         <v>20</v>
@@ -34803,10 +35214,10 @@
         <v>45972</v>
       </c>
       <c r="B737" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C737" t="s">
         <v>1968</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1969</v>
       </c>
       <c r="D737" t="s">
         <v>55</v>
@@ -34818,7 +35229,7 @@
         <v>172</v>
       </c>
       <c r="G737" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="H737" t="s">
         <v>20</v>
@@ -34844,10 +35255,10 @@
         <v>45972</v>
       </c>
       <c r="B738" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C738" t="s">
         <v>1971</v>
-      </c>
-      <c r="C738" t="s">
-        <v>1972</v>
       </c>
       <c r="D738" t="s">
         <v>26</v>
@@ -34868,7 +35279,7 @@
         <v>21</v>
       </c>
       <c r="K738" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="L738" t="s">
         <v>26</v>
@@ -34885,13 +35296,13 @@
         <v>45972</v>
       </c>
       <c r="B739" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C739" t="s">
         <v>1974</v>
       </c>
-      <c r="C739" t="s">
-        <v>1975</v>
-      </c>
       <c r="D739" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E739" t="s">
         <v>17</v>
@@ -34915,7 +35326,7 @@
         <v>23</v>
       </c>
       <c r="L739" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.3">
@@ -34923,13 +35334,13 @@
         <v>45972</v>
       </c>
       <c r="B740" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C740" t="s">
         <v>1976</v>
       </c>
-      <c r="C740" t="s">
-        <v>1977</v>
-      </c>
       <c r="D740" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E740" t="s">
         <v>17</v>
@@ -34938,7 +35349,7 @@
         <v>18</v>
       </c>
       <c r="G740" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="H740" t="s">
         <v>20</v>
@@ -34953,7 +35364,7 @@
         <v>23</v>
       </c>
       <c r="L740" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.3">
@@ -34961,13 +35372,13 @@
         <v>45972</v>
       </c>
       <c r="B741" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C741" t="s">
         <v>1979</v>
       </c>
-      <c r="C741" t="s">
-        <v>1980</v>
-      </c>
       <c r="D741" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E741" t="s">
         <v>17</v>
@@ -34991,7 +35402,7 @@
         <v>37</v>
       </c>
       <c r="L741" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.3">
@@ -34999,13 +35410,13 @@
         <v>45972</v>
       </c>
       <c r="B742" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C742" t="s">
         <v>1981</v>
       </c>
-      <c r="C742" t="s">
+      <c r="D742" t="s">
         <v>1982</v>
-      </c>
-      <c r="D742" t="s">
-        <v>1983</v>
       </c>
       <c r="E742" t="s">
         <v>17</v>
@@ -35029,7 +35440,7 @@
         <v>23</v>
       </c>
       <c r="L742" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.3">
@@ -35037,22 +35448,22 @@
         <v>45972</v>
       </c>
       <c r="B743" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C743" t="s">
         <v>1984</v>
       </c>
-      <c r="C743" t="s">
+      <c r="D743" t="s">
         <v>1985</v>
-      </c>
-      <c r="D743" t="s">
-        <v>1986</v>
       </c>
       <c r="E743" t="s">
         <v>1033</v>
       </c>
       <c r="F743" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G743" t="s">
         <v>1987</v>
-      </c>
-      <c r="G743" t="s">
-        <v>1988</v>
       </c>
       <c r="H743" t="s">
         <v>20</v>
@@ -35064,7 +35475,7 @@
         <v>150</v>
       </c>
       <c r="L743" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.3">
@@ -35072,22 +35483,22 @@
         <v>45972</v>
       </c>
       <c r="B744" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C744" t="s">
         <v>1989</v>
       </c>
-      <c r="C744" t="s">
+      <c r="D744" t="s">
         <v>1990</v>
-      </c>
-      <c r="D744" t="s">
-        <v>1991</v>
       </c>
       <c r="E744" t="s">
         <v>1033</v>
       </c>
       <c r="F744" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G744" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H744" t="s">
         <v>20</v>
@@ -35096,13 +35507,13 @@
         <v>29</v>
       </c>
       <c r="J744" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K744" t="s">
         <v>1993</v>
       </c>
-      <c r="K744" t="s">
-        <v>1994</v>
-      </c>
       <c r="L744" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.3">
@@ -35110,13 +35521,13 @@
         <v>45972</v>
       </c>
       <c r="B745" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C745" t="s">
         <v>1995</v>
       </c>
-      <c r="C745" t="s">
+      <c r="D745" t="s">
         <v>1996</v>
-      </c>
-      <c r="D745" t="s">
-        <v>1997</v>
       </c>
       <c r="E745" t="s">
         <v>17</v>
@@ -35134,13 +35545,13 @@
         <v>56</v>
       </c>
       <c r="J745" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="K745" t="s">
         <v>159</v>
       </c>
       <c r="L745" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.3">
@@ -35148,13 +35559,13 @@
         <v>45972</v>
       </c>
       <c r="B746" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C746" t="s">
         <v>1998</v>
       </c>
-      <c r="C746" t="s">
-        <v>1999</v>
-      </c>
       <c r="D746" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E746" t="s">
         <v>17</v>
@@ -35178,7 +35589,7 @@
         <v>159</v>
       </c>
       <c r="L746" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.3">
@@ -35186,10 +35597,10 @@
         <v>45972</v>
       </c>
       <c r="B747" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C747" t="s">
         <v>2000</v>
-      </c>
-      <c r="C747" t="s">
-        <v>2001</v>
       </c>
       <c r="D747" t="s">
         <v>241</v>
@@ -35201,7 +35612,7 @@
         <v>18</v>
       </c>
       <c r="G747" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H747" t="s">
         <v>216</v>
@@ -35221,10 +35632,10 @@
         <v>45972</v>
       </c>
       <c r="B748" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C748" t="s">
         <v>2003</v>
-      </c>
-      <c r="C748" t="s">
-        <v>2004</v>
       </c>
       <c r="D748" t="s">
         <v>214</v>
@@ -35256,10 +35667,10 @@
         <v>45972</v>
       </c>
       <c r="B749" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C749" t="s">
         <v>2005</v>
-      </c>
-      <c r="C749" t="s">
-        <v>2006</v>
       </c>
       <c r="D749" t="s">
         <v>214</v>
@@ -35291,10 +35702,10 @@
         <v>45972</v>
       </c>
       <c r="B750" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C750" t="s">
         <v>2007</v>
-      </c>
-      <c r="C750" t="s">
-        <v>2008</v>
       </c>
       <c r="D750" t="s">
         <v>214</v>
@@ -35326,10 +35737,10 @@
         <v>45972</v>
       </c>
       <c r="B751" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C751" t="s">
         <v>2009</v>
-      </c>
-      <c r="C751" t="s">
-        <v>2010</v>
       </c>
       <c r="D751" t="s">
         <v>233</v>
@@ -35361,10 +35772,10 @@
         <v>45972</v>
       </c>
       <c r="B752" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C752" t="s">
         <v>2011</v>
-      </c>
-      <c r="C752" t="s">
-        <v>2012</v>
       </c>
       <c r="D752" t="s">
         <v>233</v>
@@ -35396,10 +35807,10 @@
         <v>45972</v>
       </c>
       <c r="B753" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C753" t="s">
         <v>2013</v>
-      </c>
-      <c r="C753" t="s">
-        <v>2014</v>
       </c>
       <c r="D753" t="s">
         <v>233</v>
@@ -35411,7 +35822,7 @@
         <v>18</v>
       </c>
       <c r="G753" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H753" t="s">
         <v>216</v>
@@ -35431,10 +35842,10 @@
         <v>45972</v>
       </c>
       <c r="B754" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C754" t="s">
         <v>2016</v>
-      </c>
-      <c r="C754" t="s">
-        <v>2017</v>
       </c>
       <c r="D754" t="s">
         <v>233</v>
@@ -35446,7 +35857,7 @@
         <v>18</v>
       </c>
       <c r="G754" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H754" t="s">
         <v>216</v>
@@ -35466,10 +35877,10 @@
         <v>45972</v>
       </c>
       <c r="B755" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C755" t="s">
         <v>2019</v>
-      </c>
-      <c r="C755" t="s">
-        <v>2020</v>
       </c>
       <c r="D755" t="s">
         <v>233</v>
@@ -35501,10 +35912,10 @@
         <v>45972</v>
       </c>
       <c r="B756" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C756" t="s">
         <v>2021</v>
-      </c>
-      <c r="C756" t="s">
-        <v>2022</v>
       </c>
       <c r="D756" t="s">
         <v>262</v>
@@ -35536,10 +35947,10 @@
         <v>45972</v>
       </c>
       <c r="B757" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C757" t="s">
         <v>2023</v>
-      </c>
-      <c r="C757" t="s">
-        <v>2024</v>
       </c>
       <c r="D757" t="s">
         <v>317</v>
@@ -35571,10 +35982,10 @@
         <v>45972</v>
       </c>
       <c r="B758" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C758" t="s">
         <v>2025</v>
-      </c>
-      <c r="C758" t="s">
-        <v>2026</v>
       </c>
       <c r="D758" t="s">
         <v>317</v>
@@ -35586,7 +35997,7 @@
         <v>18</v>
       </c>
       <c r="G758" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="H758" t="s">
         <v>216</v>
@@ -35606,10 +36017,10 @@
         <v>45972</v>
       </c>
       <c r="B759" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C759" t="s">
         <v>2028</v>
-      </c>
-      <c r="C759" t="s">
-        <v>2029</v>
       </c>
       <c r="D759" t="s">
         <v>237</v>
@@ -35621,7 +36032,7 @@
         <v>18</v>
       </c>
       <c r="G759" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H759" t="s">
         <v>216</v>
@@ -35641,10 +36052,10 @@
         <v>45972</v>
       </c>
       <c r="B760" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C760" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D760" t="s">
         <v>245</v>
@@ -35656,7 +36067,7 @@
         <v>18</v>
       </c>
       <c r="G760" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H760" t="s">
         <v>216</v>
@@ -35676,10 +36087,10 @@
         <v>45972</v>
       </c>
       <c r="B761" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C761" t="s">
         <v>2032</v>
-      </c>
-      <c r="C761" t="s">
-        <v>2033</v>
       </c>
       <c r="D761" t="s">
         <v>210</v>
@@ -35691,7 +36102,7 @@
         <v>18</v>
       </c>
       <c r="G761" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H761" t="s">
         <v>216</v>
@@ -35711,10 +36122,10 @@
         <v>45972</v>
       </c>
       <c r="B762" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C762" t="s">
         <v>2034</v>
-      </c>
-      <c r="C762" t="s">
-        <v>2035</v>
       </c>
       <c r="D762" t="s">
         <v>296</v>
@@ -35726,7 +36137,7 @@
         <v>18</v>
       </c>
       <c r="G762" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="H762" t="s">
         <v>216</v>
@@ -35746,10 +36157,10 @@
         <v>45972</v>
       </c>
       <c r="B763" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C763" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D763" t="s">
         <v>1091</v>
@@ -35761,7 +36172,7 @@
         <v>18</v>
       </c>
       <c r="G763" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H763" t="s">
         <v>216</v>
@@ -35781,10 +36192,10 @@
         <v>45972</v>
       </c>
       <c r="B764" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C764" t="s">
         <v>2038</v>
-      </c>
-      <c r="C764" t="s">
-        <v>2039</v>
       </c>
       <c r="D764" t="s">
         <v>224</v>
@@ -35796,7 +36207,7 @@
         <v>18</v>
       </c>
       <c r="G764" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="H764" t="s">
         <v>216</v>
@@ -35816,10 +36227,10 @@
         <v>45972</v>
       </c>
       <c r="B765" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C765" t="s">
         <v>2041</v>
-      </c>
-      <c r="C765" t="s">
-        <v>2042</v>
       </c>
       <c r="D765" t="s">
         <v>214</v>
@@ -35851,10 +36262,10 @@
         <v>45972</v>
       </c>
       <c r="B766" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C766" t="s">
         <v>2043</v>
-      </c>
-      <c r="C766" t="s">
-        <v>2044</v>
       </c>
       <c r="D766" t="s">
         <v>233</v>
@@ -35886,10 +36297,10 @@
         <v>45972</v>
       </c>
       <c r="B767" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C767" t="s">
         <v>2045</v>
-      </c>
-      <c r="C767" t="s">
-        <v>2046</v>
       </c>
       <c r="D767" t="s">
         <v>219</v>
@@ -35921,10 +36332,10 @@
         <v>45972</v>
       </c>
       <c r="B768" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C768" t="s">
         <v>2047</v>
-      </c>
-      <c r="C768" t="s">
-        <v>2048</v>
       </c>
       <c r="D768" t="s">
         <v>214</v>
@@ -35951,15 +36362,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>45972</v>
       </c>
       <c r="B769" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C769" t="s">
         <v>2049</v>
-      </c>
-      <c r="C769" t="s">
-        <v>2050</v>
       </c>
       <c r="D769" t="s">
         <v>262</v>
@@ -35971,7 +36382,7 @@
         <v>364</v>
       </c>
       <c r="G769" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H769" t="s">
         <v>216</v>
@@ -35986,15 +36397,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>45972</v>
       </c>
       <c r="B770" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C770" t="s">
         <v>2052</v>
-      </c>
-      <c r="C770" t="s">
-        <v>2053</v>
       </c>
       <c r="D770" t="s">
         <v>317</v>
@@ -36021,15 +36432,15 @@
         <v>317</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>45972</v>
       </c>
       <c r="B771" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C771" t="s">
         <v>2054</v>
-      </c>
-      <c r="C771" t="s">
-        <v>2055</v>
       </c>
       <c r="D771" t="s">
         <v>273</v>
@@ -36056,15 +36467,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>45972</v>
       </c>
       <c r="B772" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C772" t="s">
         <v>2056</v>
-      </c>
-      <c r="C772" t="s">
-        <v>2057</v>
       </c>
       <c r="D772" t="s">
         <v>224</v>
@@ -36091,15 +36502,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>45972</v>
       </c>
       <c r="B773" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C773" t="s">
         <v>2058</v>
-      </c>
-      <c r="C773" t="s">
-        <v>2059</v>
       </c>
       <c r="D773" t="s">
         <v>233</v>
@@ -36111,7 +36522,7 @@
         <v>447</v>
       </c>
       <c r="G773" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H773" t="s">
         <v>216</v>
@@ -36126,7 +36537,2177 @@
         <v>233</v>
       </c>
     </row>
+    <row r="774" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A774" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D774" t="s">
+        <v>55</v>
+      </c>
+      <c r="E774" t="s">
+        <v>87</v>
+      </c>
+      <c r="F774" t="s">
+        <v>18</v>
+      </c>
+      <c r="G774" t="s">
+        <v>798</v>
+      </c>
+      <c r="H774" t="s">
+        <v>20</v>
+      </c>
+      <c r="I774" t="s">
+        <v>56</v>
+      </c>
+      <c r="J774" t="s">
+        <v>791</v>
+      </c>
+      <c r="K774" t="s">
+        <v>37</v>
+      </c>
+      <c r="L774" t="s">
+        <v>55</v>
+      </c>
+      <c r="M774">
+        <v>7531000</v>
+      </c>
+      <c r="N774">
+        <v>7867.8353252322304</v>
+      </c>
+    </row>
+    <row r="775" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A775" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D775" t="s">
+        <v>55</v>
+      </c>
+      <c r="E775" t="s">
+        <v>17</v>
+      </c>
+      <c r="F775" t="s">
+        <v>18</v>
+      </c>
+      <c r="G775" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H775" t="s">
+        <v>20</v>
+      </c>
+      <c r="I775" t="s">
+        <v>56</v>
+      </c>
+      <c r="J775" t="s">
+        <v>791</v>
+      </c>
+      <c r="K775" t="s">
+        <v>23</v>
+      </c>
+      <c r="L775" t="s">
+        <v>55</v>
+      </c>
+      <c r="M775">
+        <v>7531000</v>
+      </c>
+      <c r="N775">
+        <v>5024.0194937674296</v>
+      </c>
+    </row>
+    <row r="776" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A776" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D776" t="s">
+        <v>55</v>
+      </c>
+      <c r="E776" t="s">
+        <v>17</v>
+      </c>
+      <c r="F776" t="s">
+        <v>18</v>
+      </c>
+      <c r="G776" t="s">
+        <v>19</v>
+      </c>
+      <c r="H776" t="s">
+        <v>20</v>
+      </c>
+      <c r="I776" t="s">
+        <v>21</v>
+      </c>
+      <c r="J776" t="s">
+        <v>22</v>
+      </c>
+      <c r="K776" t="s">
+        <v>23</v>
+      </c>
+      <c r="L776" t="s">
+        <v>55</v>
+      </c>
+      <c r="M776">
+        <v>7531000</v>
+      </c>
+      <c r="N776">
+        <v>7708.8593035977301</v>
+      </c>
+    </row>
+    <row r="777" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A777" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D777" t="s">
+        <v>26</v>
+      </c>
+      <c r="E777" t="s">
+        <v>17</v>
+      </c>
+      <c r="F777" t="s">
+        <v>18</v>
+      </c>
+      <c r="G777" t="s">
+        <v>19</v>
+      </c>
+      <c r="H777" t="s">
+        <v>20</v>
+      </c>
+      <c r="I777" t="s">
+        <v>21</v>
+      </c>
+      <c r="J777" t="s">
+        <v>22</v>
+      </c>
+      <c r="K777" t="s">
+        <v>23</v>
+      </c>
+      <c r="L777" t="s">
+        <v>26</v>
+      </c>
+      <c r="M777">
+        <v>27270000</v>
+      </c>
+      <c r="N777">
+        <v>29994.5274031597</v>
+      </c>
+    </row>
+    <row r="778" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A778" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D778" t="s">
+        <v>80</v>
+      </c>
+      <c r="E778" t="s">
+        <v>17</v>
+      </c>
+      <c r="F778" t="s">
+        <v>18</v>
+      </c>
+      <c r="G778" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H778" t="s">
+        <v>20</v>
+      </c>
+      <c r="I778" t="s">
+        <v>21</v>
+      </c>
+      <c r="J778" t="s">
+        <v>791</v>
+      </c>
+      <c r="K778" t="s">
+        <v>23</v>
+      </c>
+      <c r="L778" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="779" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A779" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D779" t="s">
+        <v>97</v>
+      </c>
+      <c r="E779" t="s">
+        <v>17</v>
+      </c>
+      <c r="F779" t="s">
+        <v>18</v>
+      </c>
+      <c r="G779" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H779" t="s">
+        <v>20</v>
+      </c>
+      <c r="I779" t="s">
+        <v>21</v>
+      </c>
+      <c r="J779" t="s">
+        <v>791</v>
+      </c>
+      <c r="K779" t="s">
+        <v>23</v>
+      </c>
+      <c r="L779" t="s">
+        <v>97</v>
+      </c>
+      <c r="M779">
+        <v>43440000</v>
+      </c>
+      <c r="N779">
+        <v>51933.403657765703</v>
+      </c>
+    </row>
+    <row r="780" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A780" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D780" t="s">
+        <v>97</v>
+      </c>
+      <c r="E780" t="s">
+        <v>17</v>
+      </c>
+      <c r="F780" t="s">
+        <v>18</v>
+      </c>
+      <c r="G780" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H780" t="s">
+        <v>20</v>
+      </c>
+      <c r="I780" t="s">
+        <v>21</v>
+      </c>
+      <c r="J780" t="s">
+        <v>791</v>
+      </c>
+      <c r="K780" t="s">
+        <v>23</v>
+      </c>
+      <c r="L780" t="s">
+        <v>97</v>
+      </c>
+      <c r="M780">
+        <v>43440000</v>
+      </c>
+      <c r="N780">
+        <v>36665.706341781603</v>
+      </c>
+    </row>
+    <row r="781" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A781" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D781" t="s">
+        <v>729</v>
+      </c>
+      <c r="E781" t="s">
+        <v>17</v>
+      </c>
+      <c r="F781" t="s">
+        <v>18</v>
+      </c>
+      <c r="G781" t="s">
+        <v>19</v>
+      </c>
+      <c r="H781" t="s">
+        <v>20</v>
+      </c>
+      <c r="I781" t="s">
+        <v>21</v>
+      </c>
+      <c r="J781" t="s">
+        <v>791</v>
+      </c>
+      <c r="K781" t="s">
+        <v>23</v>
+      </c>
+      <c r="L781" t="s">
+        <v>729</v>
+      </c>
+      <c r="M781">
+        <v>5808000</v>
+      </c>
+      <c r="N781">
+        <v>5473.0889004220599</v>
+      </c>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A782" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D782" t="s">
+        <v>66</v>
+      </c>
+      <c r="E782" t="s">
+        <v>17</v>
+      </c>
+      <c r="F782" t="s">
+        <v>18</v>
+      </c>
+      <c r="G782" t="s">
+        <v>19</v>
+      </c>
+      <c r="H782" t="s">
+        <v>20</v>
+      </c>
+      <c r="I782" t="s">
+        <v>56</v>
+      </c>
+      <c r="J782" t="s">
+        <v>22</v>
+      </c>
+      <c r="K782" t="s">
+        <v>23</v>
+      </c>
+      <c r="L782" t="s">
+        <v>66</v>
+      </c>
+      <c r="M782">
+        <v>1840825</v>
+      </c>
+      <c r="N782">
+        <v>1960.4898402909</v>
+      </c>
+    </row>
+    <row r="783" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A783" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E783" t="s">
+        <v>17</v>
+      </c>
+      <c r="F783" t="s">
+        <v>18</v>
+      </c>
+      <c r="G783" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H783" t="s">
+        <v>20</v>
+      </c>
+      <c r="I783" t="s">
+        <v>21</v>
+      </c>
+      <c r="J783" t="s">
+        <v>2085</v>
+      </c>
+      <c r="K783" t="s">
+        <v>23</v>
+      </c>
+      <c r="L783" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M783">
+        <v>470075</v>
+      </c>
+      <c r="N783">
+        <v>361.71247652334102</v>
+      </c>
+    </row>
+    <row r="784" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A784" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D784" t="s">
+        <v>77</v>
+      </c>
+      <c r="E784" t="s">
+        <v>17</v>
+      </c>
+      <c r="F784" t="s">
+        <v>18</v>
+      </c>
+      <c r="G784" t="s">
+        <v>2088</v>
+      </c>
+      <c r="H784" t="s">
+        <v>20</v>
+      </c>
+      <c r="I784" t="s">
+        <v>21</v>
+      </c>
+      <c r="J784" t="s">
+        <v>2089</v>
+      </c>
+      <c r="K784" t="s">
+        <v>23</v>
+      </c>
+      <c r="L784" t="s">
+        <v>77</v>
+      </c>
+      <c r="M784">
+        <v>8156000</v>
+      </c>
+      <c r="N784">
+        <v>5046.1825411131404</v>
+      </c>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A785" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C785" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D785" t="s">
+        <v>77</v>
+      </c>
+      <c r="E785" t="s">
+        <v>17</v>
+      </c>
+      <c r="F785" t="s">
+        <v>18</v>
+      </c>
+      <c r="G785" t="s">
+        <v>19</v>
+      </c>
+      <c r="H785" t="s">
+        <v>20</v>
+      </c>
+      <c r="I785" t="s">
+        <v>56</v>
+      </c>
+      <c r="J785" t="s">
+        <v>791</v>
+      </c>
+      <c r="K785" t="s">
+        <v>23</v>
+      </c>
+      <c r="L785" t="s">
+        <v>77</v>
+      </c>
+      <c r="M785">
+        <v>8156000</v>
+      </c>
+      <c r="N785">
+        <v>9784.60546368221</v>
+      </c>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A786" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D786" t="s">
+        <v>77</v>
+      </c>
+      <c r="E786" t="s">
+        <v>17</v>
+      </c>
+      <c r="F786" t="s">
+        <v>18</v>
+      </c>
+      <c r="G786" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H786" t="s">
+        <v>20</v>
+      </c>
+      <c r="I786" t="s">
+        <v>21</v>
+      </c>
+      <c r="J786" t="s">
+        <v>791</v>
+      </c>
+      <c r="K786" t="s">
+        <v>23</v>
+      </c>
+      <c r="L786" t="s">
+        <v>77</v>
+      </c>
+      <c r="M786">
+        <v>8156000</v>
+      </c>
+      <c r="N786">
+        <v>7326.7350419643199</v>
+      </c>
+    </row>
+    <row r="787" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A787" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D787" t="s">
+        <v>202</v>
+      </c>
+      <c r="E787" t="s">
+        <v>17</v>
+      </c>
+      <c r="F787" t="s">
+        <v>18</v>
+      </c>
+      <c r="G787" t="s">
+        <v>19</v>
+      </c>
+      <c r="H787" t="s">
+        <v>20</v>
+      </c>
+      <c r="I787" t="s">
+        <v>56</v>
+      </c>
+      <c r="J787" t="s">
+        <v>22</v>
+      </c>
+      <c r="K787" t="s">
+        <v>23</v>
+      </c>
+      <c r="L787" t="s">
+        <v>202</v>
+      </c>
+      <c r="M787">
+        <v>5317000</v>
+      </c>
+      <c r="N787">
+        <v>3674.07547019704</v>
+      </c>
+    </row>
+    <row r="788" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A788" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D788" t="s">
+        <v>71</v>
+      </c>
+      <c r="E788" t="s">
+        <v>17</v>
+      </c>
+      <c r="F788" t="s">
+        <v>18</v>
+      </c>
+      <c r="G788" t="s">
+        <v>19</v>
+      </c>
+      <c r="H788" t="s">
+        <v>20</v>
+      </c>
+      <c r="I788" t="s">
+        <v>21</v>
+      </c>
+      <c r="J788" t="s">
+        <v>791</v>
+      </c>
+      <c r="K788" t="s">
+        <v>23</v>
+      </c>
+      <c r="L788" t="s">
+        <v>71</v>
+      </c>
+      <c r="M788">
+        <v>11190000</v>
+      </c>
+      <c r="N788">
+        <v>7308.6612183774196</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A789" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D789" t="s">
+        <v>71</v>
+      </c>
+      <c r="E789" t="s">
+        <v>17</v>
+      </c>
+      <c r="F789" t="s">
+        <v>18</v>
+      </c>
+      <c r="G789" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H789" t="s">
+        <v>20</v>
+      </c>
+      <c r="I789" t="s">
+        <v>21</v>
+      </c>
+      <c r="J789" t="s">
+        <v>791</v>
+      </c>
+      <c r="K789" t="s">
+        <v>607</v>
+      </c>
+      <c r="L789" t="s">
+        <v>71</v>
+      </c>
+      <c r="M789">
+        <v>11190000</v>
+      </c>
+      <c r="N789">
+        <v>10855.595181017299</v>
+      </c>
+    </row>
+    <row r="790" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A790" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D790" t="s">
+        <v>60</v>
+      </c>
+      <c r="E790" t="s">
+        <v>17</v>
+      </c>
+      <c r="F790" t="s">
+        <v>18</v>
+      </c>
+      <c r="G790" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H790" t="s">
+        <v>20</v>
+      </c>
+      <c r="I790" t="s">
+        <v>21</v>
+      </c>
+      <c r="J790" t="s">
+        <v>791</v>
+      </c>
+      <c r="K790" t="s">
+        <v>23</v>
+      </c>
+      <c r="L790" t="s">
+        <v>60</v>
+      </c>
+      <c r="M790">
+        <v>9958000</v>
+      </c>
+      <c r="N790">
+        <v>9835.3449634326607</v>
+      </c>
+    </row>
+    <row r="791" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A791" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D791" t="s">
+        <v>60</v>
+      </c>
+      <c r="E791" t="s">
+        <v>17</v>
+      </c>
+      <c r="F791" t="s">
+        <v>18</v>
+      </c>
+      <c r="G791" t="s">
+        <v>105</v>
+      </c>
+      <c r="H791" t="s">
+        <v>20</v>
+      </c>
+      <c r="I791" t="s">
+        <v>21</v>
+      </c>
+      <c r="J791" t="s">
+        <v>22</v>
+      </c>
+      <c r="K791" t="s">
+        <v>23</v>
+      </c>
+      <c r="L791" t="s">
+        <v>60</v>
+      </c>
+      <c r="M791">
+        <v>9958000</v>
+      </c>
+      <c r="N791">
+        <v>9346.5488320334898</v>
+      </c>
+    </row>
+    <row r="792" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A792" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D792" t="s">
+        <v>16</v>
+      </c>
+      <c r="E792" t="s">
+        <v>17</v>
+      </c>
+      <c r="F792" t="s">
+        <v>18</v>
+      </c>
+      <c r="G792" t="s">
+        <v>19</v>
+      </c>
+      <c r="H792" t="s">
+        <v>20</v>
+      </c>
+      <c r="I792" t="s">
+        <v>21</v>
+      </c>
+      <c r="J792" t="s">
+        <v>791</v>
+      </c>
+      <c r="K792" t="s">
+        <v>23</v>
+      </c>
+      <c r="L792" t="s">
+        <v>16</v>
+      </c>
+      <c r="M792">
+        <v>21118000</v>
+      </c>
+      <c r="N792">
+        <v>22309.511894749499</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A793" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D793" t="s">
+        <v>47</v>
+      </c>
+      <c r="E793" t="s">
+        <v>17</v>
+      </c>
+      <c r="F793" t="s">
+        <v>18</v>
+      </c>
+      <c r="G793" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H793" t="s">
+        <v>20</v>
+      </c>
+      <c r="I793" t="s">
+        <v>21</v>
+      </c>
+      <c r="J793" t="s">
+        <v>791</v>
+      </c>
+      <c r="K793" t="s">
+        <v>23</v>
+      </c>
+      <c r="L793" t="s">
+        <v>47</v>
+      </c>
+      <c r="M793">
+        <v>12670000</v>
+      </c>
+      <c r="N793">
+        <v>10573.871988659401</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A794" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D794" t="s">
+        <v>26</v>
+      </c>
+      <c r="E794" t="s">
+        <v>17</v>
+      </c>
+      <c r="F794" t="s">
+        <v>18</v>
+      </c>
+      <c r="G794" t="s">
+        <v>19</v>
+      </c>
+      <c r="H794" t="s">
+        <v>20</v>
+      </c>
+      <c r="I794" t="s">
+        <v>21</v>
+      </c>
+      <c r="J794" t="s">
+        <v>2113</v>
+      </c>
+      <c r="K794" t="s">
+        <v>37</v>
+      </c>
+      <c r="L794" t="s">
+        <v>26</v>
+      </c>
+      <c r="M794">
+        <v>27270000</v>
+      </c>
+      <c r="N794">
+        <v>18856.367743772898</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A795" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D795" t="s">
+        <v>80</v>
+      </c>
+      <c r="E795" t="s">
+        <v>17</v>
+      </c>
+      <c r="F795" t="s">
+        <v>18</v>
+      </c>
+      <c r="G795" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H795" t="s">
+        <v>20</v>
+      </c>
+      <c r="I795" t="s">
+        <v>56</v>
+      </c>
+      <c r="J795" t="s">
+        <v>22</v>
+      </c>
+      <c r="K795" t="s">
+        <v>37</v>
+      </c>
+      <c r="L795" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A796" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D796" t="s">
+        <v>93</v>
+      </c>
+      <c r="E796" t="s">
+        <v>17</v>
+      </c>
+      <c r="F796" t="s">
+        <v>18</v>
+      </c>
+      <c r="G796" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H796" t="s">
+        <v>20</v>
+      </c>
+      <c r="I796" t="s">
+        <v>29</v>
+      </c>
+      <c r="J796" t="s">
+        <v>2119</v>
+      </c>
+      <c r="K796" t="s">
+        <v>37</v>
+      </c>
+      <c r="L796" t="s">
+        <v>93</v>
+      </c>
+      <c r="M796">
+        <v>11840000</v>
+      </c>
+      <c r="N796">
+        <v>9895.3718945876299</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A797" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D797" t="s">
+        <v>998</v>
+      </c>
+      <c r="E797" t="s">
+        <v>17</v>
+      </c>
+      <c r="F797" t="s">
+        <v>18</v>
+      </c>
+      <c r="G797" t="s">
+        <v>2122</v>
+      </c>
+      <c r="H797" t="s">
+        <v>20</v>
+      </c>
+      <c r="I797" t="s">
+        <v>21</v>
+      </c>
+      <c r="J797" t="s">
+        <v>2123</v>
+      </c>
+      <c r="K797" t="s">
+        <v>23</v>
+      </c>
+      <c r="L797" t="s">
+        <v>998</v>
+      </c>
+      <c r="M797">
+        <v>2226000</v>
+      </c>
+      <c r="N797">
+        <v>1824.6923659987101</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A798" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D798" t="s">
+        <v>51</v>
+      </c>
+      <c r="E798" t="s">
+        <v>17</v>
+      </c>
+      <c r="F798" t="s">
+        <v>18</v>
+      </c>
+      <c r="G798" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H798" t="s">
+        <v>20</v>
+      </c>
+      <c r="I798" t="s">
+        <v>21</v>
+      </c>
+      <c r="J798" t="s">
+        <v>22</v>
+      </c>
+      <c r="K798" t="s">
+        <v>23</v>
+      </c>
+      <c r="L798" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A799" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D799" t="s">
+        <v>51</v>
+      </c>
+      <c r="E799" t="s">
+        <v>17</v>
+      </c>
+      <c r="F799" t="s">
+        <v>18</v>
+      </c>
+      <c r="G799" t="s">
+        <v>19</v>
+      </c>
+      <c r="H799" t="s">
+        <v>20</v>
+      </c>
+      <c r="I799" t="s">
+        <v>56</v>
+      </c>
+      <c r="J799" t="s">
+        <v>22</v>
+      </c>
+      <c r="K799" t="s">
+        <v>23</v>
+      </c>
+      <c r="L799" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A800" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D800" t="s">
+        <v>60</v>
+      </c>
+      <c r="E800" t="s">
+        <v>17</v>
+      </c>
+      <c r="F800" t="s">
+        <v>148</v>
+      </c>
+      <c r="G800" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H800" t="s">
+        <v>20</v>
+      </c>
+      <c r="I800" t="s">
+        <v>56</v>
+      </c>
+      <c r="K800" t="s">
+        <v>159</v>
+      </c>
+      <c r="L800" t="s">
+        <v>60</v>
+      </c>
+      <c r="M800">
+        <v>9958000</v>
+      </c>
+      <c r="N800">
+        <v>9474.9241479371503</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A801" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D801" t="s">
+        <v>16</v>
+      </c>
+      <c r="E801" t="s">
+        <v>17</v>
+      </c>
+      <c r="F801" t="s">
+        <v>148</v>
+      </c>
+      <c r="G801" t="s">
+        <v>149</v>
+      </c>
+      <c r="H801" t="s">
+        <v>20</v>
+      </c>
+      <c r="I801" t="s">
+        <v>56</v>
+      </c>
+      <c r="K801" t="s">
+        <v>23</v>
+      </c>
+      <c r="L801" t="s">
+        <v>16</v>
+      </c>
+      <c r="M801">
+        <v>21118000</v>
+      </c>
+      <c r="N801">
+        <v>16334.151302583099</v>
+      </c>
+    </row>
+    <row r="802" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A802" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D802" t="s">
+        <v>206</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F802" t="s">
+        <v>199</v>
+      </c>
+      <c r="G802" t="s">
+        <v>19</v>
+      </c>
+      <c r="H802" t="s">
+        <v>20</v>
+      </c>
+      <c r="I802" t="s">
+        <v>29</v>
+      </c>
+      <c r="K802" t="s">
+        <v>159</v>
+      </c>
+      <c r="L802" t="s">
+        <v>206</v>
+      </c>
+      <c r="M802">
+        <v>155076</v>
+      </c>
+      <c r="N802">
+        <v>161.33366005341699</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A803" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D803" t="s">
+        <v>26</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F803" t="s">
+        <v>199</v>
+      </c>
+      <c r="G803" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H803" t="s">
+        <v>20</v>
+      </c>
+      <c r="I803" t="s">
+        <v>29</v>
+      </c>
+      <c r="K803" t="s">
+        <v>159</v>
+      </c>
+      <c r="L803" t="s">
+        <v>26</v>
+      </c>
+      <c r="M803">
+        <v>27270000</v>
+      </c>
+      <c r="N803">
+        <v>18927.0944333937</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A804" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D804" t="s">
+        <v>629</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F804" t="s">
+        <v>199</v>
+      </c>
+      <c r="G804" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H804" t="s">
+        <v>20</v>
+      </c>
+      <c r="I804" t="s">
+        <v>29</v>
+      </c>
+      <c r="K804" t="s">
+        <v>159</v>
+      </c>
+      <c r="L804" t="s">
+        <v>629</v>
+      </c>
+      <c r="M804">
+        <v>274493</v>
+      </c>
+      <c r="N804">
+        <v>225.83151147548199</v>
+      </c>
+    </row>
+    <row r="805" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A805" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D805" t="s">
+        <v>629</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F805" t="s">
+        <v>199</v>
+      </c>
+      <c r="G805" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H805" t="s">
+        <v>20</v>
+      </c>
+      <c r="I805" t="s">
+        <v>29</v>
+      </c>
+      <c r="J805" t="s">
+        <v>717</v>
+      </c>
+      <c r="K805" t="s">
+        <v>159</v>
+      </c>
+      <c r="L805" t="s">
+        <v>629</v>
+      </c>
+      <c r="M805">
+        <v>274493</v>
+      </c>
+      <c r="N805">
+        <v>224.35513760374999</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A806" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D806" t="s">
+        <v>202</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F806" t="s">
+        <v>199</v>
+      </c>
+      <c r="G806" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H806" t="s">
+        <v>20</v>
+      </c>
+      <c r="I806" t="s">
+        <v>29</v>
+      </c>
+      <c r="J806" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K806" t="s">
+        <v>159</v>
+      </c>
+      <c r="L806" t="s">
+        <v>202</v>
+      </c>
+      <c r="M806">
+        <v>5317000</v>
+      </c>
+      <c r="N806">
+        <v>3290.9099608392899</v>
+      </c>
+    </row>
+    <row r="807" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A807" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D807" t="s">
+        <v>97</v>
+      </c>
+      <c r="E807" t="s">
+        <v>17</v>
+      </c>
+      <c r="F807" t="s">
+        <v>172</v>
+      </c>
+      <c r="G807" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H807" t="s">
+        <v>20</v>
+      </c>
+      <c r="I807" t="s">
+        <v>21</v>
+      </c>
+      <c r="K807" t="s">
+        <v>2148</v>
+      </c>
+      <c r="L807" t="s">
+        <v>97</v>
+      </c>
+      <c r="M807">
+        <v>43440000</v>
+      </c>
+      <c r="N807">
+        <v>34712.682254125</v>
+      </c>
+    </row>
+    <row r="808" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A808" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C808" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D808" t="s">
+        <v>146</v>
+      </c>
+      <c r="E808" t="s">
+        <v>17</v>
+      </c>
+      <c r="F808" t="s">
+        <v>172</v>
+      </c>
+      <c r="G808" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H808" t="s">
+        <v>20</v>
+      </c>
+      <c r="I808" t="s">
+        <v>21</v>
+      </c>
+      <c r="J808" t="s">
+        <v>2152</v>
+      </c>
+      <c r="K808" t="s">
+        <v>2148</v>
+      </c>
+      <c r="L808" t="s">
+        <v>146</v>
+      </c>
+      <c r="M808">
+        <v>66307</v>
+      </c>
+      <c r="N808">
+        <v>60.5315085835974</v>
+      </c>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A809" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C809" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D809" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E809" t="s">
+        <v>17</v>
+      </c>
+      <c r="F809" t="s">
+        <v>18</v>
+      </c>
+      <c r="G809" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H809" t="s">
+        <v>20</v>
+      </c>
+      <c r="I809" t="s">
+        <v>21</v>
+      </c>
+      <c r="J809" t="s">
+        <v>791</v>
+      </c>
+      <c r="K809" t="s">
+        <v>23</v>
+      </c>
+      <c r="L809" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A810" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E810" t="s">
+        <v>17</v>
+      </c>
+      <c r="F810" t="s">
+        <v>18</v>
+      </c>
+      <c r="G810" t="s">
+        <v>19</v>
+      </c>
+      <c r="H810" t="s">
+        <v>20</v>
+      </c>
+      <c r="I810" t="s">
+        <v>21</v>
+      </c>
+      <c r="J810" t="s">
+        <v>22</v>
+      </c>
+      <c r="K810" t="s">
+        <v>23</v>
+      </c>
+      <c r="L810" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="811" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A811" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C811" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D811" t="s">
+        <v>241</v>
+      </c>
+      <c r="E811" t="s">
+        <v>27</v>
+      </c>
+      <c r="F811" t="s">
+        <v>18</v>
+      </c>
+      <c r="G811" t="s">
+        <v>19</v>
+      </c>
+      <c r="H811" t="s">
+        <v>216</v>
+      </c>
+      <c r="I811" t="s">
+        <v>56</v>
+      </c>
+      <c r="K811" t="s">
+        <v>159</v>
+      </c>
+      <c r="L811" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="812" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A812" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C812" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D812" t="s">
+        <v>214</v>
+      </c>
+      <c r="E812" t="s">
+        <v>27</v>
+      </c>
+      <c r="F812" t="s">
+        <v>18</v>
+      </c>
+      <c r="G812" t="s">
+        <v>19</v>
+      </c>
+      <c r="H812" t="s">
+        <v>216</v>
+      </c>
+      <c r="I812" t="s">
+        <v>56</v>
+      </c>
+      <c r="K812" t="s">
+        <v>154</v>
+      </c>
+      <c r="L812" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A813" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C813" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D813" t="s">
+        <v>214</v>
+      </c>
+      <c r="E813" t="s">
+        <v>132</v>
+      </c>
+      <c r="F813" t="s">
+        <v>18</v>
+      </c>
+      <c r="G813" t="s">
+        <v>19</v>
+      </c>
+      <c r="H813" t="s">
+        <v>216</v>
+      </c>
+      <c r="I813" t="s">
+        <v>21</v>
+      </c>
+      <c r="K813" t="s">
+        <v>154</v>
+      </c>
+      <c r="L813" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A814" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D814" t="s">
+        <v>214</v>
+      </c>
+      <c r="E814" t="s">
+        <v>35</v>
+      </c>
+      <c r="F814" t="s">
+        <v>18</v>
+      </c>
+      <c r="G814" t="s">
+        <v>19</v>
+      </c>
+      <c r="H814" t="s">
+        <v>216</v>
+      </c>
+      <c r="I814" t="s">
+        <v>21</v>
+      </c>
+      <c r="K814" t="s">
+        <v>159</v>
+      </c>
+      <c r="L814" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A815" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B815" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C815" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D815" t="s">
+        <v>214</v>
+      </c>
+      <c r="E815" t="s">
+        <v>132</v>
+      </c>
+      <c r="F815" t="s">
+        <v>18</v>
+      </c>
+      <c r="G815" t="s">
+        <v>19</v>
+      </c>
+      <c r="H815" t="s">
+        <v>216</v>
+      </c>
+      <c r="I815" t="s">
+        <v>29</v>
+      </c>
+      <c r="K815" t="s">
+        <v>159</v>
+      </c>
+      <c r="L815" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="816" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A816" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B816" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D816" t="s">
+        <v>233</v>
+      </c>
+      <c r="E816" t="s">
+        <v>35</v>
+      </c>
+      <c r="F816" t="s">
+        <v>18</v>
+      </c>
+      <c r="G816" t="s">
+        <v>565</v>
+      </c>
+      <c r="H816" t="s">
+        <v>216</v>
+      </c>
+      <c r="I816" t="s">
+        <v>29</v>
+      </c>
+      <c r="K816" t="s">
+        <v>23</v>
+      </c>
+      <c r="L816" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A817" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C817" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D817" t="s">
+        <v>233</v>
+      </c>
+      <c r="E817" t="s">
+        <v>132</v>
+      </c>
+      <c r="F817" t="s">
+        <v>18</v>
+      </c>
+      <c r="G817" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H817" t="s">
+        <v>216</v>
+      </c>
+      <c r="I817" t="s">
+        <v>29</v>
+      </c>
+      <c r="K817" t="s">
+        <v>159</v>
+      </c>
+      <c r="L817" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A818" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D818" t="s">
+        <v>254</v>
+      </c>
+      <c r="E818" t="s">
+        <v>132</v>
+      </c>
+      <c r="F818" t="s">
+        <v>18</v>
+      </c>
+      <c r="G818" t="s">
+        <v>19</v>
+      </c>
+      <c r="H818" t="s">
+        <v>216</v>
+      </c>
+      <c r="I818" t="s">
+        <v>56</v>
+      </c>
+      <c r="K818" t="s">
+        <v>159</v>
+      </c>
+      <c r="L818" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A819" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D819" t="s">
+        <v>254</v>
+      </c>
+      <c r="E819" t="s">
+        <v>132</v>
+      </c>
+      <c r="F819" t="s">
+        <v>18</v>
+      </c>
+      <c r="G819" t="s">
+        <v>19</v>
+      </c>
+      <c r="H819" t="s">
+        <v>216</v>
+      </c>
+      <c r="I819" t="s">
+        <v>56</v>
+      </c>
+      <c r="K819" t="s">
+        <v>159</v>
+      </c>
+      <c r="L819" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A820" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D820" t="s">
+        <v>317</v>
+      </c>
+      <c r="E820" t="s">
+        <v>27</v>
+      </c>
+      <c r="F820" t="s">
+        <v>18</v>
+      </c>
+      <c r="G820" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H820" t="s">
+        <v>216</v>
+      </c>
+      <c r="I820" t="s">
+        <v>56</v>
+      </c>
+      <c r="K820" t="s">
+        <v>159</v>
+      </c>
+      <c r="L820" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A821" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C821" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D821" t="s">
+        <v>293</v>
+      </c>
+      <c r="E821" t="s">
+        <v>132</v>
+      </c>
+      <c r="F821" t="s">
+        <v>18</v>
+      </c>
+      <c r="G821" t="s">
+        <v>19</v>
+      </c>
+      <c r="H821" t="s">
+        <v>216</v>
+      </c>
+      <c r="I821" t="s">
+        <v>56</v>
+      </c>
+      <c r="K821" t="s">
+        <v>159</v>
+      </c>
+      <c r="L821" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A822" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D822" t="s">
+        <v>293</v>
+      </c>
+      <c r="E822" t="s">
+        <v>27</v>
+      </c>
+      <c r="F822" t="s">
+        <v>18</v>
+      </c>
+      <c r="G822" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H822" t="s">
+        <v>216</v>
+      </c>
+      <c r="I822" t="s">
+        <v>56</v>
+      </c>
+      <c r="K822" t="s">
+        <v>159</v>
+      </c>
+      <c r="L822" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A823" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C823" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D823" t="s">
+        <v>293</v>
+      </c>
+      <c r="E823" t="s">
+        <v>27</v>
+      </c>
+      <c r="F823" t="s">
+        <v>18</v>
+      </c>
+      <c r="G823" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H823" t="s">
+        <v>216</v>
+      </c>
+      <c r="I823" t="s">
+        <v>56</v>
+      </c>
+      <c r="K823" t="s">
+        <v>154</v>
+      </c>
+      <c r="L823" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A824" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D824" t="s">
+        <v>233</v>
+      </c>
+      <c r="E824" t="s">
+        <v>35</v>
+      </c>
+      <c r="F824" t="s">
+        <v>364</v>
+      </c>
+      <c r="G824" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H824" t="s">
+        <v>216</v>
+      </c>
+      <c r="I824" t="s">
+        <v>21</v>
+      </c>
+      <c r="K824" t="s">
+        <v>159</v>
+      </c>
+      <c r="L824" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A825" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D825" t="s">
+        <v>210</v>
+      </c>
+      <c r="E825" t="s">
+        <v>27</v>
+      </c>
+      <c r="F825" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G825" t="s">
+        <v>19</v>
+      </c>
+      <c r="H825" t="s">
+        <v>216</v>
+      </c>
+      <c r="I825" t="s">
+        <v>56</v>
+      </c>
+      <c r="K825" t="s">
+        <v>159</v>
+      </c>
+      <c r="L825" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A826" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D826" t="s">
+        <v>219</v>
+      </c>
+      <c r="E826" t="s">
+        <v>27</v>
+      </c>
+      <c r="F826" t="s">
+        <v>172</v>
+      </c>
+      <c r="G826" t="s">
+        <v>19</v>
+      </c>
+      <c r="H826" t="s">
+        <v>216</v>
+      </c>
+      <c r="I826" t="s">
+        <v>56</v>
+      </c>
+      <c r="K826" t="s">
+        <v>154</v>
+      </c>
+      <c r="L826" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A827" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D827" t="s">
+        <v>580</v>
+      </c>
+      <c r="E827" t="s">
+        <v>27</v>
+      </c>
+      <c r="F827" t="s">
+        <v>172</v>
+      </c>
+      <c r="G827" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H827" t="s">
+        <v>216</v>
+      </c>
+      <c r="I827" t="s">
+        <v>56</v>
+      </c>
+      <c r="K827" t="s">
+        <v>154</v>
+      </c>
+      <c r="L827" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N827" xr:uid="{EEBD78E7-9E02-47A8-AC10-BAB04B9E99D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>